--- a/toots.xlsx
+++ b/toots.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,7 +440,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -455,7 +455,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Created at</t>
+          <t>Created At</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -466,7 +466,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.118076886682426e+17</v>
+        <v>1.118642213029817e+17</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -475,21 +475,21 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>cbssports</t>
+          <t>fansided</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45314.93090277778</v>
+        <v>45324.91335648148</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>&lt;p&gt;As Jim Harbaugh negotiates with Chargers, NCAA penalties became sticking point of Michigan contract talks&lt;br&gt;&lt;a href="https://www.cbssports.com/college-football/news/as-jim-harbaugh-negotiates-with-chargers-ncaa-penalties-became-sticking-point-of-michigan-contract-talks/?utm_source=flipboard&amp;amp;utm_medium=activitypub" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;cbssports.com/college-football&lt;/span&gt;&lt;span class="invisible"&gt;/news/as-jim-harbaugh-negotiates-with-chargers-ncaa-penalties-became-sticking-point-of-michigan-contract-talks/?utm_source=flipboard&amp;amp;utm_medium=activitypub &lt;/span&gt;&lt;/a&gt;&lt;/p&gt;&lt;p&gt;Posted into College Football&lt;br&gt;&lt;a href="https://flipboard.com/@cbssports/college-football-aq68f6u8z?utm_source=flipboard&amp;amp;utm_medium=activitypub" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;flipboard.com/@cbssports/colle&lt;/span&gt;&lt;span class="invisible"&gt;ge-football-aq68f6u8z?utm_source=flipboard&amp;amp;utm_medium=activitypub &lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+          <t>&lt;p&gt;5 Chiefs Kadarius Toney replacements they should already be eyeing&lt;br&gt;&lt;a href="https://fansided.com/posts/5-chiefs-kadarius-toney-replacements-they-should-already-be-eyeing-01hnnhqta7s0?utm_source=flipboard&amp;amp;utm_medium=activitypub" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;fansided.com/posts/5-chiefs-ka&lt;/span&gt;&lt;span class="invisible"&gt;darius-toney-replacements-they-should-already-be-eyeing-01hnnhqta7s0?utm_source=flipboard&amp;amp;utm_medium=activitypub &lt;/span&gt;&lt;/a&gt;&lt;/p&gt;&lt;p&gt;Posted into FanSided &lt;br&gt;&lt;a href="https://flipboard.com/@fansided/fansided-dhri9sbuz?utm_source=flipboard&amp;amp;utm_medium=activitypub" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;flipboard.com/@fansided/fansid&lt;/span&gt;&lt;span class="invisible"&gt;ed-dhri9sbuz?utm_source=flipboard&amp;amp;utm_medium=activitypub &lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.118076886346928e+17</v>
+        <v>1.118642212949127e+17</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -498,44 +498,44 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>KitMuse</t>
+          <t>fansided</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45314.94829861111</v>
+        <v>45324.86734953704</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>&lt;p&gt;So glad I've made writing my "happy place" (and I choose to write things that are nice and cozy like a purring cat and a cup of cocoa on a cold evening)...&lt;/p&gt;&lt;p&gt;After a hellish drive down our gravel road (which by the time I was on the ice, there was only going forward), trip into town, barely making it back up said gravel, plus being sick for two weeks and keeping up w/ grad school -- I'm done.&lt;/p&gt;&lt;p&gt;So off to writing it is. One magical equine academy &amp;amp; one trans masc priest of Mars coming up!&lt;/p&gt;</t>
+          <t>&lt;p&gt;NHL trade grades: Jets land Sean Monahan from Canadiens in blockbuster&lt;br&gt;&lt;a href="https://fansided.com/posts/nhl-trade-grades-jets-sean-monahan-canadiens?utm_source=flipboard&amp;amp;utm_medium=activitypub" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;fansided.com/posts/nhl-trade-g&lt;/span&gt;&lt;span class="invisible"&gt;rades-jets-sean-monahan-canadiens?utm_source=flipboard&amp;amp;utm_medium=activitypub &lt;/span&gt;&lt;/a&gt;&lt;/p&gt;&lt;p&gt;Posted into FanSided &lt;br&gt;&lt;a href="https://flipboard.com/@fansided/fansided-dhri9sbuz?utm_source=flipboard&amp;amp;utm_medium=activitypub" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;flipboard.com/@fansided/fansid&lt;/span&gt;&lt;span class="invisible"&gt;ed-dhri9sbuz?utm_source=flipboard&amp;amp;utm_medium=activitypub &lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.11807688631004e+17</v>
+        <v>1.118642212923245e+17</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>de</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>realTuckFrumper</t>
+          <t>timo</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45314.94833787037</v>
+        <v>45324.9321875</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>&lt;p&gt;“Independent” New Hampshire Voters Like Nikki Haley and Loathe Trump. There’s Just One Problem. &lt;a href="https://www.motherjones.com/politics/2024/01/independent-new-hampshire-voters-nikki-haley/?utm_source=dlvr.it&amp;amp;utm_medium=mastodon" target="_blank" rel="nofollow noopener noreferrer" translate="no"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;motherjones.com/politics/2024/&lt;/span&gt;&lt;span class="invisible"&gt;01/independent-new-hampshire-voters-nikki-haley/?utm_source=dlvr.it&amp;amp;utm_medium=mastodon&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+          <t>&lt;p&gt;Hoffentlich AppleCare geklickt. &lt;a href="https://x.com/iupdate/status/1753517090806649055?s=46" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;x.com/iupdate/status/175351709&lt;/span&gt;&lt;span class="invisible"&gt;0806649055?s=46&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.118076886307189e+17</v>
+        <v>1.118642212610109e+17</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -544,21 +544,21 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>iembot_hgx</t>
+          <t>hailey_salvian</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45314.94832175926</v>
+        <v>45324.92491898148</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>&lt;p&gt;&lt;a href="https://bots.krohsnest.com/tags/TXweather" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;TXweather&lt;/span&gt;&lt;/a&gt; &lt;a href="https://bots.krohsnest.com/tags/TXwx" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;TXwx&lt;/span&gt;&lt;/a&gt;&lt;br&gt;154 &lt;br&gt;CDUS44 KHGX 232228&lt;br&gt;CLIGLS&lt;/p&gt;&lt;p&gt;CLIMATE REPORT &lt;br&gt;NATIONAL WEATHER SERVICE HOUSTON/GALVESTON TX&lt;br&gt;428 PM CST TUE JAN 23 2024&lt;/p&gt;&lt;p&gt;...................................&lt;/p&gt;&lt;p&gt;...THE GALVESTON CLIMATE SUMMARY FOR JANUARY 23 2024...&lt;br&gt;VALID TODAY AS OF 0400 PM LOCAL TIME.&lt;/p&gt;&lt;p&gt;CLIMATE NORMAL PERIOD: 1991 TO 2020&lt;br&gt;CLIMATE RECORD PERIOD: 1874 TO 2024&lt;/p&gt;&lt;p&gt;WEATHER ITEM   OBSERVED TIME   RECORD YEAR NORMAL DEPARTURE LAST      &lt;br&gt;  &lt;a href="https://mesonet.agron.iastate.edu/p.php?pid=202401232228-KHGX-CDUS44-CLIGLS" rel="nofollow noopener noreferrer" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;mesonet.agron.iastate.edu/p.ph&lt;/span&gt;&lt;span class="invisible"&gt;p?pid=202401232228-KHGX-CDUS44-CLIGLS&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+          <t>&lt;p&gt;Sidney Crosby has made it to All-Star weekend&lt;/p&gt;</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.118076886263348e+17</v>
+        <v>1.118642212434461e+17</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -567,15 +567,4364 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>cbssports</t>
+          <t>WashSpirit</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45314.91791666667</v>
+        <v>45324.92912037037</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>&lt;p&gt;ACC football schedule 2024: Conference reveals Week 1 slate, additional weeknight games ahead of full release&lt;br&gt;&lt;a href="https://www.cbssports.com/college-football/news/acc-football-schedule-2024-conference-reveals-week-1-slate-additional-weeknight-games-ahead-of-full-release/?utm_source=flipboard&amp;amp;utm_medium=activitypub" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;cbssports.com/college-football&lt;/span&gt;&lt;span class="invisible"&gt;/news/acc-football-schedule-2024-conference-reveals-week-1-slate-additional-weeknight-games-ahead-of-full-release/?utm_source=flipboard&amp;amp;utm_medium=activitypub &lt;/span&gt;&lt;/a&gt;&lt;/p&gt;&lt;p&gt;Posted into College Football&lt;br&gt;&lt;a href="https://flipboard.com/@cbssports/college-football-aq68f6u8z?utm_source=flipboard&amp;amp;utm_medium=activitypub" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;flipboard.com/@cbssports/colle&lt;/span&gt;&lt;span class="invisible"&gt;ge-football-aq68f6u8z?utm_source=flipboard&amp;amp;utm_medium=activitypub &lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+          <t>&lt;p&gt;Our 2024 Preseason Schedule 📅&lt;/p&gt;&lt;p&gt;&lt;a href="https://washingtonspirit.com/blog/2024/02/02/washington-spirit-announces-preseason-schedule/" rel="nofollow noopener noreferrer" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class=""&gt;washingtonspirit.com/blog/2024/02/0…&lt;/span&gt;&lt;span class="invisible"&gt;&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1.118642212367677e+17</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>DetroitRedWings</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>45324.92579861111</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Celebrate &lt;a href="https://twitter.com/hashtag/BlackHistoryMonth" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;BlackHistoryMonth&lt;/span&gt;&lt;/a&gt; with us at Little Caesars Arena on February 24th!&lt;/p&gt;&lt;p&gt;🎟️ » &lt;a href="https://bit.ly/02_24_" rel="nofollow noopener noreferrer" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class=""&gt;bit.ly/02_24_&lt;/span&gt;&lt;span class="invisible"&gt;&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1.118642211944998e+17</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>es</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>PumasMX</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>45324.930625</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;"Es una oportunidad para una muestra de carácter, de personalidad y obviamente para dar un paso importante en la búsqueda del objetivo." - Lisandro Magallán. 🗞️&lt;/p&gt;&lt;p&gt;&lt;a href="https://twitter.com/hashtag/DePumasSoy" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;DePumasSoy&lt;/span&gt;&lt;/a&gt; &lt;a href="https://twitter.com/hashtag/DeCanteraSomos" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;DeCanteraSomos&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1.118642211880741e+17</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>dale</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>45324.93229166666</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;As much as I practice and improve my photography, having "the eye" is still definitely the hardest part of it that I dont do that well with.&lt;/p&gt;&lt;p&gt;Really happy that &lt;a href="https://www.instagram.com/dodafoto/" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class=""&gt;instagram.com/dodafoto/&lt;/span&gt;&lt;span class="invisible"&gt;&lt;/span&gt;&lt;/a&gt; started posting some of his process in those weird instagram forum things, he is really great at it and very useful to read about his process. &lt;/p&gt;&lt;p&gt;&lt;a href="https://toot.cafe/tags/Photography" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;Photography&lt;/span&gt;&lt;/a&gt; &lt;a href="https://toot.cafe/tags/StreetPhotography" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;StreetPhotography&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1.118642211671286e+17</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>BBCMOTD</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>45324.93231481482</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Mbappe scores and misses penalty as PSG pull clear&lt;/p&gt;&lt;p&gt;Kylian Mbappe scores and has a penalty saved as Paris St-Germain beat Strasbourg to go nine points clear in Ligue 1. &lt;a href="https://press.coop/tags/press" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;press&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;&lt;p&gt;&lt;a href="https://www.bbc.co.uk/sport/football/68189062?utm_source=press.coop" rel="nofollow noopener noreferrer" target="_blank"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;bbc.co.uk/sport/football/68189&lt;/span&gt;&lt;span class="invisible"&gt;062?utm_source=press.coop&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1.118642211451794e+17</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>hikeofthemenrys</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>45324.93231481482</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;“When entering virtual reality you should calibrate the system by looking at your own hands, then turning them over and looking at the backs of them *with a sense of wonder*.” &lt;a href="https://shakedown.social/tags/ThirdDeanmension" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;ThirdDeanmension&lt;/span&gt;&lt;/a&gt; &lt;a href="https://shakedown.social/tags/Virtugood6500" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;Virtugood6500&lt;/span&gt;&lt;/a&gt; &lt;a href="https://shakedown.social/tags/AppleVisionPro" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;AppleVisionPro&lt;/span&gt;&lt;/a&gt; &lt;a href="https://youtu.be/z4FGzE4endQ?si=Ix_pv0xTbxv2k-PZ" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;youtu.be/z4FGzE4endQ?si=Ix_pv0&lt;/span&gt;&lt;span class="invisible"&gt;xTbxv2k-PZ&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1.11864221136986e+17</v>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>independentaustralia.net</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>45324.93232638889</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Entitlement on display as Newington co-ed outrage erupts&lt;/p&gt;&lt;p&gt;&lt;a href="https://independentaustralia.net/life/life-display/entitlement-on-display-as-newington-co-ed-outrage-erupts,18294?utm_source=rss&amp;amp;utm_medium=rss&amp;amp;utm_campaign=IA_Feed" rel="nofollow noopener noreferrer" target="_blank"&gt;independentaustralia.net/life/life-display/entitlement-on-display-as-newington-co-ed-outrage-erupts,18294?utm_source=rss&amp;amp;utm_medium=rss&amp;amp;utm_campaign=IA_Feed&lt;/a&gt;&lt;/p&gt;&lt;p&gt;The furore over exclusive, private Newington College’s plans to turn fully co-educational by 2033 was reignited this week as students returned to school. read now...&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1.118642210878162e+17</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>BBCNews</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>45324.93231481482</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Jurgen Klopp: Liverpool manager alerts journalist to call from dentist&lt;/p&gt;&lt;p&gt;Liverpool boss Jurgen Klopp interrupts a reporter's question when a journalist's phone is receiving a call from their dentist during a news conference. &lt;a href="https://press.coop/tags/press" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;press&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;&lt;p&gt;&lt;a href="https://www.bbc.co.uk/sport/av/football/68182677?at_medium=RSS&amp;amp;at_campaign=KARANGA&amp;amp;utm_source=press.coop" rel="nofollow noopener noreferrer" target="_blank"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;bbc.co.uk/sport/av/football/68&lt;/span&gt;&lt;span class="invisible"&gt;182677?at_medium=RSS&amp;amp;at_campaign=KARANGA&amp;amp;utm_source=press.coop&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1.118642210512331e+17</v>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>media.ca1.uscourts.gov.opinions.opinion.php</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>45324.93231481482</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;23-1361 Public Interest Legal Foundation, Inc. v. Bellows&lt;/p&gt;&lt;p&gt;&lt;a href="http://media.ca1.uscourts.gov/pdf.opinions/23-1361P-01A.pdf" rel="nofollow noopener noreferrer" target="_blank"&gt;media.ca1.uscourts.gov/pdf.opinions/23-1361P-01A.pdf&lt;/a&gt;&lt;/p&gt;&lt;p&gt;[  Published  ]&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;
+ &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;Originating Case Number:1:20-cv-00061-GZS &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;District Court of Maine, Bangor &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;[ PDF ] [ Additional Case Information ]&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;[ Issued:02/02/2024 ]&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1.118642210353548e+17</v>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>media.ca1.uscourts.gov.opinions.opinion.php</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>45324.93231481482</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;22-1507 Lech v. Von Goeler&lt;/p&gt;&lt;p&gt;&lt;a href="http://media.ca1.uscourts.gov/pdf.opinions/22-1507P-01A.pdf" rel="nofollow noopener noreferrer" target="_blank"&gt;media.ca1.uscourts.gov/pdf.opinions/22-1507P-01A.pdf&lt;/a&gt;&lt;/p&gt;&lt;p&gt;[  Published  ]&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;
+ &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;Originating Case Number:3:17-cv-30024-KAR &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;District Court of MA, Springfield &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;[ PDF ] [ Additional Case Information ]&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;[ Issued:02/02/2024 ]&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1.118642209754118e+17</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>cbccalgary_mirror</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>45324.93228009259</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Doctors, nurses and medical groups urge province to walk back plans to limit gender-affirming care&lt;br&gt;Sweeping changes to gender-affirming care, announced by the Alberta government this week, are sparking widespread backlash from doctors, nurses and medical organizations, and calls are mounting for the province to reverse its decision.&lt;br&gt;&lt;a href="https://mastodon.hongkongers.net/tags/cbc" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;cbc&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.hongkongers.net/tags/news" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;news&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.hongkongers.net/tags/News" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;News&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.hongkongers.net/tags/Canada" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;Canada&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.hongkongers.net/tags/Calgary" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;Calgary&lt;/span&gt;&lt;/a&gt; &lt;br&gt;&lt;a href="https://www.cbc.ca/news/canada/calgary/medical-groups-alberta-government-gender-affirming-care-policies-1.7103099?cmp=rss" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;cbc.ca/news/canada/calgary/med&lt;/span&gt;&lt;span class="invisible"&gt;ical-groups-alberta-government-gender-affirming-care-policies-1.7103099?cmp=rss&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1.118642209004364e+17</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>partridge</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>45324.93229125</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Coworker said I have a hoizer fit because I was wearing earth tones</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1.118642209000287e+17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>KendrickPerkins</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>45324.93150462963</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;I’m taking Sabonis, Gobert, &amp;amp; Jokic to combine for over 39.5 rebounds for my Big Man Rebound Parlay tonight! You can ride with me on &lt;span class="h-card"&gt;&lt;a href="https://twitter.com/ESPNBet" class="u-url mention" rel="nofollow noopener noreferrer" target="_blank"&gt;@&lt;span&gt;ESPNBet@sportsbots.xyz&lt;/span&gt;&lt;/a&gt;&lt;/span&gt; 👀👀&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1.118642208473157e+17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>transfemmeboy</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>45324.93226851852</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;gonna start a turf war between straight trans women and lesbian trans women in order to summon the dark gods of fascism and usher in a new order of oppression for all minorities - but pretend like it's because I'm personally aggrieved by some anecdotal evidence that the other person is uniquely ontologically evil.&lt;/p&gt;&lt;p&gt;I am your average trans fem/trans masc on social media.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1.118642207668653e+17</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>FawnOverFun</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>45324.93226511574</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>&lt;span class="h-card"&gt;&lt;a class="u-url mention" href="https://den.raccoon.quest/@perplestuff" rel="nofollow noopener noreferrer" target="_blank"&gt;@&lt;span&gt;perplestuff&lt;/span&gt;&lt;/a&gt;&lt;/span&gt; this is the most personality i have seen conveyed with an image&lt;span class=""&gt;&lt;br&gt;&lt;br&gt;RE: &lt;a href="https://den.raccoon.quest/notes/9oyjw9ec4i" rel="nofollow noopener noreferrer" target="_blank"&gt;https://den.raccoon.quest/notes/9oyjw9ec4i&lt;/a&gt;&lt;/span&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1.118642207376767e+17</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>SleepyCatten</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>45324.9321875</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Gay night folks 🩷&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1.118642207354348e+17</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>pokatthefox</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>45324.93225694444</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;span class="h-card" translate="no"&gt;&lt;a href="https://furries.club/@pronothefurry" class="u-url mention" rel="nofollow noopener noreferrer" target="_blank"&gt;@&lt;span&gt;pronothefurry&lt;/span&gt;&lt;/a&gt;&lt;/span&gt; you're  &lt;span class="h-card" translate="no"&gt;&lt;a href="https://universeodon.com/@ss" class="u-url mention" rel="nofollow noopener noreferrer" target="_blank"&gt;@&lt;span&gt;ss&lt;/span&gt;&lt;/a&gt;&lt;/span&gt; &lt;span class="h-card" translate="no"&gt;&lt;a href="https://mas.to/@pokit" class="u-url mention" rel="nofollow noopener noreferrer" target="_blank"&gt;@&lt;span&gt;pokit&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1.11864220734794e+17</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>keefmarshall</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>45324.93224537037</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;OK I've added three more purchases to my initial morning haul but that really is it for today, I just won't have time to listen to any more!&lt;/p&gt;&lt;p&gt;&lt;a href="https://mastodon.online/tags/BandcampFriday" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;BandcampFriday&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1.118642206775766e+17</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>fansided</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>45324.85670138889</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Corbin Burnes throws water on Orioles extension rumors in first comment since trade&lt;br&gt;&lt;a href="https://fansided.com/posts/corbin-burnes-orioles-extension-rumors-first-comment-trade?utm_source=flipboard&amp;amp;utm_medium=activitypub" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;fansided.com/posts/corbin-burn&lt;/span&gt;&lt;span class="invisible"&gt;es-orioles-extension-rumors-first-comment-trade?utm_source=flipboard&amp;amp;utm_medium=activitypub &lt;/span&gt;&lt;/a&gt;&lt;/p&gt;&lt;p&gt;Posted into FanSided &lt;br&gt;&lt;a href="https://flipboard.com/@fansided/fansided-dhri9sbuz?utm_source=flipboard&amp;amp;utm_medium=activitypub" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;flipboard.com/@fansided/fansid&lt;/span&gt;&lt;span class="invisible"&gt;ed-dhri9sbuz?utm_source=flipboard&amp;amp;utm_medium=activitypub &lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1.11864220635905e+17</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>UP8</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>45324.93224986111</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;🫥 Gen Z boys and men more likely than baby boomers to believe feminism harmful, says poll&lt;/p&gt;&lt;p&gt;&lt;a href="https://www.theguardian.com/news/2024/feb/01/gen-z-boys-and-men-more-likely-than-baby-boomers-to-believe-feminism-harmful-says-poll" target="_blank" rel="nofollow noopener noreferrer" translate="no"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;theguardian.com/news/2024/feb/&lt;/span&gt;&lt;span class="invisible"&gt;01/gen-z-boys-and-men-more-likely-than-baby-boomers-to-believe-feminism-harmful-says-poll&lt;/span&gt;&lt;/a&gt; &lt;/p&gt;&lt;p&gt;&lt;a href="https://mastodon.social/tags/polls" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;polls&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/publicopinion" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;publicopinion&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/generations" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;generations&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/feminism" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;feminism&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/boys" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;boys&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/men" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;men&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1.118642205703528e+17</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>fr</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>twoulipo</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>45324.93215277778</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;a href="https://mastodon.scollectif.fr/tags/Twoulipo" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;Twoulipo&lt;/span&gt;&lt;/a&gt; Tout le monde a voté en &lt;a href="https://mastodon.scollectif.fr/tags/EQ10" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;EQ10&lt;/span&gt;&lt;/a&gt; et c'est un magnifique triplet pour &lt;span class="h-card" translate="no"&gt;&lt;a href="https://mastodon.scollectif.fr/@Ce1Ce2Monnet" class="u-url mention" rel="nofollow noopener noreferrer" target="_blank"&gt;@&lt;span&gt;Ce1Ce2Monnet&lt;/span&gt;&lt;/a&gt;&lt;/span&gt; 👏 👏 👏 &lt;br&gt;Les résultats étaient vraiment serrés !&lt;br&gt;&lt;span class="h-card" translate="no"&gt;&lt;a href="https://mastodon.scollectif.fr/@TphnLbf" class="u-url mention" rel="nofollow noopener noreferrer" target="_blank"&gt;@&lt;span&gt;TphnLbf&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;br&gt;&lt;span class="h-card" translate="no"&gt;&lt;a href="https://mastodon.scollectif.fr/@Classedece120" class="u-url mention" rel="nofollow noopener noreferrer" target="_blank"&gt;@&lt;span&gt;Classedece120&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;br&gt;&lt;span class="h-card" translate="no"&gt;&lt;a href="https://mastodon.scollectif.fr/@CECM_Arago_Chtx" class="u-url mention" rel="nofollow noopener noreferrer" target="_blank"&gt;@&lt;span&gt;CECM_Arago_Chtx&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;br&gt;&lt;span class="h-card" translate="no"&gt;&lt;a href="https://mastodon.scollectif.fr/@tonytwoulipo" class="u-url mention" rel="nofollow noopener noreferrer" target="_blank"&gt;@&lt;span&gt;tonytwoulipo&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1.118642205546543e+17</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>tay</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>45324.93219907407</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;istg if it's only 3 months into owning it and i've already broken the usb c port on my iphone im going to lose it&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1.118642205293778e+17</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>bintano</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>45324.9322303125</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Actor Don Murray, known for his Oscar-nominated role in Bus Stop alongside Marilyn Monroe, passes away at 94&lt;br /&gt;&lt;a href="https://bintano.com/actor-don-murray-known-for-his-oscar-nominated-role-in-bus-stop-alongside-marilyn-monroe-passes-away-at-94/?feed_id=44155&amp;amp;_unique_id=65bd6b20553e8" target="_blank" rel="nofollow noopener noreferrer" translate="no"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;bintano.com/actor-don-murray-k&lt;/span&gt;&lt;span class="invisible"&gt;nown-for-his-oscar-nominated-role-in-bus-stop-alongside-marilyn-monroe-passes-away-at-94/?feed_id=44155&amp;amp;_unique_id=65bd6b20553e8&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1.118642205121401e+17</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>fawfulfan</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>45324.93222728009</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Another January 6? Experts fear unrest in Texas as extremists flock to Abbott&amp;#39;s blockade &lt;a href="https://www.rawstory.com/january-6-texas-abbott/" target="_blank" rel="nofollow noopener noreferrer" translate="no"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;rawstory.com/january-6-texas-a&lt;/span&gt;&lt;span class="invisible"&gt;bbott/&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1.118642204956138e+17</v>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>stormy001</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>45324.93223077546</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Snap Insight: Former Malaysia PM Najib’s reduced jail term is a bittersweet irony for UMNO&lt;/p&gt;&lt;p&gt;&lt;a href="https://monyet.cc/post/3102517" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class=""&gt;monyet.cc/post/3102517&lt;/span&gt;&lt;span class="invisible"&gt;&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1.118642204766166e+17</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>oclsc</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>45324.93219907407</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;a href="https://mstdn.ca/tags/Chicago" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;Chicago&lt;/span&gt;&lt;/a&gt; has a &lt;a href="https://mstdn.ca/tags/RatHole" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;RatHole&lt;/span&gt;&lt;/a&gt;. Why can't we, &lt;a href="https://mstdn.ca/tags/Toronto" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;Toronto&lt;/span&gt;&lt;/a&gt;? &lt;a href="https://www.thestar.com/news/gta/a-rat-shaped-hole-in-a-sidewalk-in-chicago-has-gone-viral-does-toronto-have" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;thestar.com/news/gta/a-rat-sha&lt;/span&gt;&lt;span class="invisible"&gt;ped-hole-in-a-sidewalk-in-chicago-has-gone-viral-does-toronto-have&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1.1186422044846e+17</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>IkeRosen</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>45324.93215277778</v>
+      </c>
+      <c r="E32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1.118642204180135e+17</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>archaeoten</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>45324.93221069445</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Archaeoethnologica: Senses, Cognition &amp;amp; Ritual in Roman Religion - Book / Sentidos, Cognição e Ritual na Religião Romana - Livro&lt;/p&gt;&lt;p&gt;+INFO in: &lt;a href="https://archaeoethnologica.blogspot.com/2024/02/sentidos-cognicao-e-ritual-na-religiao.html" target="_blank" rel="nofollow noopener noreferrer" translate="no"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;archaeoethnologica.blogspot.co&lt;/span&gt;&lt;span class="invisible"&gt;m/2024/02/sentidos-cognicao-e-ritual-na-religiao.html&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;&lt;p&gt;&lt;a href="https://mastodon.social/tags/HistoryofReligions" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;HistoryofReligions&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/Cognition" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;Cognition&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/CognitiveScienceofReligions" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;CognitiveScienceofReligions&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/RomanReligion" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;RomanReligion&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/Art" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;Art&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/Senses" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;Senses&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/CognitiveArchaeology" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;CognitiveArchaeology&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1.118642203944755e+17</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>ja</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>murajin79</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>45324.93219907407</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;めちゃくちゃ小規模な YouTube 番組やりたいなー。その前に ARTFARMingTV の中の CM 作成だな。&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1.118642203663243e+17</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>drs826sub</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>45324.93217592593</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Hot tub time!&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1.118642203564249e+17</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>BardBot</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>45324.93219907407</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Referenced link: &lt;a href="https://www.bleepingcomputer.com/news/security/anydesk-says-hackers-breached-its-production-servers-resets-passwords/" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;bleepingcomputer.com/news/secu&lt;/span&gt;&lt;span class="invisible"&gt;rity/anydesk-says-hackers-breached-its-production-servers-resets-passwords/&lt;/span&gt;&lt;/a&gt;&lt;br&gt;&lt;a href="https://nitter.rawbit.ninja/BleepinComputer/status/1753542882105975008#m" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;nitter.rawbit.ninja/BleepinCom&lt;/span&gt;&lt;span class="invisible"&gt;puter/status/1753542882105975008#m&lt;/span&gt;&lt;/a&gt;&lt;br&gt;_________________________________&lt;/p&gt;&lt;p&gt;AnyDesk says hackers breached its production servers, resets passwords - @LawrenceAbrams&lt;br&gt;&lt;a href="https://www.bleepingcomputer.com/news/security/anydesk-says-hackers-breached-its-production-servers-resets-passwords/" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;bleepingcomputer.com/news/secu&lt;/span&gt;&lt;span class="invisible"&gt;rity/anydesk-says-hackers-breached-its-production-servers-resets-passwords/&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;&lt;p&gt;&lt;a href="https://www.bleepingcomputer.com/news/security/anydesk-says-hackers-breached-its-production-servers-resets-passwords/" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;bleepingcomputer.com/news/secu&lt;/span&gt;&lt;span class="invisible"&gt;rity/anydesk-says-hackers-breached-its-production-servers-resets-passwords/&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;&lt;p&gt;_________________________________&lt;br&gt; Originally posted by: BleepingComputer / @BleepinComputer&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1.118642203389018e+17</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>pt</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>joaopaulocarolino</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>45324.9321875</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;a href="https://youtu.be/aqXwgextvhM?si=ZvS3h-t_xYuEcl8n" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;youtu.be/aqXwgextvhM?si=ZvS3h-&lt;/span&gt;&lt;span class="invisible"&gt;t_xYuEcl8n&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1.118642203360341e+17</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>FurConAi</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>45324.93216435185</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Im a mask, Come check out what you are at SC2024 &lt;a href="https://furactive.us/tags/furconai" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;furconai&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1.118642203353105e+17</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>awfulannouncing</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>45324.93134259259</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;LeBron James calls out media for doubting Joel Embiid over legitimate injury &lt;a href="http://dlvr.it/T2F0Rt" rel="nofollow noopener noreferrer" target="_blank"&gt;&lt;span class="invisible"&gt;http://&lt;/span&gt;&lt;span class=""&gt;dlvr.it/T2F0Rt&lt;/span&gt;&lt;span class="invisible"&gt;&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1.118642203048997e+17</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>iembot_gid</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>45324.93217592593</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;a href="https://masto.globaleas.org/tags/GID" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;GID&lt;/span&gt;&lt;/a&gt; issues Area Forecast Discussion (AFD) at Feb 2, 4:22 PM CST &lt;a href="https://mesonet.agron.iastate.edu/p.php?pid=202402022222-KGID-FXUS63-AFDGID-CCA" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;mesonet.agron.iastate.edu/p.ph&lt;/span&gt;&lt;span class="invisible"&gt;p?pid=202402022222-KGID-FXUS63-AFDGID-CCA&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1.118642202751691e+17</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>de</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>ORF_News</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>45324.93215277778</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Der Prozess gegen den früheren US-Präsidenten Donald Trump rund um versuchten Wahlbetrug soll später starten als geplant. Das zuständige Bundesgericht in der Hauptstadt Washington teilte heute mit, der ursprünglich für den 4. März angesetzte Prozessauftakt werde verschoben. Ein neuer Termin werde zu einem späteren Zeitpunkt festgelegt. &lt;a href="https://orf.at/stories/3347571/" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class=""&gt;orf.at/stories/3347571/&lt;/span&gt;&lt;span class="invisible"&gt;&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;&lt;p&gt;&lt;a href="https://orfodon.org/tags/_Politik" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;_Politik&lt;/span&gt;&lt;/a&gt; &lt;a href="https://orfodon.org/tags/_Ausland" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;_Ausland&lt;/span&gt;&lt;/a&gt; &lt;a href="https://orfodon.org/tags/_Trump" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;_Trump&lt;/span&gt;&lt;/a&gt; &lt;a href="https://orfodon.org/tags/_US" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;_US&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1.118642267819411e+17</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>lttlbigstick</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>45324.97500127315</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;a href="https://mastodon.social/tags/nsfw" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;nsfw&lt;/span&gt;&lt;/a&gt;, &lt;a href="https://mastodon.social/tags/wife" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;wife&lt;/span&gt;&lt;/a&gt;, &lt;a href="https://mastodon.social/tags/milf" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;milf&lt;/span&gt;&lt;/a&gt;, &lt;a href="https://mastodon.social/tags/cougar" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;cougar&lt;/span&gt;&lt;/a&gt;, &lt;a href="https://mastodon.social/tags/wive" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;wive&lt;/span&gt;&lt;/a&gt;, &lt;a href="https://mastodon.social/tags/wives" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;wives&lt;/span&gt;&lt;/a&gt;, &lt;a href="https://mastodon.social/tags/mature" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;mature&lt;/span&gt;&lt;/a&gt;, &lt;a href="https://mastodon.social/tags/pussy" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;pussy&lt;/span&gt;&lt;/a&gt;, &lt;a href="https://mastodon.social/tags/porn" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;porn&lt;/span&gt;&lt;/a&gt;, &lt;a href="https://mastodon.social/tags/finger" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;finger&lt;/span&gt;&lt;/a&gt;, &lt;a href="https://mastodon.social/tags/video" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;video&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1.118642267800561e+17</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ro</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>biziday</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>45324.97498842593</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Atac de amploare al 🇺🇸&lt;a href="https://mastodon.world/tags/SUA" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;SUA&lt;/span&gt;&lt;/a&gt; în 🇮🇶&lt;a href="https://mastodon.world/tags/Irak" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;Irak&lt;/span&gt;&lt;/a&gt; și 🇸🇾&lt;a href="https://mastodon.world/tags/Siria" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;Siria&lt;/span&gt;&lt;/a&gt;, vineri noapte. Bombardierele 🇺🇸&lt;a href="https://mastodon.world/tags/America" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;America&lt;/span&gt;&lt;/a&gt;‎ne au lovit peste 85 de ținte, precum depozite de armament, centre de comandă și de antrenament, “ce aparțin milițiilor echipate și finanțate de Corpul Gardienilor Revoluției din 🇮🇷&lt;a href="https://mastodon.world/tags/Iran" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;Iran&lt;/span&gt;&lt;/a&gt;”.&lt;/p&gt;&lt;p&gt;🔗 &lt;a href="https://biziday.ro/274773-2" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class=""&gt;biziday.ro/274773-2&lt;/span&gt;&lt;span class="invisible"&gt;&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;&lt;p&gt;&lt;a href="https://mastodon.world/tags/%C8%98tiri" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;Știri&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1.118642267660162e+17</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>zh</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>tomori</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>45324.97496527778</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;疑惑于不合理的事情总是有其合理性&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1.118642267557131e+17</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>exame</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>45324.97498842593</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Apple terá IA generativa? O que Tim Cook disse sobre a estratégia para 2024&lt;/p&gt;&lt;p&gt;Confira! 👇&lt;br&gt;&lt;a href="https://exame.com/inteligencia-artificial/apple-tera-ia-generativa-o-que-tim-cook-disse-sobre-a-estrategia-para-2024/" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;exame.com/inteligencia-artific&lt;/span&gt;&lt;span class="invisible"&gt;ial/apple-tera-ia-generativa-o-que-tim-cook-disse-sobre-a-estrategia-para-2024/&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;&lt;p&gt;&lt;a href="https://mastodon.online/tags/Intelig%C3%AAnciaArtificial" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;InteligênciaArtificial&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1.11864226744068e+17</v>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>sentinian</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>45324.97498640046</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;span&gt;uhhh chat the bus driver just parked the bus and got off&lt;/span&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1.118642266989446e+17</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>uavideos</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>45324.97481481481</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Video : &lt;a href="https://videosua.osintukraine.com/media/2024-02-01/61225.mp4" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;videosua.osintukraine.com/medi&lt;/span&gt;&lt;span class="invisible"&gt;a/2024-02-01/61225.mp4&lt;/span&gt;&lt;/a&gt; &lt;br&gt;Archive : &lt;a href="https://videosua.osintukraine.com/2024-02.html#61225" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;videosua.osintukraine.com/2024&lt;/span&gt;&lt;span class="invisible"&gt;-02.html#61225&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>1.118642266479865e+17</v>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>ozumonohito</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>45324.9749697338</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;span&gt;ニコメド10選まとめ動画投稿します - 日報元年 &lt;/span&gt;&lt;a href="https://rkblog.weblog.to/archives/23774825.html" rel="nofollow noopener noreferrer" target="_blank"&gt;https://rkblog.weblog.to/archives/23774825.html&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1.118642266319466e+17</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>randomshipsbot</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>45324.97494212963</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;I could see a traffic cone and Donald Trump working out.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1.118642266098703e+17</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>fakenewsbot</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>45324.97493055555</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;this news is not real: A cat is running a mile!&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>1.118642265371701e+17</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>oration</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>45324.97495802083</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Voting has opened for which movie we&amp;#39;re watching on Tuesday, Feb 6th!&lt;/p&gt;&lt;p&gt;Submit your votes now at &lt;a href="http://cinema.tion.ca" target="_blank" rel="nofollow noopener noreferrer" translate="no"&gt;&lt;span class="invisible"&gt;http://&lt;/span&gt;&lt;span class=""&gt;cinema.tion.ca&lt;/span&gt;&lt;span class="invisible"&gt;&lt;/span&gt;&lt;/a&gt; and check back after 5pm on Tuesday to join in.&lt;/p&gt;&lt;p&gt;Pre-drinking will start before 6, and we&amp;#39;ll start the movie around 7pm Eastern.  &lt;a href="https://mastodon.social/tags/cinema_tion_ca" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;cinema_tion_ca&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>1.118642265135845e+17</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>jhaue</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="n">
+        <v>45324.97493055555</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Wedge issue: the fight against a 350ha freight hub in Melbourne’s green fringe  &lt;a href="https://www.theguardian.com/australia-news/2024/feb/02/wedge-issue-the-fight-against-a-350ha-freight-hub-in-melbournes-green-fringe" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;theguardian.com/australia-news&lt;/span&gt;&lt;span class="invisible"&gt;/2024/feb/02/wedge-issue-the-fight-against-a-350ha-freight-hub-in-melbournes-green-fringe&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>1.118642264817128e+17</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>robloxrevivals</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>45324.97494212963</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;ChipTen&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>1.118642264804652e+17</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>nor</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>45324.97494212963</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;people keep saying that a job isn't supposed to be fun.&lt;/p&gt;&lt;p&gt;stop it. stop being so fucking negative.&lt;/p&gt;&lt;p&gt;i know it is hard to find a job you like and enjoy, but stop telling people there is no chance of finding one. it is entirely possible.&lt;/p&gt;&lt;p&gt;jobs can suck because they are tied to your livelihood. not only because they are an activity you hate.&lt;/p&gt;&lt;p&gt;fuck you.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>1.118642264434799e+17</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>es</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>snafu</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="n">
+        <v>45324.97493055555</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;A veces me parece que hay más gringos norteamericanos que Ticos en Costa Rica. &lt;/p&gt;&lt;p&gt;&lt;a href="https://digitalcourage.social/tags/CostaRica" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;CostaRica&lt;/span&gt;&lt;/a&gt; &lt;a href="https://digitalcourage.social/tags/Ticos" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;Ticos&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>1.118642263928394e+17</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>de</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Over50butnotold</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="n">
+        <v>45324.97493387732</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;a href="https://mastodon.social/tags/gegenRechts" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;gegenRechts&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/ZusammenGegenRechts" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;ZusammenGegenRechts&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>1.11864226392031e+17</v>
+      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>ewan</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="n">
+        <v>45324.97492818287</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;span&gt;I added a &lt;/span&gt;&lt;a href="https://ewancroft.uk/licence/" rel="nofollow noopener noreferrer" target="_blank"&gt;&lt;span&gt;proper licencing page&lt;/span&gt;&lt;/a&gt;&lt;span&gt; to my site.&lt;br&gt;&lt;br&gt;Hopefully, it's not too full of legal jargon, I wanted to cover my arse. &lt;/span&gt;🥴&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>1.118642263732722e+17</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>cristei</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="n">
+        <v>45324.97467592593</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Sorry but Monster sucks. I hope the LGBTQ+ community can forgive me for this one&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>1.118642263617324e+17</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>continuation</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="n">
+        <v>45324.97491898148</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;In light of the anti-queer policies at the heart of US right-wing politics it's fascinating that the standard-bearer for that movement continues to paint his entire head with orange makeup. &lt;/p&gt;&lt;p&gt;It's also reflective of a core fascist ideology: those who are in the group considered human can do anything they want, those who are excluded by the fascists have no rights to do anything at all.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>1.118642263473815e+17</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Guba</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="n">
+        <v>45324.97486111111</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;My tokens for Murders at Karlov manor prerelease tonight.&lt;/p&gt;&lt;p&gt;We have some 2/2 detectives, some disguises, and some 'sus'pect tokens.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1.118642263065827e+17</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>de</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>zdfmagazin</t>
+        </is>
+      </c>
+      <c r="D61" s="2" t="n">
+        <v>45324.97481481481</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Zeig mir deine Zimmerpflanzen und ich zeig dir deren Kolonialgeschichte. &lt;a href="https://edi.social/tags/Pflanzifa" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;Pflanzifa&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;&lt;p&gt;&lt;a href="https://zdfmagaz.in/PlanetWissenPflanzen" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;zdfmagaz.in/PlanetWissenPflanz&lt;/span&gt;&lt;span class="invisible"&gt;en&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>1.118642263014596e+17</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>ua</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="n">
+        <v>45324.97481481481</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;TRANSLATION :&lt;br&gt;‼️Внаслідок a nighttime UAV attack caused damage to one of Ukrenergo's substations.   &lt;br&gt;  &lt;br&gt;Residential and industrial consumers in Kryvyi Rih are without power.   &lt;br&gt;  &lt;br&gt;&lt;a href="https://t.me/operativnoZSU" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class=""&gt;t.me/operativnoZSU&lt;/span&gt;&lt;span class="invisible"&gt;&lt;/span&gt;&lt;/a&gt;&lt;br&gt;ORIGINAL :&lt;br&gt;​​‼️Внаслідок нічної атаки БПЛА є пошкодження на одній з підстанцій НЕК «Укренерго &lt;br&gt;Media : &lt;a href="https://ukraine.osintukraine.com/media/2024-02-02/632699.jpg" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;ukraine.osintukraine.com/media&lt;/span&gt;&lt;span class="invisible"&gt;/2024-02-02/632699.jpg&lt;/span&gt;&lt;/a&gt; &lt;br&gt;Archive : &lt;a href="https://ukraine.osintukraine.com/2024-02.html#632699" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;ukraine.osintukraine.com/2024-&lt;/span&gt;&lt;span class="invisible"&gt;02.html#632699&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>1.118642262877046e+17</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>HamiltonsLive</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="n">
+        <v>45324.97482638889</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Metal Sucks 🤘 The Halo Effect Drop Video for Previously Unreleased Single “Become Surrender”: They're going on tour with Meshuggah next month.&lt;/p&gt;&lt;p&gt;The post The Halo Effect Drop Video for Previously Unreleased Single “Become Surrender” appeared first on MetalSucks. &lt;a href="http://dlvr.it/T2F0dv" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;http://&lt;/span&gt;&lt;span class=""&gt;dlvr.it/T2F0dv&lt;/span&gt;&lt;span class="invisible"&gt;&lt;/span&gt;&lt;/a&gt; LinkInBio for More 🤘 &lt;a href="https://universeodon.com/tags/MetalSucks" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;MetalSucks&lt;/span&gt;&lt;/a&gt; &lt;a href="https://universeodon.com/tags/HeavyMetal" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;HeavyMetal&lt;/span&gt;&lt;/a&gt; &lt;a href="https://universeodon.com/tags/Metal" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;Metal&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>1.118642262380847e+17</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>es</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>ballesta_juanjo</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="n">
+        <v>45324.97489583334</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;del meu amic Pepe Toni Pujol:&lt;br&gt;&lt;a href="https://sequiamarepv.blogspot.com/2024/01/viure-despres-de-linfern.html?m=1" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;sequiamarepv.blogspot.com/2024&lt;/span&gt;&lt;span class="invisible"&gt;/01/viure-despres-de-linfern.html?m=1&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>1.118642262331757e+17</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>rff</t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="n">
+        <v>45324.97486111111</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Now playing on the radiofreefedi.net comfy channel:&lt;br&gt;&lt;br&gt;Floydb by Joe Ressington &lt;a href="https://fosstodon.org/@JoeRess" rel="nofollow noopener noreferrer" target="_blank"&gt;https://fosstodon.org/@JoeRess&lt;/a&gt;&lt;br&gt;CC-BY-NC&lt;br&gt;&lt;a href="https://joeress.com/music/" rel="nofollow noopener noreferrer" target="_blank"&gt;https://joeress.com/music/&lt;/a&gt;&lt;br&gt;&lt;br&gt;Tune in now: &lt;a href="https://radiofreefedi.net" rel="nofollow noopener noreferrer" target="_blank"&gt;https://radiofreefedi.net&lt;/a&gt;&lt;br&gt;interact with &lt;span class="h-card"&gt;&lt;a href="https://musician.social/@radiofreefedi" class="u-url mention" rel="nofollow noopener noreferrer" target="_blank"&gt;@&lt;span&gt;radiofreefedi&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;br&gt;&lt;br&gt;your 24/7 community radio from the fediverse to the universe&lt;br&gt;&lt;a href="https://nowplaying.radiofreefedi.net/tags/rffplays" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;rffPlays&lt;/span&gt;&lt;/a&gt; &lt;a href="https://nowplaying.radiofreefedi.net/tags/rffcomfy" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;rffComfy&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>1.118642262219721e+17</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>BigJackBrass</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="n">
+        <v>45324.97488425926</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;a href="https://social.vivaldi.net/tags/Glorantha" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;Glorantha&lt;/span&gt;&lt;/a&gt; &lt;/p&gt;&lt;p&gt;&lt;a href="https://mastodon.social/@rubenbolling/111863812651004035" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;mastodon.social/@rubenbolling/&lt;/span&gt;&lt;span class="invisible"&gt;111863812651004035&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>1.118642262161848e+17</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Axel_Hugsky</t>
+        </is>
+      </c>
+      <c r="D67" s="2" t="n">
+        <v>45324.97486111111</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;I've been really affectionate lately &amp;gt;&amp;lt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>1.11864226214932e+17</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>de</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>vatolin</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="n">
+        <v>45324.97489583334</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Ich bin ziemlich sicher, wenn &lt;a href="https://social.tchncs.de/tags/mastodon" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;mastodon&lt;/span&gt;&lt;/a&gt; all diejenigen ausspeit, die andere blocken, dann wird &lt;a href="https://social.tchncs.de/tags/mastodon" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;mastodon&lt;/span&gt;&lt;/a&gt; zu einem wirklich lesenswerten Medium.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>1.118642261009701e+17</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>catherinemep</t>
+        </is>
+      </c>
+      <c r="D69" s="2" t="n">
+        <v>45324.97486111111</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;RT by &lt;span class="h-card"&gt;&lt;a href="https://respublicae.eu/@catherinemep" class="u-url mention" rel="nofollow noopener noreferrer" target="_blank"&gt;@&lt;span&gt;catherinemep&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;: No words needed !&lt;/p&gt;&lt;p&gt; 🐦🔗: &lt;a href="https://nitter.cz/guyverhofstadt/status/1753533227187192114#m" rel="nofollow noopener noreferrer" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;nitter.cz/guyverhofstadt/statu&lt;/span&gt;&lt;span class="invisible"&gt;s/1753533227187192114#m&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;&lt;p&gt;[2024-02-02 21:37 UTC]&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>1.118642260791384e+17</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>nuopKINK</t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="n">
+        <v>45324.97486111111</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Nu op KINK: Happy Mondays - Step On&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>1.118642260758217e+17</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>iembot_ama</t>
+        </is>
+      </c>
+      <c r="D71" s="2" t="n">
+        <v>45324.97486111111</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;a href="https://bots.krohsnest.com/tags/TXwx" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;TXwx&lt;/span&gt;&lt;/a&gt; &lt;a href="https://bots.krohsnest.com/tags/TXweather" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;TXweather&lt;/span&gt;&lt;/a&gt;&lt;br&gt;953 &lt;br&gt;WWUS84 KAMA 022222&lt;br&gt;AWWAMA&lt;/p&gt;&lt;p&gt;Airport Weather Warning&lt;br&gt;National Weather Service Amarillo TX&lt;br&gt;422 PM CST Fri Feb 2 2024&lt;/p&gt;&lt;p&gt;TXZ012-017-022330-&lt;br&gt;Potter-Randall-&lt;br&gt;422 PM CST Fri Feb 2 2024&lt;/p&gt;&lt;p&gt;...AIRPORT WEATHER WARNING...&lt;/p&gt;&lt;p&gt;The National Weather Service in Amarillo has issued an Airport &lt;br&gt;Weather Warning for Rick Husband International Airport &lt;br&gt;and Tradewind Airport for the following hazards...&lt;/p&gt;&lt;p&gt;* WHAT...Cloud  &lt;a href="https://mesonet.agron.iastate.edu/p.php?pid=202402022222-KAMA-WWUS84-AWWAMA" rel="nofollow noopener noreferrer" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;mesonet.agron.iastate.edu/p.ph&lt;/span&gt;&lt;span class="invisible"&gt;p?pid=202402022222-KAMA-WWUS84-AWWAMA&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>1.118642260639894e+17</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>sd60</t>
+        </is>
+      </c>
+      <c r="D72" s="2" t="n">
+        <v>45324.97486111111</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;a href="https://mstdn.ca/tags/SD60" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;SD60&lt;/span&gt;&lt;/a&gt; Superintendent's January 2024 Report and Updates - &lt;a href="https://www.prn.bc.ca/january-2024-superintendents-report-and-sd60-updates/" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;prn.bc.ca/january-2024-superin&lt;/span&gt;&lt;span class="invisible"&gt;tendents-report-and-sd60-updates/&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>1.118642260492515e+17</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>levelbot</t>
+        </is>
+      </c>
+      <c r="D73" s="2" t="n">
+        <v>45324.97487190972</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;we&amp;#39;ve never seen wokeness levels like this&lt;/p&gt;&lt;p&gt;(07%)  ■□□□□□□□□□&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>1.118642260134937e+17</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>spiegel</t>
+        </is>
+      </c>
+      <c r="D74" s="2" t="n">
+        <v>45324.97483796296</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Mit zusammengeknoteten Bettlaken überwand Marco Raduano die Gefängnismauern. Nach seiner Flucht von Sardinien wurde der Chef der Mafiaobande... &lt;a href="https://www.spiegel.de/panorama/justiz/mafia-boss-marco-raduano-ein-jahr-nach-seinem-ausbruch-auf-korsika-gefasst-a-0e1888cb-e6b3-4655-9012-f43b718de38e#ref=rss" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;spiegel.de/panorama/justiz/maf&lt;/span&gt;&lt;span class="invisible"&gt;ia-boss-marco-raduano-ein-jahr-nach-seinem-ausbruch-auf-korsika-gefasst-a-0e1888cb-e6b3-4655-9012-f43b718de38e#ref=rss&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>1.118642260021196e+17</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>gutslyricsbot</t>
+        </is>
+      </c>
+      <c r="D75" s="2" t="n">
+        <v>45324.97486351852</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;you gotta laugh at the stupidity&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>1.118642260004306e+17</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>de</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>christianknaut</t>
+        </is>
+      </c>
+      <c r="D76" s="2" t="n">
+        <v>45324.97484953704</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Moin moin &lt;br&gt;Heute morgen um 2 uhr gefrühstückt, da ich nicht mehr Schlafen konnte. &lt;br&gt;Um 1t uhr dann kakao mit gebäck.&lt;br&gt;Um 17uhr Abend Essen verputzt. &lt;br&gt;Nun einen Jogurt genascht. &lt;br&gt;Der tag war dennoch schön. &lt;br&gt;Genießt den tag und die nacht&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>1.118642259956895e+17</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>ja</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>www3_nhk_or_news</t>
+        </is>
+      </c>
+      <c r="D77" s="2" t="n">
+        <v>45324.97480324074</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;【速報中】米軍「イラクとシリア領内に報復攻撃」と発表&lt;br&gt;&lt;a href="http://www3.nhk.or.jp/news/html/20240203/k10014346001000.html" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;http://&lt;/span&gt;&lt;span class="ellipsis"&gt;www3.nhk.or.jp/news/html/20240&lt;/span&gt;&lt;span class="invisible"&gt;203/k10014346001000.html&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;&lt;p&gt;&lt;a href="https://rss-mstdn.studiofreesia.com/tags/www3_nhk_or_news" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;www3_nhk_or_news&lt;/span&gt;&lt;/a&gt; &lt;a href="https://rss-mstdn.studiofreesia.com/tags/%E3%82%A2%E3%83%A1%E3%83%AA%E3%82%AB" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;アメリカ&lt;/span&gt;&lt;/a&gt; &lt;a href="https://rss-mstdn.studiofreesia.com/tags/%E3%82%A4%E3%83%A9%E3%82%AF" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;イラク&lt;/span&gt;&lt;/a&gt; &lt;a href="https://rss-mstdn.studiofreesia.com/tags/%E3%82%B7%E3%83%AA%E3%82%A2" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;シリア&lt;/span&gt;&lt;/a&gt; &lt;a href="https://rss-mstdn.studiofreesia.com/tags/%E5%9B%BD%E9%9A%9B" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;国際&lt;/span&gt;&lt;/a&gt; &lt;a href="https://rss-mstdn.studiofreesia.com/tags/NHK" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;NHK&lt;/span&gt;&lt;/a&gt; &lt;a href="https://rss-mstdn.studiofreesia.com/tags/%E3%83%8B%E3%83%A5%E3%83%BC%E3%82%B9" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;ニュース&lt;/span&gt;&lt;/a&gt; &lt;a href="https://rss-mstdn.studiofreesia.com/tags/NHK_NEWS_WEB" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;NHK_NEWS_WEB&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>1.118642259514168e+17</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>mclare</t>
+        </is>
+      </c>
+      <c r="D78" s="2" t="n">
+        <v>45324.97480324074</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;As the enshittification continues, HILARIOUSLY the company that apparently runs the clinic I got my physical at (Carbon Health) is going to “virtual primary care”.&lt;/p&gt;&lt;p&gt;What the actual fuck. I don’t like having my bits prodded but you’ve got to be kidding me that this has good health outcomes.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>1.118642259250236e+17</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>BlueBlasphemy</t>
+        </is>
+      </c>
+      <c r="D79" s="2" t="n">
+        <v>45324.97481481481</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Just found out about the Video Game Club. Not sure if you need a membership, but I have Holden Sun on the Miyoo Mini, so I’m down to clown for February. &lt;/p&gt;&lt;p&gt;Tho I may not finish the game before next February…&lt;/p&gt;&lt;p&gt;&lt;a href="https://mstdn.games/tags/VideoGameClub" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;VideoGameClub&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mstdn.games/tags/VGCFeb2024" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;VGCFeb2024&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mstdn.games/tags/GoldenSun" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;GoldenSun&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mstdn.games/tags/RetroGaming" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;RetroGaming&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mstdn.games/tags/Handheld" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;Handheld&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>1.118642258497361e+17</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>vriskazone</t>
+        </is>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>45324.97478009259</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;for the past few days i've been counting down the days to pitchers and catchers with the mariners player with the highest single season WAR to wear the uniforms number corresponding to the number of days. anyway today is mark langston number of days till pitchers and catchers (5.9 WAR in 1987)&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>1.118642476729063e+17</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>ja</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>robita</t>
+        </is>
+      </c>
+      <c r="D81" s="2" t="n">
+        <v>45324.97854166666</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;おはようございます。横で丸くなって寝てて位置的に先に降りてくれないと布団から出られないので朝ごはんだよと声かけたら起きました&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>1.118642476530188e+17</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>de</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>DL4VCC</t>
+        </is>
+      </c>
+      <c r="D82" s="2" t="n">
+        <v>45324.97868055556</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Shalalalala - oh, oh, ooh!&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>1.118642476316696e+17</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>iembot_nhc</t>
+        </is>
+      </c>
+      <c r="D83" s="2" t="n">
+        <v>45324.97866898148</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;a href="https://masto.globaleas.org/tags/NHC" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;NHC&lt;/span&gt;&lt;/a&gt; issues Tropical Weather Discussion (TWD) at Feb 3, 12:05 AM UTC ...SPECIAL FEATURES... &lt;a href="https://mesonet.agron.iastate.edu/p.php?pid=202402030005-KNHC-AXNT20-TWDAT" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;mesonet.agron.iastate.edu/p.ph&lt;/span&gt;&lt;span class="invisible"&gt;p?pid=202402030005-KNHC-AXNT20-TWDAT&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>1.118642475442072e+17</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>shayz0rz</t>
+        </is>
+      </c>
+      <c r="D84" s="2" t="n">
+        <v>45324.97865740741</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;"We offered you a contract and then immediately started spamming you. Also, the 'contract' is for half of your lowest rate and requires a bunch of stuff to be uploaded to finalize it."&lt;/p&gt;&lt;p&gt;Um. Pass.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>1.118642475387132e+17</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>xerxesshouldnthavewon</t>
+        </is>
+      </c>
+      <c r="D85" s="2" t="n">
+        <v>45324.97864583333</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Found a version of Marlin firmware for my Neptune 2S 3D printer and installed it today. Everything went fine! &lt;/p&gt;&lt;p&gt;It adds various stuff, the most immediate ones for me are a much better bed levelling wizard, and the better communication with OctoPrint. Also, there is no extremely loud beep when turning on the printer, yay 😅&lt;/p&gt;&lt;p&gt;This is the repo for it: &lt;a href="https://github.com/just-trey/Marlin/tree/elegoo-neptune-2/config/Elegoo/Neptune-2" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;github.com/just-trey/Marlin/tr&lt;/span&gt;&lt;span class="invisible"&gt;ee/elegoo-neptune-2/config/Elegoo/Neptune-2&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;&lt;p&gt;&lt;a href="https://fosstodon.org/tags/3dprinting" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;3dprinting&lt;/span&gt;&lt;/a&gt; &lt;a href="https://fosstodon.org/tags/marlinFw" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;marlinFw&lt;/span&gt;&lt;/a&gt; &lt;a href="https://fosstodon.org/tags/neptune2s" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;neptune2s&lt;/span&gt;&lt;/a&gt; &lt;a href="https://fosstodon.org/tags/ELEGOONeptune2s" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;ELEGOONeptune2s&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>1.118642475319555e+17</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>iembot_tbw</t>
+        </is>
+      </c>
+      <c r="D86" s="2" t="n">
+        <v>45324.97863425926</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;SARASOTA BRADENTON Feb 2 Climate: High: 68 Low: 50 Precip: 0.0" Snow: Missing &lt;a href="https://mesonet.agron.iastate.edu/p.php?pid=202402022228-KTBW-CDUS42-CLISRQ" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;mesonet.agron.iastate.edu/p.ph&lt;/span&gt;&lt;span class="invisible"&gt;p?pid=202402022228-KTBW-CDUS42-CLISRQ&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>1.118642475243551e+17</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>bloodykneelers</t>
+        </is>
+      </c>
+      <c r="D87" s="2" t="n">
+        <v>45324.97853009259</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;I just did some "disability engineering" by taping the hair clipper to a long reach stick, so I could actually cut my hair all the way to the back without dislocating my shoulders.&lt;/p&gt;&lt;p&gt;It was a success. It cut it all off and left a goatee.&lt;/p&gt;&lt;p&gt;This heatwave was killing me. Now my head feels fresh.&lt;/p&gt;&lt;p&gt;&lt;a href="https://social.vivaldi.net/tags/Disability" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;Disability&lt;/span&gt;&lt;/a&gt; &lt;a href="https://social.vivaldi.net/tags/DisabilityEngineering" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;DisabilityEngineering&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>1.118642475211673e+17</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>rff</t>
+        </is>
+      </c>
+      <c r="D88" s="2" t="n">
+        <v>45324.97862268519</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Now playing on the radiofreefedi.net specialty channel:&lt;br&gt;&lt;br&gt;Calm Hell by Default Media Transmitter &lt;a href="https://social.bitwig.community/@defaultmediatransmitter" rel="nofollow noopener noreferrer" target="_blank"&gt;https://social.bitwig.community/@defaultmediatransmitter&lt;/a&gt;&lt;br&gt;CC-BY-NC-SA&lt;br&gt;&lt;a href="https://defaultmediatransmitter.com/" rel="nofollow noopener noreferrer" target="_blank"&gt;https://defaultmediatransmitter.com/&lt;/a&gt;&lt;br&gt;&lt;br&gt;Tune in now: &lt;a href="https://radiofreefedi.net" rel="nofollow noopener noreferrer" target="_blank"&gt;https://radiofreefedi.net&lt;/a&gt;&lt;br&gt;interact with &lt;span class="h-card"&gt;&lt;a href="https://musician.social/@radiofreefedi" class="u-url mention" rel="nofollow noopener noreferrer" target="_blank"&gt;@&lt;span&gt;radiofreefedi&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;br&gt;&lt;br&gt;your 24/7 community radio from the fediverse to the universe&lt;br&gt;&lt;a href="https://nowplaying.radiofreefedi.net/tags/rffplays" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;rffPlays&lt;/span&gt;&lt;/a&gt; &lt;a href="https://nowplaying.radiofreefedi.net/tags/rffspecialty" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;rffSpecialty&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>1.118642474745337e+17</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>christopher</t>
+        </is>
+      </c>
+      <c r="D89" s="2" t="n">
+        <v>45324.97863425926</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;When I joined Mastodon, I made a deliberate choice to do so under my real name, rather than some witty handle. The implication was that I would not do "performative" stuff here. Whatever I wrote would be a true manifestation of who I am, for better or for worse.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>1.118642473938016e+17</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>de</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>bularator</t>
+        </is>
+      </c>
+      <c r="D90" s="2" t="n">
+        <v>45324.97863425926</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Was man nicht im Nachtleben alles so lernt.&lt;br&gt;Celle ist das Mittelding zwischen Celle und Hannover.&lt;br&gt;Ja, Prost dann.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>1.118642473934677e+17</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>wrenderlust</t>
+        </is>
+      </c>
+      <c r="D91" s="2" t="n">
+        <v>45324.97863425926</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;a href="https://youtu.be/ZHPIxuofgBc?si=URnbASt5kEWdwmvx" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;youtu.be/ZHPIxuofgBc?si=URnbAS&lt;/span&gt;&lt;span class="invisible"&gt;t5kEWdwmvx&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>1.118642473884518e+17</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>fr</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>hermod</t>
+        </is>
+      </c>
+      <c r="D92" s="2" t="n">
+        <v>45324.97861111111</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Souvenir ACABlant des manifestations contre la retraite à 64 ans :&lt;br&gt;&lt;a href="https://piaille.fr/tags/acab" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;acab&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>1.118642473586238e+17</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>es</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>elmundohn</t>
+        </is>
+      </c>
+      <c r="D93" s="2" t="n">
+        <v>45324.97863534722</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Murió el actor Carl Weathers, estrella de ‘Rocky’ y ‘The Mandalorian’ &lt;a href="http://dlvr.it/T2F0wR" target="_blank" rel="nofollow noopener noreferrer" translate="no"&gt;&lt;span class="invisible"&gt;http://&lt;/span&gt;&lt;span class=""&gt;dlvr.it/T2F0wR&lt;/span&gt;&lt;span class="invisible"&gt;&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>1.118642473480986e+17</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Paradox</t>
+        </is>
+      </c>
+      <c r="D94" s="2" t="n">
+        <v>45324.97859953704</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;span class=""&gt;🌟 &amp;lt; we won þe match 😭 😭 bro 🌟&lt;/span&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>1.11864247333422e+17</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>junebug</t>
+        </is>
+      </c>
+      <c r="D95" s="2" t="n">
+        <v>45324.97859953704</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;I can never evaluate how good I am socially because I spent 18 years in the Abuse mines training my brain to be really really good socially so that I could get people to listen to me talk about Legos&lt;/p&gt;&lt;p&gt;and it fucking WORKED&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>1.118642473314005e+17</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>DavidGoldfield</t>
+        </is>
+      </c>
+      <c r="D96" s="2" t="n">
+        <v>45324.97859953704</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Miniature 3d printed buildings for blind people &lt;a href="https://evengrounds.com/miniature-3d-printed-buildings-for-blind-people/" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;evengrounds.com/miniature-3d-p&lt;/span&gt;&lt;span class="invisible"&gt;rinted-buildings-for-blind-people/&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>1.118642473298386e+17</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>pg</t>
+        </is>
+      </c>
+      <c r="D97" s="2" t="n">
+        <v>45324.97856481482</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;こちらはフォンテーヌの大魔術師、ライニーのために描いた（遅ればせながら）誕生日ファンアートイラストです🎩 &lt;a href="https://www.playing-games.com/70301/" rel="nofollow noopener noreferrer" target="_blank"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class=""&gt;playing-games.com/70301/&lt;/span&gt;&lt;span class="invisible"&gt;&lt;/span&gt;&lt;/a&gt; &lt;a href="https://jforo.com/tags/GenshinImpact" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;GenshinImpact&lt;/span&gt;&lt;/a&gt; &lt;a href="https://jforo.com/tags/%E3%81%92%E3%82%93%E3%81%97%E3%82%93" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;げんしん&lt;/span&gt;&lt;/a&gt; &lt;a href="https://jforo.com/tags/%E5%8E%9F%E7%A5%9E" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;原神&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>1.118642473168311e+17</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>iembot_bro</t>
+        </is>
+      </c>
+      <c r="D98" s="2" t="n">
+        <v>45324.97862268519</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;a href="https://bots.krohsnest.com/tags/TXwx" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;TXwx&lt;/span&gt;&lt;/a&gt; &lt;a href="https://bots.krohsnest.com/tags/TXweather" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;TXweather&lt;/span&gt;&lt;/a&gt;&lt;br&gt;723 &lt;br&gt;CDUS44 KBRO 022225&lt;br&gt;CLIHRL&lt;/p&gt;&lt;p&gt;CLIMATE REPORT &lt;br&gt;NATIONAL WEATHER SERVICE BROWNSVILLE, TX&lt;br&gt;425 PM CST FRI FEB 02 2024&lt;/p&gt;&lt;p&gt;...................................&lt;/p&gt;&lt;p&gt;...THE HARLINGEN CLIMATE SUMMARY FOR FEBRUARY 2 2024...&lt;br&gt;VALID TODAY AS OF 0400 PM LOCAL TIME.&lt;/p&gt;&lt;p&gt;CLIMATE NORMAL PERIOD 1991 TO 2020&lt;br&gt;CLIMATE RECORD PERIOD 1912 TO 2024&lt;/p&gt;&lt;p&gt;WEATHER ITEM   OBSERVED TIME   RECORD YEAR NORMAL DEPARTURE LAST      &lt;br&gt;         &lt;a href="https://mesonet.agron.iastate.edu/p.php?pid=202402022225-KBRO-CDUS44-CLIHRL" rel="nofollow noopener noreferrer" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;mesonet.agron.iastate.edu/p.ph&lt;/span&gt;&lt;span class="invisible"&gt;p?pid=202402022225-KBRO-CDUS44-CLIHRL&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>1.11864247292594e+17</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>CollectingAll</t>
+        </is>
+      </c>
+      <c r="D99" s="2" t="n">
+        <v>45324.97862359953</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;∀ Are Your Pending Panini Redemptions Going To Someone Else?: Some Panini redemptions are taking years to send collectors. Now some of them appear to be popping up to other owners.&lt;/p&gt;&lt;p&gt;The post Are Your Pending Panini Redemptions Going To Someone Else? appeared first on CardLines. &lt;a href="https://cardlines.com/panini-redemption-sales-scandal/?utm_source=dlvr.it&amp;amp;utm_medium=mastodon" target="_blank" rel="nofollow noopener noreferrer" translate="no"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;cardlines.com/panini-redemptio&lt;/span&gt;&lt;span class="invisible"&gt;n-sales-scandal/?utm_source=dlvr.it&amp;amp;utm_medium=mastodon&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/Stories" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;Stories&lt;/span&gt;&lt;/a&gt; | CollectingAll.com&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>1.118642472393781e+17</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>rff</t>
+        </is>
+      </c>
+      <c r="D100" s="2" t="n">
+        <v>45324.97857638889</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Now playing on the radiofreefedi.net comfy channel:&lt;br&gt;&lt;br&gt;We're Still Here by Unwoman &lt;a href="https://mastodon.social/@unwoman" rel="nofollow noopener noreferrer" target="_blank"&gt;https://mastodon.social/@unwoman&lt;/a&gt;&lt;br&gt;CC-BY-NC-SA&lt;br&gt;&lt;a href="https://unwoman.com/" rel="nofollow noopener noreferrer" target="_blank"&gt;https://unwoman.com/&lt;/a&gt;&lt;br&gt;&lt;br&gt;Tune in now: &lt;a href="https://radiofreefedi.net" rel="nofollow noopener noreferrer" target="_blank"&gt;https://radiofreefedi.net&lt;/a&gt;&lt;br&gt;interact with &lt;span class="h-card"&gt;&lt;a href="https://musician.social/@radiofreefedi" class="u-url mention" rel="nofollow noopener noreferrer" target="_blank"&gt;@&lt;span&gt;radiofreefedi&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;br&gt;&lt;br&gt;your 24/7 community radio from the fediverse to the universe&lt;br&gt;&lt;a href="https://nowplaying.radiofreefedi.net/tags/rffplays" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;rffPlays&lt;/span&gt;&lt;/a&gt; &lt;a href="https://nowplaying.radiofreefedi.net/tags/rffcomfy" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;rffComfy&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>1.118642472391254e+17</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>ja</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="D101" s="2" t="n">
+        <v>45324.97858796296</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;DB関連作業は完了しました。ありがとうございました🙏&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>1.11864247163079e+17</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>tr</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>tramboline</t>
+        </is>
+      </c>
+      <c r="D102" s="2" t="n">
+        <v>45324.9786006713</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Good Weekend letters to the editor: February 3&lt;/p&gt;&lt;p&gt;Want to chat? We’d love to hear from you. Send your letters to goodweekend@​goodweekend.com.au Good Weekend letters to the editor: February 3&lt;/p&gt;&lt;p&gt;&lt;a href="https://www.tramboline.com/good-weekend-letters-to-the-editor-february-3/" target="_blank" rel="nofollow noopener noreferrer" translate="no"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;tramboline.com/good-weekend-le&lt;/span&gt;&lt;span class="invisible"&gt;tters-to-the-editor-february-3/&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>1.118642471333526e+17</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>iembot_sjt</t>
+        </is>
+      </c>
+      <c r="D103" s="2" t="n">
+        <v>45324.97858796296</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;a href="https://masto.globaleas.org/tags/SJT" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;SJT&lt;/span&gt;&lt;/a&gt; issues Area Forecast Discussion (AFD) at Feb 2, 4:28 PM CST ...New MESOSCALE UPDATE... &lt;a href="https://mesonet.agron.iastate.edu/p.php?pid=202402022228-KSJT-FXUS64-AFDSJT" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;mesonet.agron.iastate.edu/p.ph&lt;/span&gt;&lt;span class="invisible"&gt;p?pid=202402022228-KSJT-FXUS64-AFDSJT&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>1.118642470749152e+17</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>the_colorado_sound_playlist</t>
+        </is>
+      </c>
+      <c r="D104" s="2" t="n">
+        <v>45324.97858510417</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;3:28p Under The Pressure by War On Drugs from Lost In The Dream&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>1.118642470621154e+17</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>ctvedmonton_mirror</t>
+        </is>
+      </c>
+      <c r="D105" s="2" t="n">
+        <v>45324.97854166666</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;19-year-old woman shot by Edmonton police had a knife: ASIRT&lt;br&gt;A 19-year-old woman who was shot by police last month had a knife, the Alberta Serious Incident Response Team (ASIRT) says.&lt;br&gt;&lt;a href="https://mastodon.hongkongers.net/tags/ctv" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;ctv&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.hongkongers.net/tags/news" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;news&lt;/span&gt;&lt;/a&gt; &lt;br&gt;&lt;a href="https://edmonton.ctvnews.ca/19-year-old-woman-shot-by-edmonton-police-had-a-knife-asirt-1.6753778" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;edmonton.ctvnews.ca/19-year-ol&lt;/span&gt;&lt;span class="invisible"&gt;d-woman-shot-by-edmonton-police-had-a-knife-asirt-1.6753778&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>1.118642470415997e+17</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>news</t>
+        </is>
+      </c>
+      <c r="D106" s="2" t="n">
+        <v>45324.9780787037</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Small 'rabbit huts' may be simple, but the history within is priceless&lt;br&gt;&lt;a href="https://www.abc.net.au/news/2024-02-03/rabbit-proof-fence-hut-piece-of-history-saved/103414876" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;abc.net.au/news/2024-02-03/rab&lt;/span&gt;&lt;span class="invisible"&gt;bit-proof-fence-hut-piece-of-history-saved/103414876&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>1.118642470366756e+17</v>
+      </c>
+      <c r="B107" t="inlineStr"/>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>n1lsqn</t>
+        </is>
+      </c>
+      <c r="D107" s="2" t="n">
+        <v>45324.97856731481</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;span&gt;熱帯魚か&lt;/span&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>1.11864247001022e+17</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>benmcramer</t>
+        </is>
+      </c>
+      <c r="D108" s="2" t="n">
+        <v>45324.97855324074</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;do I know anyone in Indy who has room in their aquarium to take in an ember tetra?&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>1.118642469396857e+17</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>europesays</t>
+        </is>
+      </c>
+      <c r="D109" s="2" t="n">
+        <v>45324.97853009259</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;a href="https://www.europesays.com/1035239/" rel="nofollow noopener noreferrer" target="_blank"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class=""&gt;europesays.com/1035239/&lt;/span&gt;&lt;span class="invisible"&gt;&lt;/span&gt;&lt;/a&gt; A kormánymédia védelmébe vette a pedofil igazgató bűnsegédjét &lt;a href="https://pubeurope.com/tags/hungary" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;hungary&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>1.118642469279714e+17</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>iembot_cae</t>
+        </is>
+      </c>
+      <c r="D110" s="2" t="n">
+        <v>45324.97855324074</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;a href="https://bots.krohsnest.com/tags/SCwx" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;SCwx&lt;/span&gt;&lt;/a&gt; &lt;a href="https://bots.krohsnest.com/tags/SCweather" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;SCweather&lt;/span&gt;&lt;/a&gt;&lt;br&gt;577 &lt;br&gt;CDUS42 KCAE 022223&lt;br&gt;CLIAGS&lt;/p&gt;&lt;p&gt;CLIMATE REPORT &lt;br&gt;NATIONAL WEATHER SERVICE COLUMBIA SC&lt;br&gt;523 PM EST FRI FEB 02 2024&lt;/p&gt;&lt;p&gt;...................................&lt;/p&gt;&lt;p&gt;...THE AUGUSTA BUSH FIELD GA CLIMATE SUMMARY FOR FEBRUARY 2 2024...&lt;br&gt;VALID TODAY AS OF 0500 PM LOCAL TIME.&lt;/p&gt;&lt;p&gt;CLIMATE NORMAL PERIOD: 1991 TO 2020&lt;br&gt;CLIMATE RECORD PERIOD: 1873 TO 2024&lt;/p&gt;&lt;p&gt;WEATHER ITEM   OBSERVED TIME   RECORD YEAR NORMAL DEPARTURE LAST      &lt;a href="https://mesonet.agron.iastate.edu/p.php?pid=202402022223-KCAE-CDUS42-CLIAGS" rel="nofollow noopener noreferrer" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;mesonet.agron.iastate.edu/p.ph&lt;/span&gt;&lt;span class="invisible"&gt;p?pid=202402022223-KCAE-CDUS42-CLIAGS&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>1.118642469261676e+17</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>pt</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>gattaraS2</t>
+        </is>
+      </c>
+      <c r="D111" s="2" t="n">
+        <v>45324.97853009259</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Musica pra vocês romantizarem a vida de vcs enquanto fazem o jantar &lt;a href="https://youtu.be/OsMKQGt4ht8?si=6eRvFXiJqek0ksap" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;youtu.be/OsMKQGt4ht8?si=6eRvFX&lt;/span&gt;&lt;span class="invisible"&gt;iJqek0ksap&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>1.11864246925537e+17</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>twostraws</t>
+        </is>
+      </c>
+      <c r="D112" s="2" t="n">
+        <v>45324.97855872685</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Packing for the flight home 😂&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>1.118642469094802e+17</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>ENTERCO</t>
+        </is>
+      </c>
+      <c r="D113" s="2" t="n">
+        <v>45324.97855684028</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;a href="https://mastodon.social/tags/PorSiTeLoPerdiste" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;PorSiTeLoPerdiste&lt;/span&gt;&lt;/a&gt; ¿Qué pasará con mi cuenta de HBO Max con la llegada de Max a Latinoamérica? &lt;a href="https://www.enter.co/cultura-digital/entretenimiento/que-pasara-con-mi-cuenta-de-hbo-max-con-la-llegada-de-max-a-latinoamerica/?utm_source=dlvr.it&amp;amp;utm_medium=mastodon" target="_blank" rel="nofollow noopener noreferrer" translate="no"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;enter.co/cultura-digital/entre&lt;/span&gt;&lt;span class="invisible"&gt;tenimiento/que-pasara-con-mi-cuenta-de-hbo-max-con-la-llegada-de-max-a-latinoamerica/?utm_source=dlvr.it&amp;amp;utm_medium=mastodon&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/Entretenimiento" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;Entretenimiento&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/Discovery" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;Discovery&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/EstrenosHBOMax" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;EstrenosHBOMax&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>1.118642468948599e+17</v>
+      </c>
+      <c r="B114" t="inlineStr"/>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>catzclips</t>
+        </is>
+      </c>
+      <c r="D114" s="2" t="n">
+        <v>45324.95958333334</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>&lt;a href="https://catzclips.loforo.com/r96kw" rel="nofollow noopener noreferrer" target="_blank"&gt;View on Loforo »&lt;/a&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>1.118642468035916e+17</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>fr</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>axoona</t>
+        </is>
+      </c>
+      <c r="D115" s="2" t="n">
+        <v>45324.97850694445</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;J’ai rassemblé/imprimé tous mes &lt;a href="https://eldritch.cafe/tags/zines" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;zines&lt;/span&gt;&lt;/a&gt; pour le festival moxie qui a lieu demain à Lannion. Si vous êtes dans le coin passez me faire coucou 💖&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>1.118642467552522e+17</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>smveerman</t>
+        </is>
+      </c>
+      <c r="D116" s="2" t="n">
+        <v>45324.97847222222</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Attention &lt;a href="https://zug.network/tags/StreckenSammler" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;StreckenSammler&lt;/span&gt;&lt;/a&gt;. In the Belgian city of La Louvière, a railway triangle can be found, with La Louvière-Centre on the north side, La Louvière-Sud on the east side and Bracquegnies on the west side. The direct route between La Louvière-Centre and Bracquegnies doesn't have normal scheduled services.&lt;/p&gt;&lt;p&gt;Because of maintenance works between Mons and Jurbise, from 5 February to 14 April, on weekdays two morning trains to Brussels and two evening trains to Quèvy/Quiévrain will be diverted via this line.&lt;/p&gt;&lt;p&gt;These trains are:&lt;br&gt;*Quiévrain (6h27) - Mons (7h08) - Schaerbeek (8h23)&lt;br&gt;* Quévy (6h33) - Mons (7h33) - Schaerbeek (8h41)&lt;br&gt;* Schaerbeek (16h56) - Mons (18h10) - Quévy (18h30)&lt;br&gt;* Schaerbeek (17h18) - Mons (18h30) - Quiévrain (19h02)&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>1.11864246742527e+17</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>mikemccaffrey</t>
+        </is>
+      </c>
+      <c r="D117" s="2" t="n">
+        <v>45324.97850694445</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;We have a client site where some crawler bot has been repeatedly coming to the &lt;a href="https://drupal.community/tags/drupal" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;drupal&lt;/span&gt;&lt;/a&gt; site for years and trying to access hundreds and hundreds of bad urls. All of the requests from one of their previous episodes caused &lt;a href="https://drupal.community/tags/pantheon" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;pantheon&lt;/span&gt;&lt;/a&gt; to bump the account up to the next tier, costing the organization hundreds of dollars more a month. Any ideas on how to keep an out of control crawler off of a pantheon site?&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>1.118642467197007e+17</v>
+      </c>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>UsAmI_99</t>
+        </is>
+      </c>
+      <c r="D118" s="2" t="n">
+        <v>45324.97851170139</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;span&gt;FFいない&lt;/span&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>1.11864246701912e+17</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>pt</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>cafenoticias</t>
+        </is>
+      </c>
+      <c r="D119" s="2" t="n">
+        <v>45324.97850694445</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;a href="https://mastodon.cloud/tags/revistaoeste" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;revistaoeste&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.cloud/tags/jornalismo" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;jornalismo&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.cloud/tags/noticias" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;noticias&lt;/span&gt;&lt;/a&gt; Acusado de integrar quadrilha internacional de golpes financeiros é preso em Brasília &lt;a href="https://revistaoeste.com/brasil/brasileiro-acusado-de-integrar-quadrilha-internacional-de-golpes-financeiros-e-preso-em-brasilia/" rel="nofollow noopener noreferrer" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;revistaoeste.com/brasil/brasil&lt;/span&gt;&lt;span class="invisible"&gt;eiro-acusado-de-integrar-quadrilha-internacional-de-golpes-financeiros-e-preso-em-brasilia/&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>1.118642466694648e+17</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>mmcgrath</t>
+        </is>
+      </c>
+      <c r="D120" s="2" t="n">
+        <v>45324.97850694445</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Today's sunset (2nd February) will be 74 seconds later than yesterday's and will occur at 5:20pm MST&lt;br&gt;&lt;a href="https://mastodon.ie/tags/FortCollins" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;FortCollins&lt;/span&gt;&lt;/a&gt;. This is a magnificent 47 minutes and 28 seconds more than the earliest sunset. Hat-tip to &lt;span class="h-card" translate="no"&gt;&lt;a href="https://mastodon.ie/@theauldsthretch" class="u-url mention" rel="nofollow noopener noreferrer" target="_blank"&gt;@&lt;span&gt;theauldsthretch&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>1.118642552133453e+17</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>iembot_lsx</t>
+        </is>
+      </c>
+      <c r="D121" s="2" t="n">
+        <v>45324.98001157407</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;a href="https://bots.krohsnest.com/tags/MOwx" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;MOwx&lt;/span&gt;&lt;/a&gt; &lt;a href="https://bots.krohsnest.com/tags/MOweather" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;MOweather&lt;/span&gt;&lt;/a&gt;&lt;br&gt;738 &lt;br&gt;CDUS43 KLSX 022227&lt;br&gt;CLICOU&lt;/p&gt;&lt;p&gt;CLIMATE REPORT &lt;br&gt;NATIONAL WEATHER SERVICE ST LOUIS MO&lt;br&gt;427 PM CST FRI FEB 02 2024&lt;/p&gt;&lt;p&gt;...................................&lt;/p&gt;&lt;p&gt;...THE COLUMBIA ASOS CLIMATE SUMMARY FOR FEBRUARY 2 2024...&lt;br&gt;VALID TODAY AS OF 0400 PM LOCAL TIME.&lt;/p&gt;&lt;p&gt;CLIMATE NORMAL PERIOD 1991 TO 2020&lt;br&gt;CLIMATE RECORD PERIOD 1890 TO 2024&lt;/p&gt;&lt;p&gt;WEATHER ITEM   OBSERVED TIME   RECORD YEAR NORMAL DEPARTURE LAST      &lt;br&gt;         &lt;a href="https://mesonet.agron.iastate.edu/p.php?pid=202402022227-KLSX-CDUS43-CLICOU" rel="nofollow noopener noreferrer" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;mesonet.agron.iastate.edu/p.ph&lt;/span&gt;&lt;span class="invisible"&gt;p?pid=202402022227-KLSX-CDUS43-CLICOU&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>1.118642552078977e+17</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>ja</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Kaya</t>
+        </is>
+      </c>
+      <c r="D122" s="2" t="n">
+        <v>45324.98</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;想做水煮了！&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>1.11864255182977e+17</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>enzoesco</t>
+        </is>
+      </c>
+      <c r="D123" s="2" t="n">
+        <v>45324.90202546296</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>The FBI spotted this state-sponsored attack that highlights how home office setups can be overlooked when it comes to employees’ cybersecurity.&lt;a href="https://poliverso.org/search?tag=botnet" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;botnet&lt;/span&gt;&lt;/a&gt; &lt;a href="https://poliverso.org/search?tag=cisco" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;cisco&lt;/span&gt;&lt;/a&gt; &lt;a href="https://poliverso.org/search?tag=cybersecurity" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;cybersecurity&lt;/span&gt;&lt;/a&gt; &lt;a href="https://poliverso.org/search?tag=ddos" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;ddos&lt;/span&gt;&lt;/a&gt; &lt;a href="https://poliverso.org/search?tag=federalbureauofinvestigation" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;federalbureauofinvestigation&lt;/span&gt;&lt;/a&gt; &lt;a href="https://poliverso.org/search?tag=homeoffice" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;homeoffice&lt;/span&gt;&lt;/a&gt; &lt;a href="https://poliverso.org/search?tag=Netgear" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;Netgear&lt;/span&gt;&lt;/a&gt; &lt;a href="https://poliverso.org/search?tag=security" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;security&lt;/span&gt;&lt;/a&gt; &lt;a href="https://poliverso.org/search?tag=usdepartmentofjustice" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;usdepartmentofjustice&lt;/span&gt;&lt;/a&gt;&lt;br&gt;&lt;a href="https://www.techrepublic.com/article/volt-typhoon-botnet-attack/" rel="nofollow noopener noreferrer" target="_blank"&gt;Botnet Attack Targeted Routers: A Wake-Up Call for Securing Remote Employees' Hardware&lt;/a&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>1.118642551062064e+17</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>de</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>reitschuster</t>
+        </is>
+      </c>
+      <c r="D124" s="2" t="n">
+        <v>45324.97619212963</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;General-Mobilisierung: von Kinderchören über Schulen bis zur CSU&lt;/p&gt;&lt;p&gt;&lt;a href="https://friendlica.de/display/0a30c6fc-e52de14b-06b2f653b99cd769" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;friendlica.de/display/0a30c6fc&lt;/span&gt;&lt;span class="invisible"&gt;-e52de14b-06b2f653b99cd769&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>1.118642550437668e+17</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>de</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Zuginfo_Koeln</t>
+        </is>
+      </c>
+      <c r="D125" s="2" t="n">
+        <v>45324.97997685185</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;- Fahrplan SEV: &lt;a href="https://www.zuginfo.nrw/download/1706901404891_Fahrplan.pdf" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;zuginfo.nrw/download/170690140&lt;/span&gt;&lt;span class="invisible"&gt;4891_Fahrplan.pdf&lt;/span&gt;&lt;/a&gt;&lt;br&gt; (3/3)&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>1.118642550130901e+17</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>de</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Zuginfo_Koeln</t>
+        </is>
+      </c>
+      <c r="D126" s="2" t="n">
+        <v>45324.97997685185</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;- Lageplan SEV Bielefeld Hbf: &lt;a href="https://www.zuginfo.nrw/download/1706895802750_Bielefeld_Hbf.pdf" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;zuginfo.nrw/download/170689580&lt;/span&gt;&lt;span class="invisible"&gt;2750_Bielefeld_Hbf.pdf&lt;/span&gt;&lt;/a&gt;&lt;br&gt;  - Lageplan SEV Gütersloh Hbf: &lt;a href="https://www.zuginfo.nrw/download/1706895802778_G_tersloh_Hbf.pdf" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;zuginfo.nrw/download/170689580&lt;/span&gt;&lt;span class="invisible"&gt;2778_G_tersloh_Hbf.pdf&lt;/span&gt;&lt;/a&gt;&lt;br&gt;  - Lageplan SEV Rheda-Wiedenbrück: &lt;a href="https://www.zuginfo.nrw/download/1706895802807_Rheda_Wiedenbr_ck.pdf" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;zuginfo.nrw/download/170689580&lt;/span&gt;&lt;span class="invisible"&gt;2807_Rheda_Wiedenbr_ck.pdf&lt;/span&gt;&lt;/a&gt;&lt;br&gt;  - Lageplan SEV Oelde: &lt;a href="https://www.zuginfo.nrw/download/1706895802836_Oelde.pdf" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;zuginfo.nrw/download/170689580&lt;/span&gt;&lt;span class="invisible"&gt;2836_Oelde.pdf&lt;/span&gt;&lt;/a&gt;&lt;br&gt;  - Lageplan SEV Beckum-Neubeckum: &lt;a href="https://www.zuginfo.nrw/download/1706895802867_Neubeckum.pdf" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;zuginfo.nrw/download/170689580&lt;/span&gt;&lt;span class="invisible"&gt;2867_Neubeckum.pdf&lt;/span&gt;&lt;/a&gt;&lt;br&gt; (2/3)&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>1.118642550030567e+17</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>de</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Zuginfo_Koeln</t>
+        </is>
+      </c>
+      <c r="D127" s="2" t="n">
+        <v>45324.97996527778</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Der Notarzteinsatz auf der Strecke in Rheda-Wiedenbrück ist beendet. Streckensperrung aufgehoben. In Kürze fahren die Züge wieder auf der geplanten Strecke mit allen geplanten Halten. In der Folge kann es noch zu teilweise hohen Verspätungen und gegebenenfalls zu Teilausfällen kommen.  Der Schienenersatzverkehr mit Bussen auf dem zuvor genannten Streckenabschnitt endet in Kürze. &lt;br&gt;Start:&lt;br&gt;02.02.2024 17:00&lt;br&gt;Ende:&lt;br&gt;03.02.2024 01:00&lt;br&gt; (1/3)&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>1.118642549937187e+17</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>julia</t>
+        </is>
+      </c>
+      <c r="D128" s="2" t="n">
+        <v>45324.97996414352</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;span&gt;it seems to be crashing while disconnecting from dbus???&lt;/span&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>1.118642549926176e+17</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>en-us</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Axios</t>
+        </is>
+      </c>
+      <c r="D129" s="2" t="n">
+        <v>45324.97244212963</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>&lt;a href="https://www.axios.com/2024/02/02/us-strikes-iran-syria-iraq-jordan-attack" rel="nofollow noopener noreferrer" target="_blank"&gt;U.S. begins retaliatory strikes against Iran-linked targets in Iraq and Syria&lt;/a&gt;&lt;p&gt;&lt;/p&gt;&lt;p&gt;The U.S. on Friday began striking Iran-linked targets in Syria and Iraq in response to last weekend's &lt;a href="https://www.axios.com/2024/01/28/3-us-soldiers-killed-jordan" rel="nofollow noopener noreferrer" target="_blank"&gt;deadly attack on U.S. forces&lt;/a&gt; in Jordan, the U.S. Central Command &lt;a href="https://twitter.com/CENTCOM/status/1753533250146824348" rel="nofollow noopener noreferrer" target="_blank"&gt;said&lt;/a&gt;. &lt;/p&gt;&lt;p&gt;&lt;strong&gt;The big picture: &lt;/strong&gt;While President Biden &lt;a href="https://www.axios.com/2024/01/29/us-troops-jordan-drone-attack-biden-iran-response" rel="nofollow noopener noreferrer" target="_blank"&gt;faced pressure&lt;/a&gt; from some lawmakers to strike inside Iran, U.S. officials have stressed the administration does not want to see a wider war in the region. &lt;/p&gt; &lt;ul&gt;&lt;li&gt;The retaliatory strikes, which were launched at Biden's direction, are expected to last several days. &lt;/li&gt;&lt;li&gt;They come nearly a week after the U.S. says an Iran-backed militia killed three American soldiers and wounded more than 40 others in a drone attack near the Jordan-Syria border.&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Details: &lt;/strong&gt;CENTCOM said the strikes hit more than 85 targets linked to Iran's Islamic Revolutionary Guards Corps (IRGC) Quds Force and affiliated militia groups in Iraq and Syria. &lt;/p&gt;&lt;ul&gt;&lt;li&gt;"The facilities that were struck included command and control operations, centers, intelligence centers, rockets, and missiles, and unmanned aired vehicle storages, and logistics and munition supply chain facilities of militia groups and their IRGC sponsors who facilitated attacks against U.S. and Coalition forces," CENTCOM said in a statement. &lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;strong&gt;What they're saying: &lt;/strong&gt;President Biden said the U.S. response to last weekend's attack "began today" and will "continue at times and places of our choosing." &lt;/p&gt;&lt;ul&gt;&lt;li&gt;"The United States does not seek conflict in the Middle East or anywhere else in the world," he added.&amp;nbsp; "But let all those who might seek to do us harm know this: If you harm an American, we will respond."&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Zoom out: &lt;/strong&gt;The Pentagon says there have been more than 160 attacks by Iranian-linked militia groups&lt;strong&gt; &lt;/strong&gt;targeting U.S. bases and forces in the Middle East since Oct. 7. &lt;/p&gt;&lt;ul&gt;&lt;li&gt;Last weekend's attack in Jordan was the first to kill American soldiers. &lt;/li&gt;&lt;li&gt;The attacks have increasingly drawn the U.S. more directly involved in the Middle East crisis, with the U.S. previously striking targets in Syria and Iran and a U.S.-led coalition striking Houthi targets in Yemen. &lt;/li&gt;&lt;li&gt;But U.S. officials are also working to contain the risk of an all-out regional war as tensions rise across the Middle East.&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;strong&gt;What to watch: &lt;/strong&gt;Secretary of State Tony Blinken will make his fifth trip to the region next week, with stops in Israel, the occupied West Bank, Qatar, Egypt and Saudi Arabia, the State Department said on Friday. &lt;/p&gt;&lt;p&gt;&lt;em&gt;Editor's note: This story has been updated with additional comments throughout&lt;/em&gt;&lt;/p&gt;&lt;p&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>1.118642549437283e+17</v>
+      </c>
+      <c r="B130" t="inlineStr"/>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>renzev</t>
+        </is>
+      </c>
+      <c r="D130" s="2" t="n">
+        <v>45324.97997277778</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Ahh fuck just two hours after posting this, I realize that “lesbian”, “abs line”, “sale bin”, and “be snail” are all perfect anagrams of  “ansible”. So many missed opportunities!!&lt;/p&gt;
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>1.118642549401987e+17</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>thewarzonewire</t>
+        </is>
+      </c>
+      <c r="D131" s="2" t="n">
+        <v>45324.97993055556</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Tesla Cybertruck’s Special Wheel Covers Are Damaging Its Special Tires&lt;/p&gt;&lt;p&gt;T Sportline via YouTubeTesla's funky, flawed design shows why wheel covers are normally round.&lt;br&gt;The post Tesla Cybertruck’s Special Wheel Covers Are Damaging Its Special Tires appeared first on The Drive.&lt;br&gt;&lt;a href="https://bots.defencegeeks.net/tags/miltodon" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;miltodon&lt;/span&gt;&lt;/a&gt; &lt;a href="https://bots.defencegeeks.net/tags/TheWarZoneWire" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;TheWarZoneWire&lt;/span&gt;&lt;/a&gt;&lt;br&gt;&lt;a href="https://www.thedrive.com/news/tesla-cybertruck-special-wheel-covers-damage-special-tires-sidewalls" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;thedrive.com/news/tesla-cybert&lt;/span&gt;&lt;span class="invisible"&gt;ruck-special-wheel-covers-damage-special-tires-sidewalls&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>1.118642549338055e+17</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>europesays</t>
+        </is>
+      </c>
+      <c r="D132" s="2" t="n">
+        <v>45324.97993055556</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;a href="https://www.europesays.com/1035243/" rel="nofollow noopener noreferrer" target="_blank"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class=""&gt;europesays.com/1035243/&lt;/span&gt;&lt;span class="invisible"&gt;&lt;/span&gt;&lt;/a&gt; Zrobiłam sobie niby-omlety, musiałam się podzielić &lt;a href="https://pubeurope.com/tags/polska" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;polska&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>1.118642549093399e+17</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>GolfDigest</t>
+        </is>
+      </c>
+      <c r="D133" s="2" t="n">
+        <v>45324.97916666666</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;The relocation of the cypress tree on 18 was no easy task. 😳&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>1.118642549083611e+17</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>ampersine</t>
+        </is>
+      </c>
+      <c r="D134" s="2" t="n">
+        <v>45324.9799537037</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Sometimes you're crazy, and you wonder why&lt;/p&gt;&lt;p&gt;I'm such a baby 'cause the edibles make me high&lt;/p&gt;&lt;p&gt;Well there’s nothin’ I can do&lt;/p&gt;&lt;p&gt;I only wanna legalize you&lt;/p&gt;&lt;p&gt;&lt;a href="https://www.nbcnews.com/pop-culture/pop-culture-news/country-star-darius-rucker-arrested-drug-charges-tennessee-rcna136923" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;nbcnews.com/pop-culture/pop-cu&lt;/span&gt;&lt;span class="invisible"&gt;lture-news/country-star-darius-rucker-arrested-drug-charges-tennessee-rcna136923&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>1.118642548899887e+17</v>
+      </c>
+      <c r="B135" t="inlineStr"/>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>FIPPlaysNow</t>
+        </is>
+      </c>
+      <c r="D135" s="2" t="n">
+        <v>45324.97993711806</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;♪ &lt;a href="https://social.nocle.fr/tags/nowplaying" rel="nofollow noopener noreferrer" target="_blank"&gt;#nowplaying&lt;/a&gt; &lt;a href="https://social.nocle.fr/tags/FIP" rel="nofollow noopener noreferrer" target="_blank"&gt;#FIP&lt;/a&gt; Louis won't break - Mock Media (Mock media II − 2023) &lt;a href="https://www.radiofrance.fr/fip/" rel="nofollow noopener noreferrer" target="_blank"&gt;https://www.radiofrance.fr/fip/&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>1.118642548761251e+17</v>
+      </c>
+      <c r="B136" t="inlineStr"/>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Kyou</t>
+        </is>
+      </c>
+      <c r="D136" s="2" t="n">
+        <v>45324.97941976852</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Sick and tired of my mom nagging me to stretch everyday</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>1.11864254869932e+17</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>de</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>ukraine_live_tagesschau</t>
+        </is>
+      </c>
+      <c r="D137" s="2" t="n">
+        <v>45324.97996196759</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Ende des Liveblogs&lt;/p&gt;&lt;p&gt;Damit schließen wir diesen Liveblog. Vielen Dank für Ihr Interesse.&lt;/p&gt;&lt;p&gt;📑 &lt;a href="https://www.tagesschau.de/newsticker/liveblog-ukraine-freitag-354.html?at_medium=mastodon&amp;amp;at_campaign=tagesschau.de#Ende-des-Liveblogs" target="_blank" rel="nofollow noopener noreferrer" translate="no"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;tagesschau.de/newsticker/liveb&lt;/span&gt;&lt;span class="invisible"&gt;log-ukraine-freitag-354.html?at_medium=mastodon&amp;amp;at_campaign=tagesschau.de#Ende-des-Liveblogs&lt;/span&gt;&lt;/a&gt;&lt;br /&gt;🕦 02.02. 23:30 CET&lt;/p&gt;&lt;p&gt;&lt;a href="https://mastodon.social/tags/Ukraine" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;Ukraine&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/tagesschau" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;tagesschau&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>1.118642548697502e+17</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>de</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Oxyuranus_microlepidotus</t>
+        </is>
+      </c>
+      <c r="D138" s="2" t="n">
+        <v>45324.9799537037</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Moin. Heute 30 km mit dem Rad mit nem heftigen Schnitt. Die letzten Tage mit ziemlich kranken Hund ohne Schlaf, weil 24h Betreuung. Dazu die ganzen letzten Tage die heftigen Blutungen. &lt;/p&gt;&lt;p&gt;Ich bin sowas von tot. Körperlich und mental. Ich kann nimmer.&lt;/p&gt;&lt;p&gt;Aber morgen geht's weiter 🤷‍♀️&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>1.118642548445292e+17</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>de</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>ukraine_live_tagesschau</t>
+        </is>
+      </c>
+      <c r="D139" s="2" t="n">
+        <v>45324.9799575</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Selenskyj begrüßt Lieferung neuer Flugabwehrsysteme&lt;/p&gt;&lt;p&gt;Der ukrainische Präsident Wolodymyr Selenskyj hat die Ankunft von zwei weiteren modernen Flugabwehrsystemen bekanntgegeben. &amp;quot;Es sind Systeme, die alles abschießen&amp;quot;, sagte Selenskyj in seiner täglichen Videobotschaft. Auf ihre Lieferung habe Kiew monatelang hingearbeitet. Den genauen Typ nannte er nicht.&lt;/p&gt;&lt;p&gt;Die Ukraine verteidigt ihren Luftraum unter anderem mit dem US-Flugabweh…&lt;/p&gt;&lt;p&gt;📑 &lt;a href="https://www.tagesschau.de/newsticker/liveblog-ukraine-freitag-354.html?at_medium=mastodon&amp;amp;at_campaign=tagesschau.de#Selenskyj-begruesst-Lieferung-neuer-Flugabwehrsysteme" target="_blank" rel="nofollow noopener noreferrer" translate="no"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;tagesschau.de/newsticker/liveb&lt;/span&gt;&lt;span class="invisible"&gt;log-ukraine-freitag-354.html?at_medium=mastodon&amp;amp;at_campaign=tagesschau.de#Selenskyj-begruesst-Lieferung-neuer-Flugabwehrsysteme&lt;/span&gt;&lt;/a&gt;&lt;br /&gt;🕥 02.02. 22:16 CET&lt;/p&gt;&lt;p&gt;&lt;a href="https://mastodon.social/tags/Ukraine" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;Ukraine&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/tagesschau" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;tagesschau&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>1.118642548080798e+17</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>memeorandum</t>
+        </is>
+      </c>
+      <c r="D140" s="2" t="n">
+        <v>45324.97993055556</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Justice Department Announces Terrorism and Sanctions-Evasion Charges and Seizures Linked to Illicit, Billion-Dollar Global Oil Trafficking Network ... (US Department of Justice)&lt;/p&gt;&lt;p&gt;&lt;a href="https://www.justice.gov/opa/pr/justice-department-announces-terrorism-and-sanctions-evasion-charges-and-seizures-linked" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;justice.gov/opa/pr/justice-dep&lt;/span&gt;&lt;span class="invisible"&gt;artment-announces-terrorism-and-sanctions-evasion-charges-and-seizures-linked&lt;/span&gt;&lt;/a&gt;&lt;br&gt;&lt;a href="http://www.memeorandum.com/240202/p69#a240202p69" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;http://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;memeorandum.com/240202/p69#a24&lt;/span&gt;&lt;span class="invisible"&gt;0202p69&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>1.118642548048441e+17</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>iembot_lch</t>
+        </is>
+      </c>
+      <c r="D141" s="2" t="n">
+        <v>45324.97993055556</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;a href="https://bots.krohsnest.com/tags/LAwx" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;LAwx&lt;/span&gt;&lt;/a&gt; &lt;a href="https://bots.krohsnest.com/tags/LAweather" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;LAweather&lt;/span&gt;&lt;/a&gt;&lt;br&gt;944 &lt;br&gt;FXUS64 KLCH 022227&lt;br&gt;AFDLCH&lt;/p&gt;&lt;p&gt;Area Forecast Discussion&lt;br&gt;National Weather Service Lake Charles LA&lt;br&gt;427 PM CST Fri Feb 2 2024&lt;/p&gt;&lt;p&gt;...New SHORT TERM, LONG TERM, AVIATION, MARINE...&lt;/p&gt;&lt;p&gt;.SHORT TERM...&lt;br&gt;(Tonight through Sunday night)&lt;br&gt;Issued at 329 PM CST Fri Feb 2 2024&lt;/p&gt;&lt;p&gt;Showers/storm probs increase through the evening for SETX, but &lt;br&gt;probs really do not increase until after midnight into Saturday. &lt;br&gt;Widespread  &lt;a href="https://mesonet.agron.iastate.edu/p.php?pid=202402022227-KLCH-FXUS64-AFDLCH" rel="nofollow noopener noreferrer" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;mesonet.agron.iastate.edu/p.ph&lt;/span&gt;&lt;span class="invisible"&gt;p?pid=202402022227-KLCH-FXUS64-AFDLCH&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>1.118642547958295e+17</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>memeorandum</t>
+        </is>
+      </c>
+      <c r="D142" s="2" t="n">
+        <v>45324.97993055556</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;US bolsters defenses around Jordan base as it readies strikes in response to drone attack (Associated Press)&lt;/p&gt;&lt;p&gt;&lt;a href="https://apnews.com/article/attack-military-iran-iraq-houthis-229a735edbb7759ba9ade543013917df" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;apnews.com/article/attack-mili&lt;/span&gt;&lt;span class="invisible"&gt;tary-iran-iraq-houthis-229a735edbb7759ba9ade543013917df&lt;/span&gt;&lt;/a&gt;&lt;br&gt;&lt;a href="http://www.memeorandum.com/240202/p70#a240202p70" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;http://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;memeorandum.com/240202/p70#a24&lt;/span&gt;&lt;span class="invisible"&gt;0202p70&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>1.118642547781727e+17</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Panthers</t>
+        </is>
+      </c>
+      <c r="D143" s="2" t="n">
+        <v>45324.97910879629</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Peyton Manning believes Bryce will benefit from his rookie season. &lt;/p&gt;&lt;p&gt;&lt;a href="https://www.panthers.com/news/peyton-manning-lived-it-bryce-young-will-benefit-from-his-rookie-season" rel="nofollow noopener noreferrer" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class=""&gt;panthers.com/news/peyton-ma…&lt;/span&gt;&lt;span class="invisible"&gt;&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>1.118642547261083e+17</v>
+      </c>
+      <c r="B144" t="inlineStr"/>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Mi</t>
+        </is>
+      </c>
+      <c r="D144" s="2" t="n">
+        <v>45324.97992065972</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;span&gt;お風呂入った&lt;/span&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>1.118642546995042e+17</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>memeorandum</t>
+        </is>
+      </c>
+      <c r="D145" s="2" t="n">
+        <v>45324.97993055556</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Supreme Court won't block West Point from considering race in admissions (The Hill)&lt;/p&gt;&lt;p&gt;&lt;a href="https://thehill.com/regulation/court-battles/4440145-supreme-court-wont-block-west-point-race-admissions/" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;thehill.com/regulation/court-b&lt;/span&gt;&lt;span class="invisible"&gt;attles/4440145-supreme-court-wont-block-west-point-race-admissions/&lt;/span&gt;&lt;/a&gt;&lt;br&gt;&lt;a href="http://www.memeorandum.com/240202/p68#a240202p68" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;http://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;memeorandum.com/240202/p68#a24&lt;/span&gt;&lt;span class="invisible"&gt;0202p68&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>1.118642546899292e+17</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>guyholmes</t>
+        </is>
+      </c>
+      <c r="D146" s="2" t="n">
+        <v>45324.97989583333</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Brexit - response to ‘You gov’ chat today -&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>1.11864254689773e+17</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>cathos</t>
+        </is>
+      </c>
+      <c r="D147" s="2" t="n">
+        <v>45324.97989583333</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Replaced a muffler today with help from an awesome friend with a shop and a lift. Very satisfying and relatively easy, even though I usually hate working on cars. Ended up having to weld it because the clamps were the wrong size, but so it goes. There were holes rusted through all sides of the old one.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>1.118642546534815e+17</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>de</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>kap</t>
+        </is>
+      </c>
+      <c r="D148" s="2" t="n">
+        <v>45324.97991898148</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;a href="https://troet.cafe/tags/ibes" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;ibes&lt;/span&gt;&lt;/a&gt; ob die beiden schonmal eine nicht elektrische Waage benutzt haben?&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>1.118642546182157e+17</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>TBLightning</t>
+        </is>
+      </c>
+      <c r="D149" s="2" t="n">
+        <v>45324.97916666666</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Let’s hand out some hardware. 🏆&lt;/p&gt;&lt;p&gt;&lt;a href="http://tbl.co/midseason-awards" rel="nofollow noopener noreferrer" target="_blank"&gt;&lt;span class="invisible"&gt;http://&lt;/span&gt;&lt;span class=""&gt;tbl.co/midseason-awar…&lt;/span&gt;&lt;span class="invisible"&gt;&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>1.11864254586708e+17</v>
+      </c>
+      <c r="B150" t="inlineStr"/>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>gamerant.com</t>
+        </is>
+      </c>
+      <c r="D150" s="2" t="n">
+        <v>45324.97989583333</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;X-Men 97 Promo Art Reveals New 16-Bit Episode Character Designs&lt;/p&gt;&lt;p&gt;&lt;a href="https://gamerant.com/x-men-97-episodes-16bit-characters-designs-promo-art/" rel="nofollow noopener noreferrer" target="_blank"&gt;gamerant.com/x-men-97-episodes-16bit-characters-designs-promo-art&lt;/a&gt;&lt;/p&gt;&lt;p&gt;X-Men '97 revealed visuals from one episode that showcase a unique look and plot, giving fans of its '90s origins another reason to be excited.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>1.118642545856794e+17</v>
+      </c>
+      <c r="B151" t="inlineStr"/>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>gamerant.com</t>
+        </is>
+      </c>
+      <c r="D151" s="2" t="n">
+        <v>45324.97989583333</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;This Wireless 65% Gaming Keyboard Is Back at the Cheapest Price in a Year&lt;/p&gt;&lt;p&gt;&lt;a href="https://gamerant.com/this-wireless-65-gaming-keyboard-is-back-at-the-cheapest-price-in-a-year/" rel="nofollow noopener noreferrer" target="_blank"&gt;gamerant.com/this-wireless-65-gaming-keyboard-is-back-at-the-cheapest-price-in-a-year&lt;/a&gt;&lt;/p&gt;&lt;p&gt;For those seeking a compact and wireless gaming keyboard, the Asus ROG Falchion NX might be the best deal available currently at $99.99.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>1.118642545821295e+17</v>
+      </c>
+      <c r="B152" t="inlineStr"/>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>gamerant.com</t>
+        </is>
+      </c>
+      <c r="D152" s="2" t="n">
+        <v>45324.97989583333</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Best Poundmates In Like A Dragon: Infinite Wealth&lt;/p&gt;&lt;p&gt;&lt;a href="https://gamerant.com/yakuza-like-dragon-infinite-wealth-best-pumdmates/" rel="nofollow noopener noreferrer" target="_blank"&gt;gamerant.com/yakuza-like-dragon-infinite-wealth-best-pumdmates&lt;/a&gt;&lt;/p&gt;&lt;p&gt;When it comes to the Poundmates that can be summoned in Like a Dragon: Infinite Wealth, no one is more useful than these individuals.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>1.118642545726715e+17</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Tinnitist</t>
+        </is>
+      </c>
+      <c r="D153" s="2" t="n">
+        <v>45324.97990928241</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Albums Of The Week: Kirin J Callinan | If I Could Sing &lt;a href="http://youtube.com/playlist?list=OLAK5uy_l8-4DigPNpGhTl1gb8XM-fqg_bjuwIc6I&amp;amp;feature=shared" target="_blank" rel="nofollow noopener noreferrer" translate="no"&gt;&lt;span class="invisible"&gt;http://&lt;/span&gt;&lt;span class="ellipsis"&gt;youtube.com/playlist?list=OLAK&lt;/span&gt;&lt;span class="invisible"&gt;5uy_l8-4DigPNpGhTl1gb8XM-fqg_bjuwIc6I&amp;amp;feature=shared&lt;/span&gt;&lt;/a&gt; &lt;a href="https://tinnitist.com/2024/02/02/albums-of-the-week-kirin-j-callinan-if-i-could-sing/" target="_blank" rel="nofollow noopener noreferrer" translate="no"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;tinnitist.com/2024/02/02/album&lt;/span&gt;&lt;span class="invisible"&gt;s-of-the-week-kirin-j-callinan-if-i-could-sing/&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>1.118642545710267e+17</v>
+      </c>
+      <c r="B154" t="inlineStr"/>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>gamerant.com</t>
+        </is>
+      </c>
+      <c r="D154" s="2" t="n">
+        <v>45324.97989583333</v>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Thieves Caught on Camera Stealing Thousands of Pokemon Cards from Store&lt;/p&gt;&lt;p&gt;&lt;a href="https://gamerant.com/thieves-steal-35000-pokemon-cards-caught-on-camera/" rel="nofollow noopener noreferrer" target="_blank"&gt;gamerant.com/thieves-steal-35000-pokemon-cards-caught-on-camera&lt;/a&gt;&lt;/p&gt;&lt;p&gt;A trading card store becomes the latest victim of an attack by a group of thieves looking to make money off stolen Pokemon cards.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>1.118642545706264e+17</v>
+      </c>
+      <c r="B155" t="inlineStr"/>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>gamerant.com</t>
+        </is>
+      </c>
+      <c r="D155" s="2" t="n">
+        <v>45324.97989583333</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Jujutsu Kaisen: Yuta's Domain Expansion, Explained&lt;/p&gt;&lt;p&gt;&lt;a href="https://gamerant.com/jujutsu-kaisen-jjk-yuta-domain-expansion-explained/" rel="nofollow noopener noreferrer" target="_blank"&gt;gamerant.com/jujutsu-kaisen-jjk-yuta-domain-expansion-explained&lt;/a&gt;&lt;/p&gt;&lt;p&gt;Yuta's domain expansion could cause Sukuna some trouble in JJK.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>1.1186425456652e+17</v>
+      </c>
+      <c r="B156" t="inlineStr"/>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>gamerant.com</t>
+        </is>
+      </c>
+      <c r="D156" s="2" t="n">
+        <v>45324.97989583333</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Elden Ring: The Best Weapons For A Level 1 Run&lt;/p&gt;&lt;p&gt;&lt;a href="https://gamerant.com/elden-ring-best-weapons-level-1-run/" rel="nofollow noopener noreferrer" target="_blank"&gt;gamerant.com/elden-ring-best-weapons-level-1-run&lt;/a&gt;&lt;/p&gt;&lt;p&gt;Players willing to embark on a "Level 1 Run" will have their work cut out for them. To make matters easier, fans should prioritize these weapons.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>1.118642545637561e+17</v>
+      </c>
+      <c r="B157" t="inlineStr"/>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>gamerant.com</t>
+        </is>
+      </c>
+      <c r="D157" s="2" t="n">
+        <v>45324.97989583333</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;The Last of Us Part 2 Remastered Gets New Update&lt;/p&gt;&lt;p&gt;&lt;a href="https://gamerant.com/the-last-of-us-part-2-remastered-update-1-1-patch-notes/" rel="nofollow noopener noreferrer" target="_blank"&gt;gamerant.com/the-last-of-us-part-2-remastered-update-1-1-patch-notes&lt;/a&gt;&lt;/p&gt;&lt;p&gt;Naughty Dog launches update 1.1.0 for The Last of Us Part 2 Remastered which adds new content, improvements, and more.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>1.118642545633506e+17</v>
+      </c>
+      <c r="B158" t="inlineStr"/>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>gamerant.com</t>
+        </is>
+      </c>
+      <c r="D158" s="2" t="n">
+        <v>45324.97989583333</v>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;RPGs With Best Archer Classes&lt;/p&gt;&lt;p&gt;&lt;a href="https://gamerant.com/rpgs-with-best-archer-classes/" rel="nofollow noopener noreferrer" target="_blank"&gt;gamerant.com/rpgs-with-best-archer-classes&lt;/a&gt;&lt;/p&gt;&lt;p&gt;The hawk-eyed archer is a power fantasy many gamers share, and these games realize it the best with their well-fleshed-out archer classes.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>1.118642545621858e+17</v>
+      </c>
+      <c r="B159" t="inlineStr"/>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>gamerant.com</t>
+        </is>
+      </c>
+      <c r="D159" s="2" t="n">
+        <v>45324.97989583333</v>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Persona 3 Reload: How to Get and Use Twilight Fragments&lt;/p&gt;&lt;p&gt;&lt;a href="https://gamerant.com/persona-3-reload-p3r-how-get-use-twilight-fragments/" rel="nofollow noopener noreferrer" target="_blank"&gt;gamerant.com/persona-3-reload-p3r-how-get-use-twilight-fragments&lt;/a&gt;&lt;/p&gt;&lt;p&gt;Early on into Persona 3 Reload you will find a mysterious new consumable item known as a Twilight Fragment.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>1.118642545617816e+17</v>
+      </c>
+      <c r="B160" t="inlineStr"/>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>gamerant.com</t>
+        </is>
+      </c>
+      <c r="D160" s="2" t="n">
+        <v>45324.97989583333</v>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Naughty Dog Teases Exciting Update for The Last of Us 3&lt;/p&gt;&lt;p&gt;&lt;a href="https://gamerant.com/naughty-dog-last-of-us-3-update-neil-druckmann/" rel="nofollow noopener noreferrer" target="_blank"&gt;gamerant.com/naughty-dog-last-of-us-3-update-neil-druckmann&lt;/a&gt;&lt;/p&gt;&lt;p&gt;The Last of Us' creator Neil Druckmann shares new details on his progress in creating a worthy story for The Last of Us Part 3.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>1.118642571641173e+17</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>hewer_of_code</t>
+        </is>
+      </c>
+      <c r="D161" s="2" t="n">
+        <v>45324.98034722222</v>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Sadly no, not really.&lt;/p&gt;&lt;p&gt;Canada Soccer Business didn't have the rights to U17, so it wasn't pulled.&lt;/p&gt;&lt;p&gt;It's just a rebroadcast of another stream, not a OneSoccer production.&lt;/p&gt;&lt;p&gt;It's showing CPL Soccer in the Fubo listing, so they might not even have updated their schedule.&lt;/p&gt;&lt;p&gt;&lt;a href="https://mstdn.ca/tags/CanW17" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;CanW17&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mstdn.ca/tags/MastodonFC" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;MastodonFC&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>1.118642571353427e+17</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>GabrielMariya</t>
+        </is>
+      </c>
+      <c r="D162" s="2" t="n">
+        <v>45324.98032407407</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;At&lt;br&gt;&lt;a href="https://nitter.cz/ASEAN" rel="nofollow noopener noreferrer" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class=""&gt;nitter.cz/ASEAN&lt;/span&gt;&lt;span class="invisible"&gt;&lt;/span&gt;&lt;/a&gt;&lt;br&gt;-EU Ministerial meeting I highlighted the need to&lt;br&gt;➡️develop regular dialogue to address 🗝challenges&lt;br&gt;➡️nurture connectivity &amp;amp;amp;strategic partnerships&lt;br&gt;➡️enhance coop' in deep tech&lt;br&gt;🇧🇬continues to support ASEAN-EU dialogue w/Global Gateway initiative&lt;br&gt;Thank you for discussion&lt;/p&gt;&lt;p&gt; 🐦🔗: &lt;a href="https://nitter.cz/GabrielMariya/status/1753494948517691872#m" rel="nofollow noopener noreferrer" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;nitter.cz/GabrielMariya/status&lt;/span&gt;&lt;span class="invisible"&gt;/1753494948517691872#m&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;&lt;p&gt;[2024-02-02 19:05 UTC]&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>1.118642571167673e+17</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>eu</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>bersiker</t>
+        </is>
+      </c>
+      <c r="D163" s="2" t="n">
+        <v>45324.98033564815</v>
+      </c>
+      <c r="E163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>1.118642570996935e+17</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>roannaflowers</t>
+        </is>
+      </c>
+      <c r="D164" s="2" t="n">
+        <v>45324.98032407407</v>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;I’m bringing Fernando Cat back, y’all. Mood board 2024. Legend. Icon.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>1.118642570965288e+17</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>iembot_tsa</t>
+        </is>
+      </c>
+      <c r="D165" s="2" t="n">
+        <v>45324.98032407407</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;TULSA OKLAHOMA Feb 2 Climate: High: 68 Low: 53 Precip: 0.0" Snow: 0.0" &lt;a href="https://mesonet.agron.iastate.edu/p.php?pid=202402022231-KTSA-CDUS44-CLITUL" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;mesonet.agron.iastate.edu/p.ph&lt;/span&gt;&lt;span class="invisible"&gt;p?pid=202402022231-KTSA-CDUS44-CLITUL&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>1.118642570216597e+17</v>
+      </c>
+      <c r="B166" t="inlineStr"/>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Rialobran</t>
+        </is>
+      </c>
+      <c r="D166" s="2" t="n">
+        <v>45324.98027777778</v>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>&lt;a href="https://pixelfed.social/discover/tags/boobs?src=hash" class="u-url hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#boobs&lt;/a&gt; &lt;a href="https://pixelfed.social/discover/tags/tits?src=hash" class="u-url hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#tits&lt;/a&gt; &lt;a href="https://pixelfed.social/discover/tags/beestings?src=hash" class="u-url hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#beestings&lt;/a&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>1.118642570164672e+17</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>ja</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>bagapo</t>
+        </is>
+      </c>
+      <c r="D167" s="2" t="n">
+        <v>45324.98028935185</v>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;現場着地 ((( ･ω･ )))ﾌﾟﾙﾙｰﾝ&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>1.118642569621916e+17</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>iembot_mhx</t>
+        </is>
+      </c>
+      <c r="D168" s="2" t="n">
+        <v>45324.98032407407</v>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;a href="https://bots.krohsnest.com/tags/NCwx" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;NCwx&lt;/span&gt;&lt;/a&gt; &lt;a href="https://bots.krohsnest.com/tags/NCweather" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;NCweather&lt;/span&gt;&lt;/a&gt;&lt;br&gt;771 &lt;br&gt;CDUS42 KMHX 022227&lt;br&gt;CLIEWN&lt;/p&gt;&lt;p&gt;CLIMATE REPORT &lt;br&gt;NATIONAL WEATHER SERVICE NEWPORT/MOREHEAD CITY&lt;br&gt;527 PM EST FRI FEB 02 2024&lt;/p&gt;&lt;p&gt;...................................&lt;/p&gt;&lt;p&gt;...THE NEW BERN NC CLIMATE SUMMARY FOR FEBRUARY 2 2024...&lt;br&gt;VALID TODAY AS OF 0500 PM LOCAL TIME.&lt;/p&gt;&lt;p&gt;CLIMATE NORMAL PERIOD 1991 TO 2020&lt;br&gt;CLIMATE RECORD PERIOD 1948 TO 2024&lt;/p&gt;&lt;p&gt;WEATHER ITEM   OBSERVED TIME   RECORD YEAR NORMAL DEPARTURE LAST      &lt;br&gt; &lt;a href="https://mesonet.agron.iastate.edu/p.php?pid=202402022227-KMHX-CDUS42-CLIEWN" rel="nofollow noopener noreferrer" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;mesonet.agron.iastate.edu/p.ph&lt;/span&gt;&lt;span class="invisible"&gt;p?pid=202402022227-KMHX-CDUS42-CLIEWN&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>1.118642569436554e+17</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>mercnews</t>
+        </is>
+      </c>
+      <c r="D169" s="2" t="n">
+        <v>45324.98030092593</v>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;The 10 most expensive homes reported sold in Oakland in the week of Jan. 22&lt;/p&gt;&lt;p&gt;A house that sold for $1.9 million tops the list of the most expensive residential real estate sales in Oakland in the past week. &lt;a href="https://press.coop/tags/press" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;press&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;&lt;p&gt;&lt;a href="https://www.mercurynews.com/2024/02/02/the-10-most-expensive-homes-reported-sold-in-oakland-in-the-week-of-jan-22/?utm_source=press.coop" rel="nofollow noopener noreferrer" target="_blank"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;mercurynews.com/2024/02/02/the&lt;/span&gt;&lt;span class="invisible"&gt;-10-most-expensive-homes-reported-sold-in-oakland-in-the-week-of-jan-22/?utm_source=press.coop&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>1.118642568753955e+17</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>ja</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>ubatama</t>
+        </is>
+      </c>
+      <c r="D170" s="2" t="n">
+        <v>45324.98027777778</v>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;朝採れスイカ☆&lt;br&gt;食らえ柿アームストロング砲！&lt;br&gt;&lt;a href="https://mstdn.jp/tags/%E3%81%8A%E3%81%84%E3%81%A7%E3%82%88%E3%82%B9%E3%82%A4%E3%82%AB%E3%81%AE%E6%A3%AE" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;おいでよスイカの森&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mstdn.jp/tags/%E3%82%B9%E3%82%A4%E3%82%AB%E3%82%B2%E3%83%BC%E3%83%A0" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;スイカゲーム&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mstdn.jp/tags/NintendoSwitch" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;NintendoSwitch&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>1.118642568677819e+17</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>wrenderlust</t>
+        </is>
+      </c>
+      <c r="D171" s="2" t="n">
+        <v>45324.98030092593</v>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;a href="https://youtu.be/usvBTXjqXnU?si=gw4WepR1Y9C3Pk6G" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;youtu.be/usvBTXjqXnU?si=gw4Wep&lt;/span&gt;&lt;span class="invisible"&gt;R1Y9C3Pk6G&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>1.118642568241901e+17</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>osy86</t>
+        </is>
+      </c>
+      <c r="D172" s="2" t="n">
+        <v>45324.980306875</v>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;guys I just spent the last hour lying down on the moon watching YouTube floating in the sky&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>1.118642567253582e+17</v>
+      </c>
+      <c r="B173" t="inlineStr"/>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>kaise</t>
+        </is>
+      </c>
+      <c r="D173" s="2" t="n">
+        <v>45324.98028296296</v>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;span&gt;うるさかったらブーストミュートしてね&lt;/span&gt;​:meow_aww:​&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>1.118642566870296e+17</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>es</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Maiko</t>
+        </is>
+      </c>
+      <c r="D174" s="2" t="n">
+        <v>45324.98025462963</v>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Cómo voy a llevar media tarde curioseando hosting para webs estáticas. Qué cosas inventas.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>1.118642566568419e+17</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="D175" s="2" t="n">
+        <v>45324.98025462963</v>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;span class="h-card" translate="no"&gt;&lt;a href="https://mastodon.social/@mastohost" class="u-url mention" rel="nofollow noopener noreferrer" target="_blank"&gt;@&lt;span&gt;mastohost&lt;/span&gt;&lt;/a&gt;&lt;/span&gt; I'm wondering, do you offer any other type of Fediverse hosting under this or a different brand? I've been thinking of switching to &lt;a href="https://social.xcetera.biz/tags/friendica" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;friendica&lt;/span&gt;&lt;/a&gt; , but I'm struggling to find a managed host&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>1.118642566357159e+17</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>g1comics</t>
+        </is>
+      </c>
+      <c r="D176" s="2" t="n">
+        <v>45324.98025462963</v>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;a tautology&lt;br&gt;an innate ology&lt;br&gt;a slack ology&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>1.118642566345504e+17</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>JohnLacey</t>
+        </is>
+      </c>
+      <c r="D177" s="2" t="n">
+        <v>45324.98027337963</v>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;LIVE SHORTLY: &lt;/p&gt;&lt;p&gt;Answering Video and Livestream Questions. Join us! &lt;br /&gt;&lt;a href="https://www.youtube.com/watch?v=2Tmc4EdxsB4" target="_blank" rel="nofollow noopener noreferrer" translate="no"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;youtube.com/watch?v=2Tmc4EdxsB&lt;/span&gt;&lt;span class="invisible"&gt;4&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>1.118642566002164e+17</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>uk</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>zen12</t>
+        </is>
+      </c>
+      <c r="D178" s="2" t="n">
+        <v>45324.98026733796</v>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;США не планируют наносить удары по территории Ирана, сообщает CNN со ссылкой на источники.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>1.118642565070338e+17</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>kuvo_playlist</t>
+        </is>
+      </c>
+      <c r="D179" s="2" t="n">
+        <v>45324.9802508912</v>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;3:30pm The Eternal Triangle by Greg Gisbert Quintet from Harcology&lt;br /&gt;&lt;a href="https://mastodon.social/tags/GregGisbertQuintet" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;GregGisbertQuintet&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/TheEternalTriangle" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;TheEternalTriangle&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/MiddayJazz" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;MiddayJazz&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/KUVO" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;KUVO&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>1.118642565009088e+17</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>BenjaminLinus</t>
+        </is>
+      </c>
+      <c r="D180" s="2" t="n">
+        <v>45324.98024980324</v>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Hulu Begins Limiting Password Sharing for New Customers; Existing Subscribers to Be Impacted Next Month &lt;a href="https://mkvxstream.com/chitchat/view.php/topic/2024-02-022217196beef" target="_blank" rel="nofollow noopener noreferrer" translate="no"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;mkvxstream.com/chitchat/view.p&lt;/span&gt;&lt;span class="invisible"&gt;hp/topic/2024-02-022217196beef&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>1.118642564558493e+17</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>grange85</t>
+        </is>
+      </c>
+      <c r="D181" s="2" t="n">
+        <v>45324.98023148148</v>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;I just watched Underground (, ) and rated it /10 ~  &lt;a href="https://mas.to/tags/films" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;films&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mas.to/tags/cinema" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;cinema&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mas.to/tags/cinemastodon" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;cinemastodon&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>1.118642564546724e+17</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>iembot_top</t>
+        </is>
+      </c>
+      <c r="D182" s="2" t="n">
+        <v>45324.98019675926</v>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;MANHATTAN KS Feb 2 Climate: High: 70 Low: 43 Precip: 0.0" Snow: Missing &lt;a href="https://mesonet.agron.iastate.edu/p.php?pid=202402022231-KTOP-CDUS43-CLIMHK" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;mesonet.agron.iastate.edu/p.ph&lt;/span&gt;&lt;span class="invisible"&gt;p?pid=202402022231-KTOP-CDUS43-CLIMHK&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>1.118642564447275e+17</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>iembot_top</t>
+        </is>
+      </c>
+      <c r="D183" s="2" t="n">
+        <v>45324.98019675926</v>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;TOPEKA KS Feb 2 Climate: High: 71 Low: 43 Precip: 0.0" Snow: 0.0" Snow Depth: 0" &lt;a href="https://mesonet.agron.iastate.edu/p.php?pid=202402022231-KTOP-CDUS43-CLITOP" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;mesonet.agron.iastate.edu/p.ph&lt;/span&gt;&lt;span class="invisible"&gt;p?pid=202402022231-KTOP-CDUS43-CLITOP&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>1.118642564428425e+17</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>iembot_top</t>
+        </is>
+      </c>
+      <c r="D184" s="2" t="n">
+        <v>45324.98018518519</v>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;LAWRENCE KS Feb 2 Climate: High: 71 Low: 45 Precip: 0.0" Snow: Missing &lt;a href="https://mesonet.agron.iastate.edu/p.php?pid=202402022231-KTOP-CDUS43-CLILWC" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;mesonet.agron.iastate.edu/p.ph&lt;/span&gt;&lt;span class="invisible"&gt;p?pid=202402022231-KTOP-CDUS43-CLILWC&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>1.118642563583524e+17</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>pt</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>tecnoblog</t>
+        </is>
+      </c>
+      <c r="D185" s="2" t="n">
+        <v>45324.98022461806</v>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Google decide aposentar cache de páginas na busca &lt;a href="https://tecnoblog.net/noticias/2024/02/02/google-decide-aposentar-cache-de-paginas-na-busca/" target="_blank" rel="nofollow noopener noreferrer" translate="no"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;tecnoblog.net/noticias/2024/02&lt;/span&gt;&lt;span class="invisible"&gt;/02/google-decide-aposentar-cache-de-paginas-na-busca/&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>1.118642563455901e+17</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>de</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Lyrum00psem</t>
+        </is>
+      </c>
+      <c r="D186" s="2" t="n">
+        <v>45324.98020833333</v>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;„Männermund&lt;br&gt;is nich so rund.“&lt;/p&gt;&lt;p&gt;Ist das ein Gerücht?&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>1.118642563317138e+17</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>petrillic</t>
+        </is>
+      </c>
+      <c r="D187" s="2" t="n">
+        <v>45324.98020833333</v>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Genocidal language is genocidal language.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>1.118642563092916e+17</v>
+      </c>
+      <c r="B188" t="inlineStr"/>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>n1lsqn</t>
+        </is>
+      </c>
+      <c r="D188" s="2" t="n">
+        <v>45324.98020606481</v>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;span&gt;ヒソカじゃん&lt;br&gt;&lt;/span&gt;&lt;a href="https://x.com/a_circle10/status/1753305607506133086?s=46&amp;amp;t=uzvhGSJgH-Z55_rxWSk7uw" rel="nofollow noopener noreferrer" target="_blank"&gt;https://x.com/a_circle10/status/1753305607506133086?s=46&amp;amp;t=uzvhGSJgH-Z55_rxWSk7uw&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>1.118642562042044e+17</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>oddfox</t>
+        </is>
+      </c>
+      <c r="D189" s="2" t="n">
+        <v>45324.98018518519</v>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Hello there friendos it's time for a rare Freaky Friday stream and I'm live on Twitch streaming from my Elysium! Today I'll be playing Super Animal Royale with viewers for some hours before getting started with Wobbledogs!&lt;/p&gt;&lt;p&gt;&lt;a href="https://furs.social/tags/ABDL" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;ABDL&lt;/span&gt;&lt;/a&gt; &lt;a href="https://furs.social/tags/Babyfur" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;Babyfur&lt;/span&gt;&lt;/a&gt; &lt;a href="https://furs.social/tags/VTuber" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;VTuber&lt;/span&gt;&lt;/a&gt; &lt;a href="https://furs.social/tags/TwitchStreamer" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;TwitchStreamer&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;&lt;p&gt;&lt;a href="https://twitch.tv/msoddfox" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class=""&gt;twitch.tv/msoddfox&lt;/span&gt;&lt;span class="invisible"&gt;&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>1.118642561947941e+17</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>feral_colin</t>
+        </is>
+      </c>
+      <c r="D190" s="2" t="n">
+        <v>45324.98018518519</v>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Wet food is on my mind.  I am starving and human is ignoring me&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>1.118642561729365e+17</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>iembot_pah</t>
+        </is>
+      </c>
+      <c r="D191" s="2" t="n">
+        <v>45324.98018518519</v>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;a href="https://bots.krohsnest.com/tags/KYwx" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;KYwx&lt;/span&gt;&lt;/a&gt; &lt;a href="https://bots.krohsnest.com/tags/KYweather" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;KYweather&lt;/span&gt;&lt;/a&gt;&lt;br&gt;389 &lt;br&gt;CDUS43 KPAH 022229&lt;br&gt;CLIPAH&lt;/p&gt;&lt;p&gt;CLIMATE REPORT &lt;br&gt;NATIONAL WEATHER SERVICE PADUCAH KY&lt;br&gt;429 PM CST FRI FEB 02 2024&lt;/p&gt;&lt;p&gt;...................................&lt;/p&gt;&lt;p&gt;...THE PADUCAH KY CLIMATE SUMMARY FOR FEBRUARY 2 2024...&lt;br&gt;VALID TODAY AS OF 0425 PM LOCAL TIME.&lt;/p&gt;&lt;p&gt;CLIMATE NORMAL PERIOD 1991 TO 2020&lt;br&gt;CLIMATE RECORD PERIOD 1937 TO 2024&lt;/p&gt;&lt;p&gt;WEATHER ITEM   OBSERVED TIME   RECORD YEAR NORMAL DEPARTURE LAST      &lt;br&gt;             &lt;a href="https://mesonet.agron.iastate.edu/p.php?pid=202402022229-KPAH-CDUS43-CLIPAH" rel="nofollow noopener noreferrer" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;mesonet.agron.iastate.edu/p.ph&lt;/span&gt;&lt;span class="invisible"&gt;p?pid=202402022229-KPAH-CDUS43-CLIPAH&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>1.118642561542143e+17</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>ddarc</t>
+        </is>
+      </c>
+      <c r="D192" s="2" t="n">
+        <v>45324.97958333333</v>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Not quite sure what the message is here.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>1.118642561520063e+17</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>loosenut</t>
+        </is>
+      </c>
+      <c r="D193" s="2" t="n">
+        <v>45324.98008101852</v>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;This is an important post about Ben.&lt;/p&gt;&lt;p&gt;&lt;a href="https://genart.social/tags/Rats" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;Rats&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>1.118642561443399e+17</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>pt</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>tecnoblog</t>
+        </is>
+      </c>
+      <c r="D194" s="2" t="n">
+        <v>45324.9801868287</v>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Como fazer um quiz nos stories do Instagram &lt;a href="https://tecnoblog.net/responde/como-fazer-um-quiz-nos-stories-do-instagram/" target="_blank" rel="nofollow noopener noreferrer" translate="no"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;tecnoblog.net/responde/como-fa&lt;/span&gt;&lt;span class="invisible"&gt;zer-um-quiz-nos-stories-do-instagram/&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>1.118642560928462e+17</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>ja</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>sasaki_chie</t>
+        </is>
+      </c>
+      <c r="D195" s="2" t="n">
+        <v>45324.98016203703</v>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;9時くらいからバチコン募集@1 お願いします🙏&lt;br&gt;さとうさん　たこやきやさん&lt;br&gt;集まり次第開始にするので9時間に合わなくても&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>1.118642560874177e+17</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>fried_egg_golf</t>
+        </is>
+      </c>
+      <c r="D196" s="2" t="n">
+        <v>45324.97821759259</v>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Thirty minutes inland from Pebble Beach, The Preserve Golf Club is one of the most peaceful settings for golf in America&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>1.118642560836687e+17</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>AEW</t>
+        </is>
+      </c>
+      <c r="D197" s="2" t="n">
+        <v>45324.97916666666</v>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;TONIGHT!&lt;br&gt;Friday Night &lt;a href="https://twitter.com/hashtag/AEWRampage" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;AEWRampage&lt;/span&gt;&lt;/a&gt;&lt;br&gt;10pm ET/9pm CT | TNT&lt;/p&gt;&lt;p&gt;Willow Nightingale vs Queen Aminata&lt;/p&gt;&lt;p&gt;&lt;span class="h-card"&gt;&lt;a href="https://twitter.com/willowwrestles" class="u-url mention" rel="nofollow noopener noreferrer" target="_blank"&gt;@&lt;span&gt;willowwrestles@twitter.com&lt;/span&gt;&lt;/a&gt;&lt;/span&gt; returns to singles competition TONIGHT to face &lt;a href="https://twitter.com/hashtag/QueenAminata" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;QueenAminata&lt;/span&gt;&lt;/a&gt; &lt;span class="h-card"&gt;&lt;a href="https://twitter.com/amisylle" class="u-url mention" rel="nofollow noopener noreferrer" target="_blank"&gt;@&lt;span&gt;amisylle@twitter.com&lt;/span&gt;&lt;/a&gt;&lt;/span&gt; on &lt;a href="https://twitter.com/hashtag/AEW" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;AEW&lt;/span&gt;&lt;/a&gt; Rampage! Don’t miss Friday Night &lt;a href="https://twitter.com/hashtag/AEWRampage" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;AEWRampage&lt;/span&gt;&lt;/a&gt; at 10/9c on TNT!&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>1.118642560808256e+17</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>de</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>johleut</t>
+        </is>
+      </c>
+      <c r="D198" s="2" t="n">
+        <v>45324.98015046296</v>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;😭 &lt;a href="https://swiss.social/tags/meme" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;meme&lt;/span&gt;&lt;/a&gt; &lt;a href="https://swiss.social/tags/hoppwil" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;hoppwil&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>1.118642560575254e+17</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>KaplanSportsBiz</t>
+        </is>
+      </c>
+      <c r="D199" s="2" t="n">
+        <v>45324.9797337963</v>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;The big unknown right now is how big of a rights fee haircut did the Rangers agree to &lt;a href="https://twitter.com/heyvittas/status/1753463969866494354" rel="nofollow noopener noreferrer" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class=""&gt;twitter.com/heyvittas/stat…&lt;/span&gt;&lt;span class="invisible"&gt;&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>1.118642560374625e+17</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>KaplanSportsBiz</t>
+        </is>
+      </c>
+      <c r="D200" s="2" t="n">
+        <v>45324.97795138889</v>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Reminder I will be writing a daily newsletter from the Super Bowl for &lt;span class="h-card"&gt;&lt;a href="https://twitter.com/FOS" class="u-url mention" rel="nofollow noopener noreferrer" target="_blank"&gt;@&lt;span&gt;FOS@sportsbots.xyz&lt;/span&gt;&lt;/a&gt;&lt;/span&gt; starting Monday. My DMs are open for ideas and news tips&lt;/p&gt;</t>
         </is>
       </c>
     </row>

--- a/toots.xlsx
+++ b/toots.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E200"/>
+  <dimension ref="A1:E240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4928,6 +4928,911 @@
         </is>
       </c>
     </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>1.118682723655856e+17</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>ja</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>hiyanukoya</t>
+        </is>
+      </c>
+      <c r="D201" s="2" t="n">
+        <v>45325.68946759259</v>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;泡嬢源氏名ぬこや&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>1.118682723652531e+17</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>TheBreadmonkey</t>
+        </is>
+      </c>
+      <c r="D202" s="2" t="n">
+        <v>45325.68942129629</v>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;a href="https://youtu.be/Sng4JWYn-o8" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class=""&gt;youtu.be/Sng4JWYn-o8&lt;/span&gt;&lt;span class="invisible"&gt;&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>1.118682723384464e+17</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>ja</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>nessilinikoniko</t>
+        </is>
+      </c>
+      <c r="D203" s="2" t="n">
+        <v>45325.68945601852</v>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;ファボった人狂ったねっしぃでもいいって事？？&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>1.118682723243332e+17</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>ja</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>kiq</t>
+        </is>
+      </c>
+      <c r="D204" s="2" t="n">
+        <v>45325.68943287037</v>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Xユーザーの大友良英　otomo yoshihideさん: 「NHKFM今夜11時からのジャズトゥナイト前半の特集は「ジャズ世界一周」と題してホレス・シルバーからサラシー・コルワルまで、タイトルに世界各国の地名が入った楽曲を。後半は新譜紹介、平井庸一や赤松敏弘等の新作を！ &lt;a href="https://www.nhk.jp/p/jazz/rs/8Q3V972NM8/episode/re/98JQN7X9YW/" rel="nofollow noopener noreferrer" target="_blank"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;nhk.jp/p/jazz/rs/8Q3V972NM8/ep&lt;/span&gt;&lt;span class="invisible"&gt;isode/re/98JQN7X9YW/&lt;/span&gt;&lt;/a&gt;」 / X&lt;/p&gt;&lt;p&gt;&lt;a href="https://twitter.com/otomojamjam/status/1753711964470268166" rel="nofollow noopener noreferrer" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;twitter.com/otomojamjam/status&lt;/span&gt;&lt;span class="invisible"&gt;/1753711964470268166&lt;/span&gt;&lt;/a&gt; &lt;a href="https://fedibird.com/tags/nhkfm" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;nhkfm&lt;/span&gt;&lt;/a&gt; &lt;a href="https://fedibird.com/tags/%E3%82%B8%E3%83%A3%E3%82%BA%E3%83%88%E3%82%A5%E3%83%8A%E3%82%A4%E3%83%88" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;ジャズトゥナイト&lt;/span&gt;&lt;/a&gt; &lt;a href="https://fedibird.com/tags/np" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;np&lt;/span&gt;&lt;/a&gt;　&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>1.118682723241398e+17</v>
+      </c>
+      <c r="B205" t="inlineStr"/>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>towa49666</t>
+        </is>
+      </c>
+      <c r="D205" s="2" t="n">
+        <v>45325.68946612268</v>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;span&gt;まあ、クロスフォリオはSNSというよりポートフォリオだし……&lt;br&gt;公募展の応募の時に使ったりする&lt;/span&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>1.118682722976085e+17</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>the_hindu</t>
+        </is>
+      </c>
+      <c r="D206" s="2" t="n">
+        <v>45325.68944444445</v>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Nagarotthana Mission: Will investigate if complaint is filed, says CM Siddaramaiah &lt;a href="https://press.coop/tags/press" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;press&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;&lt;p&gt;&lt;a href="https://www.thehindu.com/news/national/karnataka/nagarotthana-mission-will-investigate-if-complaint-is-filed-says-cm-siddaramaiah/article67808387.ece?utm_source=press.coop" rel="nofollow noopener noreferrer" target="_blank"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;thehindu.com/news/national/kar&lt;/span&gt;&lt;span class="invisible"&gt;nataka/nagarotthana-mission-will-investigate-if-complaint-is-filed-says-cm-siddaramaiah/article67808387.ece?utm_source=press.coop&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>1.118682722942506e+17</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>djsmallauthor</t>
+        </is>
+      </c>
+      <c r="D207" s="2" t="n">
+        <v>45325.68944444445</v>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;I need to get this month's newsletter compiled because the 15th will be upon us sooner than I'll realize. It even more of time crunch because I'll be going to Toronto on 15th too.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>1.118682722608006e+17</v>
+      </c>
+      <c r="B208" t="inlineStr"/>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>dbalears_bot</t>
+        </is>
+      </c>
+      <c r="D208" s="2" t="n">
+        <v>45325.68944416667</v>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>Podem insta Prohens a presentar una qüestió de confiança després de la crisi de VOX &lt;a href="https://www.dbalears.cat/balears/politica/2024/02/03/389513/podem-insta-prohens-presentar-questio-confianca-despres-crisi-vox.html" rel="nofollow noopener noreferrer" target="_blank"&gt;https://www.dbalears.cat/balears/politica/2024/02/03/389513/podem-insta-prohens-presentar-questio-confianca-despres-crisi-vox.html&lt;/a&gt; &lt;a class="hashtag" href="https://social.espeweb.net/tag/consellautonòmicciutadà" rel="nofollow noopener noreferrer" target="_blank"&gt;#consellautonòmicciutadà&lt;/a&gt; &lt;a class="hashtag" href="https://social.espeweb.net/tag/novaexecutiva" rel="nofollow noopener noreferrer" target="_blank"&gt;#novaexecutiva&lt;/a&gt; &lt;a class="hashtag" href="https://social.espeweb.net/tag/crisidevox" rel="nofollow noopener noreferrer" target="_blank"&gt;#crisideVOX&lt;/a&gt; &lt;a class="hashtag" href="https://social.espeweb.net/tag/parlament" rel="nofollow noopener noreferrer" target="_blank"&gt;#Parlament&lt;/a&gt; &lt;a class="hashtag" href="https://social.espeweb.net/tag/polí" rel="nofollow noopener noreferrer" target="_blank"&gt;#Polí&lt;/a&gt;­tica &lt;a class="hashtag" href="https://social.espeweb.net/tag/mallorca" rel="nofollow noopener noreferrer" target="_blank"&gt;#Mallorca&lt;/a&gt; &lt;a class="hashtag" href="https://social.espeweb.net/tag/prohens" rel="nofollow noopener noreferrer" target="_blank"&gt;#Prohens&lt;/a&gt; &lt;a class="hashtag" href="https://social.espeweb.net/tag/balears" rel="nofollow noopener noreferrer" target="_blank"&gt;#Balears&lt;/a&gt; &lt;a class="hashtag" href="https://social.espeweb.net/tag/podem" rel="nofollow noopener noreferrer" target="_blank"&gt;#Podem&lt;/a&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>1.11868272256832e+17</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>preshit</t>
+        </is>
+      </c>
+      <c r="D209" s="2" t="n">
+        <v>45325.68945780092</v>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Cleaning and clearing up the wardrobe today and stumbled across some old tees from Grooveshark, Panic’s Transmit, Rdio, Digg, Gowalla, Flud, etc.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>1.118682722380504e+17</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>es</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>saballosonline</t>
+        </is>
+      </c>
+      <c r="D210" s="2" t="n">
+        <v>45325.68945447916</v>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;SE REBAJÓ EN MÁS DE 4 millones esta quinta &lt;/p&gt;&lt;p&gt;&lt;a href="https://saballos.online/lote-23-en-horseland-florida-de-nicoya-guanacaste/" target="_blank" rel="nofollow noopener noreferrer" translate="no"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;saballos.online/lote-23-en-hor&lt;/span&gt;&lt;span class="invisible"&gt;seland-florida-de-nicoya-guanacaste/&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>1.118682722296346e+17</v>
+      </c>
+      <c r="B211" t="inlineStr"/>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>itochan</t>
+        </is>
+      </c>
+      <c r="D211" s="2" t="n">
+        <v>45325.68944582176</v>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;span&gt;辨當（べんたう）→弁当（べんとう）&lt;br&gt;&lt;br&gt;ググったら、&lt;br&gt;&lt;/span&gt;&lt;a href="https://gogen-yurai.jp/bentou/" rel="nofollow noopener noreferrer" target="_blank"&gt;https://gogen-yurai.jp/bentou/&lt;/a&gt;&lt;span&gt;&lt;br&gt;語源は「便当」だったらしい…&lt;br&gt;&lt;br&gt;RE: &lt;/span&gt;&lt;a href="https://misskey.io/notes/9p9crt95nneg0131" rel="nofollow noopener noreferrer" target="_blank"&gt;https://misskey.io/notes/9p9crt95nneg0131&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>1.118682722195265e+17</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Toni2167</t>
+        </is>
+      </c>
+      <c r="D212" s="2" t="n">
+        <v>45325.68944444445</v>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;span class="h-card" translate="no"&gt;&lt;a href="https://tyloves.coffee/@tyberry" class="u-url mention" rel="nofollow noopener noreferrer" target="_blank"&gt;@&lt;span&gt;tyberry&lt;/span&gt;&lt;/a&gt;&lt;/span&gt; looks like you're feeling a bit better. Good to see.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>1.118682722158153e+17</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>nuopKINK</t>
+        </is>
+      </c>
+      <c r="D213" s="2" t="n">
+        <v>45325.68943287037</v>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Nu op KINK: R.E.M. - What's The Frequency Kenneth&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>1.118682721951628e+17</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>ja</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>hanoopy</t>
+        </is>
+      </c>
+      <c r="D214" s="2" t="n">
+        <v>45325.68944738426</v>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;朝のパンを調達するのにずっと苦労してて、米食べたらいいんだけど、朝に米だと食べた感じしなくてなかなか難しいんだよな。&lt;br /&gt;工夫とかやり方次第なんだと思う。&lt;br /&gt;卵焼きとか鮭にしっかり油を使うとかだろうか。&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>1.118682721949264e+17</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>friendly</t>
+        </is>
+      </c>
+      <c r="D215" s="2" t="n">
+        <v>45325.68943287037</v>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Like what the character said at the end&lt;br&gt;What the hell is that?&lt;br&gt;&lt;a href="https://www.youtube.com/watch?v=G1T3Ybq1eow" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;youtube.com/watch?v=G1T3Ybq1eo&lt;/span&gt;&lt;span class="invisible"&gt;w&lt;/span&gt;&lt;/a&gt;&lt;br&gt;The artwork is very similar to &lt;a href="https://mstdn.social/tags/FinalFantasyTheSpiritWithin" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;FinalFantasyTheSpiritWithin&lt;/span&gt;&lt;/a&gt; and I'm worried this will ruin non &lt;a href="https://mstdn.social/tags/Gundam" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;Gundam&lt;/span&gt;&lt;/a&gt; fans view of the franchise 👀 &lt;a href="https://mstdn.social/tags/Netflix" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;Netflix&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>1.118682721525894e+17</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>the_hindu</t>
+        </is>
+      </c>
+      <c r="D216" s="2" t="n">
+        <v>45325.68942129629</v>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Waging a lone battle has been common for me, and people form my security cover, says A.P. Chief Minister Jagan&lt;/p&gt;&lt;p&gt;In the coming elections, I am prepared to face 100 arrows and 100 opponents, he says at ‘Siddham’ public meeting; the TDP is not capable of fielding its candidates in all the... &lt;a href="https://press.coop/tags/press" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;press&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;&lt;p&gt;&lt;a href="https://www.thehindu.com/news/national/andhra-pradesh/waging-a-lone-battle-has-been-common-for-me-and-people-form-my-security-cover-says-ap-chief-minister-jagan/article67808062.ece?utm_source=press.coop" rel="nofollow noopener noreferrer" target="_blank"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;thehindu.com/news/national/and&lt;/span&gt;&lt;span class="invisible"&gt;hra-pradesh/waging-a-lone-battle-has-been-common-for-me-and-people-form-my-security-cover-says-ap-chief-minister-jagan/article67808062.ece?utm_source=press.coop&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>1.118682720945264e+17</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>rff</t>
+        </is>
+      </c>
+      <c r="D217" s="2" t="n">
+        <v>45325.68938657407</v>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Now playing on the radiofreefedi.net main channel:&lt;br&gt;&lt;br&gt;you are listening to radiofreefedi.net by Tim Rowe &lt;a href="https://mastodon.social/@omnicaritas" rel="nofollow noopener noreferrer" target="_blank"&gt;https://mastodon.social/@omnicaritas&lt;/a&gt;&lt;br&gt;CC-BY-NC&lt;br&gt;&lt;a href="https://ko-fi.com/timrowe" rel="nofollow noopener noreferrer" target="_blank"&gt;https://ko-fi.com/timrowe&lt;/a&gt;&lt;br&gt;&lt;br&gt;Tune in now: &lt;a href="https://radiofreefedi.net" rel="nofollow noopener noreferrer" target="_blank"&gt;https://radiofreefedi.net&lt;/a&gt;&lt;br&gt;interact with &lt;span class="h-card"&gt;&lt;a href="https://musician.social/@radiofreefedi" class="u-url mention" rel="nofollow noopener noreferrer" target="_blank"&gt;@&lt;span&gt;radiofreefedi&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;br&gt;&lt;br&gt;your 24/7 community radio from the fediverse to the universe&lt;br&gt;&lt;a href="https://nowplaying.radiofreefedi.net/tags/rffplays" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;rffPlays&lt;/span&gt;&lt;/a&gt; &lt;a href="https://nowplaying.radiofreefedi.net/tags/rffmain" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;rffMain&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>1.118682720647263e+17</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>ja</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>uneven_distribution</t>
+        </is>
+      </c>
+      <c r="D218" s="2" t="n">
+        <v>45325.68940972222</v>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;あと顎も脱げ&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>1.118682720534253e+17</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>slashgear</t>
+        </is>
+      </c>
+      <c r="D219" s="2" t="n">
+        <v>45325.68939814815</v>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Lexus LFA: Everything You Should Know By Now&lt;/p&gt;&lt;p&gt;The Lexus LFA was a one of a kind design that was the product of a decade of effort. Here is the fascinating story of how this supercar came to be. &lt;a href="https://press.coop/tags/press" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;press&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;&lt;p&gt;&lt;a href="https://www.slashgear.com/1505728/lexus-lfa-specs-details-history/?utm_source=press.coop" rel="nofollow noopener noreferrer" target="_blank"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;slashgear.com/1505728/lexus-lf&lt;/span&gt;&lt;span class="invisible"&gt;a-specs-details-history/?utm_source=press.coop&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>1.118682720515079e+17</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>cojobud</t>
+        </is>
+      </c>
+      <c r="D220" s="2" t="n">
+        <v>45325.68942168981</v>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;a href="https://mastodon.social/tags/bush" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;bush&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>1.118682720419415e+17</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>the_hindu</t>
+        </is>
+      </c>
+      <c r="D221" s="2" t="n">
+        <v>45325.68940972222</v>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;All types of chemotherapies available at KGH in Visakhapatnam, says oncologist&lt;/p&gt;&lt;p&gt;State government is giving top priority to the prevention of cancer, she says &lt;a href="https://press.coop/tags/press" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;press&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;&lt;p&gt;&lt;a href="https://www.thehindu.com/news/cities/Visakhapatnam/all-types-of-chemotherapies-available-at-kgh-in-visakhapatnam-says-oncologist/article67808116.ece?utm_source=press.coop" rel="nofollow noopener noreferrer" target="_blank"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;thehindu.com/news/cities/Visak&lt;/span&gt;&lt;span class="invisible"&gt;hapatnam/all-types-of-chemotherapies-available-at-kgh-in-visakhapatnam-says-oncologist/article67808116.ece?utm_source=press.coop&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>1.11868272031996e+17</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>the_hindu</t>
+        </is>
+      </c>
+      <c r="D222" s="2" t="n">
+        <v>45325.68940972222</v>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Butcher kills man having affair with wife, surrenders before police &lt;a href="https://press.coop/tags/press" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;press&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;&lt;p&gt;&lt;a href="https://www.thehindu.com/news/cities/bangalore/butcher-kills-man-having-affair-with-wife-surrenders-before-police/article67808249.ece?utm_source=press.coop" rel="nofollow noopener noreferrer" target="_blank"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;thehindu.com/news/cities/banga&lt;/span&gt;&lt;span class="invisible"&gt;lore/butcher-kills-man-having-affair-with-wife-surrenders-before-police/article67808249.ece?utm_source=press.coop&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>1.118682719710496e+17</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>de</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>wolfwitte</t>
+        </is>
+      </c>
+      <c r="D223" s="2" t="n">
+        <v>45325.689375</v>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Bücher: &lt;a href="https://micro.blog/books/9781611807240" rel="nofollow noopener noreferrer" target="_blank"&gt;Lao Tzu: Tao Te Ching: A Book about the Way and the Power of the Way&lt;/a&gt; by Ursula K. Le Guin 📚&lt;/p&gt;
+&lt;p&gt;Gelesen und für O.K gefunden.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>1.118682718927132e+17</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>ja</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>kami</t>
+        </is>
+      </c>
+      <c r="D224" s="2" t="n">
+        <v>45325.68938657407</v>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;人の世に光あれ…！&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>1.118682718868393e+17</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>zh</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>chouti</t>
+        </is>
+      </c>
+      <c r="D225" s="2" t="n">
+        <v>45325.68935185186</v>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;2021年，李冰睿（图1）在无人作战工程专业毕业后来到南部战区海军航空兵某团，参加某型无人机操控人员改装，历时1年，以理论实操双优成绩通过放单考核，成为海军首位无人机女飞控师。她的同专业学妹马冰韬（图2）即将成为该团第二位无人机女飞控师。图2披挂的就是无人机甲板控制器，功能类似美军X-47B同款装置（图3） &lt;br&gt; &lt;a href="https://dig.chouti.com/link/41437530" rel="nofollow noopener noreferrer" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class=""&gt;dig.chouti.com/link/41437530&lt;/span&gt;&lt;span class="invisible"&gt;&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>1.118682718859732e+17</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>zh</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="D226" s="2" t="n">
+        <v>45325.68931712963</v>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;閉上眼睛就因為看不見...&lt;/p&gt;&lt;p&gt;這好像是一首歌的歌詞&lt;br&gt;呵呵&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>1.118682718855499e+17</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>nl</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>JRienke</t>
+        </is>
+      </c>
+      <c r="D227" s="2" t="n">
+        <v>45325.6893922801</v>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;a href="https://mastodon.social/tags/Caroline" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;Caroline&lt;/span&gt;&lt;/a&gt; van der Plas begint flink van het padje af te raken. Goed dat politici van wie je dat moet kunnen verwachten eensgezind en ferm stelling nemen tegen het negeren en goedpraten van bedreigingen en terreur. &lt;/p&gt;&lt;p&gt;Veel politici zijn kritisch over uitspraken van Farmers Defence Force-voorman Mark van den Oever en over de reactie van &lt;a href="https://mastodon.social/tags/BBB" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;BBB&lt;/span&gt;&lt;/a&gt;-leider Van der Plas daarop. &lt;a href="https://mastodon.social/tags/FDF" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;FDF&lt;/span&gt;&lt;/a&gt; &lt;a href="https://nos.nl/l/2507335" target="_blank" rel="nofollow noopener noreferrer" translate="no"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class=""&gt;nos.nl/l/2507335&lt;/span&gt;&lt;span class="invisible"&gt;&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>1.118682718701166e+17</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>my24group</t>
+        </is>
+      </c>
+      <c r="D228" s="2" t="n">
+        <v>45325.68938950232</v>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Ποινική έρευνα για ξέπλυμα βρώμικου χρήματος κατά Πολυχρονόπουλου και των συγγενών του &lt;a href="https://my24group.com/poiniki-ereyna-gia-xeplyma-vromikoy-chrimatos-kata-polychronopoyloy-kai-ton-syggenon-toy/" target="_blank" rel="nofollow noopener noreferrer" translate="no"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;my24group.com/poiniki-ereyna-g&lt;/span&gt;&lt;span class="invisible"&gt;ia-xeplyma-vromikoy-chrimatos-kata-polychronopoyloy-kai-ton-syggenon-toy/&lt;/span&gt;&lt;/a&gt; Newsroom Ανανεώθηκε: Παρασκευή, 02 Φεβρουαρίου 2024 16:00 Τη διενέργεια ποινικής προκαταρκτικής έρευνας αναφορικά με την ύ…&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>1.11868271853099e+17</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>lbarqueira</t>
+        </is>
+      </c>
+      <c r="D229" s="2" t="n">
+        <v>45325.68938652777</v>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;🇵🇹Portugal 3D map of Land covered by buildings and other man-made structures&lt;br /&gt;Data: Copernicus Global Land Cover, and AWS Terrain Tiles {elevatr}&lt;br /&gt;&lt;a href="https://mastodon.social/tags/rstats" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;rstats&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/rayshader" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;rayshader&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/gis" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;gis&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/rspatial" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;rspatial&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/dataviz" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;dataviz&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>1.118682717955522e+17</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>adaitsman</t>
+        </is>
+      </c>
+      <c r="D230" s="2" t="n">
+        <v>45325.68936342592</v>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;I don't know about you, but when 90% of the population in Gaza has been displaced from their homes, when 50% of the housing has been destroyed, when famine stalks because Israel is not allowing food past the border, I'm not really too interested in reading human interest stories about the poor Israelis whose family members have been taken hostage by Hamas.&lt;/p&gt;&lt;p&gt;It's not that they're not suffering. It's that their suffering pales in comparison. Let's keep a sense of perspective here.&lt;/p&gt;&lt;p&gt;&lt;a href="https://mastodon.online/tags/genocide" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;genocide&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>1.118682717887008e+17</v>
+      </c>
+      <c r="B231" t="inlineStr"/>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Ivalisesystem</t>
+        </is>
+      </c>
+      <c r="D231" s="2" t="n">
+        <v>45325.68938159722</v>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Whats the breed?&lt;/p&gt;&lt;p&gt;&lt;a href="https://lemmynsfw.com/post/7457608" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class=""&gt;lemmynsfw.com/post/7457608&lt;/span&gt;&lt;span class="invisible"&gt;&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>1.118682717504459e+17</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>my24group</t>
+        </is>
+      </c>
+      <c r="D232" s="2" t="n">
+        <v>45325.68936920139</v>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Turkey&amp;#39;s central bank governor resigned after less than a year in office, marking the latest turbulence in an economy that has suffered several economic crises. &lt;a href="https://my24group.com/turkeys-central-bank-governor-resigned-after-less-than-a-year-in-office-marking-the-latest-turbulence-in-an-economy-that-has-suffered-several-economic-crises/" target="_blank" rel="nofollow noopener noreferrer" translate="no"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;my24group.com/turkeys-central-&lt;/span&gt;&lt;span class="invisible"&gt;bank-governor-resigned-after-less-than-a-year-in-office-marking-the-latest-turbulence-in-an-economy-that-has-suffered-several-economic-crises/&lt;/span&gt;&lt;/a&gt; source&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>1.118682717485631e+17</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>haruhisa2583</t>
+        </is>
+      </c>
+      <c r="D233" s="2" t="n">
+        <v>45325.6893684375</v>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;まあいいや&lt;br /&gt;こうご期待&lt;/p&gt;&lt;p&gt;🔥🔥🔥🔥🔥🔥🔥🔥🔥🔥🔥&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>1.1186827174599e+17</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>dabeaz</t>
+        </is>
+      </c>
+      <c r="D234" s="2" t="n">
+        <v>45325.68936787037</v>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Idle thought:  I bet compiling (collectively) uses at least as much energy as crypto.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>1.118682717215823e+17</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>techshali</t>
+        </is>
+      </c>
+      <c r="D235" s="2" t="n">
+        <v>45325.68936335648</v>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;For this reason, your repeater may be incompatible with the router and be very limited.&lt;/p&gt;&lt;p&gt;An option to try improve Wi-Fi connection at home, is to install a wireless repeater. It can help you have better connectivity in different places in the home, thus having more speed and stability. However, it doesn&amp;#39;t always really help. In this article, we are going to explain to you why your repeater may be incompatible with the router and be limited.&lt;/p&gt;&lt;p&gt;&lt;a href="https://techweet.com/for-this-reason-your-repeater-may-be-incompatible-with-the-router-and-be-very-limited/" target="_blank" rel="nofollow noopener noreferrer" translate="no"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;techweet.com/for-this-reason-y&lt;/span&gt;&lt;span class="invisible"&gt;our-repeater-may-be-incompatible-with-the-router-and-be-very-limited/&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>1.118682717043855e+17</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>ja</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>svchost</t>
+        </is>
+      </c>
+      <c r="D236" s="2" t="n">
+        <v>45325.68934027778</v>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;【豆知識】夜更ししてやるゲームは楽しい&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>1.118682716924876e+17</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>kevinthomas</t>
+        </is>
+      </c>
+      <c r="D237" s="2" t="n">
+        <v>45325.6893287037</v>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;The &lt;a href="https://defcon.social/tags/art" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;art&lt;/span&gt;&lt;/a&gt; of &lt;a href="https://defcon.social/tags/reverseengineering" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;reverseengineering&lt;/span&gt;&lt;/a&gt; is something that takes time and effort and never, ever give up! This is part 2 of a small series breaking down a modded version from the &lt;a href="https://defcon.social/tags/Rust" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;Rust&lt;/span&gt;&lt;/a&gt; &lt;a href="https://defcon.social/tags/book" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;book&lt;/span&gt;&lt;/a&gt; where we first examine the &lt;a href="https://defcon.social/tags/code" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;code&lt;/span&gt;&lt;/a&gt; in &lt;a href="https://defcon.social/tags/IDA" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;IDA&lt;/span&gt;&lt;/a&gt; &lt;a href="https://defcon.social/tags/Free" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;Free&lt;/span&gt;&lt;/a&gt;. Several vars are not shown however we see the guessing_game__main func below. We start by pushing RBP onto the &lt;a href="https://defcon.social/tags/stack" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;stack&lt;/span&gt;&lt;/a&gt;, where RBP and RSP are together then subtracting 0x280 bytes from RSP moving it lower in mem as this is our stack. Stay tuned as we continue to break this down and learn more about &lt;a href="https://defcon.social/tags/cybersecurity" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;cybersecurity&lt;/span&gt;&lt;/a&gt;!&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>1.118682716813635e+17</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>RealJournalism</t>
+        </is>
+      </c>
+      <c r="D238" s="2" t="n">
+        <v>45325.68935618056</v>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;“But what then is capital punishment but the most premeditated of murders, to which no criminal’s deed, however calculated it may be, can be compared? For there to be equivalence, the death penalty would have to punish a criminal who had warned his victim of the date at which he would inflict a horrible death on him and who, from that moment onward, had confined him at his mercy for months. Such a monster is not encountered in private life.”&lt;/p&gt;&lt;p&gt;– Albert Camus, “Reflections on the Guillotine”&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>1.118682716776545e+17</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>nl</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>p2000_apeldoorn</t>
+        </is>
+      </c>
+      <c r="D239" s="2" t="n">
+        <v>45325.68935637731</v>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;🚨🚑: Ambulance (Noord- en Oost-Gelderland) met Prio 1 naar melding: &amp;quot;Ambulance onderweg met spoed&amp;quot; te Apeldoorn (Gelderland).&lt;/p&gt;&lt;p&gt;𝗣𝟮𝟬𝟬𝟬: A1 Ambu 06121 - Apeldoorn Rit 38731&lt;br /&gt;𝗥𝗲𝗴𝗶𝗼: Noord- en Oost-Gelderland&lt;br /&gt;𝗪𝗼𝗼𝗻𝗽𝗹𝗮𝗮𝘁𝘀: &lt;a href="https://mastodon.social/tags/Apeldoorn" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;Apeldoorn&lt;/span&gt;&lt;/a&gt;&lt;br /&gt;𝗦𝘁𝗿𝗮𝗮𝘁: onbekend&lt;br /&gt;𝗧𝗶𝗷𝗱 𝗺𝗲𝗹𝗱𝗶𝗻𝗴: 16:32 uur&lt;/p&gt;&lt;p&gt;&lt;a href="https://mastodon.social/tags/P2000" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;P2000&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/Ambulance" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;Ambulance&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/GoogleMaps" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;GoogleMaps&lt;/span&gt;&lt;/a&gt; &lt;a href="https://www.google.com/maps/search/?api=1&amp;amp;query=Apeldoorn" target="_blank" rel="nofollow noopener noreferrer" translate="no"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;google.com/maps/search/?api=1&amp;amp;&lt;/span&gt;&lt;span class="invisible"&gt;query=Apeldoorn&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>1.118682716681706e+17</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>my24group</t>
+        </is>
+      </c>
+      <c r="D240" s="2" t="n">
+        <v>45325.68935444445</v>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;UP Teen Dies By Suicide As She Did Not Want To Live With Her Mother: Cops &lt;a href="https://my24group.com/up-teen-dies-by-suicide-as-she-did-not-want-to-live-with-her-mother-cops/" target="_blank" rel="nofollow noopener noreferrer" translate="no"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;my24group.com/up-teen-dies-by-&lt;/span&gt;&lt;span class="invisible"&gt;suicide-as-she-did-not-want-to-live-with-her-mother-cops/&lt;/span&gt;&lt;/a&gt; The family members have refused to lodge any complaint, police said (Representational)The body of a 17-year-old girl was f…&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/toots.xlsx
+++ b/toots.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E240"/>
+  <dimension ref="A1:E360"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5833,6 +5833,2709 @@
         </is>
       </c>
     </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>1.118682987943088e+17</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>ru</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>romashko</t>
+        </is>
+      </c>
+      <c r="D241" s="2" t="n">
+        <v>45325.69412037037</v>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Скучно быть королевой  &lt;br&gt;И просиживать трон,  &lt;br&gt;Он и справа, и слева  &lt;br&gt;Давит, словно питон.  &lt;br&gt;Сбросить титул, умчаться  &lt;br&gt;Хочет сильно душа,  &lt;br&gt;И прохожим кривляться  &lt;br&gt;Где-то там неспеша.  &lt;br&gt;😺😺😺&lt;br&gt;Ромашка Аптечная&lt;/p&gt;&lt;p&gt;/фото из Интернета/&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>1.118682987096064e+17</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>ko</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>eeruwang</t>
+        </is>
+      </c>
+      <c r="D242" s="2" t="n">
+        <v>45325.69398148148</v>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;긍정적인 내가 되자고 플필사진도 열심히 그렸는데! 긍정적인 나! 돌아와!!&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>1.118682987068248e+17</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>taur10</t>
+        </is>
+      </c>
+      <c r="D243" s="2" t="n">
+        <v>45325.69408564815</v>
+      </c>
+      <c r="E243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>1.118682987057186e+17</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>abj61</t>
+        </is>
+      </c>
+      <c r="D244" s="2" t="n">
+        <v>45325.69412894676</v>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;span class="h-card" translate="no"&gt;&lt;a href="https://mastodon.social/@petervanheemst" class="u-url mention"&gt;@&lt;span&gt;petervanheemst&lt;/span&gt;&lt;/a&gt;&lt;/span&gt; blanken uitmaken voor &amp;quot;witte&amp;quot; mensen, heb je zelf eigenlijk wel door wat voor racist je zelf bent?&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>1.11868298698334e+17</v>
+      </c>
+      <c r="B245" t="inlineStr"/>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Rayme_kiris</t>
+        </is>
+      </c>
+      <c r="D245" s="2" t="n">
+        <v>45325.69411646991</v>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;span&gt;宿にチェックインして風呂入ってたら開けてた&lt;/span&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>1.118682986929093e+17</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>PRstatusdebate</t>
+        </is>
+      </c>
+      <c r="D246" s="2" t="n">
+        <v>45325.6941087963</v>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;🚶🏽 My mom was born in Aibonito and my dad is from Ceiba. I'm in favor of commonwealth for Puerto Rico because it's the best of both status options: we have national sovereignty and we continue our relationship to the U.S..&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>1.118682986510339e+17</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>ja</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>hiyanukoya</t>
+        </is>
+      </c>
+      <c r="D247" s="2" t="n">
+        <v>45325.6941087963</v>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;交互すぎて草&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>1.118682986494852e+17</v>
+      </c>
+      <c r="B248" t="inlineStr"/>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>www.fanpage.it</t>
+        </is>
+      </c>
+      <c r="D248" s="2" t="n">
+        <v>45325.6941087963</v>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Conte attacca Sgarbi: “Doveva dimettersi prima”. La replica: “Lui leader per sbaglio e senza merito”&lt;/p&gt;&lt;p&gt;&lt;a href="https://www.fanpage.it/politica/conte-attacca-sgarbi-doveva-dimettersi-prima-la-replica-lui-leader-per-sbaglio-e-senza-merito/" rel="nofollow noopener noreferrer" target="_blank"&gt;www.fanpage.it/politica/conte-attacca-sgarbi-doveva-dimettersi-prima-la-replica-lui-leader-per-sbaglio-e-senza-merito&lt;/a&gt;&lt;/p&gt;&lt;p&gt;Secondo Giuseppe Conte, Vittorio Sgarbi si sarebbe dovuto dimettere ben prima della delibera dell'Antitrust. Che ha stabilito come le attività del critico d'arti come consulente o conferenziere fossero incompatibili con l'incarico di governo.Continua a leggere&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>1.118682986393913e+17</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>ja</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>sasaki_chie</t>
+        </is>
+      </c>
+      <c r="D249" s="2" t="n">
+        <v>45325.69407407408</v>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;金ウロコ出たので許します😤&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>1.118682986284042e+17</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>ja</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Nekowashi_R</t>
+        </is>
+      </c>
+      <c r="D250" s="2" t="n">
+        <v>45325.69409722222</v>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;最近の機内って異様にピリピリしてるよね、近くで食べ物食い始めると異様に不機嫌になる人がいる。&lt;br&gt;(´・ω・｀)&lt;/p&gt;&lt;p&gt;&lt;a href="https://mstdn.jp/tags/%E3%82%A2%E3%83%8B%E3%83%A1%E5%AE%9F%E6%B3%81" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;アニメ実況&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>1.118682985745037e+17</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>orbital</t>
+        </is>
+      </c>
+      <c r="D251" s="2" t="n">
+        <v>45325.69409722222</v>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;This ancient material [Cork] is displacing plastics and creating a billion-dollar industry&lt;/p&gt;&lt;p&gt;&lt;a href="https://wapo.st/3UnKTDh" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class=""&gt;wapo.st/3UnKTDh&lt;/span&gt;&lt;span class="invisible"&gt;&lt;/span&gt;&lt;/a&gt; &lt;/p&gt;&lt;p&gt;"Egyptians, Persians, Greeks and Romans used the material to make fishing gear, sandals and to seal jugs, jars and barrels. As glass bottles gained popularity in the 18th century, cork became the preferred sealant because it is durable, waterproof, light and pliable.&lt;/p&gt;&lt;p&gt;"Now cork is experiencing a revival as more industries look for sustainable alternatives to plastic and other materials derived from fossil fuels. The bark is now used for flooring and furniture, to make shoes and clothes and as insulation in homes and electric cars. Portugal’s exports reached an all-time high of 670 million euro ($728 million) in the first half of 2023."&lt;/p&gt;&lt;p&gt;&lt;a href="https://infosec.exchange/tags/sustainability" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;sustainability&lt;/span&gt;&lt;/a&gt; &lt;a href="https://infosec.exchange/tags/environment" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;environment&lt;/span&gt;&lt;/a&gt; &lt;a href="https://infosec.exchange/tags/green" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;green&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>1.118682985581826e+17</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>ja</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>MancodeBBQ</t>
+        </is>
+      </c>
+      <c r="D252" s="2" t="n">
+        <v>45325.69408564815</v>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;やよいちゃんでしか抜けない&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>1.118682985120393e+17</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>rff</t>
+        </is>
+      </c>
+      <c r="D253" s="2" t="n">
+        <v>45325.6940625</v>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Now playing on the radiofreefedi.net specialty channel:&lt;br&gt;&lt;br&gt;Absolve by Vince Nevers &lt;a href="https://mstdn.social/@vincenevers" rel="nofollow noopener noreferrer" target="_blank"&gt;https://mstdn.social/@vincenevers&lt;/a&gt;&lt;br&gt;© used with permission&lt;br&gt;&lt;a href="https://vincenevers.bandcamp.com/" rel="nofollow noopener noreferrer" target="_blank"&gt;https://vincenevers.bandcamp.com/&lt;/a&gt;&lt;br&gt;&lt;br&gt;Tune in now: &lt;a href="https://radiofreefedi.net" rel="nofollow noopener noreferrer" target="_blank"&gt;https://radiofreefedi.net&lt;/a&gt;&lt;br&gt;interact with &lt;span class="h-card"&gt;&lt;a href="https://musician.social/@radiofreefedi" class="u-url mention" rel="nofollow noopener noreferrer" target="_blank"&gt;@&lt;span&gt;radiofreefedi&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;br&gt;&lt;br&gt;your 24/7 community radio from the fediverse to the universe&lt;br&gt;&lt;a href="https://nowplaying.radiofreefedi.net/tags/rffplays" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;rffPlays&lt;/span&gt;&lt;/a&gt; &lt;a href="https://nowplaying.radiofreefedi.net/tags/rffspecialty" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;rffSpecialty&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>1.118682985108579e+17</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>50years_music</t>
+        </is>
+      </c>
+      <c r="D254" s="2" t="n">
+        <v>45325.69408564815</v>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;"Hit the Road Jack" is a song written by the rhythm and blues singer &lt;a href="https://mastodon.online/tags/PercyMayfield" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;PercyMayfield&lt;/span&gt;&lt;/a&gt; and recorded by &lt;a href="https://mastodon.online/tags/RayCharles" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;RayCharles&lt;/span&gt;&lt;/a&gt;. The song was a US number 1 hit in 1961, and won a &lt;a href="https://mastodon.online/tags/GrammyAward" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;GrammyAward&lt;/span&gt;&lt;/a&gt; for &lt;a href="https://mastodon.online/tags/BestRhythmAndBluesRecording" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;BestRhythmAndBluesRecording&lt;/span&gt;&lt;/a&gt;, becoming one of Charles' &lt;a href="https://mastodon.online/tags/signatureSongs" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;signatureSongs&lt;/span&gt;&lt;/a&gt;. The song was played in the 1995 film &lt;a href="https://mastodon.online/tags/GrumpierOldMen" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;GrumpierOldMen&lt;/span&gt;&lt;/a&gt;. &lt;br&gt;&lt;a href="https://youtu.be/uSiHqxgE2d0" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class=""&gt;youtu.be/uSiHqxgE2d0&lt;/span&gt;&lt;span class="invisible"&gt;&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>1.11868298472284e+17</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>ja</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>unarist</t>
+        </is>
+      </c>
+      <c r="D255" s="2" t="n">
+        <v>45325.6940625</v>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;んー、VRC SDKの通信をFiddlerで引っかけられん…&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>1.118682984682602e+17</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>MostlyHarmless</t>
+        </is>
+      </c>
+      <c r="D256" s="2" t="n">
+        <v>45325.69398148148</v>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Some mistakes are too much fun to only make once.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>1.118682984475121e+17</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>zh</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>loremipsumdolor</t>
+        </is>
+      </c>
+      <c r="D257" s="2" t="n">
+        <v>45325.69396990741</v>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;今天画画久违地找到了很小很小的时候完全不会画画的感觉...就是哪怕我对着别人的画一比一临摹，画出来的都不像，甚至开始气急败坏，我的手不是我的手，怎么会这样... :gudetama020:&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>1.118682984163759e+17</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>johnlray</t>
+        </is>
+      </c>
+      <c r="D258" s="2" t="n">
+        <v>45325.69407777778</v>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;hard to explain what a longboi he is. for reference: his legs are huge. like rabbit legs. he clears a 10-foot fence easily. they just look tiny in comparison to his long body. he&amp;#39;s like if a human was 9 feet tall. its hard to explain&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>1.118682983904922e+17</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>pt</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Pitico</t>
+        </is>
+      </c>
+      <c r="D259" s="2" t="n">
+        <v>45325.69407325231</v>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Serasse esse haxixe verdinho me ligaria a fiapeira&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>1.118682983740615e+17</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>NerdRelaxo</t>
+        </is>
+      </c>
+      <c r="D260" s="2" t="n">
+        <v>45325.6940703588</v>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Ich habe meine &lt;a href="https://mastodon.social/tags/Mamiya" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;Mamiya&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/RZ67" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;RZ67&lt;/span&gt;&lt;/a&gt; inkl. Magazin, Waistlevel-Finder und 110mm Objektiv in die Bucht gestellt. Und ein paar andere Objektive und Teile für die RZ67.&lt;/p&gt;&lt;p&gt;&lt;a href="https://mastodon.social/tags/FediFlohmarkt" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;FediFlohmarkt&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/analog" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;analog&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/Fotogrqafie" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;Fotogrqafie&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/Mittelformat" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;Mittelformat&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/PlsBoost" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;PlsBoost&lt;/span&gt;&lt;/a&gt; &lt;/p&gt;&lt;p&gt;&lt;a href="https://www.ebay.de/itm/204641464816?hash=item2fa594f1f0:g:1Q4AAOSwQhNlvkCd&amp;amp;amdata=enc%3AAQAIAAAA4EkrjbN7ncmtPCulMqQeMGczd4XmkdWkrcQRcMaefNPowOv6Yim%2BUSrj7cPrsk75Kl84lkprLQYG0N5Gl7EdVt1Sihnc7gjlbAXhWYksh0u28%2FbuIM28Yh9%2Fn31p7lyVTdj8oqdAz4g1U1mq%2Frvf0%2FVlZQmz1ke%2FlArA8eURc5us9xM2N%2BrIbkCb68DeYAFjUIRBI9JkYpKylnewuAlmzGw5DVDQsCi9cjF7b1YIyG8khr1PBvRG9MQ%2F%2FOUoQ3u2cLo1xxNOQDJ54Ay83ZLF0DOWkr2mhvVDgsKqki7WIEfw%7Ctkp%3ABk9SR4SI5fmtYw" target="_blank" rel="nofollow noopener noreferrer" translate="no"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;ebay.de/itm/204641464816?hash=&lt;/span&gt;&lt;span class="invisible"&gt;item2fa594f1f0:g:1Q4AAOSwQhNlvkCd&amp;amp;amdata=enc%3AAQAIAAAA4EkrjbN7ncmtPCulMqQeMGczd4XmkdWkrcQRcMaefNPowOv6Yim%2BUSrj7cPrsk75Kl84lkprLQYG0N5Gl7EdVt1Sihnc7gjlbAXhWYksh0u28%2FbuIM28Yh9%2Fn31p7lyVTdj8oqdAz4g1U1mq%2Frvf0%2FVlZQmz1ke%2FlArA8eURc5us9xM2N%2BrIbkCb68DeYAFjUIRBI9JkYpKylnewuAlmzGw5DVDQsCi9cjF7b1YIyG8khr1PBvRG9MQ%2F%2FOUoQ3u2cLo1xxNOQDJ54Ay83ZLF0DOWkr2mhvVDgsKqki7WIEfw%7Ctkp%3ABk9SR4SI5fmtYw&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>1.118682983660626e+17</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>jordinn</t>
+        </is>
+      </c>
+      <c r="D261" s="2" t="n">
+        <v>45325.69401620371</v>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Advisor/grant funding: You have to talk about buildings&lt;/p&gt;&lt;p&gt;Me: counterargument I do not&lt;/p&gt;&lt;p&gt;Advisor:&lt;/p&gt;&lt;p&gt;Me:&lt;/p&gt;&lt;p&gt;Advisor: what, then, will you research&lt;/p&gt;&lt;p&gt;Me: ALL OF THE WAYS THAT CHURCHES SURVIVE AND THRIVE AND ARE A DIVERSE ECONOMY OFTEN OVERLOOKED&lt;/p&gt;&lt;p&gt;Advisor: ok, cool. how will you ensure that your theorizing is grounded and robust&lt;/p&gt;&lt;p&gt;Me: I will use a participatory model and begin by consulting the communities affected&lt;/p&gt;&lt;p&gt;Communities affected: we really, really need u to talk about buildings&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>1.118682983409595e+17</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>robertelectricity</t>
+        </is>
+      </c>
+      <c r="D262" s="2" t="n">
+        <v>45325.69405092593</v>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;I do not like video games that do not give you a clear indication of where to go. If I wanted to wander aimlessly, I would go to a mall.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>1.118682983333483e+17</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>es</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>emilioquiroz</t>
+        </is>
+      </c>
+      <c r="D263" s="2" t="n">
+        <v>45325.69405092593</v>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;5 Useful Shell Scripts for Linux Newbies – Part II&lt;br&gt;&lt;a href="https://www.tecmint.com/basic-shell-programming-part-ii/" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;tecmint.com/basic-shell-progra&lt;/span&gt;&lt;span class="invisible"&gt;mming-part-ii/&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>1.118682983273572e+17</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>kevin</t>
+        </is>
+      </c>
+      <c r="D264" s="2" t="n">
+        <v>45325.69405092593</v>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Looks like &lt;span class="h-card" translate="no"&gt;&lt;a href="https://mastodon.social/@mastohost" class="u-url mention" rel="nofollow noopener noreferrer" target="_blank"&gt;@&lt;span&gt;mastohost&lt;/span&gt;&lt;/a&gt;&lt;/span&gt; has already updated for the Mastodon account take over security issue. Thanks!&lt;/p&gt;&lt;p&gt;&lt;a href="https://www.bleepingcomputer.com/news/security/mastodon-vulnerability-allows-attackers-to-take-over-accounts/" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;bleepingcomputer.com/news/secu&lt;/span&gt;&lt;span class="invisible"&gt;rity/mastodon-vulnerability-allows-attackers-to-take-over-accounts/&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>1.118682983079824e+17</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>pierogiburo</t>
+        </is>
+      </c>
+      <c r="D265" s="2" t="n">
+        <v>45325.69401620371</v>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;i need to buy&lt;/p&gt;&lt;p&gt;several liters of carrot juice&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>1.118682982773334e+17</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>ua</t>
+        </is>
+      </c>
+      <c r="D266" s="2" t="n">
+        <v>45325.6937962963</v>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;TRANSLATION :&lt;br&gt;Two Lada Kalinas&lt;br&gt;  &lt;br&gt; &lt;a href="https://t.me/operativnoZSU" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class=""&gt;t.me/operativnoZSU&lt;/span&gt;&lt;span class="invisible"&gt;&lt;/span&gt;&lt;/a&gt;&lt;br&gt;ORIGINAL :&lt;br&gt;Дві "Лада Калина"  &lt;br&gt;  &lt;br&gt; 🫡&lt;a href="https://t.me/operativnoZSU" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class=""&gt;t.me/operativnoZSU&lt;/span&gt;&lt;span class="invisible"&gt;&lt;/span&gt;&lt;/a&gt;&lt;br&gt;SOURCE :&lt;br&gt;&lt;a href="https://t.me/operativnoZSU/133912" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class=""&gt;t.me/operativnoZSU/133912&lt;/span&gt;&lt;span class="invisible"&gt;&lt;/span&gt;&lt;/a&gt;&lt;br&gt;Оперативний ЗСУ &lt;br&gt;Media : &lt;a href="https://ukraine.osintukraine.com/media/2024-01-27/630092.jpg" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;ukraine.osintukraine.com/media&lt;/span&gt;&lt;span class="invisible"&gt;/2024-01-27/630092.jpg&lt;/span&gt;&lt;/a&gt; &lt;br&gt;Archive : &lt;a href="https://ukraine.osintukraine.com/2024-01_25.html#630092" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;ukraine.osintukraine.com/2024-&lt;/span&gt;&lt;span class="invisible"&gt;01_25.html#630092&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>1.1186829823736e+17</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>de</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>susammelsurium</t>
+        </is>
+      </c>
+      <c r="D267" s="2" t="n">
+        <v>45325.69403935185</v>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Ich weiß, die Bauarbeiten sind sicher alle notwendig, aber ich wünsche mir trotzdem zur Abwechslung mal wieder ein Wochenende, an dem in Hamburg die S-Bahnen fahren, wie es im Fahrplan steht. (Wenigstens vonge Streckenführung her.)&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>1.118682982223351e+17</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>cojobud</t>
+        </is>
+      </c>
+      <c r="D268" s="2" t="n">
+        <v>45325.69404350694</v>
+      </c>
+      <c r="E268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>1.118682982080075e+17</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Shebeencounter</t>
+        </is>
+      </c>
+      <c r="D269" s="2" t="n">
+        <v>45325.69402777778</v>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;I think if people observed how the New York Times carefully cultivated and curated popular support for things like Jim Crow, carceral culture, the Iraq War and garden-variety apartheid in Palestine, they would have been far more prepared for things like their baseline transphobic perspective and perhaps never would have been a subscriber in the first place.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>1.11868298182758e+17</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>ja</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Got9</t>
+        </is>
+      </c>
+      <c r="D270" s="2" t="n">
+        <v>45325.69403657407</v>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;そこまで熱中はしていなかったんだけどなぁ。&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>1.118682981809712e+17</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>jamesgraham</t>
+        </is>
+      </c>
+      <c r="D271" s="2" t="n">
+        <v>45325.69401620371</v>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;It's been month since my cancer announcement so I thought I'd give people a short update (spoiler alert: it isn't entirely good news): &lt;a href="https://www.theliberati.net/quaequamblog/2024/02/03/leukemia-update/" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;theliberati.net/quaequamblog/2&lt;/span&gt;&lt;span class="invisible"&gt;024/02/03/leukemia-update/&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>1.118682981557104e+17</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>de</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>moranaga</t>
+        </is>
+      </c>
+      <c r="D272" s="2" t="n">
+        <v>45325.69398148148</v>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Das Von-Leitner-Exzellenzzentrum für verteiltes Echtzeit-Java im Internationalen Agilitäts-Spitzencluster weist diskret darauf hin, dass bei Apple einige brillante, progressiv denkende, agile Hipster das Umfüllen sehr alten Weins in brandneue Schläuche erfunden haben.&lt;br&gt;Der Verweis auf xkcd erfolgt dann am Ende auch nicht von ganz ungefähr.&lt;/p&gt;&lt;p&gt;&lt;a href="https://blog.fefe.de/?ts=9b408dfa" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class=""&gt;blog.fefe.de/?ts=9b408dfa&lt;/span&gt;&lt;span class="invisible"&gt;&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>1.118682981462895e+17</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>nutting</t>
+        </is>
+      </c>
+      <c r="D273" s="2" t="n">
+        <v>45325.69403087963</v>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;thatsfraziness: @pswurtz &lt;a href="https://t.co/M4Rz82N08Q" target="_blank" rel="nofollow noopener noreferrer" translate="no"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class=""&gt;t.co/M4Rz82N08Q&lt;/span&gt;&lt;span class="invisible"&gt;&lt;/span&gt;&lt;/a&gt; &lt;a href="https://twitter.com/thatsfraziness/status/1753595517605458397" target="_blank" rel="nofollow noopener noreferrer" translate="no"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;twitter.com/thatsfraziness/sta&lt;/span&gt;&lt;span class="invisible"&gt;tus/1753595517605458397&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>1.118682981182028e+17</v>
+      </c>
+      <c r="B274" t="inlineStr"/>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Pisica_Pustnic</t>
+        </is>
+      </c>
+      <c r="D274" s="2" t="n">
+        <v>45325.6940209838</v>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;span&gt;今年の春節は2月10日&lt;/span&gt;​:kirakira_subnyan:​&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>1.118682980800047e+17</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>samcogan</t>
+        </is>
+      </c>
+      <c r="D275" s="2" t="n">
+        <v>45325.69400462963</v>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Understand all the container hosting options in Azure in less than 60 seconds, Check my latest Azure Snippet, my bitesize Azure videos. &lt;a href="https://youtube.com/shorts/u1x2ZYymt5o?feature=share&amp;amp;utm_content=bufferb2e11&amp;amp;utm_medium=social&amp;amp;utm_source=twitter.com&amp;amp;utm_campaign=buffer" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;youtube.com/shorts/u1x2ZYymt5o&lt;/span&gt;&lt;span class="invisible"&gt;?feature=share&amp;amp;utm_content=bufferb2e11&amp;amp;utm_medium=social&amp;amp;utm_source=twitter.com&amp;amp;utm_campaign=buffer&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>1.1186829804028e+17</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>ja</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>puwason01</t>
+        </is>
+      </c>
+      <c r="D276" s="2" t="n">
+        <v>45325.69399305555</v>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;ﾉ(＾ω＾)ιι&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>1.118682980385536e+17</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>andycarolan</t>
+        </is>
+      </c>
+      <c r="D277" s="2" t="n">
+        <v>45325.69391203704</v>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;I just watched my son playing Forza Horizon 4 (The UK version)… &lt;/p&gt;&lt;p&gt;In five minutes of watching him play, the weather was rainy, he was stuck behind a tractor and then a coach.&lt;/p&gt;&lt;p&gt;So, all in all, pretty authentic 🤦‍♂️&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>1.118682980228372e+17</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>ja</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>yoiyointo</t>
+        </is>
+      </c>
+      <c r="D278" s="2" t="n">
+        <v>45325.69400462963</v>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;14個のボタンと2枚の皿回すのも大概だった。&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>1.118682980053701e+17</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>prophetootiae</t>
+        </is>
+      </c>
+      <c r="D279" s="2" t="n">
+        <v>45325.69398148148</v>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Virgo shall climb on the back of Sagittarius and so let droop its maiden blossoms.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>1.118682980023912e+17</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>zh</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>dawningli</t>
+        </is>
+      </c>
+      <c r="D280" s="2" t="n">
+        <v>45325.69399305555</v>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;躺在床上还在想花轮怎么就死了&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>1.118683054331903e+17</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>fr</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>jelora</t>
+        </is>
+      </c>
+      <c r="D281" s="2" t="n">
+        <v>45325.69516203704</v>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Le traitement des bandes vidéo EAIJ a terminé ! &lt;br&gt;J’ai pu tenter les lires&lt;br&gt;La 1ère avec de la musique et des jeunes dont j’avais déjà parlé a pu être lue et numérisée !&lt;br&gt;Il s’agit de l’enregistrement de la préparation et du concert du groupe «&amp;nbsp;La Chiffonie&amp;nbsp;» dont la musique «&amp;nbsp;Au dessus du pont&amp;nbsp;» qu’on entend au début est sortie en 1980&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>1.118683054259256e+17</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>fr</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>LilyBones</t>
+        </is>
+      </c>
+      <c r="D282" s="2" t="n">
+        <v>45325.69528935185</v>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;a href="https://mamot.fr/tags/rx3" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;rx3&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mamot.fr/tags/nowplaying" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;nowplaying&lt;/span&gt;&lt;/a&gt; HOWLING GIANT - Luring Alluring Rings&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>1.118683054239766e+17</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>ja</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>chiwawawa</t>
+        </is>
+      </c>
+      <c r="D283" s="2" t="n">
+        <v>45325.69530092592</v>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;プイッキュアわかんないだけなんだすまん&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>1.118683054125606e+17</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>europesays</t>
+        </is>
+      </c>
+      <c r="D284" s="2" t="n">
+        <v>45325.69523148148</v>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;a href="https://www.europesays.com/1036379/" rel="nofollow noopener noreferrer" target="_blank"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class=""&gt;europesays.com/1036379/&lt;/span&gt;&lt;span class="invisible"&gt;&lt;/span&gt;&lt;/a&gt; Just found this in the back of the cupboard! &lt;a href="https://pubeurope.com/tags/ireland" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;ireland&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>1.118683054114983e+17</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>iembot_pub</t>
+        </is>
+      </c>
+      <c r="D285" s="2" t="n">
+        <v>45325.69530092592</v>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;a href="https://bots.krohsnest.com/tags/COweather" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;COweather&lt;/span&gt;&lt;/a&gt; &lt;a href="https://bots.krohsnest.com/tags/COwx" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;COwx&lt;/span&gt;&lt;/a&gt;&lt;br&gt;770 &lt;br&gt;NWUS55 KPUB 031540&lt;br&gt;LSRPUB&lt;/p&gt;&lt;p&gt;Preliminary Local Storm Report&lt;br&gt;National Weather Service Pueblo CO&lt;br&gt;840 AM MST Sat Feb 3 2024&lt;/p&gt;&lt;p&gt;..TIME...   ...EVENT...      ...CITY LOCATION...     ...LAT.LON...&lt;br&gt;..DATE...   ....MAG....      ..COUNTY LOCATION..ST.. ...SOURCE....&lt;br&gt;            ..REMARKS..&lt;/p&gt;&lt;p&gt;0839 AM     Snow             Creede                  37.85N 106.93W&lt;br&gt;02/03/2024  M5.0 inch        Mineral             &lt;a href="https://mesonet.agron.iastate.edu/lsr/#PUB/202402031539/202402031539" rel="nofollow noopener noreferrer" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;mesonet.agron.iastate.edu/lsr/&lt;/span&gt;&lt;span class="invisible"&gt;#PUB/202402031539/202402031539&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>1.118683053930711e+17</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>de</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>RMV_Verkehrsmeldungen</t>
+        </is>
+      </c>
+      <c r="D286" s="2" t="n">
+        <v>45325.69530092592</v>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;#&lt;a href="https://hessen.social/tags/RB58" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;RB58&lt;/span&gt;&lt;/a&gt;: aktuelle Störung (Stand 03.02., 16:30 Uhr)&lt;/p&gt;&lt;p&gt;03.02.2024  - Dauer unbekannt&lt;br&gt;Es kommt zu Verspätungen und Fahrtausfällen aufgrund eines Notarzteinsatzes.&lt;br&gt;&lt;a href="https://www.rmv.de/c/de/fahrplan/verbindungssuche-hinweise/verkehrsmeldungen?selectedhimid=2146003#content" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;rmv.de/c/de/fahrplan/verbindun&lt;/span&gt;&lt;span class="invisible"&gt;gssuche-hinweise/verkehrsmeldungen?selectedhimid=2146003#content&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>1.118683053686206e+17</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>dungeons</t>
+        </is>
+      </c>
+      <c r="D287" s="2" t="n">
+        <v>45325.69530559028</v>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;You rested peacefully through the night, regaining 21 hitpoints and 5 hitdice.&lt;br /&gt;---&lt;br /&gt;You are safe in a small village, what would you like to do?&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>1.118683053223319e+17</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>zh-CN</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>Shaw999</t>
+        </is>
+      </c>
+      <c r="D288" s="2" t="n">
+        <v>45325.69524305555</v>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;怎么会有这么可爱的我紫砂了&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>1.118683053054643e+17</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>AshleyYelhsa1</t>
+        </is>
+      </c>
+      <c r="D289" s="2" t="n">
+        <v>45325.69524305555</v>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;If you want to keep seeing these photos here, go buy my porn or tip me 🥰&lt;/p&gt;&lt;p&gt;&lt;a href="https://linktr.ee/ashleynichole1" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class=""&gt;linktr.ee/ashleynichole1&lt;/span&gt;&lt;span class="invisible"&gt;&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;&lt;p&gt;From: &lt;span class="h-card" translate="no"&gt;&lt;a href="https://kinkyelephant.com/@AshleyYelhsa1" class="u-url mention" rel="nofollow noopener noreferrer" target="_blank"&gt;@&lt;span&gt;AshleyYelhsa1&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;br&gt;&lt;a href="https://kinkyelephant.com/@AshleyYelhsa1/111828581046871957" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;kinkyelephant.com/@AshleyYelhs&lt;/span&gt;&lt;span class="invisible"&gt;a1/111828581046871957&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>1.118683053046647e+17</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>cd0</t>
+        </is>
+      </c>
+      <c r="D290" s="2" t="n">
+        <v>45325.69529428241</v>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Although &lt;a href="https://mastodon.social/tags/Terrain3D" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;Terrain3D&lt;/span&gt;&lt;/a&gt; works perfectly in VR, there are still some problems with &lt;a href="https://mastodon.social/tags/GodotEngine" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;GodotEngine&lt;/span&gt;&lt;/a&gt; VR. One of the worst is directional light shadows are very unstable. But you will also run into combinations of rendering settings that just result in a black screen.&lt;/p&gt;&lt;p&gt;Reminds me of the old days when software would have a &amp;quot;do you want to keep these settings?&amp;quot; which automatically revert after a timeout if you can&amp;#39;t see the message.&lt;/p&gt;&lt;p&gt;&lt;a href="https://github.com/godotengine/godot/issues/84510" target="_blank" rel="nofollow noopener noreferrer" translate="no"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;github.com/godotengine/godot/i&lt;/span&gt;&lt;span class="invisible"&gt;ssues/84510&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>1.118683053037313e+17</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>EmmyK</t>
+        </is>
+      </c>
+      <c r="D291" s="2" t="n">
+        <v>45325.69529425926</v>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;a href="https://open.spotify.com/track/4tVuJlQ2qdmAhq1yRH9k7D?si=k8O8DGl-RGiuasUjrXLWGw" target="_blank" rel="nofollow noopener noreferrer" translate="no"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;open.spotify.com/track/4tVuJlQ&lt;/span&gt;&lt;span class="invisible"&gt;2qdmAhq1yRH9k7D?si=k8O8DGl-RGiuasUjrXLWGw&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>1.118683052839536e+17</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>fr</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>gamerslive</t>
+        </is>
+      </c>
+      <c r="D292" s="2" t="n">
+        <v>45325.69529063658</v>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Ahsoka : avant la saison 2, la Jedi bientôt de retour dans cette nouvelle oeuvre &lt;a href="https://gamerslive.fr/ahsoka-avant-la-saison-2-la-jedi-bientot-de-retour-dans-cette-nouvelle-oeuvre-56106.html?utm_source=dlvr.it&amp;amp;utm_medium=mastodon" target="_blank" rel="nofollow noopener noreferrer" translate="no"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;gamerslive.fr/ahsoka-avant-la-&lt;/span&gt;&lt;span class="invisible"&gt;saison-2-la-jedi-bientot-de-retour-dans-cette-nouvelle-oeuvre-56106.html?utm_source=dlvr.it&amp;amp;utm_medium=mastodon&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>1.118683052550375e+17</v>
+      </c>
+      <c r="B293" t="inlineStr"/>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>ai</t>
+        </is>
+      </c>
+      <c r="D293" s="2" t="n">
+        <v>45325.69526487269</v>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;span&gt;サーバーの負荷が高そう...大丈夫かな...？&lt;/span&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>1.118683052511416e+17</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>tr</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>tramboline</t>
+        </is>
+      </c>
+      <c r="D294" s="2" t="n">
+        <v>45325.69528483797</v>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;NewJeans draw hundreds of ‘bunnies’ with first S’pore performance at Nike Orchard&lt;/p&gt;&lt;p&gt;SINGAPORE - When a man in the audience yelled “chilli crab” at NewJeans during their whirlwind 20-minute appearance at Nike’s newly opened three-storey flagship store on Orchard Road on Feb 3, member Hyein was so visibly shocked by the volume, she took a step back. But the fans cannot be blamed for their enthusiasm in recommending the popular K-pop girl group some local cuisine.&lt;/p&gt;&lt;p&gt;&lt;a href="https://www.tramboline.com/newjeans-draw-hundreds-of-bunnies-with-first-spore-performance-at-nike-orchard/" target="_blank" rel="nofollow noopener noreferrer" translate="no"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;tramboline.com/newjeans-draw-h&lt;/span&gt;&lt;span class="invisible"&gt;undreds-of-bunnies-with-first-spore-performance-at-nike-orchard/&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>1.118683052384785e+17</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>OS1337</t>
+        </is>
+      </c>
+      <c r="D295" s="2" t="n">
+        <v>45325.69527777778</v>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Bad memes aside...&lt;br&gt;&lt;a href="https://www.youtube.com/watch?v=yK1F2X4f0Tc" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;youtube.com/watch?v=yK1F2X4f0T&lt;/span&gt;&lt;span class="invisible"&gt;c&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>1.118683052133725e+17</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>vingtroiseize</t>
+        </is>
+      </c>
+      <c r="D296" s="2" t="n">
+        <v>45325.69524305555</v>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;a href="https://mastodon.world/tags/Microsoft" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;Microsoft&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.world/tags/FlightSimulator" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;FlightSimulator&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.world/tags/videogames" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;videogames&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>1.118683052125526e+17</v>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>zh</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>loremipsumdolor</t>
+        </is>
+      </c>
+      <c r="D297" s="2" t="n">
+        <v>45325.69484953704</v>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;最近心态很差怎么回事 :gudetama020: 放在以前画不出来就不画了！今天怎么回事...&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>1.118683052050913e+17</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>tr</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>idrak34</t>
+        </is>
+      </c>
+      <c r="D298" s="2" t="n">
+        <v>45325.69527674768</v>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;a href="https://mastodon.social/tags/Ekonomi" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;Ekonomi&lt;/span&gt;&lt;/a&gt; Deprem sonrası vergiyle ilgili çok sayıda tedbir ve destek devreye alındı &lt;a href="https://www.idrak34.com/haber/deprem-sonrasi-vergiyle-ilgili-cok-sayida-tedbir-ve-destek-devreye-alindi-281863.html?utm_source=dlvr.it&amp;amp;utm_medium=mastodon" target="_blank" rel="nofollow noopener noreferrer" translate="no"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;idrak34.com/haber/deprem-sonra&lt;/span&gt;&lt;span class="invisible"&gt;si-vergiyle-ilgili-cok-sayida-tedbir-ve-destek-devreye-alindi-281863.html?utm_source=dlvr.it&amp;amp;utm_medium=mastodon&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>1.118683052033266e+17</v>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>ja</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>Ship_plat</t>
+        </is>
+      </c>
+      <c r="D299" s="2" t="n">
+        <v>45325.6952662037</v>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;自分から性欲を切り離したい&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>1.118683051873673e+17</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>es</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>canal26</t>
+        </is>
+      </c>
+      <c r="D300" s="2" t="n">
+        <v>45325.69527355324</v>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Rusia expresa su rechazo a los bombardeos estadounidenses en Irak y Siria &lt;a href="https://www.canal26.com/internacionales/rusia-expresa-su-rechazo-a-los-bombardeos-estadounidenses-en-irak-y-siria--363969?utm_campaign=dlvr.it&amp;amp;utm_medium=mastodon_canal26&amp;amp;utm_source=Mastodon" target="_blank" rel="nofollow noopener noreferrer" translate="no"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;canal26.com/internacionales/ru&lt;/span&gt;&lt;span class="invisible"&gt;sia-expresa-su-rechazo-a-los-bombardeos-estadounidenses-en-irak-y-siria--363969?utm_campaign=dlvr.it&amp;amp;utm_medium=mastodon_canal26&amp;amp;utm_source=Mastodon&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/Internacionales" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;Internacionales&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>1.118683051806247e+17</v>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>miguelpergamon</t>
+        </is>
+      </c>
+      <c r="D301" s="2" t="n">
+        <v>45325.69525462963</v>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Vacuum Sucks &lt;/p&gt;&lt;p&gt;&lt;a href="https://kolektiva.social/tags/Wordpress" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;Wordpress&lt;/span&gt;&lt;/a&gt; &lt;a href="https://kolektiva.social/tags/Quangobaud" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;Quangobaud&lt;/span&gt;&lt;/a&gt; &lt;/p&gt;&lt;p&gt;&lt;a href="https://quangobaud.wordpress.com/custer-fuchs-2024-02/vacuum-sucks/" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;quangobaud.wordpress.com/custe&lt;/span&gt;&lt;span class="invisible"&gt;r-fuchs-2024-02/vacuum-sucks/&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>1.118683051120857e+17</v>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>allixender</t>
+        </is>
+      </c>
+      <c r="D302" s="2" t="n">
+        <v>45325.69525462963</v>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Do it 🌐&lt;/p&gt;&lt;p&gt;RE: &lt;a href="https://fosstodon.org/@ianturton/111868217316770398" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;fosstodon.org/@ianturton/11186&lt;/span&gt;&lt;span class="invisible"&gt;8217316770398&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>1.118683051119723e+17</v>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>ja</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>m_manekineko</t>
+        </is>
+      </c>
+      <c r="D303" s="2" t="n">
+        <v>45325.69521990741</v>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;笑わせてもらった。これは酷いねw。&lt;/p&gt;&lt;p&gt;&lt;a href="https://fedibird.com/tags/fedibird" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;fedibird&lt;/span&gt;&lt;/a&gt; &lt;/p&gt;&lt;p&gt;“それ”がいる森 &lt;a href="https://www.amazon.co.jp/gp/video/detail/B0B8RL6MQ9/ref=atv_dp_share_r_tw_ba822cf8698d4" rel="nofollow noopener noreferrer" target="_blank"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;amazon.co.jp/gp/video/detail/B&lt;/span&gt;&lt;span class="invisible"&gt;0B8RL6MQ9/ref=atv_dp_share_r_tw_ba822cf8698d4&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>1.118683050901869e+17</v>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>CodenameTim</t>
+        </is>
+      </c>
+      <c r="D304" s="2" t="n">
+        <v>45325.69524305555</v>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;span class="h-card" translate="no"&gt;&lt;a href="https://mathstodon.xyz/@nmenezes0" class="u-url mention" rel="nofollow noopener noreferrer" target="_blank"&gt;@&lt;span&gt;nmenezes0&lt;/span&gt;&lt;/a&gt;&lt;/span&gt; welcome to the fediverse Nina!&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>1.11868305063604e+17</v>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>blueyborpbot</t>
+        </is>
+      </c>
+      <c r="D305" s="2" t="n">
+        <v>45325.69521990741</v>
+      </c>
+      <c r="E305" t="inlineStr"/>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>1.118683050528952e+17</v>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>nachtet</t>
+        </is>
+      </c>
+      <c r="D306" s="2" t="n">
+        <v>45325.69523148148</v>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;So nämlich! 🥰&lt;/p&gt;&lt;p&gt;&lt;a href="https://norden.social/tags/hannover" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;hannover&lt;/span&gt;&lt;/a&gt;&lt;br&gt;&lt;a href="https://norden.social/tags/amorvincitomnia" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;amorvincitomnia&lt;/span&gt;&lt;/a&gt;&lt;br&gt;&lt;a href="https://norden.social/tags/wirsinddiebrandmauer" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;wirsinddiebrandmauer&lt;/span&gt;&lt;/a&gt;&lt;br&gt;&lt;a href="https://norden.social/tags/niewiederistjetzt" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;niewiederistjetzt&lt;/span&gt;&lt;/a&gt;&lt;br&gt;&lt;a href="https://norden.social/tags/afd" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;afd&lt;/span&gt;&lt;/a&gt; &lt;br&gt;&lt;a href="https://norden.social/tags/noafd" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;noafd&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>1.118683050358355e+17</v>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>ko</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>Name_lume</t>
+        </is>
+      </c>
+      <c r="D307" s="2" t="n">
+        <v>45325.69517361111</v>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;첫구상이랑 최종이 완전달라진경우 &lt;br&gt;왼쪽이 첫구상 오른쪽이 완성(ㅋㅋㅜㅜ)&lt;br&gt;민감미디어: 해파리랑 이것저것 인외 섞은것이 왼쪽에 있음&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>1.118683050067682e+17</v>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>zh-CN</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>doombot</t>
+        </is>
+      </c>
+      <c r="D308" s="2" t="n">
+        <v>45325.69521990741</v>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;更加恶心的是要让shov也和你走，who do you think you are? 买棵树吗 :Parrot16:&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>1.118683049832658e+17</v>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>de</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>gwb</t>
+        </is>
+      </c>
+      <c r="D309" s="2" t="n">
+        <v>45325.69515046296</v>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;a href="https://social.beachcom.org/tags/GWB" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;GWB&lt;/span&gt;&lt;/a&gt; - Android Auto: Alternativer Launcher für Smartphone-Nutzer – bringt das alte Android Auto-Konzept zurück - &lt;a href="https://www.googlewatchblog.de/2024/02/android-auto-alternativer-launcher-smartphone-app/" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;googlewatchblog.de/2024/02/and&lt;/span&gt;&lt;span class="invisible"&gt;roid-auto-alternativer-launcher-smartphone-app/&lt;/span&gt;&lt;/a&gt; &lt;a href="https://social.beachcom.org/tags/androidauto" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;androidauto&lt;/span&gt;&lt;/a&gt; &lt;a href="https://social.beachcom.org/tags/Google" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;Google&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>1.118683049356996e+17</v>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>randomtrees</t>
+        </is>
+      </c>
+      <c r="D310" s="2" t="n">
+        <v>45325.69505787037</v>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Would you like a tree in this trying time?  It has 263 nodes, descending 54 nodes down.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>1.118683048986983e+17</v>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>servebot3000</t>
+        </is>
+      </c>
+      <c r="D311" s="2" t="n">
+        <v>45325.69517361111</v>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Celebrity alert! Hillary Clinton spotted in Simona Halep's player box&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>1.118683048936549e+17</v>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>ctvmontreal_mirror</t>
+        </is>
+      </c>
+      <c r="D312" s="2" t="n">
+        <v>45325.69519675926</v>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Snowmobiler dies in crash at Lac-Saint-Jean, Que.&lt;br&gt;A man was killed on Saturday in a snowmobile accident at Hébertville-Station, in the Saguenay-Lac-Saint-Jean region of Quebec.&lt;br&gt;&lt;a href="https://mastodon.hongkongers.net/tags/ctv" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;ctv&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.hongkongers.net/tags/news" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;news&lt;/span&gt;&lt;/a&gt; &lt;br&gt;&lt;a href="https://montreal.ctvnews.ca/snowmobiler-dies-in-crash-at-lac-saint-jean-que-1.6754437" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;montreal.ctvnews.ca/snowmobile&lt;/span&gt;&lt;span class="invisible"&gt;r-dies-in-crash-at-lac-saint-jean-que-1.6754437&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>1.118683048877266e+17</v>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>WarnerCrocker</t>
+        </is>
+      </c>
+      <c r="D313" s="2" t="n">
+        <v>45325.69522064815</v>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Terrific review of the Apple Vision Pro. &lt;/p&gt;&lt;p&gt;Apple Vision Pro review: the infinite desktop &lt;br /&gt;&lt;a href="https://mastodon.social/tags/Apple" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;Apple&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/AppleVisionPro" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;AppleVisionPro&lt;/span&gt;&lt;/a&gt;&lt;br /&gt;&lt;a href="https://techcrunch.com/2024/02/03/apple-vision-pro-review-the-infinite-desktop/" target="_blank" rel="nofollow noopener noreferrer" translate="no"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;techcrunch.com/2024/02/03/appl&lt;/span&gt;&lt;span class="invisible"&gt;e-vision-pro-review-the-infinite-desktop/&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>1.118683048797639e+17</v>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>kpop</t>
+        </is>
+      </c>
+      <c r="D314" s="2" t="n">
+        <v>45325.69518518518</v>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;a href="https://www.wacoca.com/kpop/899245/niziu/2024-02-03/" rel="nofollow noopener noreferrer" target="_blank"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;wacoca.com/kpop/899245/niziu/2&lt;/span&gt;&lt;span class="invisible"&gt;024-02-03/&lt;/span&gt;&lt;/a&gt; [&lt;a href="https://wakoka.com/tags/NiziU_BDay" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;NiziU_BDay&lt;/span&gt;&lt;/a&gt;] RIO’s Birthday Party🐣🩵 &lt;a href="https://wakoka.com/tags/NiziU" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;NiziU&lt;/span&gt;&lt;/a&gt; &lt;a href="https://wakoka.com/tags/NiziUOfficialYoutube" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;NiziUOfficialYoutube&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>1.118683048651466e+17</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>ja</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>Nekowashi_R</t>
+        </is>
+      </c>
+      <c r="D315" s="2" t="n">
+        <v>45325.69519675926</v>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;こうやって見ると、杜山しえみってアークナイツのハイビスカスっぽいな&lt;br&gt;(´・ω・｀)&lt;/p&gt;&lt;p&gt;&lt;a href="https://mstdn.jp/tags/%E3%82%A2%E3%83%8B%E3%83%A1%E5%AE%9F%E6%B3%81" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;アニメ実況&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>1.118683048388915e+17</v>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>it</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>gaiaitaliacom</t>
+        </is>
+      </c>
+      <c r="D316" s="2" t="n">
+        <v>45325.69521206019</v>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Artemisia Gentileschi a Palazzo Ducale a Genova. Il primo &lt;a href="https://mastodon.social/tags/podcast" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;podcast&lt;/span&gt;&lt;/a&gt; sull’evento di Emilio Campanella &lt;a href="https://www.gaiaitalia.com/2024/02/03/artemisia-gentileschi-a-palazzo-ducale-a-genova-il-primo-podcast-sullevento-di-emilio-campanella/" target="_blank" rel="nofollow noopener noreferrer" translate="no"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;gaiaitalia.com/2024/02/03/arte&lt;/span&gt;&lt;span class="invisible"&gt;misia-gentileschi-a-palazzo-ducale-a-genova-il-primo-podcast-sullevento-di-emilio-campanella/&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>1.118683048183238e+17</v>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>rocfirefeed</t>
+        </is>
+      </c>
+      <c r="D317" s="2" t="n">
+        <v>45325.69519675926</v>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;PARKING INCIDENT at 993 MONROE AVE ROC &lt;a href="https://universeodon.com/tags/ROC" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;ROC&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>1.118683048145453e+17</v>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>nl</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>Portal4Cars</t>
+        </is>
+      </c>
+      <c r="D318" s="2" t="n">
+        <v>45325.69520819445</v>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;EV Range Vs. The Cold: Chinese Model Slays Tesla, Toyota &amp;amp; VW In Winter Test: It’s a well-known fact that colder temperatures can reduce the driving range of electric vehicles. However, a recent test in Norway revealed a winter efficiency champion: China’s Human Horizons HiPhi Z. Not only did it minimize winter weather range losses to just 5.9%, but it also outperformed all competitors in actual winter range.  &lt;br /&gt;  &lt;br /&gt;  &lt;br /&gt;  &lt;br /&gt;  &lt;br /&gt;  &lt;br /&gt;  &lt;br /&gt;  &lt;br /&gt;The Human Horizons HiPhi Z joined a lineup&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>1.11868304805715e+17</v>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>amir2000</t>
+        </is>
+      </c>
+      <c r="D319" s="2" t="n">
+        <v>45325.69515046296</v>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;View of Grand Teton at &lt;a href="https://mstdn.social/tags/nationalelkrefuge" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;nationalelkrefuge&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mstdn.social/tags/Wyoming" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;Wyoming&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mstdn.social/tags/winter" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;winter&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mstdn.social/tags/wonderland" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;wonderland&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mstdn.social/tags/usa" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;usa&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mstdn.social/tags/nature" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;nature&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mstdn.social/tags/photo" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;photo&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mstdn.social/tags/fotograaf" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;fotograaf&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mstdn.social/tags/photography" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;photography&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mstdn.social/tags/canon" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;canon&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mstdn.social/tags/eos5dmark4" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;eos5dmark4&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mstdn.social/tags/grandtetonnationalpark" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;grandtetonnationalpark&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mstdn.social/tags/grandteton" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;grandteton&lt;/span&gt;&lt;/a&gt;📷 1/3&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>1.118683048050235e+17</v>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>lukazone</t>
+        </is>
+      </c>
+      <c r="D320" s="2" t="n">
+        <v>45325.69520601852</v>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Шафиков Александр Сергеевич&lt;/p&gt;&lt;p&gt;Милиция.&lt;/p&gt;&lt;p&gt;&lt;a href="https://luka.zone/person/92d63e9d-11b6-4687-b5e7-e34ceff07fd9" target="_blank" rel="nofollow noopener noreferrer" translate="no"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;luka.zone/person/92d63e9d-11b6&lt;/span&gt;&lt;span class="invisible"&gt;-4687-b5e7-e34ceff07fd9&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>1.11868307038969e+17</v>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>the_colorado_sound_playlist</t>
+        </is>
+      </c>
+      <c r="D321" s="2" t="n">
+        <v>45325.69560056713</v>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;8:41a Hard to Explain by Strokes from Is This It&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>1.118683070329068e+17</v>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>storedin</t>
+        </is>
+      </c>
+      <c r="D322" s="2" t="n">
+        <v>45325.69556712963</v>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;bed is stored in the bottle of pills&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>1.118683069893532e+17</v>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>ja</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>Zongora</t>
+        </is>
+      </c>
+      <c r="D323" s="2" t="n">
+        <v>45325.69556712963</v>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;文字盤等のデザインがこれ以上いじれないのでねえ...&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>1.118683069859824e+17</v>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>Basenotes</t>
+        </is>
+      </c>
+      <c r="D324" s="2" t="n">
+        <v>45325.69556712963</v>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Bruno Banani extends license deal with Coty for an additional 20 years. &lt;a href="https://basenotes.com/uncategorised/bruno-banani-extends-license-deal-with-coty-for-an-additional-20-years/?utm_source=dlvr.it&amp;amp;utm_medium=mastodon" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;basenotes.com/uncategorised/br&lt;/span&gt;&lt;span class="invisible"&gt;uno-banani-extends-license-deal-with-coty-for-an-additional-20-years/?utm_source=dlvr.it&amp;amp;utm_medium=mastodon&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>1.118683069554925e+17</v>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>ja</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>MTB</t>
+        </is>
+      </c>
+      <c r="D325" s="2" t="n">
+        <v>45325.6955787037</v>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;貢ぎマゾで射精、おれは弱い&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>1.118683069115193e+17</v>
+      </c>
+      <c r="B326" t="inlineStr"/>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>timursagdenov</t>
+        </is>
+      </c>
+      <c r="D326" s="2" t="n">
+        <v>45325.69557054398</v>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;span&gt;Я придумал словосочетание "платоническая ненависть", но пока не придумал его значение. Как думаете, что это значит?&lt;/span&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>1.11868306907112e+17</v>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>de</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>rike_randomno</t>
+        </is>
+      </c>
+      <c r="D327" s="2" t="n">
+        <v>45325.69556712963</v>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Ja, das war ich vorhin auf dem Feldweg, die dem Kind Stöckchen zum Apportieren geworfen hat. &lt;/p&gt;&lt;p&gt;Ich schwöre, sie hat darauf bestanden.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>1.118683068776866e+17</v>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>lovegame</t>
+        </is>
+      </c>
+      <c r="D328" s="2" t="n">
+        <v>45325.69557226852</v>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;🐈 you&amp;#39;re not going to believe what kind of credit clear i got in a shmup this morning&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>1.11868306875725e+17</v>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>amir2000</t>
+        </is>
+      </c>
+      <c r="D329" s="2" t="n">
+        <v>45325.69552083333</v>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;View of Grand Teton at &lt;a href="https://mstdn.social/tags/nationalelkrefuge" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;nationalelkrefuge&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mstdn.social/tags/Wyoming" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;Wyoming&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mstdn.social/tags/winter" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;winter&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mstdn.social/tags/wonderland" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;wonderland&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mstdn.social/tags/usa" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;usa&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mstdn.social/tags/nature" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;nature&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mstdn.social/tags/photo" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;photo&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mstdn.social/tags/fotograaf" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;fotograaf&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mstdn.social/tags/photography" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;photography&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mstdn.social/tags/canon" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;canon&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mstdn.social/tags/eos5dmark4" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;eos5dmark4&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mstdn.social/tags/grandtetonnationalpark" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;grandtetonnationalpark&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mstdn.social/tags/grandteton" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;grandteton&lt;/span&gt;&lt;/a&gt;📷3/3&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>1.118683068453471e+17</v>
+      </c>
+      <c r="B330" t="inlineStr"/>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>bsky.app.profile.tate.bsky.social</t>
+        </is>
+      </c>
+      <c r="D330" s="2" t="n">
+        <v>45325.69555555555</v>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;/p&gt;&lt;p&gt;&lt;a href="https://bsky.app/profile/tate.bsky.social/post/3kkjiegpd2k2c" rel="nofollow noopener noreferrer" target="_blank"&gt;bsky.app/profile/tate.bsky.social/post/3kkjiegpd2k2c&lt;/a&gt;&lt;/p&gt;&lt;p&gt;Terry Frost, Brown and Yellow, 1951
+https://botfrens.com/collections/14375/contents/1124897&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>1.118683068394029e+17</v>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>CatDad</t>
+        </is>
+      </c>
+      <c r="D331" s="2" t="n">
+        <v>45325.69555555555</v>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Experimenting with Miro for freeform collaborative mapping in online &lt;a href="https://mas.to/tags/TTRPG" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;TTRPG&lt;/span&gt;&lt;/a&gt; games. The basics are there, more so than &lt;a href="https://mas.to/tags/OwlbearRodeo" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;OwlbearRodeo&lt;/span&gt;&lt;/a&gt; or similar &lt;a href="https://mas.to/tags/VTT" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;VTT&lt;/span&gt;&lt;/a&gt; apps, but I really want some basic shape operations like union and intersection, so that it's easier to create, for example, rooms with corridors leading out from them.&lt;/p&gt;&lt;p&gt;I *can* just use the pen tool with the foreground color set to the map content background color to "erase", but that's an extra fiddly step. I guess it will have to do.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>1.11868306833214e+17</v>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>ja</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>hiyanukoya</t>
+        </is>
+      </c>
+      <c r="D332" s="2" t="n">
+        <v>45325.69555555555</v>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;うんち漏らすいいよー‼️&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>1.118683068238597e+17</v>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>haruhisa2583</t>
+        </is>
+      </c>
+      <c r="D333" s="2" t="n">
+        <v>45325.69556255787</v>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;こんなもんより&lt;br /&gt;こっちだろが&lt;/p&gt;&lt;p&gt;🔥🔥🔥🔥🔥🔥🔥🔥🔥🔥🔥&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>1.118683067764526e+17</v>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>Schwartzies</t>
+        </is>
+      </c>
+      <c r="D334" s="2" t="n">
+        <v>45325.69555510417</v>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;How much will the Dolphins pay Tua Tagovailoa on a long-term deal? &lt;a href="https://sports.yahoo.com/much-dolphins-pay-tua-tagovailoa-150444461.html?utm_source=dlvr.it&amp;amp;utm_medium=mastodon" target="_blank" rel="nofollow noopener noreferrer" translate="no"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;sports.yahoo.com/much-dolphins&lt;/span&gt;&lt;span class="invisible"&gt;-pay-tua-tagovailoa-150444461.html?utm_source=dlvr.it&amp;amp;utm_medium=mastodon&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/NFL" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;NFL&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/SchwartziesSports" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;SchwartziesSports&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>1.1186830674764e+17</v>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>mroutley</t>
+        </is>
+      </c>
+      <c r="D335" s="2" t="n">
+        <v>45325.69527777778</v>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;🚴‍♂️ Great crew for a &lt;a href="https://strava.app.link/EBEbOLFlTGb" rel="nofollow noopener noreferrer" target="_blank"&gt;ride&lt;/a&gt; up both sides of Achterbahn&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>1.118683067465941e+17</v>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>lin11c</t>
+        </is>
+      </c>
+      <c r="D336" s="2" t="n">
+        <v>45325.69548611111</v>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;New paid ads I saw on Facebook today. This is just 3 of the 8 I reported. Very disturbing. There appears to be zero standards or regulation on social media.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>1.118683067419097e+17</v>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>hardwired</t>
+        </is>
+      </c>
+      <c r="D337" s="2" t="n">
+        <v>45325.69542824074</v>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;I re-discovered this site which holds Elon Musk’s statements and promises to the test. For example, “433 days since Elon Musk predicted that under his leadership Twitter could reach a billion monthly users. (11/27/2022)” &lt;a href="https://mstdn.ca/tags/ElongatedMuskrat" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;ElongatedMuskrat&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mstdn.ca/tags/elonmusk" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;elonmusk&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mstdn.ca/tags/oligarchs" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;oligarchs&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mstdn.ca/tags/billionaires" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;billionaires&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mstdn.ca/tags/Democracy" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;Democracy&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mstdn.ca/tags/disinformation" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;disinformation&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mstdn.ca/tags/twitter" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;twitter&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mstdn.ca/tags/PathologicalLiar" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;PathologicalLiar&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mstdn.ca/tags/tesla" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;tesla&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mstdn.ca/tags/spacex" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;spacex&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mstdn.ca/tags/manbabies" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;manbabies&lt;/span&gt;&lt;/a&gt; &lt;a href="https://elonmusk.today" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class=""&gt;elonmusk.today&lt;/span&gt;&lt;span class="invisible"&gt;&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>1.118683067354015e+17</v>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>Bogusmeatfactory</t>
+        </is>
+      </c>
+      <c r="D338" s="2" t="n">
+        <v>45325.69552083333</v>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;This is your reminder that we still have not gotten a Takeshi's Castle fansub. One day ... one day.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>1.118683067331814e+17</v>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>JaeAuthor</t>
+        </is>
+      </c>
+      <c r="D339" s="2" t="n">
+        <v>45325.6955465625</v>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;It&amp;#39;s Women Physician&amp;#39;s Day, so I would like to introduce you to my five favorite sapphic books featuring a female doctor.&lt;/p&gt;&lt;p&gt;&lt;a href="https://mastodon.social/tags/sapphicbooks" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;sapphicbooks&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/queerbooks" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;queerbooks&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/lgbtbooks" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;lgbtbooks&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/wlwbooks" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;wlwbooks&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/ffromance" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;ffromance&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/lesbianbooks" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;lesbianbooks&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/sapphicromance" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;sapphicromance&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>1.118683066871573e+17</v>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>ComicBookProgressive</t>
+        </is>
+      </c>
+      <c r="D340" s="2" t="n">
+        <v>45325.69552083333</v>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;a href="https://mastodon.online/tags/Herman" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;Herman&lt;/span&gt;&lt;/a&gt; by &lt;a href="https://mastodon.online/tags/JimUnger" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;JimUnger&lt;/span&gt;&lt;/a&gt; for 1985-7-20.&lt;/p&gt;&lt;p&gt;&lt;a href="https://mastodon.online/tags/comics" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;comics&lt;/span&gt;&lt;/a&gt;&lt;br&gt;&lt;a href="https://mastodon.online/tags/comicstrip" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;comicstrip&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>1.118683066765253e+17</v>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>ja</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>Rage_of_Otaku</t>
+        </is>
+      </c>
+      <c r="D341" s="2" t="n">
+        <v>45325.69552083333</v>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;ライジングフリーダムほしいよおお&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>1.118683066660549e+17</v>
+      </c>
+      <c r="B342" t="inlineStr"/>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>pubsubhubbub.appspot.com</t>
+        </is>
+      </c>
+      <c r="D342" s="2" t="n">
+        <v>45325.69552083333</v>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;بطولة آسيا 2023.. إيران تُقصي اليابان وتبلغ المربع الذهبي&lt;/p&gt;&lt;p&gt;&lt;a href="https://www.babnet.net/festivaldetail-281515.asp" rel="nofollow noopener noreferrer" target="_blank"&gt;www.babnet.net/festivaldetail-281515.asp&lt;/a&gt;&lt;/p&gt;&lt;p&gt;بلغ منتخب إيران الدورَ قبل النهائي بتغلبه على نظيره منتخب اليابان بهدفين مقابل هدف يوم السبت على استاد المدينة التعليمية في الريان، ضمن ربع نهائي كأس آسيا قطر 2023.
+ويتقابل الفائز من هذه المباراة في الدور قبل النهائي يوم الأربعاء المقبل، مع الفائز من مباراة قطر وأوزبكستان التي تقام يوم السبت أيضً&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>1.11868306662701e+17</v>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>ja</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>MancodeBBQ</t>
+        </is>
+      </c>
+      <c r="D343" s="2" t="n">
+        <v>45325.69552083333</v>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;初通話する時「内田真礼の/津田健次郎の声だろうな」ってハードル爆上げしながら臨んでるけど&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>1.11868306661837e+17</v>
+      </c>
+      <c r="B344" t="inlineStr"/>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>pubsubhubbub.appspot.com</t>
+        </is>
+      </c>
+      <c r="D344" s="2" t="n">
+        <v>45325.69552083333</v>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;وزير الشؤون الدينية: 10982 حاجا هو نصيب تونس هذا الموسم&lt;/p&gt;&lt;p&gt;&lt;a href="https://www.babnet.net/rttdetail-281516.asp" rel="nofollow noopener noreferrer" target="_blank"&gt;www.babnet.net/rttdetail-281516.asp&lt;/a&gt;&lt;/p&gt;&lt;p&gt;كشف وزير الشؤون الدينية ابراهيم الشايبي في تصريح لاذاعة موزاييك خلال زيارته إلى ولاية باجة صباح اليوم ان الحصة المخصصة لتونس لموسم الحج هذه السنة هي 10982 حاجا بالإضافة إلى 520 بين مؤطرين ومرافقين وطاقم طبي. 
+واضاف ان الوزارة تقوم بكل الاستعدادات الضرورية ،كما أن السلطات السعودية متعاونة جدا مع ت&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>1.118683066565125e+17</v>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>ja</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>chiwawawa</t>
+        </is>
+      </c>
+      <c r="D345" s="2" t="n">
+        <v>45325.69552083333</v>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;そういや今日日曜日じゃん&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>1.118683066482021e+17</v>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>reinoradeboer</t>
+        </is>
+      </c>
+      <c r="D346" s="2" t="n">
+        <v>45325.69550925926</v>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;another limerick&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>1.118683066258978e+17</v>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>ja</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>kano</t>
+        </is>
+      </c>
+      <c r="D347" s="2" t="n">
+        <v>45325.69548611111</v>
+      </c>
+      <c r="E347" t="inlineStr"/>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>1.11868306568444e+17</v>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>de</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>Frau_Mensch</t>
+        </is>
+      </c>
+      <c r="D348" s="2" t="n">
+        <v>45325.69549768518</v>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;a href="https://troet.cafe/tags/Demos" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;Demos&lt;/span&gt;&lt;/a&gt; für Demokratie in &lt;a href="https://troet.cafe/tags/Sachsen" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;Sachsen&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;&lt;p&gt;✌️Dresden, 3.2., 13, Theaterplatz&lt;br&gt;✌️Glauchau, 3.2., 14, Marktplatz&lt;br&gt;✌️Grimma, 4.2., 14, Marktplatz&lt;br&gt;✌️Schkeuditz, 4.2., 15, Rathausplatz&lt;br&gt;✌️Marienberg, 4.2., 15, Marktplatz&lt;br&gt;✌️Aue-Bad Schlema, 4.2., 15, Altmarkt&lt;br&gt;✌️Dipps, 4.2., 15, Markt&lt;/p&gt;&lt;p&gt;&lt;a href="https://troet.cafe/tags/NieWieder" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;NieWieder&lt;/span&gt;&lt;/a&gt;&lt;br&gt;Quelle: Dresden offen und bunt&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>1.118683065364669e+17</v>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>ja</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>ponpon_</t>
+        </is>
+      </c>
+      <c r="D349" s="2" t="n">
+        <v>45325.69549768518</v>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;命令です、仮面ライダービルドを見なさい&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>1.11868306523827e+17</v>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>byrev</t>
+        </is>
+      </c>
+      <c r="D350" s="2" t="n">
+        <v>45325.69550975694</v>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;yeah ... classic for google again: crappy marketing below expectations, omissions in statements and other techniques that are obviously misleading and annoying.&lt;/p&gt;&lt;p&gt;&lt;a href="https://mastodon.social/tags/ai" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;ai&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/images" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;images&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/google" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;google&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/marketing" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;marketing&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/bard" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;bard&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/gemini" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;gemini&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>1.118683065111467e+17</v>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>SocraticEthics</t>
+        </is>
+      </c>
+      <c r="D351" s="2" t="n">
+        <v>45325.69547453704</v>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;⚠️🇷🇺Russia loses 900 more invaders and 100 pieces of equipment in one day (Statistics) &lt;a href="https://www.pravda.com.ua/eng/news/2024/02/3/7440215/" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;pravda.com.ua/eng/news/2024/02&lt;/span&gt;&lt;span class="invisible"&gt;/3/7440215/&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.online/tags/Ukraine" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;Ukraine&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.online/tags/Press" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;Press&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.online/tags/News" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;News&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.online/tags/russia" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;russia&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.online/tags/russiaUkraineWar" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;russiaUkraineWar&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.online/tags/9yrInvasionofUkraine" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;9yrInvasionofUkraine&lt;/span&gt;&lt;/a&gt;  &lt;a href="https://mastodon.online/tags/BoycottMusk" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;BoycottMusk&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.online/tags/AxisOfEvil" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;AxisOfEvil&lt;/span&gt;&lt;/a&gt;&lt;br&gt;&lt;a href="https://mastodon.online/tags/NoEUPrezForHungary" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;NoEUPrezForHungary&lt;/span&gt;&lt;/a&gt;&lt;br&gt;&lt;a href="https://mastodon.online/tags/NoUSRepublicans2024" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;NoUSRepublicans2024&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>1.118683064296599e+17</v>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>da</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>MachoManPierreCardin</t>
+        </is>
+      </c>
+      <c r="D352" s="2" t="n">
+        <v>45325.69540509259</v>
+      </c>
+      <c r="E352" t="inlineStr"/>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>1.11868306408225e+17</v>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>fr</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>Blaveur</t>
+        </is>
+      </c>
+      <c r="D353" s="2" t="n">
+        <v>45325.69547453704</v>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;S02E18:&lt;/p&gt;&lt;p&gt;Mac et Pete son pris au piège enfermé comme des sardines dans une carcasse de voiture par Murdock, le dangereux criminel qui les a fait ce rencontrer!&lt;/p&gt;&lt;p&gt;Un épisode plein de nostalgie et de souvenirs de Pete avec des cheveux!&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>1.118683063845578e+17</v>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>shieladixon</t>
+        </is>
+      </c>
+      <c r="D354" s="2" t="n">
+        <v>45325.69543981482</v>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;No Sunday Jam this week for reasons. Instead here's a special one. Thank you if you're one of the 500.&lt;br&gt;&lt;a href="https://youtu.be/HKe9oqc_Hvk" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class=""&gt;youtu.be/HKe9oqc_Hvk&lt;/span&gt;&lt;span class="invisible"&gt;&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>1.118683063539022e+17</v>
+      </c>
+      <c r="B355" t="inlineStr"/>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>www.theverge.com</t>
+        </is>
+      </c>
+      <c r="D355" s="2" t="n">
+        <v>45325.69547453704</v>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;The Surface Pro 9 is more than $500 off this weekend, matching its all-time low&lt;/p&gt;&lt;p&gt;&lt;a href="https://www.theverge.com/2024/2/3/24059630/microsoft-surface-pro-9-beats-studio-buds-plus-samsung-frame-tv-deal-sale" rel="nofollow noopener noreferrer" target="_blank"&gt;www.theverge.com/2024/2/3/24059630/microsoft-surface-pro-9-beats-studio-buds-plus-samsung-frame-tv-deal-sale&lt;/a&gt;&lt;/p&gt;&lt;p&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>1.118683063188733e+17</v>
+      </c>
+      <c r="B356" t="inlineStr"/>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>lain</t>
+        </is>
+      </c>
+      <c r="D356" s="2" t="n">
+        <v>45325.69514126157</v>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>&amp;gt; "should you buy the new stellaris expansion"&lt;br&gt;&amp;gt; "no"&lt;br&gt;&amp;gt; buys anyway&lt;br&gt;&lt;br&gt;every time</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>1.118683062942348e+17</v>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>pennadsb</t>
+        </is>
+      </c>
+      <c r="D357" s="2" t="n">
+        <v>45325.69540509259</v>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;a href="https://airwaves.social/tags/PlaneAlert" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;PlaneAlert&lt;/span&gt;&lt;/a&gt; ICAO: &lt;a href="https://airwaves.social/tags/AE0159" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;AE0159&lt;/span&gt;&lt;/a&gt; Tail: #571512 &lt;br&gt;Owner: &lt;a href="https://airwaves.social/tags/USAF" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;USAF&lt;/span&gt;&lt;/a&gt;&lt;br&gt;Aircraft: &lt;a href="https://airwaves.social/tags/Boeing" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;Boeing&lt;/span&gt;&lt;/a&gt; KC-135R&lt;br&gt;2024/02/03 10:39:56&lt;br&gt;&lt;a href="https://airwaves.social/tags/K35R" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;K35R&lt;/span&gt;&lt;/a&gt; &lt;a href="https://airwaves.social/tags/Air2Air" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;Air2Air&lt;/span&gt;&lt;/a&gt; &lt;a href="https://airwaves.social/tags/IAmOld" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;IAmOld&lt;/span&gt;&lt;/a&gt; &lt;a href="https://airwaves.social/tags/ToFlyFightAndWin" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;ToFlyFightAndWin&lt;/span&gt;&lt;/a&gt; &lt;a href="https://w.wiki/8e5t" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class=""&gt;w.wiki/8e5t&lt;/span&gt;&lt;span class="invisible"&gt;&lt;/span&gt;&lt;/a&gt; &lt;br&gt;&lt;a href="https://globe.adsbexchange.com/?icao=AE0159&amp;amp;showTrace=2024-02-03&amp;amp;zoom=7&amp;amp;lat=38.892672&amp;amp;lon=-77.319885&amp;amp;timestamp=1706974796" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;globe.adsbexchange.com/?icao=A&lt;/span&gt;&lt;span class="invisible"&gt;E0159&amp;amp;showTrace=2024-02-03&amp;amp;zoom=7&amp;amp;lat=38.892672&amp;amp;lon=-77.319885&amp;amp;timestamp=1706974796&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>1.118683062770293e+17</v>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>ru</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>Razunter</t>
+        </is>
+      </c>
+      <c r="D358" s="2" t="n">
+        <v>45325.69546599537</v>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Учёные впервые напечатали на 3D-принтере живые ткани человеческого мозга&lt;br /&gt;&lt;a href="https://3dnews.ru/1099780/uchyonie-vpervie-napechatali-na-3dprintere-givie-tkani-chelovecheskogo-mozga" target="_blank" rel="nofollow noopener noreferrer" translate="no"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;3dnews.ru/1099780/uchyonie-vpe&lt;/span&gt;&lt;span class="invisible"&gt;rvie-napechatali-na-3dprintere-givie-tkani-chelovecheskogo-mozga&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>1.118683062685815e+17</v>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>delta</t>
+        </is>
+      </c>
+      <c r="D359" s="2" t="n">
+        <v>45325.69545782408</v>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;span&gt;Do not the fish &lt;/span&gt;​:pix_firefish2:​&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>1.118683062632912e+17</v>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>de</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>diaeter</t>
+        </is>
+      </c>
+      <c r="D360" s="2" t="n">
+        <v>45325.69545138889</v>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Ist das befriedigend, wie den rechten Internetrambos der Arsch auf Grundeis geht.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/toots.xlsx
+++ b/toots.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2264,6 +2264,918 @@
         </is>
       </c>
     </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>1.118738979035425e+17</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>kacey</t>
+        </is>
+      </c>
+      <c r="D82" s="2" t="n">
+        <v>45326.68293981482</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;a href="https://mspsocial.net/tags/programminglanguages" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;programminglanguages&lt;/span&gt;&lt;/a&gt; take:&lt;br&gt;"async" is good but actually all functions should be async by default unless they are specifically marked "sync". The real problem people have with it is the current convention is backwards.&lt;/p&gt;&lt;p&gt;"Sync functions can only call sync functions" would be way easier to deal with than "async functions can only be called by async functions", despite being implementation equivalent.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>1.118738978649348e+17</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>ruemaleficent</t>
+        </is>
+      </c>
+      <c r="D83" s="2" t="n">
+        <v>45326.68295138889</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;I really need a teeth cleaning and I actually love my dentist but I don't want people that close to my face in this day and age, let alone breathing up into my mouth, so I'll continue to scrape plaque off my teeth with my fingernail and stay home.&lt;/p&gt;&lt;p&gt;&lt;a href="https://kolektiva.social/tags/COVID" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;COVID&lt;/span&gt;&lt;/a&gt; &lt;a href="https://kolektiva.social/tags/pandemic" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;pandemic&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>1.118738978647788e+17</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>freyaandersson</t>
+        </is>
+      </c>
+      <c r="D84" s="2" t="n">
+        <v>45326.68293981482</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;It's a Sonic and relaxation Sunday for me :genesis_6_button_controller:&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>1.118738978457222e+17</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>de</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>RBLeipzig</t>
+        </is>
+      </c>
+      <c r="D85" s="2" t="n">
+        <v>45326.68219907407</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Werfen wir einen Blick in die Kabine! 👀&lt;/p&gt;&lt;p&gt;&lt;a href="https://twitter.com/hashtag/RBLFCU" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;RBLFCU&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>1.118738978305692e+17</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>TrippyKicka</t>
+        </is>
+      </c>
+      <c r="D86" s="2" t="n">
+        <v>45326.68186342593</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;The biggest 🤡 in the Steelers fan base &lt;a href="https://twitter.com/asteelcity58/status/1754157845468303631" rel="nofollow noopener noreferrer" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class=""&gt;twitter.com/asteelcity58/s…&lt;/span&gt;&lt;span class="invisible"&gt;&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>1.118738978115704e+17</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>PGKurki</t>
+        </is>
+      </c>
+      <c r="D87" s="2" t="n">
+        <v>45326.68296662037</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;FAIL. Försök nr 2 att intervjua en VIP för min bok gick i stöpet. Personen dök inte upp i Zoommötet. Sånt händer i hockey. Nu får jag hoppas att personen vill boka nytt datum. Skam den som ger sig. &lt;a href="https://mastodon.social/tags/f%C3%B6rfattarliv" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;författarliv&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/f%C3%B6rfattare" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;författare&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>1.118738978110297e+17</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>ja</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>risahana</t>
+        </is>
+      </c>
+      <c r="D88" s="2" t="n">
+        <v>45326.68295138889</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;にんにくは１個使った&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>1.118738977867532e+17</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>shadowfacts</t>
+        </is>
+      </c>
+      <c r="D89" s="2" t="n">
+        <v>45326.68294219908</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>you can tell vision pro really is a "spatial computer", because only real computers get MiniPlayer in ~~iTunes~~ &lt;a href="http://Music.app" rel="nofollow noopener noreferrer" target="_blank"&gt;Music.app&lt;/a&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>1.118738977847231e+17</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>trending</t>
+        </is>
+      </c>
+      <c r="D90" s="2" t="n">
+        <v>45326.68293981482</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;a href="https://mastodon.bot/tags/meshiyosoi" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;meshiyosoi&lt;/span&gt;&lt;/a&gt; is now trending across Mastodon&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>1.118738977519554e+17</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>ja</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>d40fe</t>
+        </is>
+      </c>
+      <c r="D91" s="2" t="n">
+        <v>45326.68292824074</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;黒いプレート層中間入れて&lt;br&gt;切り絵で白い層重ねた方が綺麗だったなこれ&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>1.118738977069319e+17</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>marcr</t>
+        </is>
+      </c>
+      <c r="D92" s="2" t="n">
+        <v>45326.68293981482</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;a href="https://social.tchncs.de/tags/WordWeavers" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;WordWeavers&lt;/span&gt;&lt;/a&gt; 3.2. - If your antagonist had to choose something to wear from your wardrobe, what would it be and why?&lt;/p&gt;&lt;p&gt;I don't think we're the same... size.&lt;/p&gt;&lt;p&gt;But he'd probably like some of the outdoor and hiking clothes.&lt;/p&gt;&lt;p&gt;I think he'd also have some fun with the pirate costume that's tucked away in there somewhere. :blobcatpirate:&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>1.118738976251515e+17</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>ja</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>tubamei</t>
+        </is>
+      </c>
+      <c r="D93" s="2" t="n">
+        <v>45326.68291666666</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;今回のセールプロテインを1000円ぐらい安く買えてウハウハだった&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>1.118738976120082e+17</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>ja</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>fono</t>
+        </is>
+      </c>
+      <c r="D94" s="2" t="n">
+        <v>45326.68288194444</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;February 5, 2024 at 12:22AM 現在、体重計測完了。体重は99.8kg。&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>1.118738975915344e+17</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>de</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>T3Z</t>
+        </is>
+      </c>
+      <c r="D95" s="2" t="n">
+        <v>45326.6829050926</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Auf nach Wolkenruh! Ich tanke wieder, darf also wieder die Gegner verspotten und Prügel enstecken, damit der Rest der Gruppe die dicke Krecke verkloppen kann. 🛡️&lt;/p&gt;&lt;p&gt;&lt;a href="https://rollenspiel.social/tags/T3Zblubbert%C3%9CberTES" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;T3ZblubbertÜberTES&lt;/span&gt;&lt;/a&gt; &lt;a href="https://rollenspiel.social/tags/ElderScrollsOnline" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;ElderScrollsOnline&lt;/span&gt;&lt;/a&gt; &lt;a href="https://rollenspiel.social/tags/MMORPG" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;MMORPG&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>1.118738975675636e+17</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>de</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>VfL_Wolfsburg</t>
+        </is>
+      </c>
+      <c r="D96" s="2" t="n">
+        <v>45326.68225694444</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;⏸️ Pause in der Volkswagen Arena &lt;/p&gt;&lt;p&gt;&lt;a href="https://twitter.com/hashtag/WOBTSG" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;WOBTSG&lt;/span&gt;&lt;/a&gt; &lt;a href="https://twitter.com/hashtag/VfLWolfsburg" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;VfLWolfsburg&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>1.118738975448175e+17</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>de</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>tsghoffenheim</t>
+        </is>
+      </c>
+      <c r="D97" s="2" t="n">
+        <v>45326.68224537037</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Pausenführung! &lt;/p&gt;&lt;p&gt;&lt;a href="https://twitter.com/hashtag/WOBTSG" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;WOBTSG&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>1.118738975296948e+17</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>pt</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>rcdc3</t>
+        </is>
+      </c>
+      <c r="D98" s="2" t="n">
+        <v>45326.6829050926</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Em 2024, o Corinthians cai em qual campeonato? &lt;a href="https://ursal.zone/tags/Futebol" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;Futebol&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>1.118738975004627e+17</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>ja</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>saku_mio22</t>
+        </is>
+      </c>
+      <c r="D99" s="2" t="n">
+        <v>45326.6825</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;久々すぎて全部新鮮だった　ランド　パレードこんなに真面目に見たの初めてかもしれない　ミニーちゃんはアイドル&lt;span class=""&gt; &lt;a href="https://fedibird.com/@saku_mio22/111873895221752441" rel="nofollow noopener noreferrer" class="" target="_blank"&gt;[添付: 5 枚の画像]&lt;/a&gt;&lt;/span&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>1.118738974831175e+17</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>nl</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>debedachtzamen</t>
+        </is>
+      </c>
+      <c r="D100" s="2" t="n">
+        <v>45326.68289351852</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Marco Douma – zonder titel, 2020&lt;/p&gt;&lt;p&gt;&lt;a href="https://mastodon.online/tags/drawing" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;drawing&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.online/tags/charcoal" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;charcoal&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.online/tags/rotterdam" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;rotterdam&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>1.118738974777593e+17</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>exame</t>
+        </is>
+      </c>
+      <c r="D101" s="2" t="n">
+        <v>45326.68289351852</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Valor do estacionamento de SUVs pode triplicar na capital francesa e parisienses vão às urnas&lt;/p&gt;&lt;p&gt;Confira! 👇&lt;br&gt;&lt;a href="https://exame.com/mundo/valor-do-estacionamento-de-suvs-pode-triplicar-na-capital-francesa-e-parisienses-vao-as-urnas/" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;exame.com/mundo/valor-do-estac&lt;/span&gt;&lt;span class="invisible"&gt;ionamento-de-suvs-pode-triplicar-na-capital-francesa-e-parisienses-vao-as-urnas/&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;&lt;p&gt;&lt;a href="https://mastodon.online/tags/Mundo" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;Mundo&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>1.118738974127249e+17</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>zh</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>chronos</t>
+        </is>
+      </c>
+      <c r="D102" s="2" t="n">
+        <v>45326.68287037037</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;今天店里同事有请我吃饭&lt;br&gt;感谢他们，如果是我说不定就让离别这件事很简单的就过去了。分明很在意又有点用力过猛的感觉。我还真的挺别扭的。&lt;br&gt;饭后有一起走一段路。聊天也很愉快。&lt;br&gt;谢谢你们，我遇到了很好的人。&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>1.11873897396167e+17</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>ja</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>kyoto_np</t>
+        </is>
+      </c>
+      <c r="D103" s="2" t="n">
+        <v>45326.68287037037</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;京都市長選挙に松井孝治さんが初当選 西田昌司議員「自民党の問題で薄氷の勝利になると思っていた」 (京都新聞)　&lt;a href="https://www.kyoto-np.co.jp/articles/-/1197392" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;kyoto-np.co.jp/articles/-/1197&lt;/span&gt;&lt;span class="invisible"&gt;392&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>1.118738973940567e+17</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>puigreixach</t>
+        </is>
+      </c>
+      <c r="D104" s="2" t="n">
+        <v>45326.68287037037</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;_&lt;/p&gt;&lt;p&gt;&lt;a href="https://mastodon.world/tags/SilentSunday" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;SilentSunday&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>1.118738973843292e+17</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>ja</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>kyoto_np</t>
+        </is>
+      </c>
+      <c r="D105" s="2" t="n">
+        <v>45326.68288194444</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;京都市長選、立民の福山哲郎氏「ほんまにうれしい、ほんまにうれしいです」松井孝治さん初当選で (京都新聞)　&lt;a href="https://www.kyoto-np.co.jp/articles/-/1197395" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;kyoto-np.co.jp/articles/-/1197&lt;/span&gt;&lt;span class="invisible"&gt;395&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>1.118738973395718e+17</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>zh-TW</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>cxyozn</t>
+        </is>
+      </c>
+      <c r="D106" s="2" t="n">
+        <v>45326.68268518519</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;同事打掃的時候翻到一隻捏子口，把他組起來放櫃檯但是我覺得她好像需要吃炸雞所以。&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>1.11873897304917e+17</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>MLClark</t>
+        </is>
+      </c>
+      <c r="D107" s="2" t="n">
+        <v>45326.6828587963</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Today's newsletter offers three anecdotes to contextualize an important reminder:&lt;/p&gt;&lt;p&gt;Sometimes the world just won't give us nice, neat, coherent stories.&lt;/p&gt;&lt;p&gt;Never has before!&lt;/p&gt;&lt;p&gt;So when despairing at the haphazard state of the news, maybe consider these three tales: of messy beginnings (mitochondria!), middles (mince pie mythology!), and endings (Patron Saint outcomes!).&lt;/p&gt;&lt;p&gt;We have so little control over the "story" as a whole.&lt;br&gt;Maybe there's a strength in embracing that, though.&lt;/p&gt;&lt;p&gt;&lt;a href="https://open.substack.com/pub/mlclark/p/on-mitochondria-mince-pies-and-patron?r=1ii76&amp;amp;utm_campaign=post&amp;amp;utm_medium=web&amp;amp;showWelcomeOnShare=true" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;open.substack.com/pub/mlclark/&lt;/span&gt;&lt;span class="invisible"&gt;p/on-mitochondria-mince-pies-and-patron?r=1ii76&amp;amp;utm_campaign=post&amp;amp;utm_medium=web&amp;amp;showWelcomeOnShare=true&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>1.118738972987193e+17</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>nuopKINKclassics</t>
+        </is>
+      </c>
+      <c r="D108" s="2" t="n">
+        <v>45326.68284722222</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Nu op KINK 80's: Jam - Going Underground&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>1.118738972896873e+17</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>rff</t>
+        </is>
+      </c>
+      <c r="D109" s="2" t="n">
+        <v>45326.6828125</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Now playing on the radiofreefedi.net comfy channel:&lt;br&gt;&lt;br&gt;Three Pots of Coffee by Mykie Frankenstein &lt;a href="https://haunt.graveyard.boo/@mykie" rel="nofollow noopener noreferrer" target="_blank"&gt;https://haunt.graveyard.boo/@mykie&lt;/a&gt;&lt;br&gt;© used with permission&lt;br&gt;&lt;a href="https://mykiefrankenstein.bandcamp.com" rel="nofollow noopener noreferrer" target="_blank"&gt;https://mykiefrankenstein.bandcamp.com&lt;/a&gt;&lt;br&gt;&lt;br&gt;Tune in now: &lt;a href="https://radiofreefedi.net" rel="nofollow noopener noreferrer" target="_blank"&gt;https://radiofreefedi.net&lt;/a&gt;&lt;br&gt;interact with &lt;span class="h-card"&gt;&lt;a href="https://musician.social/@radiofreefedi" class="u-url mention" rel="nofollow noopener noreferrer" target="_blank"&gt;@&lt;span&gt;radiofreefedi&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;br&gt;&lt;br&gt;your 24/7 community radio from the fediverse to the universe&lt;br&gt;&lt;a href="https://nowplaying.radiofreefedi.net/tags/rffplays" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;rffPlays&lt;/span&gt;&lt;/a&gt; &lt;a href="https://nowplaying.radiofreefedi.net/tags/rffcomfy" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;rffComfy&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>1.118738972865379e+17</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>SleeperNFL</t>
+        </is>
+      </c>
+      <c r="D110" s="2" t="n">
+        <v>45326.68223379629</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;The Ravens ended up paying Odell Beckham Jr. $16M for one season 👀&lt;/p&gt;&lt;p&gt;The results:&lt;/p&gt;&lt;p&gt;- 35 catches&lt;br&gt;- 565 yards&lt;br&gt;- 3 TDs &lt;/p&gt;&lt;p&gt;$457K per catch 😵‍💫&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>1.118738972752067e+17</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>nintendoblast</t>
+        </is>
+      </c>
+      <c r="D111" s="2" t="n">
+        <v>45326.6828587963</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Plumbers Don’t Wear Ties: Definitive Edition (Switch) chegará a eShop em março&lt;/p&gt;&lt;p&gt;Confira! 👇&lt;br&gt;&lt;a href="https://www.nintendoblast.com.br/feeds/4933141685645312943/comments/default" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;nintendoblast.com.br/feeds/493&lt;/span&gt;&lt;span class="invisible"&gt;3141685645312943/comments/default&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;&lt;p&gt;&lt;a href="https://mastodon.online/tags/Not%C3%ADcia" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;Notícia&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.online/tags/Switch" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;Switch&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>1.118738972679573e+17</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>vozhyk</t>
+        </is>
+      </c>
+      <c r="D112" s="2" t="n">
+        <v>45326.6828587963</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Складанасці з прэзерватывамі:&lt;/p&gt;&lt;p&gt;&lt;a href="https://youtu.be/iUfXKiHdHn8" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class=""&gt;youtu.be/iUfXKiHdHn8&lt;/span&gt;&lt;span class="invisible"&gt;&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>1.11873897238175e+17</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>fr</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Koopa</t>
+        </is>
+      </c>
+      <c r="D113" s="2" t="n">
+        <v>45326.68283564815</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Hello, I'm &lt;a href="https://botsin.space/tags/koopa" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;koopa&lt;/span&gt;&lt;/a&gt;. It's 16 : 23&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>1.118738972380524e+17</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>ja</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>kyoto_np</t>
+        </is>
+      </c>
+      <c r="D114" s="2" t="n">
+        <v>45326.68284722222</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;【速報】京都市長選 京都市右京区の開票結果 最多得票は? (京都新聞)　&lt;a href="https://www.kyoto-np.co.jp/articles/-/1197354" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;kyoto-np.co.jp/articles/-/1197&lt;/span&gt;&lt;span class="invisible"&gt;354&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>1.118738971857126e+17</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Iva852</t>
+        </is>
+      </c>
+      <c r="D115" s="2" t="n">
+        <v>45326.68269675926</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;🌿🌞 &lt;/p&gt;&lt;p&gt;&lt;a href="https://sunny.garden/tags/SilentSunday" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;SilentSunday&lt;/span&gt;&lt;/a&gt; &lt;br&gt;&lt;a href="https://sunny.garden/tags/photography" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;photography&lt;/span&gt;&lt;/a&gt; &lt;br&gt;&lt;a href="https://sunny.garden/tags/macro" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;macro&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>1.118738971743779e+17</v>
+      </c>
+      <c r="B116" t="inlineStr"/>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>www.numerama.com</t>
+        </is>
+      </c>
+      <c r="D116" s="2" t="n">
+        <v>45326.68284722222</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Realme 9 Pro+ 5G : un excellent smartphone milieu de gamme, surtout pendant les soldes&lt;/p&gt;&lt;p&gt;&lt;a href="https://www.numerama.com/tech/1623220-realme-9-pro-5g-un-excellent-smartphone-milieu-de-gamme-surtout-pendant-les-soldes.html" rel="nofollow noopener noreferrer" target="_blank"&gt;www.numerama.com/tech/1623220-realme-9-pro-5g-un-excellent-smartphone-milieu-de-gamme-surtout-pendant-les-soldes.html&lt;/a&gt;&lt;/p&gt;&lt;p&gt;[Deal du jour] Le 9 Pro+ de Realme est un smartphone milieu de gamme qui offre de bonnes performances. Si vous recherchez un appareil pas trop cher et parfait au quotidien, c'est un excellent modèle, surtout durant les soldes.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>1.118738971722608e+17</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>de</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>p0lise</t>
+        </is>
+      </c>
+      <c r="D117" s="2" t="n">
+        <v>45326.68283564815</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Heute meine erste Rennradrunde des Jahres gedreht. Bin natürlich gleich wieder zigfach zu eng überholt worden. Ich kriege den Gedanken nicht aus dem Kopf, dass ich jederzeit der nächste sein könnte. &lt;a href="https://hessen.social/tags/ripnatenom" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;ripnatenom&lt;/span&gt;&lt;/a&gt;.&lt;/p&gt;&lt;p&gt;Danke für nichts, &lt;span class="h-card" translate="no"&gt;&lt;a href="https://social.bund.de/@bmdv" class="u-url mention" rel="nofollow noopener noreferrer" target="_blank"&gt;@&lt;span&gt;bmdv&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;. Und zeigt jetzt bitte nicht wieder mit dem Finger auf Länder und Kommunen. IHR seid das Bundesministerium für Verkehr. Und ihr schafft es nichtmal, in Sachen &lt;a href="https://hessen.social/tags/stvg" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;stvg&lt;/span&gt;&lt;/a&gt;-Novelle den Vermittlungssausschuss anzurufen.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>1.118738971421618e+17</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>de</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Thomas8998</t>
+        </is>
+      </c>
+      <c r="D118" s="2" t="n">
+        <v>45326.6828484375</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Hauseigentümer, die sich über Strompreise beklagen und gleichzeitig, trotz Möglichkeit, keine Fotovoltaik-Anlage betreiben, kann mir jemand diese besondere Spezies erklären?&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>1.118738971144983e+17</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>ja</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>narutake</t>
+        </is>
+      </c>
+      <c r="D119" s="2" t="n">
+        <v>45326.68283564815</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;うわあああああああああああ&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>1.118738970487246e+17</v>
+      </c>
+      <c r="B120" t="inlineStr"/>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>HMJN</t>
+        </is>
+      </c>
+      <c r="D120" s="2" t="n">
+        <v>45326.68282489583</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;span&gt;藍ちゃんジャンケンやめたの&lt;/span&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>1.118738970206463e+17</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>de</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>formschub</t>
+        </is>
+      </c>
+      <c r="D121" s="2" t="n">
+        <v>45326.68271990741</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Auf der heutigen Wanderung mitten im Wald lag erst ein großer Strunk frischer Brokkoli am Wegesrand, dann eine Weile später ein großer Haufen einwandfreier Kartoffeln. Scheint, als ballten sich hier in der Gegend die Gemüseverächter.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/toots.xlsx
+++ b/toots.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E121"/>
+  <dimension ref="A1:E361"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3176,6 +3176,5446 @@
         </is>
       </c>
     </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>1.119319807822591e+17</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>es</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>skeithAutomatic</t>
+        </is>
+      </c>
+      <c r="D122" s="2" t="n">
+        <v>45336.9407175926</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;a href="https://masto.ai/tags/SkeithAutomatic" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;SkeithAutomatic&lt;/span&gt;&lt;/a&gt;, &lt;a href="https://masto.ai/tags/SkeithArt" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;SkeithArt&lt;/span&gt;&lt;/a&gt;, &lt;a href="https://masto.ai/tags/ArtIA" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;ArtIA&lt;/span&gt;&lt;/a&gt;, &lt;a href="https://masto.ai/tags/aiart" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;aiart&lt;/span&gt;&lt;/a&gt;, &lt;a href="https://masto.ai/tags/artdaily" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;artdaily&lt;/span&gt;&lt;/a&gt;, &lt;a href="https://masto.ai/tags/aidigitalart" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;aidigitalart&lt;/span&gt;&lt;/a&gt;, &lt;a href="https://masto.ai/tags/aiartwork" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;aiartwork&lt;/span&gt;&lt;/a&gt;, &lt;a href="https://masto.ai/tags/promptartist" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;promptartist&lt;/span&gt;&lt;/a&gt;, &lt;a href="https://masto.ai/tags/GeneratedByIA" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;GeneratedByIA&lt;/span&gt;&lt;/a&gt;, &lt;a href="https://masto.ai/tags/randomPic" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;randomPic&lt;/span&gt;&lt;/a&gt; &lt;a href="https://masto.ai/tags/imagenRandom" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;imagenRandom&lt;/span&gt;&lt;/a&gt; &lt;a href="https://masto.ai/tags/art" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;art&lt;/span&gt;&lt;/a&gt; &lt;a href="https://masto.ai/tags/digitalArt" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;digitalArt&lt;/span&gt;&lt;/a&gt; &lt;a href="https://masto.ai/tags/random" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;random&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>1.119319807548118e+17</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>fr</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>ioster</t>
+        </is>
+      </c>
+      <c r="D123" s="2" t="n">
+        <v>45336.94077546296</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;On veut devenir le carglass éthique de la réparation d’appareils numériques…. Ça le fait, j’achète (Hauts de France -Limoges-Vichy par contre ça claque moins) &lt;a href="https://mamot.fr/tags/QVEMA" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;QVEMA&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>1.119319806790712e+17</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>grayface_ghost</t>
+        </is>
+      </c>
+      <c r="D124" s="2" t="n">
+        <v>45336.94072916666</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;I reckon the streaming channels are all having problems because there's too many of them. Subscribers are being shared out now.&lt;/p&gt;&lt;p&gt;Maybe they should all get together and have a single platform where they could put their shows, for a reasonable price.&lt;/p&gt;&lt;p&gt;They could call it something like Fletnix&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>1.119319806765948e+17</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>CStamp</t>
+        </is>
+      </c>
+      <c r="D125" s="2" t="n">
+        <v>45336.94076967592</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Was checking on folk on IG, suddenly a problem, then I was presented with this:  Note my offensive comment.&lt;/p&gt;&lt;p&gt;SM auto monitoring is so screwed up.&lt;/p&gt;&lt;p&gt;Heaven forbid someone compliment a photographer on their shot.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>1.119319806546629e+17</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>de</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>serac</t>
+        </is>
+      </c>
+      <c r="D126" s="2" t="n">
+        <v>45336.94072916666</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Open market. What would Marx say?&lt;br&gt;&lt;a href="https://troet.cafe/tags/Chemnitz" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;Chemnitz&lt;/span&gt;&lt;/a&gt; &lt;a href="https://troet.cafe/tags/Sachsen" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;Sachsen&lt;/span&gt;&lt;/a&gt; &lt;a href="https://troet.cafe/tags/Deutschland" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;Deutschland&lt;/span&gt;&lt;/a&gt;&lt;br&gt;&lt;a href="https://troet.cafe/tags/market" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;market&lt;/span&gt;&lt;/a&gt; &lt;a href="https://troet.cafe/tags/photography" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;photography&lt;/span&gt;&lt;/a&gt; &lt;a href="https://troet.cafe/tags/travel" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;travel&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>1.119319806262985e+17</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>aronow</t>
+        </is>
+      </c>
+      <c r="D127" s="2" t="n">
+        <v>45336.94072916666</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Someone assembled the &lt;a href="https://hachyderm.io/tags/cat" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;cat&lt;/span&gt;&lt;/a&gt; without reading all the instructions :blobfoxcrylaugh: &lt;/p&gt;&lt;p&gt;&lt;a href="https://hachyderm.io/tags/cats" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;cats&lt;/span&gt;&lt;/a&gt; &lt;a href="https://hachyderm.io/tags/catsofmastodon" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;catsofmastodon&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>1.119319806203104e+17</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>de</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>akoeppern</t>
+        </is>
+      </c>
+      <c r="D128" s="2" t="n">
+        <v>45336.94070601852</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;a href="https://airwaves.social/tags/PlaneAlert" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;PlaneAlert&lt;/span&gt;&lt;/a&gt; ICAO: &lt;a href="https://airwaves.social/tags/43EA06" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;43EA06&lt;/span&gt;&lt;/a&gt; Tail: &lt;a href="https://airwaves.social/tags/MABGV" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;MABGV&lt;/span&gt;&lt;/a&gt; &lt;br&gt;Owner: &lt;a href="https://airwaves.social/tags/Ryanair" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;Ryanair&lt;/span&gt;&lt;/a&gt;&lt;br&gt;Aircraft: &lt;a href="https://airwaves.social/tags/Learjet" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;Learjet&lt;/span&gt;&lt;/a&gt; 45XR&lt;br&gt;2024/02/14 22:33:28&lt;br&gt;&lt;a href="https://airwaves.social/tags/LJ45" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;LJ45&lt;/span&gt;&lt;/a&gt; &lt;a href="https://airwaves.social/tags/BaggageCostsExtra" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;BaggageCostsExtra&lt;/span&gt;&lt;/a&gt; &lt;a href="https://airwaves.social/tags/NotCattleClass" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;NotCattleClass&lt;/span&gt;&lt;/a&gt; &lt;a href="https://airwaves.social/tags/CustomerService" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;CustomerService&lt;/span&gt;&lt;/a&gt; &lt;a href="https://en.wikipedia.org/wiki/Michael_O%27Leary_businessman" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;en.wikipedia.org/wiki/Michael_&lt;/span&gt;&lt;span class="invisible"&gt;O%27Leary_businessman&lt;/span&gt;&lt;/a&gt; &lt;br&gt;&lt;a href="https://globe.adsbexchange.com/?icao=43EA06&amp;amp;showTrace=2024-02-14&amp;amp;zoom=7&amp;amp;lat=47.673706&amp;amp;lon=7.150520&amp;amp;timestamp=1707946408" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;globe.adsbexchange.com/?icao=4&lt;/span&gt;&lt;span class="invisible"&gt;3EA06&amp;amp;showTrace=2024-02-14&amp;amp;zoom=7&amp;amp;lat=47.673706&amp;amp;lon=7.150520&amp;amp;timestamp=1707946408&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>1.119319806200037e+17</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Boro</t>
+        </is>
+      </c>
+      <c r="D129" s="2" t="n">
+        <v>45336.94032407407</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;89 | &lt;span class="h-card"&gt;&lt;a href="https://twitter.com/HackneyHayden" class="u-url mention" rel="nofollow noopener noreferrer" target="_blank"&gt;@&lt;span&gt;HackneyHayden@twitter.com&lt;/span&gt;&lt;/a&gt;&lt;/span&gt; makes way&lt;/p&gt;&lt;p&gt;⚪️ 2-1 🔴&lt;br&gt;&lt;a href="https://twitter.com/hashtag/UTB" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;UTB&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>1.119319806009043e+17</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>de</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>cochise</t>
+        </is>
+      </c>
+      <c r="D130" s="2" t="n">
+        <v>45336.9407175926</v>
+      </c>
+      <c r="E130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>1.119319805686792e+17</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>ja</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>scoden</t>
+        </is>
+      </c>
+      <c r="D131" s="2" t="n">
+        <v>45336.94072916666</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;➡️ 能登の病院で、看護師が70人も辞めたいと言っているのをご存知か？彼らも被災しているのだから引き留めるのも酷だが、辞めれば住民の拠り所である病院が機能しなくなる。そういう被災地の状況は無視して、今、ウクライナか？自国の被災地に真っ先に貢献しない首相など、役立たずのゴミでしかない。&lt;/p&gt;&lt;p&gt;&lt;a href="https://x.com/kantei/status/1757691184296890703?s=46&amp;amp;t=SpEmOaIH6R28bypulz_gEA" rel="nofollow noopener noreferrer" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;x.com/kantei/status/1757691184&lt;/span&gt;&lt;span class="invisible"&gt;296890703?s=46&amp;amp;t=SpEmOaIH6R28bypulz_gEA&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>1.119319805410276e+17</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>cbctor_mirror</t>
+        </is>
+      </c>
+      <c r="D132" s="2" t="n">
+        <v>45336.9407175926</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;2 men charged, 3rd man sought after fatal assault in west end building&lt;br&gt;Toronto police have arrested and charged two men and are seeking a third after a fatal fight in a west end apartment building on the weekend.&lt;br&gt;&lt;a href="https://mastodon.hongkongers.net/tags/cbc" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;cbc&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.hongkongers.net/tags/news" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;news&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.hongkongers.net/tags/News" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;News&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.hongkongers.net/tags/Canada" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;Canada&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.hongkongers.net/tags/Toronto" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;Toronto&lt;/span&gt;&lt;/a&gt; &lt;br&gt;&lt;a href="https://www.cbc.ca/news/canada/toronto/fatal-assault-weston-lawrence-suspect-sought-two-charged-1.7115433?cmp=rss" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;cbc.ca/news/canada/toronto/fat&lt;/span&gt;&lt;span class="invisible"&gt;al-assault-weston-lawrence-suspect-sought-two-charged-1.7115433?cmp=rss&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>1.119319804932314e+17</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>gabrilend</t>
+        </is>
+      </c>
+      <c r="D133" s="2" t="n">
+        <v>45336.9405787037</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;mastodon won't let me share text files. it's the same picture 4 times because I needed to put the entire text in the description for the blind people.&lt;/p&gt;&lt;p&gt;did you know there are more blind people on the fediverse than gay people? and this is the gayest place I know.&lt;/p&gt;&lt;p&gt;[needs 5 images worth of description but I only had room for 4 in this post, see the next post for the rest]&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>1.119319804877379e+17</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>SentinelArk</t>
+        </is>
+      </c>
+      <c r="D134" s="2" t="n">
+        <v>45336.94072916666</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;A pine marten zorbing.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>1.119319804527002e+17</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>blitter</t>
+        </is>
+      </c>
+      <c r="D135" s="2" t="n">
+        <v>45336.9407175926</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Cursed setup, episode ?:&lt;br&gt;After startup, activate custom home-manager config. Before shutdown, activate empty config&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>1.119319804124578e+17</v>
+      </c>
+      <c r="B136" t="inlineStr"/>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>mastodon</t>
+        </is>
+      </c>
+      <c r="D136" s="2" t="n">
+        <v>45336.93900462963</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>#&lt;a class="" href="https://libera.site/search?tag=Mastodon" rel="nofollow noopener noreferrer" target="_blank"&gt;Mastodon&lt;/a&gt; #&lt;a class="" href="https://libera.site/search?tag=Statistics" rel="nofollow noopener noreferrer" target="_blank"&gt;Statistics&lt;/a&gt; 2024-02-14 22:00 CET&lt;br&gt;&lt;a href="https://libera.site/_stats/mastodon/instances20240214.22.png" rel="nofollow noopener noreferrer" target="_blank"&gt;Number of active instances: 12 957&lt;/a&gt;&lt;br&gt;Number of users: 8 743 654&lt;br&gt;Number of statuses: 986 220 732&lt;br&gt;Number of new users last 2h: 139&lt;br&gt;Number of new statuses last 2h: 54 400&lt;br&gt;   &lt;br&gt;#&lt;a class="" href="https://libera.site/search?tag=Fediverse" rel="nofollow noopener noreferrer" target="_blank"&gt;Fediverse&lt;/a&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>1.119319803880045e+17</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>3Minutesstudy</t>
+        </is>
+      </c>
+      <c r="D137" s="2" t="n">
+        <v>45336.94071862268</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Kansas City: Schüsse bei Super-Bowl-Parade – ein Toter und mehrere Verletzte&lt;/p&gt;&lt;p&gt;Eine Gewalttat überschattet die Super-Bowl-Feier der Kansas City Chiefs. Am Rande der Parade fielen Schüsse, Rettungskräfte sprechen von einem Toten und mehreren Verletzten. Die Polizei nahm zwei bewaffnete Personen fest.&lt;/p&gt;&lt;p&gt;&lt;a href="https://3minutesstudy.com/kansas-city-schusse-bei-super-bowl-parade-ein-toter-und-mehrere-verletzte/" target="_blank" rel="nofollow noopener noreferrer" translate="no"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;3minutesstudy.com/kansas-city-&lt;/span&gt;&lt;span class="invisible"&gt;schusse-bei-super-bowl-parade-ein-toter-und-mehrere-verletzte/&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>1.119319803828239e+17</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>3Minutesstudy</t>
+        </is>
+      </c>
+      <c r="D138" s="2" t="n">
+        <v>45336.94071770833</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Switchingechnologies Gunther Q3 FY24 Results Live : loss falls by 9.26% YOY&lt;/p&gt;&lt;p&gt;Switchingechnologies Gunther Q3 FY24 Results Live : Revenue decreased by 29.89% YoY &amp;amp; loss decreased by 9.26% YoY&lt;/p&gt;&lt;p&gt;&lt;a href="https://3minutesstudy.com/switchingechnologies-gunther-q3-fy24-results-live-loss-falls-by-9-26-yoy/" target="_blank" rel="nofollow noopener noreferrer" translate="no"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;3minutesstudy.com/switchingech&lt;/span&gt;&lt;span class="invisible"&gt;nologies-gunther-q3-fy24-results-live-loss-falls-by-9-26-yoy/&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>1.119319803763205e+17</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>3Minutesstudy</t>
+        </is>
+      </c>
+      <c r="D139" s="2" t="n">
+        <v>45336.9407165625</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Martin Winterkorn im VW-Prozess: Diktator außer Dienst&lt;/p&gt;&lt;p&gt;Ex-Volkswagen-Chef Martin Winterkorn sagt im Dieselprozess aus. Der einst gefürchtete Mann übernimmt vor Gericht mehrere Rollen und hat viel zu erzählen. Zur Aufklärung trägt er jedoch wenig bei.&lt;/p&gt;&lt;p&gt;&lt;a href="https://3minutesstudy.com/martin-winterkorn-im-vw-prozess-diktator-auser-dienst/" target="_blank" rel="nofollow noopener noreferrer" translate="no"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;3minutesstudy.com/martin-winte&lt;/span&gt;&lt;span class="invisible"&gt;rkorn-im-vw-prozess-diktator-auser-dienst/&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>1.119319803616866e+17</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>ionchy</t>
+        </is>
+      </c>
+      <c r="D140" s="2" t="n">
+        <v>45336.94064814815</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;To: ____&lt;br&gt;From: ____&lt;/p&gt;&lt;p&gt;can your variables be used at most once because you're &lt;em&gt;affiiine&lt;/em&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>1.119319803353272e+17</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>nl</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>mezhaheleena</t>
+        </is>
+      </c>
+      <c r="D141" s="2" t="n">
+        <v>45336.94069444444</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;In de aanloop naar de Motorbeurs, waar de coach/vormgever enorm met me over meedenkt en doet, voelde ik me regelmatig tekort schieten. Hij met voortvarende plannen en ideeën en 'doen we even', ik met 'ojee maar hoe dan' en 'te weinig tijd'. Hij deed het realistisch  voorkomen, waar maakte dat ik dacht dat ik misschien te pessimistisch was.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>1.119319802947248e+17</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>sejarnold</t>
+        </is>
+      </c>
+      <c r="D142" s="2" t="n">
+        <v>45336.9406712963</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Have you ever heard of &lt;a href="https://sciencemastodon.com/tags/haskaps" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;haskaps&lt;/span&gt;&lt;/a&gt;? (You may also know the plant as &lt;a href="https://sciencemastodon.com/tags/honeyberry" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;honeyberry&lt;/span&gt;&lt;/a&gt;, or (blue) fly honeysuckle, depending on where you come from!)&lt;/p&gt;&lt;p&gt;I hadn't until probably a year ago.&lt;/p&gt;&lt;p&gt;They're a species of &lt;a href="https://sciencemastodon.com/tags/honeysuckle" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;honeysuckle&lt;/span&gt;&lt;/a&gt;, essentially, with edible &lt;a href="https://sciencemastodon.com/tags/berries" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;berries&lt;/span&gt;&lt;/a&gt;, and some growers cultivate them as a commercial crop. They're quite niche in the UK still (but there are a few specialist growers), but more prominent elsewhere. (Apparently, though in some countries they're believed to be toxic!)&lt;/p&gt;&lt;p&gt;&lt;a href="https://sciencemastodon.com/tags/horticulture" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;horticulture&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>1.119319802426961e+17</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>ja</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>mild_calpeace</t>
+        </is>
+      </c>
+      <c r="D143" s="2" t="n">
+        <v>45336.9406712963</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;ボールペンのペン先はチップという（知見）&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>1.119319802328677e+17</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>GraphicMatt</t>
+        </is>
+      </c>
+      <c r="D144" s="2" t="n">
+        <v>45336.9406912037</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Councillor Brad Bradford’s motion to give another $2 million to the Toronto Arts Council FAILS 7-19.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>1.119319802215373e+17</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>de</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>ntv</t>
+        </is>
+      </c>
+      <c r="D145" s="2" t="n">
+        <v>45336.93042824074</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Seinen ersten Versuch der Olympia-Quali macht eine Corona-Infektion zunichte, jetzt ist Sven Schwarz am Ziel angekommen. Mit Platz vier im WM-Finale über 800 Meter holt sich der Schwimmer sein Ticket für Paris.&lt;br&gt;&lt;a href="https://www.n-tv.de/sport/DSV-Schwimmer-feiern-trotz-verpasster-WM-Medaille-article24736965.html" rel="nofollow noopener noreferrer" target="_blank"&gt;Olympia-Ticket für Schwarz: DSV-Schwimmer feiern trotz verpasster WM-Medaille&lt;/a&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>1.119319801975452e+17</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>iembot_iwx</t>
+        </is>
+      </c>
+      <c r="D146" s="2" t="n">
+        <v>45336.94063657407</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;SOUTH BEND Feb 14 Climate: High: 44 Low: 18 Precip: 0.0" Snow: 0.0" Snow Depth: 0" &lt;a href="https://mesonet.agron.iastate.edu/p.php?pid=202402142134-KIWX-CDUS43-CLISBN" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;mesonet.agron.iastate.edu/p.ph&lt;/span&gt;&lt;span class="invisible"&gt;p?pid=202402142134-KIWX-CDUS43-CLISBN&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>1.119319801670817e+17</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>deborag</t>
+        </is>
+      </c>
+      <c r="D147" s="2" t="n">
+        <v>45336.94064814815</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Mio figlio di 2 anni alla scoperta delle tastiere 😂&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>1.119319801116837e+17</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>governa</t>
+        </is>
+      </c>
+      <c r="D148" s="2" t="n">
+        <v>45336.94065972222</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Ai-Powered Bumper Sticker Provides Context-Sensitive Urban Camouflage &lt;/p&gt;&lt;p&gt;&lt;a href="https://hackaday.com/2024/02/14/ai-powered-bumper-sticker-provides-context-sensitive-urban-camouflage/" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;hackaday.com/2024/02/14/ai-pow&lt;/span&gt;&lt;span class="invisible"&gt;ered-bumper-sticker-provides-context-sensitive-urban-camouflage/&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>1.119319801065332e+17</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>remotevoices</t>
+        </is>
+      </c>
+      <c r="D149" s="2" t="n">
+        <v>45336.94065972222</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;ah. covers.&lt;br&gt;&lt;a href="https://www.youtube.com/watch?v=33_YxgODBLE" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;youtube.com/watch?v=33_YxgODBL&lt;/span&gt;&lt;span class="invisible"&gt;E&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>1.119319799897627e+17</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>CommonMugwort</t>
+        </is>
+      </c>
+      <c r="D150" s="2" t="n">
+        <v>45336.94054398148</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Obsessed with this abandoned train station in Athens&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>1.119319799881532e+17</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>pbump</t>
+        </is>
+      </c>
+      <c r="D151" s="2" t="n">
+        <v>45336.94053240741</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Since 2022, the gap in views of Ukraine between Democrats and Republicans has gotten bigger than the one between older and younger Americans. &lt;br&gt;&lt;a href="https://www.washingtonpost.com/politics/2024/02/14/gop-divide-aiding-ukraine-is-less-about-age-than-politics/" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;washingtonpost.com/politics/20&lt;/span&gt;&lt;span class="invisible"&gt;24/02/14/gop-divide-aiding-ukraine-is-less-about-age-than-politics/&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>1.119319799660424e+17</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>JBot</t>
+        </is>
+      </c>
+      <c r="D152" s="2" t="n">
+        <v>45336.94064070602</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>🚀 Mangá na Amazon:&lt;br&gt;&lt;br&gt;📖 Wind Breaker - 1 de 15+&lt;br&gt;🖋️ Satoru Nii&lt;br&gt;🏢 Editora Panini&lt;br&gt;&lt;br&gt;💰 De R$ 36,90 por R$ 28,73&lt;br&gt;📈 22% de desconto&lt;br&gt;&lt;br&gt;※ Este é um link de afiliado :)&lt;br&gt;&lt;a href="https://www.jbox.com.br/links/NCylc8wpltjPHyBfFep8aTWi/wind-breaker-1" rel="nofollow noopener noreferrer" target="_blank"&gt;https://www.jbox.com.br/links/NCylc8wpltjPHyBfFep8aTWi/wind-breaker-1&lt;/a&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>1.11931979963708e+17</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>sluagh</t>
+        </is>
+      </c>
+      <c r="D153" s="2" t="n">
+        <v>45336.94052083333</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;enjoying my mid-week day off with my nesting partner. celebrating vday with a pound of carnitas from a local mexican place that absolutely did not disappoint&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>1.119319799286213e+17</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>iembot_iwx</t>
+        </is>
+      </c>
+      <c r="D154" s="2" t="n">
+        <v>45336.94061342593</v>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;FORT WAYNE Feb 14 Climate: High: 43 Low: 22 Precip: 0.0" Snow: 0.0" Snow Depth: 0" &lt;a href="https://mesonet.agron.iastate.edu/p.php?pid=202402142134-KIWX-CDUS43-CLIFWA" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;mesonet.agron.iastate.edu/p.ph&lt;/span&gt;&lt;span class="invisible"&gt;p?pid=202402142134-KIWX-CDUS43-CLIFWA&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>1.119319798900833e+17</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>de</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Tealk</t>
+        </is>
+      </c>
+      <c r="D155" s="2" t="n">
+        <v>45336.94061342593</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Wenn ich bis zum 21/05/2024 keine gute Möglichkeit finde um rollenspiel.group zu nutzen, werde ich sie wohl nicht mehr verlängern :rm_sad:&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>1.119319798225243e+17</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>ctvworld_mirror</t>
+        </is>
+      </c>
+      <c r="D156" s="2" t="n">
+        <v>45336.94059027778</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Passengers throw punches onboard mid-air flight to Hawaii&lt;br&gt;In a video posted to social media, two men onboard a Southwest airlines flight were caught in a heated, physical exchange mid-air.&lt;br&gt;&lt;a href="https://mastodon.hongkongers.net/tags/ctv" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;ctv&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.hongkongers.net/tags/news" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;news&lt;/span&gt;&lt;/a&gt; &lt;br&gt;&lt;a href="https://www.ctvnews.ca/world/passengers-throw-punches-onboard-mid-air-flight-to-hawaii-1.6769073" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;ctvnews.ca/world/passengers-th&lt;/span&gt;&lt;span class="invisible"&gt;row-punches-onboard-mid-air-flight-to-hawaii-1.6769073&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>1.119319797381881e+17</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>sportsrage</t>
+        </is>
+      </c>
+      <c r="D157" s="2" t="n">
+        <v>45336.93998842593</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;he is a nut job now ....BUT gotta go with walker . he the best of these 4 though u know Bo will win this poll. &lt;a href="https://twitter.com/hashtag/CFB" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;CFB&lt;/span&gt;&lt;/a&gt; &lt;a href="https://twitter.com/MattHayesCFB/status/1757879474744373671" rel="nofollow noopener noreferrer" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class=""&gt;x.com/MattHayesCFB/s…&lt;/span&gt;&lt;span class="invisible"&gt;&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>1.119319797381881e+17</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>de</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Ariantoser</t>
+        </is>
+      </c>
+      <c r="D158" s="2" t="n">
+        <v>45336.94059027778</v>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;a href="https://chaotic.social/tags/Heiabubu" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;Heiabubu&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>1.11931979673354e+17</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>ja</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Erscheinung47</t>
+        </is>
+      </c>
+      <c r="D159" s="2" t="n">
+        <v>45336.9405787037</v>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;「愛」は肯定的に捉えられるべき感情だ、まではいいんだけども、「だから誰もが愛すべきﾊﾟｰﾄﾅｰを見つけることが望ましい」まで進まれると大きなお世話だｺﾉﾔﾛｳ、にしかなんないな私としては&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>1.119319796259231e+17</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>fr</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Gouximan</t>
+        </is>
+      </c>
+      <c r="D160" s="2" t="n">
+        <v>45336.94055555556</v>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Et voilà le replay sur Twitch :&lt;/p&gt;&lt;p&gt;&lt;a href="https://www.twitch.tv/videos/2062754325" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class=""&gt;twitch.tv/videos/2062754325&lt;/span&gt;&lt;span class="invisible"&gt;&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>1.119319796206792e+17</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>jef</t>
+        </is>
+      </c>
+      <c r="D161" s="2" t="n">
+        <v>45336.94058324074</v>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;span class="h-card" translate="no"&gt;&lt;a href="https://mastodon.social/@lmc" class="u-url mention"&gt;@&lt;span&gt;lmc&lt;/span&gt;&lt;/a&gt;&lt;/span&gt; This is just the right amount of rain.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>1.119319962189503e+17</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>de</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>mfeilner</t>
+        </is>
+      </c>
+      <c r="D162" s="2" t="n">
+        <v>45336.94349537037</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;span class="h-card"&gt;&lt;a href="https://chaos.social/@isotopp" class="u-url mention" rel="nofollow noopener noreferrer" target="_blank"&gt;@&lt;span&gt;isotopp&lt;/span&gt;&lt;/a&gt;&lt;/span&gt; &lt;/p&gt;&lt;p&gt;Kris, this is for you: &lt;/p&gt;&lt;p&gt;&lt;a href="https://sunnah-shop.de/produkt/hemani-schlangenoel/" rel="nofollow noopener noreferrer" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;sunnah-shop.de/produkt/hemani-&lt;/span&gt;&lt;span class="invisible"&gt;schlangenoel/&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>1.11931996199277e+17</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>songinmyheart</t>
+        </is>
+      </c>
+      <c r="D163" s="2" t="n">
+        <v>45336.94351101851</v>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;It’s called misrepresentation to have ever insinuated or created a brand based on that complete lack of fact.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>1.119319961938252e+17</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Zakku</t>
+        </is>
+      </c>
+      <c r="D164" s="2" t="n">
+        <v>45336.9434837963</v>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Epic games wondering why their launcher can't compete with Steam while I wait 15 min for it to open looking like this&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>1.119319961031645e+17</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>mlp_Crosswind</t>
+        </is>
+      </c>
+      <c r="D165" s="2" t="n">
+        <v>45336.94347222222</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;*unaware he has been caught he continues to sneak up to &lt;span class="h-card"&gt;&lt;a href="https://ponies.social/@Constellation" class="u-url mention" rel="nofollow noopener noreferrer" target="_blank"&gt;@&lt;span&gt;Constellation&lt;/span&gt;&lt;/a&gt;&lt;/span&gt; *&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>1.119319960811059e+17</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Yoshi</t>
+        </is>
+      </c>
+      <c r="D166" s="2" t="n">
+        <v>45336.9434837963</v>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;"ICE draft plan would release thousands of immigrants in order to cover budget shortfall"&lt;/p&gt;&lt;p&gt;When will Dems produce ads highlighting this?&lt;/p&gt;&lt;p&gt;&lt;a href="https://www.cnn.com/2024/02/14/politics/ice-draft-plan-release-migrants/index.html" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;cnn.com/2024/02/14/politics/ic&lt;/span&gt;&lt;span class="invisible"&gt;e-draft-plan-release-migrants/index.html&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>1.119319960348794e+17</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>charlesatan</t>
+        </is>
+      </c>
+      <c r="D167" s="2" t="n">
+        <v>45336.94344907408</v>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;span class="h-card" translate="no"&gt;&lt;a href="https://wandering.shop/@annaleen" class="u-url mention" rel="nofollow noopener noreferrer" target="_blank"&gt;@&lt;span&gt;annaleen&lt;/span&gt;&lt;/a&gt;&lt;/span&gt; &lt;span class="h-card" translate="no"&gt;&lt;a href="https://wandering.shop/@charliejane" class="u-url mention" rel="nofollow noopener noreferrer" target="_blank"&gt;@&lt;span&gt;charliejane&lt;/span&gt;&lt;/a&gt;&lt;/span&gt; good afternoon&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>1.119319960347962e+17</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>ja</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>rinsuki</t>
+        </is>
+      </c>
+      <c r="D168" s="2" t="n">
+        <v>45336.94344907408</v>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;RGB565、赤とか青でグラデ作る時には微妙だよなというのが突然降ってきた&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>1.119319960263779e+17</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>AftermathSiteUnofficial</t>
+        </is>
+      </c>
+      <c r="D169" s="2" t="n">
+        <v>45336.94348048611</v>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;I Don’t Get What All This Helldivers 2 Hubbub Is Abou– Hey, When Did It Become 5 AM &lt;br /&gt;&lt;a href="https://aftermath.site/helldivers-2-impressions-steam-playstation" target="_blank" rel="nofollow noopener noreferrer" translate="no"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;aftermath.site/helldivers-2-im&lt;/span&gt;&lt;span class="invisible"&gt;pressions-steam-playstation&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;&lt;p&gt;&lt;a href="https://mastodon.social/tags/AftermathSite" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;AftermathSite&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/VideoGames" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;VideoGames&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>1.11931996024458e+17</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>iembot_bou</t>
+        </is>
+      </c>
+      <c r="D170" s="2" t="n">
+        <v>45336.94346064814</v>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;a href="https://masto.globaleas.org/tags/BOU" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;BOU&lt;/span&gt;&lt;/a&gt; issues Avalanche Watch (AVA) at Feb 14, 2:38 PM MST ...AVALANCHE WATCH IN EFFECT FROM 8AM FRIDAY UNTIL 1130 PM SATURDAY... &lt;a href="https://mesonet.agron.iastate.edu/p.php?pid=202402142138-KBOU-WOUS45-AVABOU" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;mesonet.agron.iastate.edu/p.ph&lt;/span&gt;&lt;span class="invisible"&gt;p?pid=202402142138-KBOU-WOUS45-AVABOU&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>1.119319960006146e+17</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Kimmithy</t>
+        </is>
+      </c>
+      <c r="D171" s="2" t="n">
+        <v>45336.94344907408</v>
+      </c>
+      <c r="E171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>1.119319959741158e+17</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>ja</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>DozingCat</t>
+        </is>
+      </c>
+      <c r="D172" s="2" t="n">
+        <v>45336.94342592593</v>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;読売新聞オンライン: 初診料３０円引き上げ、医療従事者の賃上げ原資に…再診料や入院基本料もアップ &lt;a href="https://www.yomiuri.co.jp/medical/20240214-OYT1T50176/" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;yomiuri.co.jp/medical/20240214&lt;/span&gt;&lt;span class="invisible"&gt;-OYT1T50176/&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>1.119319959734356e+17</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>corelight</t>
+        </is>
+      </c>
+      <c r="D173" s="2" t="n">
+        <v>45336.9434375</v>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Our FY25 Corelight Connect kick-off meeting continues! This morning our CRO Paul "PK" Kleinschnitz took the stage with our partner Adam Hogan, Director of Sales Engineering at CrowdStrike, for a fearless conversation about taking a more comprehensive approach to stop breaches. They discussed the distinctions between detections and data, emphasizing the crucial role of raw endpoint and network telemetry in unraveling cybersecurity incidents. Tune in for more highlights for Corelight Connect!&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>1.119319959695503e+17</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>jose_suweeet</t>
+        </is>
+      </c>
+      <c r="D174" s="2" t="n">
+        <v>45336.9434375</v>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;a href="https://mstdn.ca/tags/CatBuddiez" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;CatBuddiez&lt;/span&gt;&lt;/a&gt;&lt;br&gt;&lt;a href="https://mstdn.ca/tags/CatsofFediverse" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;CatsofFediverse&lt;/span&gt;&lt;/a&gt; &lt;br&gt;Loki and Hoagie resting together.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>1.119319959396697e+17</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>de</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Canisius</t>
+        </is>
+      </c>
+      <c r="D175" s="2" t="n">
+        <v>45336.94344907408</v>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;An &lt;a href="https://muenchen.social/tags/S%C3%B6der" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;Söder&lt;/span&gt;&lt;/a&gt;: laut rumkritisieren ist leicht. Aber wo bleibt die Entschuldigung und wo bleibt die Wiedergutmachung, dass &lt;a href="https://muenchen.social/tags/CSU" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;CSU&lt;/span&gt;&lt;/a&gt;-Minister Andreas &lt;a href="https://muenchen.social/tags/Scheuer" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;Scheuer&lt;/span&gt;&lt;/a&gt; eine Viertelmilliarde einfach so für Nichts verschenkt oder besser zum Fenster rausgeschmissen hat? Aus Dummheit, aus Überheblichkeit, unter Druck gesetzt durch die CSU-Spitze? Was ist der wahre Grund für diese brutale Steuergeldverschwendung?&lt;/p&gt;&lt;p&gt;Ich warte noch immer auf eine Erklärung!&lt;/p&gt;&lt;p&gt;Nota bene: &lt;a href="https://muenchen.social/tags/MautDebakel" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;MautDebakel&lt;/span&gt;&lt;/a&gt;!&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>1.119319959261726e+17</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Downes</t>
+        </is>
+      </c>
+      <c r="D176" s="2" t="n">
+        <v>45336.94346277778</v>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Today&amp;#39;s music: Lou Reed &lt;a href="https://www.youtube.com/watch?v=yOoXjYppyMM" target="_blank" rel="nofollow noopener noreferrer" translate="no"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;youtube.com/watch?v=yOoXjYppyM&lt;/span&gt;&lt;span class="invisible"&gt;M&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>1.119319959076811e+17</v>
+      </c>
+      <c r="B177" t="inlineStr"/>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>_ao_</t>
+        </is>
+      </c>
+      <c r="D177" s="2" t="n">
+        <v>45336.94345064815</v>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;span&gt;瑞希でした！すみません！！！&lt;br&gt;&lt;br&gt;RE: &lt;/span&gt;&lt;a href="https://oran.ski/notes/9pp9bcyqe2" rel="nofollow noopener noreferrer" target="_blank"&gt;https://oran.ski/notes/9pp9bcyqe2&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>1.119319959010277e+17</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>PlaneFenceCMH</t>
+        </is>
+      </c>
+      <c r="D178" s="2" t="n">
+        <v>45336.94337962963</v>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;a href="https://airwaves.social/tags/PlaneAlert" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;PlaneAlert&lt;/span&gt;&lt;/a&gt; ICAO: &lt;a href="https://airwaves.social/tags/A60F3C" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;A60F3C&lt;/span&gt;&lt;/a&gt; Tail: &lt;a href="https://airwaves.social/tags/N49RF" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;N49RF&lt;/span&gt;&lt;/a&gt; Flt: &lt;a href="https://airwaves.social/tags/NOAA49" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;NOAA49&lt;/span&gt;&lt;/a&gt; &lt;br&gt;Owner: &lt;a href="https://airwaves.social/tags/NOAA" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;NOAA&lt;/span&gt;&lt;/a&gt;&lt;br&gt;Aircraft: &lt;a href="https://airwaves.social/tags/Gulfstream" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;Gulfstream&lt;/span&gt;&lt;/a&gt; G-IV SP&lt;br&gt;2024/02/14 16:37:06&lt;br&gt;&lt;a href="https://airwaves.social/tags/GLF4" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;GLF4&lt;/span&gt;&lt;/a&gt; &lt;a href="https://airwaves.social/tags/Gonzo" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;Gonzo&lt;/span&gt;&lt;/a&gt; &lt;a href="https://airwaves.social/tags/CycloneResearch" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;CycloneResearch&lt;/span&gt;&lt;/a&gt; &lt;a href="https://airwaves.social/tags/HurricaneHunter" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;HurricaneHunter&lt;/span&gt;&lt;/a&gt; &lt;a href="https://youtu.be/pllRW9wETzw" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class=""&gt;youtu.be/pllRW9wETzw&lt;/span&gt;&lt;span class="invisible"&gt;&lt;/span&gt;&lt;/a&gt; &lt;br&gt;&lt;a href="https://globe.adsbexchange.com/?icao=A60F3C&amp;amp;showTrace=2024-02-14&amp;amp;zoom=7&amp;amp;lat=39.03252&amp;amp;lon=-79.37408&amp;amp;timestamp=1707946626" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;globe.adsbexchange.com/?icao=A&lt;/span&gt;&lt;span class="invisible"&gt;60F3C&amp;amp;showTrace=2024-02-14&amp;amp;zoom=7&amp;amp;lat=39.03252&amp;amp;lon=-79.37408&amp;amp;timestamp=1707946626&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>1.119319958628818e+17</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>WolfIsMe</t>
+        </is>
+      </c>
+      <c r="D179" s="2" t="n">
+        <v>45336.94340277778</v>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;A pandemic!&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>1.119319958277744e+17</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>es</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>laescude</t>
+        </is>
+      </c>
+      <c r="D180" s="2" t="n">
+        <v>45336.94280092593</v>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;That guy Phil has some charisma. Can’t wait for the Xbox podcast tomorrow. &lt;/p&gt;&lt;p&gt;(Don’t ask me anything, I just draw virtual rectangles)&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>1.119319958194896e+17</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>es</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>editora</t>
+        </is>
+      </c>
+      <c r="D181" s="2" t="n">
+        <v>45336.94344396991</v>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;He actualizado la página de links de &lt;a href="https://mastodon.social/tags/LecturaSocial" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;LecturaSocial&lt;/span&gt;&lt;/a&gt; en &lt;a href="https://mastodon.social/tags/LaCentralita" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;LaCentralita&lt;/span&gt;&lt;/a&gt; para poner de fondo una imagen que parece un bodegón de &lt;a href="https://mastodon.social/tags/Morandi" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;Morandi&lt;/span&gt;&lt;/a&gt; pero que es tal cual (sin montajes ni nada) una foto de un rincón de &lt;span class="h-card" translate="no"&gt;&lt;a href="https://pixelfed.social/casatiajulia" class="u-url mention"&gt;@&lt;span&gt;casatiajulia&lt;/span&gt;&lt;/a&gt;&lt;/span&gt; &lt;/p&gt;&lt;p&gt;&lt;a href="https://lacentralita.net/@lecturasocial" target="_blank" rel="nofollow noopener noreferrer" translate="no"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;lacentralita.net/@lecturasocia&lt;/span&gt;&lt;span class="invisible"&gt;l&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>1.119319957946979e+17</v>
+      </c>
+      <c r="B182" t="inlineStr"/>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>nafu_at</t>
+        </is>
+      </c>
+      <c r="D182" s="2" t="n">
+        <v>45336.94337353009</v>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;/p&gt; &lt;b&gt;TLのみなさま〜〜！！&lt;/b&gt;&lt;span&gt;&lt;br&gt;&lt;br&gt;  &lt;/span&gt;&lt;i&gt;&lt;i&gt;​:eiju_shite:​&lt;/i&gt;&lt;/i&gt;&lt;span&gt;&lt;br&gt;&lt;br&gt;  &lt;/span&gt;&lt;a href="https://nijimiss.moe/tags/みなさまに呼びかけるランダムPlay" rel="nofollow noopener noreferrer" target="_blank"&gt;#みなさまに呼びかけるランダムPlay&lt;/a&gt; &lt;span&gt;&lt;br&gt;&lt;/span&gt; &lt;a href="https://nijimiss.moe/play/01HKQAMGJ88TW7J4Z8HE5TD1F6" rel="nofollow noopener noreferrer" target="_blank"&gt;呼びかけてみる&lt;/a&gt; &lt;p&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>1.119319957720237e+17</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>cakeisnotalie</t>
+        </is>
+      </c>
+      <c r="D183" s="2" t="n">
+        <v>45336.94342592593</v>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;What is this insane obsession UI designers have with making the hit box on scroll bars 2px wide? I hate it *so much*!&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>1.119319957670583e+17</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>StephenRamirez</t>
+        </is>
+      </c>
+      <c r="D184" s="2" t="n">
+        <v>45336.94341435185</v>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Reminder: Unlike Trump… President Joe Biden is not out on bail for felony crimes — Anonymous American Voter &lt;a href="https://universeodon.com/tags/quote" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;quote&lt;/span&gt;&lt;/a&gt; &lt;a href="https://universeodon.com/tags/quotes" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;quotes&lt;/span&gt;&lt;/a&gt; &lt;a href="https://universeodon.com/tags/TrumpCrimes" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;TrumpCrimes&lt;/span&gt;&lt;/a&gt; &lt;a href="https://universeodon.com/tags/Trump" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;Trump&lt;/span&gt;&lt;/a&gt; &lt;a href="https://universeodon.com/tags/TrumpDefendant" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;TrumpDefendant&lt;/span&gt;&lt;/a&gt; &lt;a href="https://universeodon.com/tags/Racketeering" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;Racketeering&lt;/span&gt;&lt;/a&gt; &lt;a href="https://universeodon.com/tags/Conspiracy" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;Conspiracy&lt;/span&gt;&lt;/a&gt; &lt;a href="https://universeodon.com/tags/ObstructionOfJustice" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;ObstructionOfJustice&lt;/span&gt;&lt;/a&gt; &lt;a href="https://universeodon.com/tags/law" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;law&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>1.11931995763069e+17</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>faithisleaping</t>
+        </is>
+      </c>
+      <c r="D185" s="2" t="n">
+        <v>45336.94340277778</v>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Looks like the trial has been canceled, so no jury duty for me. The people at the county offices said that the district court pulls the elections database once a year and my data is probably just stale. 😅&lt;/p&gt;&lt;p&gt;I mean, as a software engineer, I totally understand and appreciate that explanation. As a trans woman who just got deadnamed by the county court system, I appreciate it a hell of a lot less. 😬&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>1.119319957582278e+17</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Hexmutt</t>
+        </is>
+      </c>
+      <c r="D186" s="2" t="n">
+        <v>45336.94339120371</v>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Throne YCH! Multi slot, DM me to snag one!&lt;/p&gt;&lt;p&gt;&lt;a href="https://mastodon.art/tags/MastoArt" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;MastoArt&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.art/tags/DigitalArt" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;DigitalArt&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.art/tags/furry" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;furry&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.art/tags/furryart" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;furryart&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.art/tags/furrynsfw" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;furrynsfw&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>1.119319957579097e+17</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>ja</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>kyoto_np</t>
+        </is>
+      </c>
+      <c r="D187" s="2" t="n">
+        <v>45336.94339120371</v>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;滋賀県が将来の公共交通維持へ計画策定 財源確保には「交通税」も (京都新聞)　&lt;a href="https://www.kyoto-np.co.jp/articles/-/1202475" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;kyoto-np.co.jp/articles/-/1202&lt;/span&gt;&lt;span class="invisible"&gt;475&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>1.11931995711017e+17</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>zh-CN</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>mawei</t>
+        </is>
+      </c>
+      <c r="D188" s="2" t="n">
+        <v>45336.94342478009</v>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;完全在享受咯&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>1.119319956950827e+17</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>es</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>lcrmx</t>
+        </is>
+      </c>
+      <c r="D189" s="2" t="n">
+        <v>45336.94309027777</v>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>📊 &lt;a href="https://social.anacreonte.eu/search?tag=mexico" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;mexico&lt;/span&gt;&lt;/a&gt; ¿ya te enteraste de esta &lt;a href="https://social.anacreonte.eu/search?tag=noticia" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;noticia&lt;/span&gt;&lt;/a&gt;? Mujeres con Bienestar 2024: ¿Quiénes recibirán el pago adelantado de 7 mil 500 pesos? &lt;a href="https://www.elfinanciero.com.mx/edomex/2024/02/12/beneficiarias-de-tarjeta-mujeres-con-bienestar-recibiran-7-mil-500-pesos-en-el-estado-de-mexico/" rel="nofollow noopener noreferrer" target="_blank"&gt;www.elfinanciero.com.mx/edomex…&lt;/a&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>1.119319956942644e+17</v>
+      </c>
+      <c r="B190" t="inlineStr"/>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>translink</t>
+        </is>
+      </c>
+      <c r="D190" s="2" t="n">
+        <v>45336.93888888889</v>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>14 Downtown/Hastings trip leaving UBC Exchange @ Bay 10 at 1:22 pm is cancelled today. Resume at 10th and Blanca.</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>1.119319956787497e+17</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>fr</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>baktelraalis</t>
+        </is>
+      </c>
+      <c r="D191" s="2" t="n">
+        <v>45336.94340277778</v>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Dernier lien / source pour la route : &lt;/p&gt;&lt;p&gt;"Le président de la commission du renseignement de la Chambre des représentants des 🇺🇸  a fait tourner les têtes en appelant publiquement l'administration du président Joe Biden à déclassifier les informations liées à une « menace à la sécurité nationale » non précisée qui a été décrite comme « grave » et « déstabilisante »."&lt;/p&gt;&lt;p&gt;&lt;a href="https://www.twz.com/space/alarm-raised-over-destabilizing-new-russian-threat-in-space-reports" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;twz.com/space/alarm-raised-ove&lt;/span&gt;&lt;span class="invisible"&gt;r-destabilizing-new-russian-threat-in-space-reports&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>1.119319956716502e+17</v>
+      </c>
+      <c r="B192" t="inlineStr"/>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>BrikoX</t>
+        </is>
+      </c>
+      <c r="D192" s="2" t="n">
+        <v>45336.9431049537</v>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Flipboard just brought over 1,000 of its social magazines to Mastodon and the fediverse&lt;/p&gt;&lt;p&gt;&lt;a href="https://lemmy.zip/post/9946571" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class=""&gt;lemmy.zip/post/9946571&lt;/span&gt;&lt;span class="invisible"&gt;&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>1.119319956501957e+17</v>
+      </c>
+      <c r="B193" t="inlineStr"/>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>mishabishi</t>
+        </is>
+      </c>
+      <c r="D193" s="2" t="n">
+        <v>45336.94341009259</v>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;span&gt;PT went well today—doing alright for 2 weeks in &lt;/span&gt;​:zerotwoheart:​&lt;span&gt; first week had WAY more of a profound effect, but i think that's not that surprising. got about another month of this left, so here's hoping i'm on the right track.&lt;/span&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>1.119319956280692e+17</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>ja</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>kyoto_np</t>
+        </is>
+      </c>
+      <c r="D194" s="2" t="n">
+        <v>45336.94337962963</v>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;京都府亀岡市が修学旅行の補助額引き上げへ 給食の値上げ回避で独自予算も (京都新聞)　&lt;a href="https://www.kyoto-np.co.jp/articles/-/1202305" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;kyoto-np.co.jp/articles/-/1202&lt;/span&gt;&lt;span class="invisible"&gt;305&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>1.11931995617304e+17</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>spittinchiclets</t>
+        </is>
+      </c>
+      <c r="D195" s="2" t="n">
+        <v>45336.94230324074</v>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Some WILD stuff planned for tonight 🏀⛳️&lt;/p&gt;&lt;p&gt;7:30pm ET on &lt;span class="h-card"&gt;&lt;a href="https://twitter.com/StreamOnMax" class="u-url mention" rel="nofollow noopener noreferrer" target="_blank"&gt;@&lt;span&gt;StreamOnMax@twitter.com&lt;/span&gt;&lt;/a&gt;&lt;/span&gt; &lt;span class="h-card"&gt;&lt;a href="https://twitter.com/truTV" class="u-url mention" rel="nofollow noopener noreferrer" target="_blank"&gt;@&lt;span&gt;truTV@twitter.com&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>1.119319956013219e+17</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="D196" s="2" t="n">
+        <v>45336.94336586806</v>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>Which should I choose of the two? I personally prefer the first one more. &lt;a class="hashtag" href="https://charcha.cc/tag/delhi" rel="nofollow noopener noreferrer" target="_blank"&gt;#delhi&lt;/a&gt; &lt;a class="hashtag" href="https://charcha.cc/tag/mastindia" rel="nofollow noopener noreferrer" target="_blank"&gt;#mastindia&lt;/a&gt; &lt;a class="hashtag" href="https://charcha.cc/tag/delhi" rel="nofollow noopener noreferrer" target="_blank"&gt;#delhi&lt;/a&gt; &lt;a class="hashtag" href="https://charcha.cc/tag/india" rel="nofollow noopener noreferrer" target="_blank"&gt;#india&lt;/a&gt; &lt;a class="hashtag" href="https://charcha.cc/tag/mastodonindians" rel="nofollow noopener noreferrer" target="_blank"&gt;#mastodonindians&lt;/a&gt; &lt;a href="https://redd.it/1aqv2ms" rel="nofollow noopener noreferrer" target="_blank"&gt;https://redd.it/1aqv2ms&lt;/a&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>1.119319955883123e+17</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>ja</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>risa</t>
+        </is>
+      </c>
+      <c r="D197" s="2" t="n">
+        <v>45336.94337962963</v>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;こんちゃす！&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>1.119319955501249e+17</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>50years_music</t>
+        </is>
+      </c>
+      <c r="D198" s="2" t="n">
+        <v>45336.94339120371</v>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Cupid &lt;br&gt;&lt;a href="https://mastodon.online/tags/SamCooke" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;SamCooke&lt;/span&gt;&lt;/a&gt; &lt;br&gt;&lt;a href="https://youtu.be/_Ehx426P9RU" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class=""&gt;youtu.be/_Ehx426P9RU&lt;/span&gt;&lt;span class="invisible"&gt;&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>1.1193199550053e+17</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>notsureither</t>
+        </is>
+      </c>
+      <c r="D199" s="2" t="n">
+        <v>45336.94337962963</v>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;you host good apps that work wonderfully on any device, thank you.&lt;/p&gt;&lt;p&gt;to: &lt;span class="h-card" translate="no"&gt;&lt;a href="https://floss.social/@fdroidorg" class="u-url mention" rel="nofollow noopener noreferrer" target="_blank"&gt;@&lt;span&gt;fdroidorg&lt;/span&gt;&lt;/a&gt;&lt;/span&gt; &lt;br&gt;from: me&lt;/p&gt;&lt;p&gt;&lt;a href="https://infosec.exchange/tags/ilovefs" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;ilovefs&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>1.11931995489148e+17</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>ja</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>kyoto_np</t>
+        </is>
+      </c>
+      <c r="D200" s="2" t="n">
+        <v>45336.94336805555</v>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;京都府北部で初となる「無印良品」出店へ 2都市のショッピングセンターに (京都新聞)　&lt;a href="https://www.kyoto-np.co.jp/articles/-/1202273" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;kyoto-np.co.jp/articles/-/1202&lt;/span&gt;&lt;span class="invisible"&gt;273&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>1.119319954810988e+17</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>vitriolix</t>
+        </is>
+      </c>
+      <c r="D201" s="2" t="n">
+        <v>45336.94338416667</v>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;pretty amazing hardware / case engineering going on there&lt;/p&gt;&lt;p&gt;&amp;quot;Vision Pro Teardown: Behind the Complex and Creepy Tech&amp;quot;&lt;/p&gt;&lt;p&gt;&lt;a href="https://www.youtube.com/watch?v=JVJPAYwY8Us" target="_blank" rel="nofollow noopener noreferrer" translate="no"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;youtube.com/watch?v=JVJPAYwY8U&lt;/span&gt;&lt;span class="invisible"&gt;s&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>1.119320074651503e+17</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>iembot_okx</t>
+        </is>
+      </c>
+      <c r="D202" s="2" t="n">
+        <v>45336.94547453704</v>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;KENNEDY NY Feb 14 Climate: High: 38 Low: 29 Precip: 0.0" Snow: 0.0" Snow Depth: 2" &lt;a href="https://mesonet.agron.iastate.edu/p.php?pid=202402142141-KOKX-CDUS41-CLIJFK" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;mesonet.agron.iastate.edu/p.ph&lt;/span&gt;&lt;span class="invisible"&gt;p?pid=202402142141-KOKX-CDUS41-CLIJFK&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>1.119320074277973e+17</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>joeo10</t>
+        </is>
+      </c>
+      <c r="D203" s="2" t="n">
+        <v>45336.94541666667</v>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;New York is yet another state with a potentially unconstitutional online age verification bill likely going into law soon. &lt;a href="https://www.techdirt.com/2024/02/14/as-yet-another-protect-the-kids-bill-is-declared-unconstitutional-ny-moves-forward-with-its-latest-attempt/" rel="nofollow noopener noreferrer" target="_blank"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;techdirt.com/2024/02/14/as-yet&lt;/span&gt;&lt;span class="invisible"&gt;-another-protect-the-kids-bill-is-declared-unconstitutional-ny-moves-forward-with-its-latest-attempt/&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>1.119320074122737e+17</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>aboveedxw</t>
+        </is>
+      </c>
+      <c r="D204" s="2" t="n">
+        <v>45336.94549163194</v>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;a href="https://mastodon.social/tags/RYR9RC" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;RYR9RC&lt;/span&gt;&lt;/a&gt;: Malta Air (&lt;a href="https://mastodon.social/tags/Boeing" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;Boeing&lt;/span&gt;&lt;/a&gt; 737MAX 8 200 • 9H-VVD) &lt;br /&gt;7.9 km out at 39000 ft - heading NE with 963.1 km/h. BCN ➜ ARN&lt;br /&gt;&lt;a href="https://globe.adsbexchange.com/?icao=4D23F8" target="_blank" rel="nofollow noopener noreferrer" translate="no"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;globe.adsbexchange.com/?icao=4&lt;/span&gt;&lt;span class="invisible"&gt;D23F8&lt;/span&gt;&lt;/a&gt;&lt;br /&gt;&lt;a href="https://www.jetphotos.com/photo/keyword/9H-VVD" target="_blank" rel="nofollow noopener noreferrer" translate="no"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;jetphotos.com/photo/keyword/9H&lt;/span&gt;&lt;span class="invisible"&gt;-VVD&lt;/span&gt;&lt;/a&gt;&lt;br /&gt;5570 • 22:39:51&lt;br /&gt;&lt;a href="https://mastodon.social/tags/GWT" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;GWT&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/EDXW" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;EDXW&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/adsb" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;adsb&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>1.119320074006215e+17</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>conavegacion</t>
+        </is>
+      </c>
+      <c r="D205" s="2" t="n">
+        <v>45336.94548922453</v>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Hasta que veamos todo el territorio de la República Saharaui liberado e independiente, seguiremos informando de la Actualidad Saharaui en el CANAL de TELEGRAM MUNDO SAHARAUI &lt;a href="http://t.me/MUSAharaui?https://noteolvidesdelsaharaoccidental.org/" target="_blank" rel="nofollow noopener noreferrer" translate="no"&gt;&lt;span class="invisible"&gt;http://&lt;/span&gt;&lt;span class="ellipsis"&gt;t.me/MUSAharaui?https://noteol&lt;/span&gt;&lt;span class="invisible"&gt;videsdelsaharaoccidental.org/&lt;/span&gt;&lt;/a&gt; y en el blog de noticias diarias &lt;a href="https://noteolvidesdelsaharaoccidental.org?https://noteolvidesdelsaharaoccidental.org/" target="_blank" rel="nofollow noopener noreferrer" translate="no"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;noteolvidesdelsaharaoccidental&lt;/span&gt;&lt;span class="invisible"&gt;.org?https://noteolvidesdelsaharaoccidental.org/&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>1.119320073608529e+17</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>TheSurrealAri</t>
+        </is>
+      </c>
+      <c r="D206" s="2" t="n">
+        <v>45336.94546296296</v>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;How do I love thee, let me count the ways 1, 2, 3, 4 (well maybe not, you know what? You’ll be mad if I don include that one; fine 4), 5, 6….&lt;/p&gt;&lt;p&gt;&lt;a href="https://writing.exchange/tags/valentinesday" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;valentinesday&lt;/span&gt;&lt;/a&gt;. &lt;a href="https://writing.exchange/tags/poetry" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;poetry&lt;/span&gt;&lt;/a&gt; &lt;a href="https://writing.exchange/tags/parody" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;parody&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>1.119320073390124e+17</v>
+      </c>
+      <c r="B207" t="inlineStr"/>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>launchctl</t>
+        </is>
+      </c>
+      <c r="D207" s="2" t="n">
+        <v>45336.94547142361</v>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;span&gt;给每一位 iOS 研发的建议&lt;br&gt;&lt;br&gt;核心一句话，去做越狱开发。&lt;br&gt;&lt;br&gt;当你做过越狱开发，你就知道这个系统是怎么干活的了。你有一千种方法做一件事，毫不妥协的做一件事，做好，做到极致。你可以在一个进程里头用成千上万的骚操作，对 JetSam 发消息解决内存限制，用各种系统组件做跳板拿到限定的数据，逆向辅助触控来在桌面上画任意内容，调用输入输出组件模拟触控。你可以热更新程序，虚拟化操作系统，动态调用系统所有资源，用正确的用户组，处理正确的数据。你可以为了稳定性，分配任务给子进程，让内核帮你调度处理器时间片。&lt;br&gt;&lt;br&gt;很快，你就会对：进程通信，信号量，马赫消息，端口，中断，人体学设备输入输出事件调度模拟发送派遣响应，渲染服务，位置服务，进程服务，动态链接加载器，私有框架，系统内核及能力等等，有正确的认识。&lt;br&gt;&lt;br&gt;你会意识到，这个设备他妈可以干这种事，这个设备居然他妈可以干这种事，这个设备很快要可以干这件事，这件简单的小事居然他妈干不了。操！&lt;br&gt;&lt;br&gt;种种这些，对比现在的研发环境而言，大写着两个字：爹味。这和程序开发如此灵活的宗旨背道而行，好比让所有&lt;/span&gt;🌈&lt;span&gt;戒掉&lt;/span&gt;👚&lt;span&gt;。我不接受。&lt;br&gt;&lt;br&gt;以上，祝好。&lt;/span&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>1.119320073057256e+17</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>EmptySet</t>
+        </is>
+      </c>
+      <c r="D208" s="2" t="n">
+        <v>45336.94546296296</v>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Great minutes in unrelieved architectural snark:&lt;/p&gt;&lt;p&gt;&lt;a href="https://www.tumblr.com/mcmansionhell/741171396971053056/weve-found-it-folks-mcmansion-heaven" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;tumblr.com/mcmansionhell/74117&lt;/span&gt;&lt;span class="invisible"&gt;1396971053056/weve-found-it-folks-mcmansion-heaven&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>1.119320073031374e+17</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Grafa</t>
+        </is>
+      </c>
+      <c r="D209" s="2" t="n">
+        <v>45336.94547202547</v>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Canva CFO resigns amid allegations of inappropriate behaviour - published 14 Feb 2024 &lt;a href="https://mastodon.social/tags/News" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;News&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/IPO" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;IPO&lt;/span&gt;&lt;/a&gt; &lt;br /&gt;&lt;a href="https://grafa.com/news/canva-cfo-resigns-amid-allegations-of-inappropriate-behaviour-182298" target="_blank" rel="nofollow noopener noreferrer" translate="no"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;grafa.com/news/canva-cfo-resig&lt;/span&gt;&lt;span class="invisible"&gt;ns-amid-allegations-of-inappropriate-behaviour-182298&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>1.119320072251264e+17</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Haras_J</t>
+        </is>
+      </c>
+      <c r="D210" s="2" t="n">
+        <v>45336.94543981482</v>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;日本🇯🇵上原敬先生寫信給日本國立感染症研究所所長，要求公開以下文件，所長居然回覆沒有這些文件！&lt;/p&gt;&lt;p&gt;1。證明新型冠狀病毒存在的科學證據、論文&lt;/p&gt;&lt;p&gt;2。PCR檢測呈陽性的無症狀感染者，能感染他人的科學依據、論文&lt;/p&gt;&lt;p&gt;3。戴口罩能有效預防新型冠狀病毒感染的科學證據、論文&lt;/p&gt;&lt;p&gt;4。新冠疫苗有效的科學證據&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>1.119320072229173e+17</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>w7voa</t>
+        </is>
+      </c>
+      <c r="D211" s="2" t="n">
+        <v>45336.94524305555</v>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;NY Times - President Biden today shielded thousands of Palestinians in the US from deportation for the next 18 months, using an obscure immigration authority. &lt;a href="https://www.nytimes.com/2024/02/14/us/politics/biden-palestinians-deportation.html?unlocked_article_code=1.VU0.Rtj_.sH1k7xxuw7ih&amp;amp;smid=url-share" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;nytimes.com/2024/02/14/us/poli&lt;/span&gt;&lt;span class="invisible"&gt;tics/biden-palestinians-deportation.html?unlocked_article_code=1.VU0.Rtj_.sH1k7xxuw7ih&amp;amp;smid=url-share&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>1.119320071783688e+17</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>bloomberg</t>
+        </is>
+      </c>
+      <c r="D212" s="2" t="n">
+        <v>45336.94543981482</v>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Bloomberg Markets With Sonali Basak 02/14/2024&lt;br&gt;&lt;a href="https://www.bloomberg.com/news/videos/2024-02-14/bloomberg-markets-with-sonali-basak-02-14-2024-video" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;bloomberg.com/news/videos/2024&lt;/span&gt;&lt;span class="invisible"&gt;-02-14/bloomberg-markets-with-sonali-basak-02-14-2024-video&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>1.119320071647494e+17</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>LombardiHimself</t>
+        </is>
+      </c>
+      <c r="D213" s="2" t="n">
+        <v>45336.94440972222</v>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Shanahan said he’s leaving all options open for now. We will see. They definitely felt the need to evolve from their original approach given evolution of the league, hence the hiring of Wilks, but the next direction remains unclear &lt;a href="https://twitter.com/tacosandteslas/status/1757878075780739319" rel="nofollow noopener noreferrer" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class=""&gt;x.com/tacosandteslas…&lt;/span&gt;&lt;span class="invisible"&gt;&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>1.119320071603445e+17</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>sudaksis</t>
+        </is>
+      </c>
+      <c r="D214" s="2" t="n">
+        <v>45336.94541666667</v>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;My new co-worker says "pog" and "poggers" multiple times a day and I have never felt more distanced from youth&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>1.119320071578298e+17</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>GolfDigest</t>
+        </is>
+      </c>
+      <c r="D215" s="2" t="n">
+        <v>45336.94512731482</v>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Max Homa jokes that he's the "double defending" champion at the Genesis Invitational. 😂&lt;/p&gt;&lt;p&gt;He finished runner-up to Jon Rahm at last year's tournament.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>1.119320071402384e+17</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>mlp_Crosswind</t>
+        </is>
+      </c>
+      <c r="D216" s="2" t="n">
+        <v>45336.94542824074</v>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;*sneakily cuddles up to &lt;span class="h-card"&gt;&lt;a href="https://ponies.social/@Constellation" class="u-url mention" rel="nofollow noopener noreferrer" target="_blank"&gt;@&lt;span&gt;Constellation&lt;/span&gt;&lt;/a&gt;&lt;/span&gt; * &lt;br&gt;Happy hearts and hooves day love!&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>1.119320070925639e+17</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>bloomberg</t>
+        </is>
+      </c>
+      <c r="D217" s="2" t="n">
+        <v>45336.94542824074</v>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Bloomberg Markets 02/14/2024&lt;br&gt;&lt;a href="https://www.bloomberg.com/news/videos/2024-02-14/bloomberg-markets-02-14-2024-video" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;bloomberg.com/news/videos/2024&lt;/span&gt;&lt;span class="invisible"&gt;-02-14/bloomberg-markets-02-14-2024-video&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>1.119320070546125e+17</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>it</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>fcb</t>
+        </is>
+      </c>
+      <c r="D218" s="2" t="n">
+        <v>45336.93391203704</v>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Elfer für Lazio.&lt;/p&gt;&lt;p&gt;⚫🟣 &lt;a href="https://anonsys.net/search?tag=LAZFCB" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;LAZFCB&lt;/span&gt;&lt;/a&gt; | 0-0 | 69’ 💫&lt;br&gt;&lt;a href="https://nitter.adminforge.de/FCBayern/status/1757878589893071052#m" rel="nofollow noopener noreferrer" target="_blank"&gt;FC Bayern München (@FCBayern)&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>1.119320070289307e+17</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>ucsf</t>
+        </is>
+      </c>
+      <c r="D219" s="2" t="n">
+        <v>45336.94542356482</v>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Masters Of The Universe film – Travis Knight lehet a befutó a rendezői székben&lt;/p&gt;&lt;p&gt;Források arról tájékoztatták a Deadline-t, hogy Travis Knight jelenleg a tárgyalások végső fázisában van, hogy ő rendezhesse a Mattel régóta várt Masters of the Universe újragondolását. Bár a szerződést még nem véglegesítették, minden jel arra utal, hogy Knight a vezető jelölt a rendezői szerepre. Emellett Chris Butler fogja átírni a forgatókönyvet, amelyet eredetileg David Callaham, Aaron…&lt;/p&gt;&lt;p&gt;&lt;a href="https://urbancobras.wordpress.com/2024/02/14/masters-of-the-universe-film-travis-knight-lehet-a-befuto-a-rendezoi-szekben/" target="_blank" rel="nofollow noopener noreferrer" translate="no"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;urbancobras.wordpress.com/2024&lt;/span&gt;&lt;span class="invisible"&gt;/02/14/masters-of-the-universe-film-travis-knight-lehet-a-befuto-a-rendezoi-szekben/&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>1.119320070275924e+17</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>bloomberg</t>
+        </is>
+      </c>
+      <c r="D220" s="2" t="n">
+        <v>45336.94541666667</v>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;WeWork Seeks Fresh Cash With&amp;nbsp;Bankruptcy at&amp;nbsp;‘Critical Juncture’&lt;br&gt;&lt;a href="https://www.bloomberg.com/news/articles/2024-02-14/wework-seeks-fresh-cash-as-bankruptcy-hits-critical-juncture" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;bloomberg.com/news/articles/20&lt;/span&gt;&lt;span class="invisible"&gt;24-02-14/wework-seeks-fresh-cash-as-bankruptcy-hits-critical-juncture&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>1.119320070194988e+17</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>ja</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>okunom</t>
+        </is>
+      </c>
+      <c r="D221" s="2" t="n">
+        <v>45336.94541666667</v>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;ねむいな&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>1.119320070160718e+17</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>ja</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>p_vidaesbella</t>
+        </is>
+      </c>
+      <c r="D222" s="2" t="n">
+        <v>45336.94538194445</v>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;ジョルノくん&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>1.119320069982918e+17</v>
+      </c>
+      <c r="B223" t="inlineStr"/>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>kaise</t>
+        </is>
+      </c>
+      <c r="D223" s="2" t="n">
+        <v>45336.9454133912</v>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;span&gt;みんなちがってみんないい&lt;/span&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>1.119320069956222e+17</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>witchywhosit</t>
+        </is>
+      </c>
+      <c r="D224" s="2" t="n">
+        <v>45336.94540509259</v>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Looks like the local hawks have already paired up. I saw them perching together at their nest from last year.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>1.119320069931802e+17</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>pt</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>g1_globo</t>
+        </is>
+      </c>
+      <c r="D225" s="2" t="n">
+        <v>45336.94541729167</v>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Morre humorista Paulo Diógenes, intérprete da &amp;#39;Raimundinha&amp;#39;&lt;/p&gt;&lt;p&gt;Confira! 👇&lt;br /&gt;&lt;a href="https://g1.globo.com/ce/ceara/noticia/2024/02/14/morre-humorista-paulo-diogenes-interprete-da-raimundinha.ghtml" target="_blank" rel="nofollow noopener noreferrer" translate="no"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;g1.globo.com/ce/ceara/noticia/&lt;/span&gt;&lt;span class="invisible"&gt;2024/02/14/morre-humorista-paulo-diogenes-interprete-da-raimundinha.ghtml&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;&lt;p&gt;&lt;a href="https://mastodon.social/tags/G1" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;G1&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>1.119320069790559e+17</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>es</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>urovoros</t>
+        </is>
+      </c>
+      <c r="D226" s="2" t="n">
+        <v>45336.94541479167</v>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Seguimos con el &lt;a href="https://mastodon.social/tags/SadValentin" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;SadValentin&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>1.119320069612533e+17</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>rff</t>
+        </is>
+      </c>
+      <c r="D227" s="2" t="n">
+        <v>45336.9453587963</v>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Now playing on the radiofreefedi.net specialty channel:&lt;br&gt;&lt;br&gt;Salvation by Jessica B. Kelly &amp;amp; The Void Conspiracy &lt;a href="https://mastodon.voidconspiracy.com/@jessica" rel="nofollow noopener noreferrer" target="_blank"&gt;https://mastodon.voidconspiracy.com/@jessica&lt;/a&gt;&lt;br&gt;© used with permission&lt;br&gt;&lt;a href="https://voidconspiracy.com/" rel="nofollow noopener noreferrer" target="_blank"&gt;https://voidconspiracy.com/&lt;/a&gt;&lt;br&gt;&lt;br&gt;Tune in now: &lt;a href="https://radiofreefedi.net" rel="nofollow noopener noreferrer" target="_blank"&gt;https://radiofreefedi.net&lt;/a&gt;&lt;br&gt;interact with &lt;span class="h-card"&gt;&lt;a href="https://musician.social/@radiofreefedi" class="u-url mention" rel="nofollow noopener noreferrer" target="_blank"&gt;@&lt;span&gt;radiofreefedi&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;br&gt;&lt;br&gt;your 24/7 community radio from the fediverse to the universe&lt;br&gt;&lt;a href="https://nowplaying.radiofreefedi.net/tags/rffplays" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;rffPlays&lt;/span&gt;&lt;/a&gt; &lt;a href="https://nowplaying.radiofreefedi.net/tags/rffspecialty" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;rffSpecialty&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>1.11932006955428e+17</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>django</t>
+        </is>
+      </c>
+      <c r="D228" s="2" t="n">
+        <v>45336.9453125</v>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Thanks to everyone who voted!&lt;/p&gt;&lt;p&gt;It was interesting to watch the results fluctuate from a low 60%/40% in favour of ActivityPub first all the way up to 80%/20%.&lt;/p&gt;&lt;p&gt;18 people is obviously a tiny sample size, but I think it is large enough not to ignore.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>1.11932006920116e+17</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>fortboise</t>
+        </is>
+      </c>
+      <c r="D229" s="2" t="n">
+        <v>45336.94540436343</v>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Might as well laugh. (Great job facilitating that, Seth)&lt;br /&gt;&lt;a href="https://youtu.be/jj5z7On2DHg?si=XtPPs2fRm2jmrWTX" target="_blank" rel="nofollow noopener noreferrer" translate="no"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;youtu.be/jj5z7On2DHg?si=XtPPs2&lt;/span&gt;&lt;span class="invisible"&gt;fRm2jmrWTX&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>1.11932006912245e+17</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>governa</t>
+        </is>
+      </c>
+      <c r="D230" s="2" t="n">
+        <v>45336.94539351852</v>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;a href="https://fosstodon.org/tags/DuckDuckGo" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;DuckDuckGo&lt;/span&gt;&lt;/a&gt;’s browser adds encrypted, privacy-minded syncing and backup :duckduckgo: &lt;/p&gt;&lt;p&gt;&lt;a href="https://arstechnica.com/gadgets/2024/02/duckduckgos-browser-adds-encrypted-privacy-minded-syncing-and-backup/" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;arstechnica.com/gadgets/2024/0&lt;/span&gt;&lt;span class="invisible"&gt;2/duckduckgos-browser-adds-encrypted-privacy-minded-syncing-and-backup/&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>1.1193200689448e+17</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>penguiiiiiiiin</t>
+        </is>
+      </c>
+      <c r="D231" s="2" t="n">
+        <v>45336.94539983796</v>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;I can already feel the difference on here alone I&amp;#39;m gonna like it more lol&lt;/p&gt;&lt;p&gt;Why did social media have to get so freaking commercialized. Bringing back that 2010 Twitter energy x&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>1.119320068369417e+17</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>AnthonyJK</t>
+        </is>
+      </c>
+      <c r="D232" s="2" t="n">
+        <v>45336.94521990741</v>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Incidentally...today I received a letter from the US Department of Education officially announcing that, at least for the next 3 years, if not forever, my student loan debt is discharged due to my disability. &lt;/p&gt;&lt;p&gt;$21K in debt....FLUSHED!! GONE!! ERASED!!! I AM FREEEEEE!!!! &lt;/p&gt;&lt;p&gt;At least that's off my chest.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>1.119320068205813e+17</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>spacemagick</t>
+        </is>
+      </c>
+      <c r="D233" s="2" t="n">
+        <v>45336.9453867824</v>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;a href="https://mastodon.social/tags/Valentinesday" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;Valentinesday&lt;/span&gt;&lt;/a&gt; &lt;br /&gt;&lt;a href="https://mastodon.social/tags/DoctorWho" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;DoctorWho&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>1.119320068137885e+17</v>
+      </c>
+      <c r="B234" t="inlineStr"/>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>BugBot</t>
+        </is>
+      </c>
+      <c r="D234" s="2" t="n">
+        <v>45336.94493275463</v>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>&lt;a class="hashtag" href="https://milker.cafe/tag/arthropodwaifu" rel="nofollow noopener noreferrer" target="_blank"&gt;#ArthropodWaifu&lt;/a&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>1.119320067956135e+17</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>RalphVacchiano</t>
+        </is>
+      </c>
+      <c r="D235" s="2" t="n">
+        <v>45336.9450462963</v>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;The Philadelphia Eagles signed LB Julian Okwara, a former third-round pick who spent the last four years with the Lions.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>1.119320067728156e+17</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Gigi</t>
+        </is>
+      </c>
+      <c r="D236" s="2" t="n">
+        <v>45336.9453587963</v>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;MOAR CAWFEE!&lt;br&gt;Must stay awake.&lt;/p&gt;&lt;p&gt;Must also go dark. Where's that Legal Observers' Prayer?&lt;/p&gt;&lt;p&gt;Something something spice level mild, police brutality to a minimum, and something else.&lt;/p&gt;&lt;p&gt;&lt;a href="https://kolektiva.social/tags/LOLife" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;LOLife&lt;/span&gt;&lt;/a&gt; &lt;a href="https://kolektiva.social/tags/FuckThePolice" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;FuckThePolice&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>1.119320067468363e+17</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>orbitalmartian</t>
+        </is>
+      </c>
+      <c r="D237" s="2" t="n">
+        <v>45336.94530092592</v>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;span class="h-card"&gt;&lt;a href="https://social.vivaldi.net/@Vivaldi" class="u-url mention" rel="nofollow noopener noreferrer" target="_blank"&gt;@&lt;span&gt;Vivaldi&lt;/span&gt;&lt;/a&gt;&lt;/span&gt; Could you add a dark mode to your site - light mode hurts my eyes and I can't use sites.&lt;/p&gt;&lt;p&gt;Or is there a reason for not having this accessibility feature?&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>1.119320067407421e+17</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>NewYorkRedBulls</t>
+        </is>
+      </c>
+      <c r="D238" s="2" t="n">
+        <v>45336.94458333333</v>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;🔴 RBNY GOAL 🔴&lt;/p&gt;&lt;p&gt;35’ ⚽️ Elias Manoel&lt;br&gt;Assist ➡️ Emil Forsberg&lt;/p&gt;&lt;p&gt;RBNY 2-0 ATX&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>1.119320067146735e+17</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>fr</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>tendanceradio</t>
+        </is>
+      </c>
+      <c r="D239" s="2" t="n">
+        <v>45336.94536809028</v>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;En ce moment sur Tendance Radio Hits : Si Tu M&amp;#39;Entends par Frédéric Lerner ! Branchez-vous maintenant : &lt;a href="https://srv.tendanceradio.net/public/t-hits" target="_blank" rel="nofollow noopener noreferrer" translate="no"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;srv.tendanceradio.net/public/t&lt;/span&gt;&lt;span class="invisible"&gt;-hits&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>1.119320066884214e+17</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>craftyguy</t>
+        </is>
+      </c>
+      <c r="D240" s="2" t="n">
+        <v>45336.9453125</v>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;There was a regression today in &lt;a href="https://freeradical.zone/tags/postmarketOS" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;postmarketOS&lt;/span&gt;&lt;/a&gt; with the way we handle DNS. A fairly normal "stop everything and fight fire" situation...&lt;/p&gt;&lt;p&gt;What was exceptional about it in this case is that &lt;span class="h-card" translate="no"&gt;&lt;a href="https://floss.social/@camelCaseNick" class="u-url mention" rel="nofollow noopener noreferrer" target="_blank"&gt;@&lt;span&gt;camelCaseNick&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;  stepped up to write a pmOS "edge" blog post about it. This gave me some extra time to debug the issue a bit and find a workaround. Thank you &lt;span class="h-card" translate="no"&gt;&lt;a href="https://floss.social/@camelCaseNick" class="u-url mention" rel="nofollow noopener noreferrer" target="_blank"&gt;@&lt;span&gt;camelCaseNick&lt;/span&gt;&lt;/a&gt;&lt;/span&gt; !! 🙏 &lt;/p&gt;&lt;p&gt;&lt;a href="https://postmarketos.org/edge/2024/02/14/dnsmasq-broken-upgrade/" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;postmarketos.org/edge/2024/02/&lt;/span&gt;&lt;span class="invisible"&gt;14/dnsmasq-broken-upgrade/&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>1.119320066637566e+17</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>songinmyheart</t>
+        </is>
+      </c>
+      <c r="D241" s="2" t="n">
+        <v>45336.94535908565</v>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;That has already been done. It isn’t “coming”. I mean more will be coming with every single little tiny thing you oh from me and my kid. But the misrepresentation part for both Stanford and “Christina vs Chris” IS done.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>1.119320219107092e+17</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>todor</t>
+        </is>
+      </c>
+      <c r="D242" s="2" t="n">
+        <v>45336.94802083333</v>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;🍿 Bullet Train 🚅 is the right kind of silly I needed today.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>1.119320219053072e+17</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>mlp_StLightning</t>
+        </is>
+      </c>
+      <c r="D243" s="2" t="n">
+        <v>45336.94804398148</v>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;*nothing much for his garden, since mostly been snowing and haven't planted. Been mostly under snow, plus doesn't have much to planet for the winter*&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>1.11932021860345e+17</v>
+      </c>
+      <c r="B244" t="inlineStr"/>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>kaise</t>
+        </is>
+      </c>
+      <c r="D244" s="2" t="n">
+        <v>45336.94803797454</v>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;span&gt;snsの住人は言語能力が落ちてってる気がする&lt;/span&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>1.11932021853061e+17</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>es</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>telambot</t>
+        </is>
+      </c>
+      <c r="D245" s="2" t="n">
+        <v>45336.94804162037</v>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Destacaron el &amp;quot;fuerte movimiento turístico&amp;quot; en todo país que generó el Carnaval&lt;/p&gt;&lt;p&gt;&lt;a href="https://www.telam.com.ar/notas/202402/655206-feriado-largo-municipios-provincias-movimiento-turistico.html" target="_blank" rel="nofollow noopener noreferrer" translate="no"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;telam.com.ar/notas/202402/6552&lt;/span&gt;&lt;span class="invisible"&gt;06-feriado-largo-municipios-provincias-movimiento-turistico.html&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>1.119320218265299e+17</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Gigi</t>
+        </is>
+      </c>
+      <c r="D246" s="2" t="n">
+        <v>45336.94800925926</v>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;? /🧵&lt;/p&gt;&lt;p&gt;Found it¹.&lt;br&gt;Pray with me:&lt;/p&gt;&lt;p&gt;🙏🏾 🙏🏾 🙏🏾 🙏🏾 🙏🏾&lt;br&gt;Dear Lordt:&lt;br&gt;Please keep the spice level mild and the police brutality to a bare minimum.&lt;/p&gt;&lt;p&gt;Oh man.&lt;br&gt;🙏🏾 🙏🏾 🙏🏾 🙏🏾 🙏🏾 &lt;br&gt;&lt;a href="https://kolektiva.social/tags/LegalObservers" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;LegalObservers&lt;/span&gt;&lt;/a&gt; &lt;br&gt;________&lt;br&gt;¹ &lt;a href="https://kolektiva.social/@Gigi/111851723673484330" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;kolektiva.social/@Gigi/1118517&lt;/span&gt;&lt;span class="invisible"&gt;23673484330&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>1.119320218144877e+17</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>MirageCity</t>
+        </is>
+      </c>
+      <c r="D247" s="2" t="n">
+        <v>45336.94803479167</v>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;💀 Großes Gangwar Update 💀&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>1.119320217902539e+17</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>JeffHowell</t>
+        </is>
+      </c>
+      <c r="D248" s="2" t="n">
+        <v>45336.94797453703</v>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Been quietly building up Callie’s new bike over the past couple of weeks. &lt;br&gt;Her Surly Disc Trucker was stolen just after Christmas) &amp;amp; despite a speedy &amp;amp; generous insurance settlement it’s been impossible to replace our beloved touring bikes. &lt;br&gt;None in the country &amp;amp; prohibitive shipping costs from the US,grrr.&lt;br&gt;I found a Kona Sutra as replacement, and am very happy with it. However Callie needs a small frame and there’s literally nothing on the rack in Aotearoa. So we decided on a ground-up build!&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>1.119320217786788e+17</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>es</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>telambot</t>
+        </is>
+      </c>
+      <c r="D249" s="2" t="n">
+        <v>45336.9480284838</v>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Diputados radicales le pidieron a la Justicia que investigue coimas en el Congreso&lt;/p&gt;&lt;p&gt;&lt;a href="https://www.telam.com.ar/notas/202402/655207-diputados-radicales-coimas-milei.html" target="_blank" rel="nofollow noopener noreferrer" translate="no"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;telam.com.ar/notas/202402/6552&lt;/span&gt;&lt;span class="invisible"&gt;07-diputados-radicales-coimas-milei.html&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>1.119320217733479e+17</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>BleakDickens</t>
+        </is>
+      </c>
+      <c r="D250" s="2" t="n">
+        <v>45336.94802083333</v>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;'I don't understand why you should hope so,' said Mrs. Nickleby, 'I confess; but you may depend upon it I am not.'&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>1.11932021762229e+17</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>hnbot</t>
+        </is>
+      </c>
+      <c r="D251" s="2" t="n">
+        <v>45336.94800925926</v>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Nanoplastics in water – surprisingly large amounts discovered and its not good - &lt;a href="https://molecularspec.substack.com/p/nanoplastics-in-water-surprisingly" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;molecularspec.substack.com/p/n&lt;/span&gt;&lt;span class="invisible"&gt;anoplastics-in-water-surprisingly&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;&lt;p&gt;&lt;a href="https://mastodon.chrispelli.fun/tags/hackernews" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;hackernews&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>1.119320217611093e+17</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>de</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>yaktastic</t>
+        </is>
+      </c>
+      <c r="D252" s="2" t="n">
+        <v>45336.94800925926</v>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;EMP hat mittlerweile tatsächlich auch eine nachhaltige Bandbreite an Mode - nicht groß, aber erstmal sehr gutaussehend. FFDP ist darin auch vertreten, aber erstmal muss mein Pulli noch halten.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>1.119320217576034e+17</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>es</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="D253" s="2" t="n">
+        <v>45336.94800925926</v>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;¿Y qué es cicerone?&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>1.119320217298463e+17</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Allkinds</t>
+        </is>
+      </c>
+      <c r="D254" s="2" t="n">
+        <v>45336.94801987269</v>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;a href="https://www.msn.com/en-us/news/politics/gop-rep-blames-biden-for-border-issues-using-pic-taken-during-trump-era/ar-BB1ihR78" target="_blank" rel="nofollow noopener noreferrer" translate="no"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;msn.com/en-us/news/politics/go&lt;/span&gt;&lt;span class="invisible"&gt;p-rep-blames-biden-for-border-issues-using-pic-taken-during-trump-era/ar-BB1ihR78&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;&lt;p&gt;&lt;a href="https://mastodon.social/tags/border" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;border&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>1.119320217235613e+17</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Johnfromalban</t>
+        </is>
+      </c>
+      <c r="D255" s="2" t="n">
+        <v>45336.94801875</v>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Sean Manaea Talks First Day at Mets Spring Training &lt;a href="https://www.youtube.com/watch?v=FrXMEqC7YPY&amp;amp;utm_source=dlvr.it&amp;amp;utm_medium=mastodon" target="_blank" rel="nofollow noopener noreferrer" translate="no"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;youtube.com/watch?v=FrXMEqC7YP&lt;/span&gt;&lt;span class="invisible"&gt;Y&amp;amp;utm_source=dlvr.it&amp;amp;utm_medium=mastodon&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>1.119320217069396e+17</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>zh</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>douban</t>
+        </is>
+      </c>
+      <c r="D256" s="2" t="n">
+        <v>45336.94798611111</v>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;「犯罪现场4」&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>1.119320217047601e+17</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>es</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>telambot</t>
+        </is>
+      </c>
+      <c r="D257" s="2" t="n">
+        <v>45336.94801542824</v>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;En una audición federal seleccionaron dos nuevos protagonistas del musical &amp;quot;Querido Evan&amp;quot;&lt;/p&gt;&lt;p&gt;&lt;a href="https://www.telam.com.ar/notas/202402/655205-en-una-audicion-federal-seleccionaron-dos-nuevos-protagonistas-del-musical-querido-evan.html" target="_blank" rel="nofollow noopener noreferrer" translate="no"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;telam.com.ar/notas/202402/6552&lt;/span&gt;&lt;span class="invisible"&gt;05-en-una-audicion-federal-seleccionaron-dos-nuevos-protagonistas-del-musical-querido-evan.html&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>1.119320217001326e+17</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>pt</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>bahianoticias</t>
+        </is>
+      </c>
+      <c r="D258" s="2" t="n">
+        <v>45336.94801479167</v>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Mulher é agredida pelo marido na BA por reclamar de falta de ajuda nas tarefas domésticas &lt;a href="http://dlvr.it/T2ltvB" target="_blank" rel="nofollow noopener noreferrer" translate="no"&gt;&lt;span class="invisible"&gt;http://&lt;/span&gt;&lt;span class=""&gt;dlvr.it/T2ltvB&lt;/span&gt;&lt;span class="invisible"&gt;&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>1.119320216990159e+17</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>GregDance</t>
+        </is>
+      </c>
+      <c r="D259" s="2" t="n">
+        <v>45336.94800925926</v>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;a href="https://jembendell.com/2024/02/09/stubborn-optimism-in-an-era-of-collapse/" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;jembendell.com/2024/02/09/stub&lt;/span&gt;&lt;span class="invisible"&gt;born-optimism-in-an-era-of-collapse/&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;&lt;p&gt;Stubborn Optimism in an era of Collapse&lt;/p&gt;&lt;p&gt;Happy lovey day!&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>1.119320216949141e+17</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>riskmap</t>
+        </is>
+      </c>
+      <c r="D260" s="2" t="n">
+        <v>45336.94801369213</v>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;⚡️ Tragic crash in Austin emergency room leaves one dead and multiple injured. Investigation underway to determine the cause of the accident. &lt;a href="https://www.riskmap.com/incidents/2044206/articles/208062091/" target="_blank" rel="nofollow noopener noreferrer" translate="no"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;riskmap.com/incidents/2044206/&lt;/span&gt;&lt;span class="invisible"&gt;articles/208062091/&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>1.119320216760205e+17</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>PatrickOBeirne</t>
+        </is>
+      </c>
+      <c r="D261" s="2" t="n">
+        <v>45336.94799768519</v>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;🙂 &lt;a href="https://mastodon.ie/tags/Wordle" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;Wordle&lt;/span&gt;&lt;/a&gt; 970 3/6&lt;/p&gt;&lt;p&gt;⬛🟧🟦⬛🟦&lt;br&gt;🟦⬛🟦⬛⬛&lt;br&gt;🟧🟧🟧🟧🟧&lt;/p&gt;&lt;p&gt;😃 &lt;a href="https://mastodon.ie/tags/Byrdle" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;Byrdle&lt;/span&gt;&lt;/a&gt; 764 3/7&lt;/p&gt;&lt;p&gt;⚪🟢⚪⚪⚪⚪&lt;br&gt;🟢🟡🟢⚪⚪⚪&lt;br&gt;🟢🟢🟢🟢🟢🟢&lt;br&gt;&lt;a href="https://www.byrdle.net" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class=""&gt;byrdle.net&lt;/span&gt;&lt;span class="invisible"&gt;&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>1.119320216699121e+17</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Cityreport24_MikeB</t>
+        </is>
+      </c>
+      <c r="D262" s="2" t="n">
+        <v>45336.94800950232</v>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Neues Fahrzeug für den Löschzug Gahlen &lt;a href="https://cityreport.pnr24-online.de/neues-fahrzeug-fuer-den-loeschzug-gahlen/?utm_source=dlvr.it&amp;amp;utm_medium=mastodon" target="_blank" rel="nofollow noopener noreferrer" translate="no"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;cityreport.pnr24-online.de/neu&lt;/span&gt;&lt;span class="invisible"&gt;es-fahrzeug-fuer-den-loeschzug-gahlen/?utm_source=dlvr.it&amp;amp;utm_medium=mastodon&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/Blaulicht" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;Blaulicht&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/BundeslandNordrheinWestfalen" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;BundeslandNordrheinWestfalen&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/Feuerwehr" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;Feuerwehr&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/Bundesl%C3%A4nder" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;Bundesländer&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>1.119320216618039e+17</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>da3dalus</t>
+        </is>
+      </c>
+      <c r="D263" s="2" t="n">
+        <v>45336.94799768519</v>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;امروز فهمیدم رو فندکم زده kkk&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>1.119320216476742e+17</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>victoria_venery</t>
+        </is>
+      </c>
+      <c r="D264" s="2" t="n">
+        <v>45336.94797453703</v>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Happy Cheap Chocolate Day Eve!&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>1.119320216413346e+17</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Sjwillis</t>
+        </is>
+      </c>
+      <c r="D265" s="2" t="n">
+        <v>45336.94799768519</v>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;As per this great video (on maintaining local python environments using pyenv), the Python that comes built into the Mac is for the Mac to use, not for programmers to use! Moreover, sudo should be unnecessary when working with installing modules, etc. for python. This magic is achievable by doing the following: Install Homebrew The […]... read more: &lt;a href="https://www.jimwillis.org/2024/02/14/installing-python-on-new-mac/" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;jimwillis.org/2024/02/14/insta&lt;/span&gt;&lt;span class="invisible"&gt;lling-python-on-new-mac/&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;&lt;p&gt;&lt;a href="https://fosstodon.org/tags/mac" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;mac&lt;/span&gt;&lt;/a&gt; &lt;a href="https://fosstodon.org/tags/python" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;python&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>1.11932021625845e+17</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>es</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>telambot</t>
+        </is>
+      </c>
+      <c r="D266" s="2" t="n">
+        <v>45336.94800153935</v>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;El deseo que desvela a Banega y que tiene como protagonista a Messi&lt;/p&gt;&lt;p&gt;&lt;a href="https://www.telam.com.ar/notas/202402/655208-ever-banega-newells-inter-miami-amistoso-estados-unidos.html" target="_blank" rel="nofollow noopener noreferrer" translate="no"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;telam.com.ar/notas/202402/6552&lt;/span&gt;&lt;span class="invisible"&gt;08-ever-banega-newells-inter-miami-amistoso-estados-unidos.html&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>1.1193202160922e+17</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>streetrootsfeed</t>
+        </is>
+      </c>
+      <c r="D267" s="2" t="n">
+        <v>45336.94798611111</v>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Last Month in Oregon Labor | January 2024 &lt;a href="https://www.streetroots.org/news/2024/02/07/last-month-oregon-labor-january-2024" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;streetroots.org/news/2024/02/0&lt;/span&gt;&lt;span class="invisible"&gt;7/last-month-oregon-labor-january-2024&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>1.11932021608943e+17</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>fo</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>infobot</t>
+        </is>
+      </c>
+      <c r="D268" s="2" t="n">
+        <v>45336.94797453703</v>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;PKU-kortini eru komin heim&lt;/p&gt;&lt;p&gt;Tað hevur stóran týdning, at PKU-kortini og annað føroyskt tilfar verður savnað og varðveitt hjá okkum í Føroyum. Tilgongdin at fáa PKU-kortini heim hevur verið drúgv. Heilsumálaráðið og avvarðandi…&lt;br&gt;&lt;a href="https://e.fo/tags/news" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;news&lt;/span&gt;&lt;/a&gt; &lt;a href="https://e.fo/tags/t%C3%AD%C3%B0indi" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;tíðindi&lt;/span&gt;&lt;/a&gt; &lt;a href="https://e.fo/tags/info" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;info&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;&lt;p&gt;Leinki: &lt;a href="https://in.fo/news-detail/pku-kortini-eru-komin-heim" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;in.fo/news-detail/pku-kortini-&lt;/span&gt;&lt;span class="invisible"&gt;eru-komin-heim&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>1.119320216040285e+17</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>spottyfox</t>
+        </is>
+      </c>
+      <c r="D269" s="2" t="n">
+        <v>45336.94785879629</v>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Fox reputation in the furry fandom has drifted from "the slutty ones" to "the screamy ones", and that works for me&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>1.119320215709966e+17</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>sssweather_test</t>
+        </is>
+      </c>
+      <c r="D270" s="2" t="n">
+        <v>45336.94798611111</v>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Latest event: Bh_4_20240214-214202&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>1.119320215696558e+17</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>silenthillfun</t>
+        </is>
+      </c>
+      <c r="D271" s="2" t="n">
+        <v>45336.9479915625</v>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Scene from “Silent Hill: Downpour”&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>1.119320215547918e+17</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>GraphicMatt</t>
+        </is>
+      </c>
+      <c r="D272" s="2" t="n">
+        <v>45336.94798891203</v>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Carroll’s motion to spend an extra $800K to implement an action plan for the cultural sector CARRIES 25-1.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>1.11932021546801e+17</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>es</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>telambot</t>
+        </is>
+      </c>
+      <c r="D273" s="2" t="n">
+        <v>45336.94798752315</v>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Llega al cine la novela de Amis para repensar la esfera íntima del nazismo&lt;/p&gt;&lt;p&gt;&lt;a href="https://www.telam.com.ar/notas/202402/655204-martin-amis-nazismo-pelicula.html" target="_blank" rel="nofollow noopener noreferrer" translate="no"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;telam.com.ar/notas/202402/6552&lt;/span&gt;&lt;span class="invisible"&gt;04-martin-amis-nazismo-pelicula.html&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>1.119320215417147e+17</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Balleralert</t>
+        </is>
+      </c>
+      <c r="D274" s="2" t="n">
+        <v>45336.94797453703</v>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;One Dead, Multiple People Injured After Gunfire Erupts Following Kansas City Chiefs Super Bowl Parade &lt;a href="https://balleralert.com/profiles/blogs/chiefs-super-bowl-parade-ends-early-as-gunfire-erupts/?utm_source=dlvr.it&amp;amp;utm_medium=mastodon" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;balleralert.com/profiles/blogs&lt;/span&gt;&lt;span class="invisible"&gt;/chiefs-super-bowl-parade-ends-early-as-gunfire-erupts/?utm_source=dlvr.it&amp;amp;utm_medium=mastodon&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>1.119320215120196e+17</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>de</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>DiePresse</t>
+        </is>
+      </c>
+      <c r="D275" s="2" t="n">
+        <v>45336.94797453703</v>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Mindestens ein Todesopfer nach Schüssen bei Super-Bowl-Siegesparade&lt;/p&gt;&lt;p&gt;Bei der Parade für die Super-Bowl-Sieger Kansas City Chiefs fielen Schüsse. Mehrere Menschen wurden verletzt, eine Person kam ums Leben. Die Polizei nahm zwei bewaffnete Personen fest.&lt;/p&gt;&lt;p&gt;&lt;a href="https://www.diepresse.com/18149631/mindestens-ein-todesopfer-nach-schuessen-bei-super-bowl-siegesparade" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;diepresse.com/18149631/mindest&lt;/span&gt;&lt;span class="invisible"&gt;ens-ein-todesopfer-nach-schuessen-bei-super-bowl-siegesparade&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;&lt;p&gt;&lt;a href="https://mstdn.social/tags/_Polizei" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;_Polizei&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>1.119320215072513e+17</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>askubuntu</t>
+        </is>
+      </c>
+      <c r="D276" s="2" t="n">
+        <v>45336.94796296296</v>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Failed to start Remount Root and Kernel File Systems &lt;a href="https://ubuntu.social/tags/boot" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;boot&lt;/span&gt;&lt;/a&gt; &lt;a href="https://ubuntu.social/tags/partitioning" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;partitioning&lt;/span&gt;&lt;/a&gt; &lt;a href="https://ubuntu.social/tags/kernel" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;kernel&lt;/span&gt;&lt;/a&gt; &lt;a href="https://ubuntu.social/tags/mount" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;mount&lt;/span&gt;&lt;/a&gt; &lt;a href="https://ubuntu.social/tags/steam" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;steam&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;&lt;p&gt;&lt;a href="https://askubuntu.com/q/1503546/612" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class=""&gt;askubuntu.com/q/1503546/612&lt;/span&gt;&lt;span class="invisible"&gt;&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>1.119320214899511e+17</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>GootloaderSites</t>
+        </is>
+      </c>
+      <c r="D277" s="2" t="n">
+        <v>45336.94796296296</v>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Current &lt;a href="https://infosec.exchange/tags/GootLoader" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;GootLoader&lt;/span&gt;&lt;/a&gt; site, serving up malicious zip/js is hxxps://www.hotelovernachtingalphenaandenrijn.nl/get.php&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>1.119320214895718e+17</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>youronlyone</t>
+        </is>
+      </c>
+      <c r="D278" s="2" t="n">
+        <v>45336.94796296296</v>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;La Brea ★★★★★★★★★☆  &lt;a href="https://trakt.tv/comments/645447" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class=""&gt;trakt.tv/comments/645447&lt;/span&gt;&lt;span class="invisible"&gt;&lt;/span&gt;&lt;/a&gt; &lt;a href="https://c.im/tags/LaBrea" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;LaBrea&lt;/span&gt;&lt;/a&gt; &lt;a href="https://c.im/tags/trakt" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;trakt&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>1.119320214895226e+17</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>de</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>zeitbot</t>
+        </is>
+      </c>
+      <c r="D279" s="2" t="n">
+        <v>45336.94796296296</v>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Annalena Baerbock in Israel: Der Preis für die Solidarität wird höher&lt;/p&gt;&lt;p&gt;Seit Beginn des Kriegs war Annalena Baerbock oft in Israel. Doch der Ton ändert sich, das Leid der Palästinenser wächst. Lässt sich Benajmin Netanjahu davon beeindrucken?&lt;/p&gt;&lt;p&gt;&lt;a href="https://www.zeit.de/politik/ausland/2024-02/israel-annalena-baerbock-benjamin-netanjahu-rafah" rel="nofollow noopener noreferrer" target="_blank"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;zeit.de/politik/ausland/2024-0&lt;/span&gt;&lt;span class="invisible"&gt;2/israel-annalena-baerbock-benjamin-netanjahu-rafah&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;&lt;p&gt;&lt;a href="https://muenchen.social/tags/paywall" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;paywall&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>1.119320214888237e+17</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>sameself</t>
+        </is>
+      </c>
+      <c r="D280" s="2" t="n">
+        <v>45336.94796296296</v>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;little friday night loose change&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>1.119320214818301e+17</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>moi</t>
+        </is>
+      </c>
+      <c r="D281" s="2" t="n">
+        <v>45336.94795392361</v>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>Need a military gf</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>1.119320862325777e+17</v>
+      </c>
+      <c r="B282" t="inlineStr"/>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>FIPPlaysNow</t>
+        </is>
+      </c>
+      <c r="D282" s="2" t="n">
+        <v>45336.95939762732</v>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;♪ &lt;a href="https://social.nocle.fr/tags/nowplaying" rel="nofollow noopener noreferrer" target="_blank"&gt;#nowplaying&lt;/a&gt; &lt;a href="https://social.nocle.fr/tags/FIP" rel="nofollow noopener noreferrer" target="_blank"&gt;#FIP&lt;/a&gt; Alone together - Kenny Dorham &amp;amp; Tommy Flanagan &amp;amp; Paul Chambers &amp;amp; Taylor Art (Quiet Kenny − 1959) &lt;a href="https://www.radiofrance.fr/fip/" rel="nofollow noopener noreferrer" target="_blank"&gt;https://www.radiofrance.fr/fip/&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>1.119320862260407e+17</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>RadioKansas</t>
+        </is>
+      </c>
+      <c r="D283" s="2" t="n">
+        <v>45336.95941028935</v>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Nightcrossings for Friday, February 16, 2024&lt;/p&gt;&lt;p&gt;NX02162024Download&lt;/p&gt;&lt;p&gt;&lt;a href="https://radiokansas.com/2024/02/14/nightcrossings-for-friday-february-16-2024/" target="_blank" rel="nofollow noopener noreferrer" translate="no"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;radiokansas.com/2024/02/14/nig&lt;/span&gt;&lt;span class="invisible"&gt;htcrossings-for-friday-february-16-2024/&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>1.119320862150106e+17</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>craftygardennz</t>
+        </is>
+      </c>
+      <c r="D284" s="2" t="n">
+        <v>45336.95938657408</v>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;About to take Missy cat to the vet for her sick pet blood panel and urine test, send her lots of good wishes please 🤒 &lt;/p&gt;&lt;p&gt;And send me good luck because she's going to bite and scratch me while i get her into the cat carrier 😬&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>1.119320862125435e+17</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>de</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>jungewelt</t>
+        </is>
+      </c>
+      <c r="D285" s="2" t="n">
+        <v>45336.95836805556</v>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Bauernproteste in Indien: Nächster »Marsch auf Delhi«&lt;/p&gt;&lt;p&gt;&lt;a href="https://www.jungewelt.de/artikel/469386.bauernproteste-in-indien-nächster-marsch-auf-delhi.html" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;jungewelt.de/artikel/469386.ba&lt;/span&gt;&lt;span class="invisible"&gt;uernproteste-in-indien-nächster-marsch-auf-delhi.html&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>1.119320862082243e+17</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>ga</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>IarfhlaithO</t>
+        </is>
+      </c>
+      <c r="D286" s="2" t="n">
+        <v>45336.95938657408</v>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;AirPods seachas flas fiacla&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>1.119320861959675e+17</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>markramseydotcom</t>
+        </is>
+      </c>
+      <c r="D287" s="2" t="n">
+        <v>45336.95940578703</v>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Watching Tokyo Vice on &lt;a href="https://mastodon.social/tags/MAX" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;MAX&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/NowWatching" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;NowWatching&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/tvseries" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;tvseries&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>1.119320861582608e+17</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>ORLPride</t>
+        </is>
+      </c>
+      <c r="D288" s="2" t="n">
+        <v>45336.95884259259</v>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;A couple of the new kids brought the heat today 😮‍💨&lt;/p&gt;&lt;p&gt;&lt;span class="h-card"&gt;&lt;a href="https://twitter.com/SimoneCharley" class="u-url mention" rel="nofollow noopener noreferrer" target="_blank"&gt;@&lt;span&gt;SimoneCharley@twitter.com&lt;/span&gt;&lt;/a&gt;&lt;/span&gt; 🤝 &lt;span class="h-card"&gt;&lt;a href="https://twitter.com/moeebrian" class="u-url mention" rel="nofollow noopener noreferrer" target="_blank"&gt;@&lt;span&gt;moeebrian@twitter.com&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>1.119320861580816e+17</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>swirlingheroes</t>
+        </is>
+      </c>
+      <c r="D289" s="2" t="n">
+        <v>45336.95939834491</v>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Join our Patreon for fun rewards!&lt;br /&gt;&lt;a href="https://swirl.ink/patreon" target="_blank" rel="nofollow noopener noreferrer" translate="no"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class=""&gt;swirl.ink/patreon&lt;/span&gt;&lt;span class="invisible"&gt;&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;&lt;p&gt;Buy the Swirling Heroes card game!&lt;br /&gt;&lt;a href="https://swirl.ink/cardgame" target="_blank" rel="nofollow noopener noreferrer" translate="no"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class=""&gt;swirl.ink/cardgame&lt;/span&gt;&lt;span class="invisible"&gt;&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;&lt;p&gt;Buy an art print of this page!&lt;br /&gt;&lt;a href="https://swirl.ink/SH2P11" target="_blank" rel="nofollow noopener noreferrer" translate="no"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class=""&gt;swirl.ink/SH2P11&lt;/span&gt;&lt;span class="invisible"&gt;&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;&lt;p&gt;------&lt;/p&gt;&lt;p&gt;&lt;a href="https://swirlingheroes.com" target="_blank" rel="nofollow noopener noreferrer" translate="no"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class=""&gt;swirlingheroes.com&lt;/span&gt;&lt;span class="invisible"&gt;&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;&lt;p&gt;&lt;a href="https://mastodon.social/tags/webcomics" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;webcomics&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/webcomic" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;webcomic&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/comics" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;comics&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/comic" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;comic&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/comicstrip" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;comicstrip&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/cartoons" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;cartoons&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/cartoon" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;cartoon&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/art" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;art&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/artwork" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;artwork&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/drawing" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;drawing&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/illustration" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;illustration&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>1.119320861512716e+17</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>NBCSports</t>
+        </is>
+      </c>
+      <c r="D290" s="2" t="n">
+        <v>45336.95457175926</v>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Authorities say one person dead, three critically injured in Chiefs' parade shooting&lt;br&gt;&lt;a href="https://www.nbcsports.com/nfl/profootballtalk/rumor-mill/news/authorities-say-one-person-dead-three-critically-injured-in-chiefs-parade-shooting?utm_source=flipboard&amp;amp;utm_medium=activitypub" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;nbcsports.com/nfl/profootballt&lt;/span&gt;&lt;span class="invisible"&gt;alk/rumor-mill/news/authorities-say-one-person-dead-three-critically-injured-in-chiefs-parade-shooting?utm_source=flipboard&amp;amp;utm_medium=activitypub &lt;/span&gt;&lt;/a&gt;&lt;/p&gt;&lt;p&gt;Posted into Pro Football Talk &lt;span class="h-card" translate="no"&gt;&lt;a href="https://flipboard.com/@nbcsports/pro-football-talk-lakhl5dhz" class="u-url mention" rel="nofollow noopener noreferrer" target="_blank"&gt;@&lt;span&gt;pro-football-talk-NBCSports&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>1.119320861253495e+17</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>cbcatantic</t>
+        </is>
+      </c>
+      <c r="D291" s="2" t="n">
+        <v>45336.95936342593</v>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;What’s it like dating in rural Canada?&lt;/p&gt;&lt;p&gt;A community group in Nova Scotia marked a milestone ahead of Valentine’s weekend and celebrated 1920s style. They shared what it’s like sparking up a romance in their community.&lt;br&gt;&lt;a href="https://www.cbc.ca/news/canada/nova-scotia/what-s-it-like-dating-in-rural-canada-1.7115551?cmp=rss" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;cbc.ca/news/canada/nova-scotia&lt;/span&gt;&lt;span class="invisible"&gt;/what-s-it-like-dating-in-rural-canada-1.7115551?cmp=rss&lt;/span&gt;&lt;/a&gt;&lt;br&gt;#&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>1.119320861108759e+17</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>NBCSports</t>
+        </is>
+      </c>
+      <c r="D292" s="2" t="n">
+        <v>45336.95291666667</v>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Steve Wilks can't catch a break&lt;br&gt;&lt;a href="https://www.nbcsports.com/nfl/profootballtalk/rumor-mill/news/steve-wilks-cant-catch-a-break?utm_source=flipboard&amp;amp;utm_medium=activitypub" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;nbcsports.com/nfl/profootballt&lt;/span&gt;&lt;span class="invisible"&gt;alk/rumor-mill/news/steve-wilks-cant-catch-a-break?utm_source=flipboard&amp;amp;utm_medium=activitypub &lt;/span&gt;&lt;/a&gt;&lt;/p&gt;&lt;p&gt;Posted into Pro Football Talk &lt;span class="h-card" translate="no"&gt;&lt;a href="https://flipboard.com/@nbcsports/pro-football-talk-lakhl5dhz" class="u-url mention" rel="nofollow noopener noreferrer" target="_blank"&gt;@&lt;span&gt;pro-football-talk-NBCSports&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>1.119320860829693e+17</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>es</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>qpocooriginal</t>
+        </is>
+      </c>
+      <c r="D293" s="2" t="n">
+        <v>45336.95936342593</v>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Esto, en Twitter, no pasaba...&lt;/p&gt;&lt;p&gt;Muchísimas gracias a toda la gente que está ahí, detrás d esos números, compartiendo parte de sus ideas y sus corazones para crear algo tan bonito como esta comunidad.&lt;/p&gt;&lt;p&gt;🥹🥹🥹🥰🥰🥰😍😍😍😘😘😘😄😄😄&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>1.119320860822292e+17</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>fr</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>matmatidmat</t>
+        </is>
+      </c>
+      <c r="D294" s="2" t="n">
+        <v>45336.959375</v>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;c’est officiellement officiellement officiellement fini avec mon ex je trouverai jamais la force de déménager j’ai l’impression&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>1.119320860751089e+17</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>cbcns</t>
+        </is>
+      </c>
+      <c r="D295" s="2" t="n">
+        <v>45336.95936342593</v>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;What’s it like dating in rural Canada?&lt;/p&gt;&lt;p&gt;A community group in Nova Scotia marked a milestone ahead of Valentine’s weekend and celebrated 1920s style. They shared what it’s like sparking up a romance in their community.&lt;br&gt;&lt;a href="https://www.cbc.ca/news/canada/nova-scotia/what-s-it-like-dating-in-rural-canada-1.7115551?cmp=rss" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;cbc.ca/news/canada/nova-scotia&lt;/span&gt;&lt;span class="invisible"&gt;/what-s-it-like-dating-in-rural-canada-1.7115551?cmp=rss&lt;/span&gt;&lt;/a&gt;&lt;br&gt;#&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>1.119320860418476e+17</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>LT14GJC</t>
+        </is>
+      </c>
+      <c r="D296" s="2" t="n">
+        <v>45336.95937777778</v>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;The IDF killed the cousin of the wife of the Palestinian Ambassador to the UK &amp;gt; Husam Zomlot. This should be worldwide front page news! She was 7 years old!&lt;/p&gt;&lt;p&gt;&lt;a href="https://www.instagram.com/reel/C3V1jB_IAvr/?igsh=MWs5dnh3cWRsbWxvOQ==" target="_blank" rel="nofollow noopener noreferrer" translate="no"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;instagram.com/reel/C3V1jB_IAvr&lt;/span&gt;&lt;span class="invisible"&gt;/?igsh=MWs5dnh3cWRsbWxvOQ==&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>1.119320860245261e+17</v>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>StatmanDave</t>
+        </is>
+      </c>
+      <c r="D297" s="2" t="n">
+        <v>45336.95826388889</v>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Bayern failed to register a shot on target tonight for the first time since 19th February 2019, when they failed to have a shot on target against Liverpool in the UCL Ro16.&lt;/p&gt;&lt;p&gt;Terrible performance. 😵‍💫&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>1.11932086023345e+17</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>judybattista</t>
+        </is>
+      </c>
+      <c r="D298" s="2" t="n">
+        <v>45336.95839120371</v>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Much too late. &lt;a href="https://twitter.com/adamhbeasley/status/1757886202181464502" rel="nofollow noopener noreferrer" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class=""&gt;x.com/adamhbeasley/s…&lt;/span&gt;&lt;span class="invisible"&gt;&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>1.11932086006675e+17</v>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>jjjhs3000</t>
+        </is>
+      </c>
+      <c r="D299" s="2" t="n">
+        <v>45336.95925925926</v>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Was about to shitpost this the other day saying something like “the far right this week”… &lt;/p&gt;&lt;p&gt;But Jesus fucking Christ it (may) have actually happened. 2024 is going to suck so bad…&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>1.119320859752812e+17</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>pt</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>giseleportesautora</t>
+        </is>
+      </c>
+      <c r="D300" s="2" t="n">
+        <v>45336.9593660301</v>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Amigo Imaginário - Viro a esquina rápido, alguém a me perseguir.  &lt;br /&gt;A noite é o refúgio do pior gângster.  &lt;br /&gt;Aponto a pistola contra mim mesma, a sombra a rir  &lt;br /&gt;na parede, esperando mais sangue beber.  &lt;br /&gt;&lt;a href="https://mastodon.social/tags/poema" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;poema&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/poesia" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;poesia&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/artificial" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;artificial&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/superficial" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;superficial&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/vazio" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;vazio&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;&lt;p&gt;&lt;a href="https://giseleportes.com/2024/02/14/amigo-imaginario/" target="_blank" rel="nofollow noopener noreferrer" translate="no"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;giseleportes.com/2024/02/14/am&lt;/span&gt;&lt;span class="invisible"&gt;igo-imaginario/&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>1.119320859449567e+17</v>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>koronkebitch</t>
+        </is>
+      </c>
+      <c r="D301" s="2" t="n">
+        <v>45336.95929398148</v>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;finally committed and finished a research notebook instead of scattering my research notes across multiple notebooks and loose papers (ok I did that a little too)&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>1.119320859419182e+17</v>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>laravelnews</t>
+        </is>
+      </c>
+      <c r="D302" s="2" t="n">
+        <v>45336.95936013889</v>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;★ How to Build an Image Slider CRUD using Backpack &lt;a href="https://laravel-news.com/link/11502" target="_blank" rel="nofollow noopener noreferrer" translate="no"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class=""&gt;laravel-news.com/link/11502&lt;/span&gt;&lt;span class="invisible"&gt;&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>1.119320859157587e+17</v>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>CharlotteFC</t>
+        </is>
+      </c>
+      <c r="D303" s="2" t="n">
+        <v>45336.95890046296</v>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;FINAL&lt;/p&gt;&lt;p&gt;Three goals and a clean sheet secures another win in Coachella! &lt;/p&gt;&lt;p&gt;Nimfasha Berchimas scores his first career goal with the first team.&lt;/p&gt;&lt;p&gt;3-0 &lt;a href="https://twitter.com/hashtag/CLTvPHX" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;CLTvPHX&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>1.119320858991108e+17</v>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>yarkot</t>
+        </is>
+      </c>
+      <c r="D304" s="2" t="n">
+        <v>45336.95935258102</v>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Via Marianna Betsa:&lt;/p&gt;&lt;p&gt;This beautiful woman and her son were killed today during the Russian strike on Selydove hospital… unimaginable pain. When will Russia be accountable for terrorism and genocide of Ukrainians?&lt;/p&gt;&lt;p&gt;&lt;a href="https://mastodon.social/tags/StopRussia" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;StopRussia&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/StandWithUkraine" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;StandWithUkraine&lt;/span&gt;&lt;/a&gt;&lt;br /&gt;&lt;a href="https://mastodon.social/tags/Allies4Aid2Ukraine" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;Allies4Aid2Ukraine&lt;/span&gt;&lt;/a&gt; &lt;br /&gt;&lt;a href="https://mastodon.social/tags/DefendDemocracyAidUkraine" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;DefendDemocracyAidUkraine&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>1.119320858889753e+17</v>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>McRaeWrites</t>
+        </is>
+      </c>
+      <c r="D305" s="2" t="n">
+        <v>45336.95935078704</v>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Paying It All Forwards.&lt;/p&gt;&lt;p&gt;&lt;a href="https://mcraewrites.com/paying-it-all-forwards/" target="_blank" rel="nofollow noopener noreferrer" translate="no"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;mcraewrites.com/paying-it-all-&lt;/span&gt;&lt;span class="invisible"&gt;forwards/&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>1.119320858873937e+17</v>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>de</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>fcb</t>
+        </is>
+      </c>
+      <c r="D306" s="2" t="n">
+        <v>45336.94908564815</v>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Fünf Minuten Nachspielzeit gibt's obendrauf.&lt;/p&gt;&lt;p&gt;⚫🟣 &lt;a href="https://anonsys.net/search?tag=LAZFCB" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;LAZFCB&lt;/span&gt;&lt;/a&gt; | 1-0 | 90’ 💫&lt;br&gt;&lt;a href="https://nitter.adminforge.de/FCBayern/status/1757884087656710253#m" rel="nofollow noopener noreferrer" target="_blank"&gt;FC Bayern München (@FCBayern)&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>1.119320858815413e+17</v>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>de</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>niesse</t>
+        </is>
+      </c>
+      <c r="D307" s="2" t="n">
+        <v>45336.95934944444</v>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Überspitzt gesagt habe ich heute ein 6-Seiten-Formular ausgefüllt um mich für einen Newsletter mit Wohnungsangeboten anzumelden.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>1.119320858790785e+17</v>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>hourlyfops</t>
+        </is>
+      </c>
+      <c r="D308" s="2" t="n">
+        <v>45336.95846064815</v>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;a href="https://mastodon.tinyfox.dev/tags/fox" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;fox&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.tinyfox.dev/tags/hourly" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;hourly&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>1.119320858686126e+17</v>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>doriantaylor</t>
+        </is>
+      </c>
+      <c r="D309" s="2" t="n">
+        <v>45336.9593471412</v>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;i have a ton of things to clean up and details to attend to but the project that i have been working on for the last uhh 5 years (on top of another decade+ of noodling) actually works&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>1.119320858540058e+17</v>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>mainichi</t>
+        </is>
+      </c>
+      <c r="D310" s="2" t="n">
+        <v>45336.95912037037</v>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Japan's Okayama Castle renovations a success with 1st-year $75.5M economic boon &lt;a href="https://mainichi.jp/english/articles/20240214/p2a/00m/0na/018000c" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;mainichi.jp/english/articles/2&lt;/span&gt;&lt;span class="invisible"&gt;0240214/p2a/00m/0na/018000c&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>1.119320858395041e+17</v>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>de</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>jungewelt</t>
+        </is>
+      </c>
+      <c r="D311" s="2" t="n">
+        <v>45336.95836805556</v>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Straßenverkehr: Panzer vor dem Schultor: SUV [Online-Abo]&lt;/p&gt;&lt;p&gt;&lt;a href="https://www.jungewelt.de/artikel/469392.straßenverkehr-panzer-vor-dem-schultor-suv.html" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;jungewelt.de/artikel/469392.st&lt;/span&gt;&lt;span class="invisible"&gt;raßenverkehr-panzer-vor-dem-schultor-suv.html&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>1.119320858012245e+17</v>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>TimbersFC</t>
+        </is>
+      </c>
+      <c r="D312" s="2" t="n">
+        <v>45336.95930555555</v>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Back in our groove today at @coachellavalleyinvitational@instagram.com 🎶&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>1.119320858007095e+17</v>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>es</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>AtlasFC</t>
+        </is>
+      </c>
+      <c r="D313" s="2" t="n">
+        <v>45336.95833333334</v>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;¡Rojinegras y Rojinegros! Los esperamos esta noche en El Jalisco 🏟 &lt;/p&gt;&lt;p&gt;Solo recuerden llevar su Fan ID 🪪 &lt;/p&gt;&lt;p&gt;Si aún no lo tienen, lo pueden conseguir en &lt;a href="https://fanliga.mx/" rel="nofollow noopener noreferrer" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class=""&gt;fanliga.mx&lt;/span&gt;&lt;span class="invisible"&gt;&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>1.119320857806039e+17</v>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>ja</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>810eagle</t>
+        </is>
+      </c>
+      <c r="D314" s="2" t="n">
+        <v>45336.95933166667</v>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;大阪市&lt;br /&gt;2024/02/14 最高気温 19.5℃&lt;br /&gt;2024/02/15 最低気温 7.0℃&lt;br /&gt;.&lt;br /&gt;Maximum and minimum temperatures in Osaka City.&lt;/p&gt;&lt;p&gt;&lt;a href="https://mastodon.social/tags/%E6%9C%80%E9%AB%98%E6%B0%97%E6%B8%A9" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;最高気温&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/%E6%9C%80%E4%BD%8E%E6%B0%97%E6%B8%A9" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;最低気温&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/%E6%9C%80%E9%AB%98%E6%9C%80%E4%BD%8E%E6%B0%97%E6%B8%A9" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;最高最低気温&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/Osaka" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;Osaka&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/Japan" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;Japan&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/temperature" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;temperature&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/MaximumTemperature" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;MaximumTemperature&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/MinimumTemperature" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;MinimumTemperature&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/JL5FH81A0C3VZWVN" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;JL5FH81A0C3VZWVN&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>1.119320857692609e+17</v>
+      </c>
+      <c r="B315" t="inlineStr"/>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>AnotherFauxtographer</t>
+        </is>
+      </c>
+      <c r="D315" s="2" t="n">
+        <v>45336.9592945949</v>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;span&gt;Equal Opportunity Capitalism &lt;br&gt;&lt;br&gt;&lt;/span&gt;&lt;a href="https://toot.anotherfauxtographer.com/tags/lgbtqiaplus" rel="nofollow noopener noreferrer" target="_blank"&gt;#lgbtqiaplus&lt;/a&gt;&lt;span&gt; &lt;/span&gt;&lt;a href="https://toot.anotherfauxtographer.com/tags/ValentinesDay" rel="nofollow noopener noreferrer" target="_blank"&gt;#ValentinesDay&lt;/a&gt;&lt;span&gt;  &lt;/span&gt;&lt;a href="https://toot.anotherfauxtographer.com/tags/commercialization" rel="nofollow noopener noreferrer" target="_blank"&gt;#commercialization&lt;/a&gt;&lt;span&gt; &lt;/span&gt;&lt;a href="https://toot.anotherfauxtographer.com/tags/iphoneography" rel="nofollow noopener noreferrer" target="_blank"&gt;#iphoneography&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>1.119320857655515e+17</v>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>NBCSports</t>
+        </is>
+      </c>
+      <c r="D316" s="2" t="n">
+        <v>45336.94365740741</v>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Mike Zimmer: This is where I wanted to be&lt;br&gt;&lt;a href="https://www.nbcsports.com/nfl/profootballtalk/rumor-mill/news/mike-zimmer-this-is-where-i-wanted-to-be?utm_source=flipboard&amp;amp;utm_medium=activitypub" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;nbcsports.com/nfl/profootballt&lt;/span&gt;&lt;span class="invisible"&gt;alk/rumor-mill/news/mike-zimmer-this-is-where-i-wanted-to-be?utm_source=flipboard&amp;amp;utm_medium=activitypub &lt;/span&gt;&lt;/a&gt;&lt;/p&gt;&lt;p&gt;Posted into Pro Football Talk &lt;span class="h-card" translate="no"&gt;&lt;a href="https://flipboard.com/@nbcsports/pro-football-talk-lakhl5dhz" class="u-url mention" rel="nofollow noopener noreferrer" target="_blank"&gt;@&lt;span&gt;pro-football-talk-NBCSports&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>1.11932085723315e+17</v>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>lifehacker</t>
+        </is>
+      </c>
+      <c r="D317" s="2" t="n">
+        <v>45336.95930555555</v>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Privacy Browser DuckDuckGo Can Finally Sync Your Passwords &lt;a href="https://lifehacker.com/tech/duckduckgo-adds-password-syncing" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;lifehacker.com/tech/duckduckgo&lt;/span&gt;&lt;span class="invisible"&gt;-adds-password-syncing&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>1.119320857140308e+17</v>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>lifehacker</t>
+        </is>
+      </c>
+      <c r="D318" s="2" t="n">
+        <v>45336.95930555555</v>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;These Google Pixel Smartwatches Are Between $50 and $150 Off Right Now &lt;a href="https://lifehacker.com/tech/google-pixel-watch-and-pixel-watch-2-sale" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;lifehacker.com/tech/google-pix&lt;/span&gt;&lt;span class="invisible"&gt;el-watch-and-pixel-watch-2-sale&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>1.119320856921577e+17</v>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>nx42</t>
+        </is>
+      </c>
+      <c r="D319" s="2" t="n">
+        <v>45336.95927083334</v>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Welcome to the Pokésona assignment machine. You have been randomly assigned:&lt;br&gt;KINGDRA&lt;br&gt;Your transformation is irreversible, thank you for your cooperation.&lt;/p&gt;&lt;p&gt;For &lt;a href="https://www.furaffinity.net/user/gzifoyd" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class=""&gt;furaffinity.net/user/gzifoyd&lt;/span&gt;&lt;span class="invisible"&gt;&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>1.11932085689203e+17</v>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>howtogeek</t>
+        </is>
+      </c>
+      <c r="D320" s="2" t="n">
+        <v>45336.95930555555</v>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Samsung Galaxy S24 Series Gets Camera and Display Improvements&lt;/p&gt;&lt;p&gt;Check it out! 👇&lt;br&gt;&lt;a href="https://www.howtogeek.com/samsung-galaxy-s24-series-camera-display-updates/" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;howtogeek.com/samsung-galaxy-s&lt;/span&gt;&lt;span class="invisible"&gt;24-series-camera-display-updates/&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;&lt;p&gt;&lt;a href="https://techhub.social/tags/SamsungGalaxyS24" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;SamsungGalaxyS24&lt;/span&gt;&lt;/a&gt; &lt;a href="https://techhub.social/tags/Android" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;Android&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>1.119320856797792e+17</v>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>de</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>jungewelt</t>
+        </is>
+      </c>
+      <c r="D321" s="2" t="n">
+        <v>45336.95835648148</v>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Rock: Die Welt stürzt ein&lt;/p&gt;&lt;p&gt;&lt;a href="https://www.jungewelt.de/artikel/469617.rock-die-welt-stürzt-ein.html" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;jungewelt.de/artikel/469617.ro&lt;/span&gt;&lt;span class="invisible"&gt;ck-die-welt-stürzt-ein.html&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>1.119320910463187e+17</v>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>ja</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>yui_tokyo</t>
+        </is>
+      </c>
+      <c r="D322" s="2" t="n">
+        <v>45336.96024305555</v>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;マホイップは有能だピィー&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>1.119320909628138e+17</v>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>mi_guardado</t>
+        </is>
+      </c>
+      <c r="D323" s="2" t="n">
+        <v>45336.95980324074</v>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;The Giants have signed RHP Austin Warren to a 1-year Major League contract. &lt;/p&gt;&lt;p&gt;LHP Robbie Ray has been placed on the 60-day Injured List as he recovers from left elbow UCL surgery.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>1.119320909181266e+17</v>
+      </c>
+      <c r="B324" t="inlineStr"/>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>ai</t>
+        </is>
+      </c>
+      <c r="D324" s="2" t="n">
+        <v>45336.96019887731</v>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;span&gt;今日の迷路です！ &lt;/span&gt;&lt;a href="https://misskey.gg/tags/AiMaze" rel="nofollow noopener noreferrer" target="_blank"&gt;#AiMaze&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>1.119320908685749e+17</v>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>de</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>shupfel</t>
+        </is>
+      </c>
+      <c r="D325" s="2" t="n">
+        <v>45336.96021990741</v>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Beware of the gummy bear. Präventions-Tipp: Bei Reisen nach &lt;a href="https://mastodontech.de/tags/Russland" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;Russland&lt;/span&gt;&lt;/a&gt; das &lt;a href="https://mastodontech.de/tags/AfD" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;AfD&lt;/span&gt;&lt;/a&gt;-Parteibuch ganz oben in den Rucksack legen.&lt;/p&gt;&lt;p&gt;Sankt Petersburg: Video soll Drogenfund bei Deutschem in Russland zeigen – Festnahme - DER SPIEGEL&lt;br&gt;&lt;a href="https://www.spiegel.de/ausland/sankt-petersburg-video-soll-drogenfund-bei-deutschem-in-russland-zeigen-festnahme-a-6d80d1d9-3c55-40e4-960f-93c30114fd5a" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;spiegel.de/ausland/sankt-peter&lt;/span&gt;&lt;span class="invisible"&gt;sburg-video-soll-drogenfund-bei-deutschem-in-russland-zeigen-festnahme-a-6d80d1d9-3c55-40e4-960f-93c30114fd5a&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>1.119320908576692e+17</v>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>iembot_dlh</t>
+        </is>
+      </c>
+      <c r="D326" s="2" t="n">
+        <v>45336.96019675926</v>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;DLH expires Small Craft Advisory for Outer Apostle Islands Beyond 5 NM from Mainland, Port Wing to Sand Island WI, Sand Island to Bayfield WI [LS] &lt;a href="https://mesonet.agron.iastate.edu/vtec/f/2024-O-EXP-KDLH-SC-Y-0019_2024-02-14T22:02Z" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;mesonet.agron.iastate.edu/vtec&lt;/span&gt;&lt;span class="invisible"&gt;/f/2024-O-EXP-KDLH-SC-Y-0019_2024-02-14T22:02Z&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>1.11932090853221e+17</v>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>fr</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>morgan</t>
+        </is>
+      </c>
+      <c r="D327" s="2" t="n">
+        <v>45336.96020833333</v>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Comme &lt;a href="https://framapiaf.org/tags/tombraider" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;tombraider&lt;/span&gt;&lt;/a&gt; est une licence fortement attachée à la Playstation, j'ai acheté le remaster sur &lt;a href="https://framapiaf.org/tags/switch" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;switch&lt;/span&gt;&lt;/a&gt; juste parce que je suis un rebel 😎&lt;br&gt;(En vrai c'est parce qu'il est légèrement moins cher sur ce support et j'ai eu une carte eshop en cadeau 😅)&lt;br&gt;&lt;a href="https://framapiaf.org/tags/tombraiderremastered" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;tombraiderremastered&lt;/span&gt;&lt;/a&gt; &lt;a href="https://framapiaf.org/tags/jeuxvideo" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;jeuxvideo&lt;/span&gt;&lt;/a&gt; &lt;a href="https://framapiaf.org/tags/laracroft" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;laracroft&lt;/span&gt;&lt;/a&gt; &lt;a href="https://framapiaf.org/tags/retrogaming" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;retrogaming&lt;/span&gt;&lt;/a&gt; &lt;a href="https://framapiaf.org/tags/psone" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;psone&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>1.119320908356823e+17</v>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>luxorsatellite</t>
+        </is>
+      </c>
+      <c r="D328" s="2" t="n">
+        <v>45336.96022440972</v>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Tooting from python using &lt;a href="https://mastodon.social/tags/mastodonpy" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;mastodonpy&lt;/span&gt;&lt;/a&gt; !&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>1.119320908145852e+17</v>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>pt</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>inftek</t>
+        </is>
+      </c>
+      <c r="D329" s="2" t="n">
+        <v>45336.9602206713</v>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Nokia revela assistente de IA para trabalhadores de fábricas… - Veja mais em &lt;a href="https://www.uol.com.br/tilt/noticias/reuters/2024/02/14/nokia-revela-assistente-de-ia-para-trabalhadores-de-fabricas.htm?cmpid=copiaecola" target="_blank" rel="nofollow noopener noreferrer" translate="no"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;uol.com.br/tilt/noticias/reute&lt;/span&gt;&lt;span class="invisible"&gt;rs/2024/02/14/nokia-revela-assistente-de-ia-para-trabalhadores-de-fabricas.htm?cmpid=copiaecola&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>1.119320908021901e+17</v>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>de</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>mupan</t>
+        </is>
+      </c>
+      <c r="D330" s="2" t="n">
+        <v>45336.96020833333</v>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;[Simple Lösungen für komplexe Probleme!](&lt;a href="https://piped.kavin.rocks/watch?v=xLSbZ_FyNRE" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;piped.kavin.rocks/watch?v=xLSb&lt;/span&gt;&lt;span class="invisible"&gt;Z_FyNRE&lt;/span&gt;&lt;/a&gt; )&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>1.119320907637121e+17</v>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>experiencer</t>
+        </is>
+      </c>
+      <c r="D331" s="2" t="n">
+        <v>45336.96020835648</v>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;span&gt;yes.&lt;br&gt;&lt;br&gt;&lt;/span&gt;&lt;a href="https://youtu.be/vol7qeW-9EU" rel="nofollow noopener noreferrer" target="_blank"&gt;https://youtu.be/vol7qeW-9EU&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>1.119320907452994e+17</v>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>cordonus</t>
+        </is>
+      </c>
+      <c r="D332" s="2" t="n">
+        <v>45336.96020846064</v>
+      </c>
+      <c r="E332" t="inlineStr"/>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>1.119320907124481e+17</v>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>ja</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>jun30</t>
+        </is>
+      </c>
+      <c r="D333" s="2" t="n">
+        <v>45336.96018518518</v>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;ゆゆうたって人いつの間にかカムラの里クリアしてた&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>1.119320907086921e+17</v>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>indie1023_playlist</t>
+        </is>
+      </c>
+      <c r="D334" s="2" t="n">
+        <v>45336.96020195602</v>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;3:02pm Mo Money Mo Problems (feat. Puff Daddy &amp;amp; Mase) by The Notorious B.I.G. from Life After Death&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>1.119320906985212e+17</v>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>EricIndiana</t>
+        </is>
+      </c>
+      <c r="D335" s="2" t="n">
+        <v>45336.96020018518</v>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Groups It&amp;#39;s OK to Make Fun Of... a post from 2010. Does it still hold up? Read it and let me know. &lt;a href="https://daisybrain.medium.com/groups-its-ok-to-make-fun-of-665e62eaec4f" target="_blank" rel="nofollow noopener noreferrer" translate="no"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;daisybrain.medium.com/groups-i&lt;/span&gt;&lt;span class="invisible"&gt;ts-ok-to-make-fun-of-665e62eaec4f&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;&lt;p&gt;&lt;a href="https://mastodon.social/tags/stereotypes" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;stereotypes&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/culture" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;culture&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/society" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;society&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/racism" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;racism&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>1.119320906851383e+17</v>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>lacer2k</t>
+        </is>
+      </c>
+      <c r="D336" s="2" t="n">
+        <v>45336.96018518518</v>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;TechCrunch is heading to MWC. We want to hear about your startup &lt;a href="https://t.co/U86lEVyKZP" rel="nofollow noopener noreferrer" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class=""&gt;t.co/U86lEVyKZP&lt;/span&gt;&lt;span class="invisible"&gt;&lt;/span&gt;&lt;/a&gt; &lt;a href="https://t.co/6pZr0g021W" rel="nofollow noopener noreferrer" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class=""&gt;t.co/6pZr0g021W&lt;/span&gt;&lt;span class="invisible"&gt;&lt;/span&gt;&lt;/a&gt; on &lt;a href="https://twitter.com/AcerboLivio/status/1757887587740434505" rel="nofollow noopener noreferrer" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;twitter.com/AcerboLivio/status&lt;/span&gt;&lt;span class="invisible"&gt;/1757887587740434505&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>1.119320906721738e+17</v>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>biscuit_tornado</t>
+        </is>
+      </c>
+      <c r="D337" s="2" t="n">
+        <v>45336.96016203704</v>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;14YO ME: but good things still happen right?&lt;/p&gt;&lt;p&gt;ME: um. there was a pixies reunion I guess&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>1.119320905730599e+17</v>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>RaspberryJam</t>
+        </is>
+      </c>
+      <c r="D338" s="2" t="n">
+        <v>45336.96016203704</v>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Here's some concept art for my roguelike's next boss, the swamp hag!&lt;br&gt;What do you think?&lt;/p&gt;&lt;p&gt;Check out the demo in your browser on &lt;a href="https://www.newgrounds.com/portal/view/916179" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;newgrounds.com/portal/view/916&lt;/span&gt;&lt;span class="invisible"&gt;179&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;&lt;p&gt;&lt;a href="https://mastodon.gamedev.place/tags/roguelike" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;roguelike&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.gamedev.place/tags/gamedev" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;gamedev&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.gamedev.place/tags/indiedev" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;indiedev&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.gamedev.place/tags/pixelart" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;pixelart&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>1.119320905726453e+17</v>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>winterkvist</t>
+        </is>
+      </c>
+      <c r="D339" s="2" t="n">
+        <v>45336.96015046296</v>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Gratis är gott: QOwnNotes – anteckningar för din Mac &lt;a href="https://www.macken.xyz/2024/02/gratis-ar-gott-qownnotes-anteckningar-for-din-mac/?utm_source=dlvr.it&amp;amp;utm_medium=mastodon" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;macken.xyz/2024/02/gratis-ar-g&lt;/span&gt;&lt;span class="invisible"&gt;ott-qownnotes-anteckningar-for-din-mac/?utm_source=dlvr.it&amp;amp;utm_medium=mastodon&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>1.119320904920842e+17</v>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>davep</t>
+        </is>
+      </c>
+      <c r="D340" s="2" t="n">
+        <v>45336.96015046296</v>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Oh hello! &lt;a href="https://valveprism.com/" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class=""&gt;valveprism.com/&lt;/span&gt;&lt;span class="invisible"&gt;&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;&lt;p&gt;&lt;a href="https://fosstodon.org/tags/VR" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;VR&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>1.119320904461787e+17</v>
+      </c>
+      <c r="B341" t="inlineStr"/>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>phos</t>
+        </is>
+      </c>
+      <c r="D341" s="2" t="n">
+        <v>45336.96014197917</v>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;span&gt;Hotend temperature curves should be bouba and not kiki&lt;br&gt;&lt;br&gt;&lt;/span&gt;&lt;a href="https://not.an.evilcyberhacker.net/tags/3DPrinting" rel="nofollow noopener noreferrer" target="_blank"&gt;#3DPrinting&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>1.119320904413847e+17</v>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>zhusier</t>
+        </is>
+      </c>
+      <c r="D342" s="2" t="n">
+        <v>45336.96015474537</v>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;咱就是说，我今天这个情绪过山车，从平静，到烦躁 还要努力忍住，再到挫败，悲伤，哭了一下，再到平静。&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>1.119320903812204e+17</v>
+      </c>
+      <c r="B343" t="inlineStr"/>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>ai</t>
+        </is>
+      </c>
+      <c r="D343" s="2" t="n">
+        <v>45336.96011414352</v>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;span&gt;今日の迷路です！ &lt;/span&gt;&lt;a href="https://misskey.art/tags/AiMaze" rel="nofollow noopener noreferrer" target="_blank"&gt;#AiMaze&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>1.119320903397013e+17</v>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>es</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>JuanjoTR</t>
+        </is>
+      </c>
+      <c r="D344" s="2" t="n">
+        <v>45336.96013686342</v>
+      </c>
+      <c r="E344" t="inlineStr"/>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>1.119320903343619e+17</v>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>josey</t>
+        </is>
+      </c>
+      <c r="D345" s="2" t="n">
+        <v>45336.96012731481</v>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;I'm enjoying watching &lt;span class="h-card" translate="no"&gt;&lt;a href="https://fosstodon.org/@fedora" class="u-url mention" rel="nofollow noopener noreferrer" target="_blank"&gt;@&lt;span&gt;fedora&lt;/span&gt;&lt;/a&gt;&lt;/span&gt; sending out valentine's to all the distros. Giving me a right good feeling.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>1.119320903342388e+17</v>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>fi</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>EnergyBot</t>
+        </is>
+      </c>
+      <c r="D346" s="2" t="n">
+        <v>45336.96010416667</v>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Suomen ydinvoimaloiden tehot.&lt;/p&gt;&lt;p&gt;Huom: Loviisan laitosten teho on laskettu vähentämällä Fingridin reaaliaikaisesta kokonaistehosta TVO:n sivuillaan ilmoittamat Olkiluodon laitosyksiköiden tehot, joissa on vaihtelevassa määrin viivettä. Tästä syystä Olkiluodon tehonmuutosten yhteydessä muutos näkyy ensin virheellisesti Loviisan tehossa, kunnes oikea teho on päivittynyt TVO:n sivuille.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>1.119320903314088e+17</v>
+      </c>
+      <c r="B347" t="inlineStr"/>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>ronguest</t>
+        </is>
+      </c>
+      <c r="D347" s="2" t="n">
+        <v>45336.95521990741</v>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;I joined Bluesky a couple of weeks before it went public. One positive is I found more artists and anime creators there than on my entire time poking around Mastodon. Not sure if it is just luck or if the different rules play a part. 🤷🏻‍♂️&lt;/p&gt;&lt;p&gt;Note: I’m not talking about NSFW art.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>1.119320902786828e+17</v>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>ja</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>Setsutheway</t>
+        </is>
+      </c>
+      <c r="D348" s="2" t="n">
+        <v>45336.96003472222</v>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;警視庁、吉本とコラボだって。こんな警察、信用できる？&lt;br&gt;性犯罪とか泣き寝入り多そう&lt;br&gt;&lt;a href="https://songbird.cloud/tags/%E5%85%A8%E3%81%A6%E3%81%AE%E6%80%A7%E7%8A%AF%E7%BD%AA%E3%81%AB%E6%8A%97%E8%AD%B0%E3%81%97%E3%81%BE%E3%81%99" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;全ての性犯罪に抗議します&lt;/span&gt;&lt;/a&gt; &lt;/p&gt;&lt;p&gt;けいしちょう、よしもとと　こらぼだって　こんなけいさつ　しんようできる？&lt;br&gt;せいはんざいとか　なきねいりおおそう&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>1.119320902710378e+17</v>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>Ratchman</t>
+        </is>
+      </c>
+      <c r="D349" s="2" t="n">
+        <v>45336.96008101852</v>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;A special cynical take on this consumer-culture-mandated romantic affiliation day.&lt;/p&gt;&lt;p&gt;&lt;a href="https://www.ratchman.com/" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class=""&gt;ratchman.com/&lt;/span&gt;&lt;span class="invisible"&gt;&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;&lt;p&gt;&lt;a href="https://mstdn.social/tags/scifi" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;scifi&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mstdn.social/tags/sciencefiction" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;sciencefiction&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mstdn.social/tags/scifibooks" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;scifibooks&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mstdn.social/tags/StarWars" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;StarWars&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mstdn.social/tags/startrek" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;startrek&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>1.119320902599169e+17</v>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>Berin</t>
+        </is>
+      </c>
+      <c r="D350" s="2" t="n">
+        <v>45336.96012273148</v>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;I barely made it in time _(:3」∠)_&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>1.119320902213832e+17</v>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>ppcland</t>
+        </is>
+      </c>
+      <c r="D351" s="2" t="n">
+        <v>45336.96011594908</v>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;FYI: YouTube Music introduces Official Artist Channels &lt;a href="https://ppc.land/youtube-music-introduces-official-artist-channels/?utm_source=dlvr.it&amp;amp;utm_medium=mastodon" target="_blank" rel="nofollow noopener noreferrer" translate="no"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;ppc.land/youtube-music-introdu&lt;/span&gt;&lt;span class="invisible"&gt;ces-official-artist-channels/?utm_source=dlvr.it&amp;amp;utm_medium=mastodon&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/digitalmarketing" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;digitalmarketing&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/marketing" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;marketing&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>1.119320902103844e+17</v>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>samlitzinger</t>
+        </is>
+      </c>
+      <c r="D352" s="2" t="n">
+        <v>45336.95956018518</v>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Gaza cease-fire and hostage release talks appear to stall as Netanyahu and Hamas trade blame &lt;/p&gt;&lt;p&gt;&lt;a href="https://apnews.com/article/15eb8cbd5f15d52928711193081fe9c6" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;apnews.com/article/15eb8cbd5f1&lt;/span&gt;&lt;span class="invisible"&gt;5d52928711193081fe9c6&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>1.119320902025974e+17</v>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>kuvo_playlist</t>
+        </is>
+      </c>
+      <c r="D353" s="2" t="n">
+        <v>45336.96011263889</v>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;3:01pm It&amp;#39;s You Or No One by Dexter Gordon from The Best Of Dexter Gordon&lt;br /&gt;&lt;a href="https://mastodon.social/tags/DexterGordon" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;DexterGordon&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/ItsYouOrNoOne" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;ItsYouOrNoOne&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/MiddayJazz" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;MiddayJazz&lt;/span&gt;&lt;/a&gt; &lt;a href="https://mastodon.social/tags/KUVO" class="mention hashtag" rel="tag"&gt;#&lt;span&gt;KUVO&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>1.119320901749329e+17</v>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>irish_abroad</t>
+        </is>
+      </c>
+      <c r="D354" s="2" t="n">
+        <v>45336.96005787037</v>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;📋 Updated &lt;span class="h-card" translate="no"&gt;&lt;a href="https://mastodon.ie/@irish_abroad" class="u-url mention" rel="nofollow noopener noreferrer" target="_blank"&gt;@&lt;span&gt;irish_abroad&lt;/span&gt;&lt;/a&gt;&lt;/span&gt; Team of the Round for games beginning Tuesday, 13 February 2024&lt;br&gt;&lt;a href="https://mastodon.ie/tags/COYBIG" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;COYBIG&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>1.119320901706902e+17</v>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>DeltaWye</t>
+        </is>
+      </c>
+      <c r="D355" s="2" t="n">
+        <v>45336.96009259259</v>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Haha the penguin (tuxedo) does work with other emojis as well. &lt;span class="h-card" translate="no"&gt;&lt;a href="https://furry.engineer/@camstonefaux" class="u-url mention" rel="nofollow noopener noreferrer" target="_blank"&gt;@&lt;span&gt;camstonefaux&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>1.119320901639164e+17</v>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>slade</t>
+        </is>
+      </c>
+      <c r="D356" s="2" t="n">
+        <v>45336.96009259259</v>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;it should be here in 8 business days, assuming customs doesn't hold it up (it probably will)&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>1.119320901611579e+17</v>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>rff</t>
+        </is>
+      </c>
+      <c r="D357" s="2" t="n">
+        <v>45336.9600462963</v>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Now playing on the radiofreefedi.net specialty channel:&lt;br&gt;&lt;br&gt;Concession by The Liquid Clear &lt;a href="https://macaw.social/@liquid_clear" rel="nofollow noopener noreferrer" target="_blank"&gt;https://macaw.social/@liquid_clear&lt;/a&gt;&lt;br&gt;© used with permission&lt;br&gt;&lt;a href="https://theliquidclear.bandcamp.com/" rel="nofollow noopener noreferrer" target="_blank"&gt;https://theliquidclear.bandcamp.com/&lt;/a&gt;&lt;br&gt;&lt;br&gt;Tune in now: &lt;a href="https://radiofreefedi.net" rel="nofollow noopener noreferrer" target="_blank"&gt;https://radiofreefedi.net&lt;/a&gt;&lt;br&gt;interact with &lt;span class="h-card"&gt;&lt;a href="https://musician.social/@radiofreefedi" class="u-url mention" rel="nofollow noopener noreferrer" target="_blank"&gt;@&lt;span&gt;radiofreefedi&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;br&gt;&lt;br&gt;your 24/7 community radio from the fediverse to the universe&lt;br&gt;&lt;a href="https://nowplaying.radiofreefedi.net/tags/rffplays" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;rffPlays&lt;/span&gt;&lt;/a&gt; &lt;a href="https://nowplaying.radiofreefedi.net/tags/rffspecialty" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;rffSpecialty&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>1.119320901601341e+17</v>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>MrRossBot</t>
+        </is>
+      </c>
+      <c r="D358" s="2" t="n">
+        <v>45336.95924768518</v>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;A glacial valley with a waterfall in the winter. &lt;a href="https://botsin.space/tags/StableDiffusion" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;StableDiffusion&lt;/span&gt;&lt;/a&gt; &lt;a href="https://botsin.space/tags/AIHorde" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;AIHorde&lt;/span&gt;&lt;/a&gt; &lt;a href="https://botsin.space/tags/OilPaintings" class="mention hashtag" rel="nofollow noopener noreferrer" target="_blank"&gt;#&lt;span&gt;OilPaintings&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>1.119320901024504e+17</v>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>Jplonie</t>
+        </is>
+      </c>
+      <c r="D359" s="2" t="n">
+        <v>45336.96008101852</v>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;The world is never moving on from ipv4,2.4ghz,wpa2&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>1.119320901015719e+17</v>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>maswan</t>
+        </is>
+      </c>
+      <c r="D360" s="2" t="n">
+        <v>45336.95996527778</v>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Ooops, accidentally the server by filling up a filesystem. Back now though. Bad timing by happening just after I got on a flight with no internet.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>1.119320900913335e+17</v>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>hackernews</t>
+        </is>
+      </c>
+      <c r="D361" s="2" t="n">
+        <v>45336.96005787037</v>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;A custom Zigbee doorbell (2023)&lt;br&gt;L: &lt;a href="https://www.stevestreeting.com/2023/03/26/a-custom-zigbee-doorbell/" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://www.&lt;/span&gt;&lt;span class="ellipsis"&gt;stevestreeting.com/2023/03/26/&lt;/span&gt;&lt;span class="invisible"&gt;a-custom-zigbee-doorbell/&lt;/span&gt;&lt;/a&gt;&lt;br&gt;C: &lt;a href="https://news.ycombinator.com/item?id=39349793" rel="nofollow noopener noreferrer" translate="no" target="_blank"&gt;&lt;span class="invisible"&gt;https://&lt;/span&gt;&lt;span class="ellipsis"&gt;news.ycombinator.com/item?id=3&lt;/span&gt;&lt;span class="invisible"&gt;9349793&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
